--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\Document\SpecificheIndicatori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\ISP\git\client-intesa\client-intesa\earlywarning-pom\Document\SpecificheIndicatori\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -27,10 +27,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Decision_List!$A$3:$A$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Eccezioni!$A$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Indicatore Simulativi'!$A$1:$AH$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Indicatore Simulativi'!$A$2:$AL$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Indicatori High_priority'!$A$2:$AL$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Indicatori Qualitativi'!$A$2:$AM$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Indicatori Statistici'!$A$1:$AN$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Indicatori Statistici'!$A$2:$AM$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Indicatori Tecnici'!$A$2:$AP$2</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="10">Eccezioni!$A$3:$O$8</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="814">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3103,6 +3103,18 @@
   </si>
   <si>
     <t>BR162</t>
+  </si>
+  <si>
+    <t>AMT_US_SEL_LIQ_AZ 
+AMT_GRA_SEL_LIQ_AZ
+AMT_US_S_T_C_AZ
+REVENUE_T1
+IMP_ACC_REV
+IMP_UTIL_REV
+IMP_ACC_PROD_SCAD
+IMP_UTIL_PROD_SCAD
+IMP_ACC_TOT
+IMP_UTIL_TOT</t>
   </si>
 </sst>
 </file>
@@ -4083,7 +4095,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5165,6 +5177,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5231,34 +5261,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad 2" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Normal 4 2" xfId="6"/>
     <cellStyle name="Normal 5" xfId="5"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="78">
     <dxf>
@@ -6329,7 +6344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6347,14 +6362,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="389" t="s">
+      <c r="E1" s="395" t="s">
         <v>475</v>
       </c>
-      <c r="F1" s="389"/>
-      <c r="H1" s="390" t="s">
+      <c r="F1" s="395"/>
+      <c r="H1" s="396" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="391"/>
+      <c r="I1" s="397"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -6862,11 +6877,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F1" s="408" t="s">
+      <c r="F1" s="414" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
+      <c r="G1" s="414"/>
+      <c r="H1" s="414"/>
     </row>
     <row r="2" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="172" t="s">
@@ -6880,34 +6895,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="410" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="405"/>
+      <c r="B3" s="411"/>
       <c r="C3" s="174"/>
       <c r="D3" s="201" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="404"/>
-      <c r="B4" s="406"/>
+      <c r="A4" s="410"/>
+      <c r="B4" s="412"/>
       <c r="C4" s="175"/>
       <c r="D4" s="202" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="404"/>
-      <c r="B5" s="406"/>
+      <c r="A5" s="410"/>
+      <c r="B5" s="412"/>
       <c r="C5" s="175"/>
       <c r="D5" s="203" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="404"/>
-      <c r="B6" s="407"/>
+      <c r="A6" s="410"/>
+      <c r="B6" s="413"/>
       <c r="C6" s="176"/>
       <c r="D6" s="204" t="s">
         <v>166</v>
@@ -6962,7 +6977,7 @@
       <c r="O2" s="199"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="409"/>
+      <c r="A3" s="415"/>
       <c r="B3" s="180" t="s">
         <v>172</v>
       </c>
@@ -6985,7 +7000,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="409"/>
+      <c r="A4" s="415"/>
       <c r="B4" s="157" t="s">
         <v>173</v>
       </c>
@@ -7006,7 +7021,7 @@
       <c r="O4" s="199"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="409"/>
+      <c r="A5" s="415"/>
       <c r="B5" s="157" t="s">
         <v>174</v>
       </c>
@@ -7027,7 +7042,7 @@
       <c r="O5" s="199"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="409"/>
+      <c r="A6" s="415"/>
       <c r="B6" s="157" t="s">
         <v>175</v>
       </c>
@@ -7048,7 +7063,7 @@
       <c r="O6" s="199"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="409"/>
+      <c r="A7" s="415"/>
       <c r="B7" s="157" t="s">
         <v>176</v>
       </c>
@@ -7098,7 +7113,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="410"/>
+      <c r="A12" s="416"/>
       <c r="B12" s="180" t="s">
         <v>172</v>
       </c>
@@ -7121,7 +7136,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="410"/>
+      <c r="A13" s="416"/>
       <c r="B13" s="157" t="s">
         <v>173</v>
       </c>
@@ -7142,7 +7157,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="410"/>
+      <c r="A14" s="416"/>
       <c r="B14" s="157" t="s">
         <v>174</v>
       </c>
@@ -7163,7 +7178,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="410"/>
+      <c r="A15" s="416"/>
       <c r="B15" s="157" t="s">
         <v>175</v>
       </c>
@@ -7184,7 +7199,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="410"/>
+      <c r="A16" s="416"/>
       <c r="B16" s="157" t="s">
         <v>176</v>
       </c>
@@ -7559,30 +7574,30 @@
       <c r="O1" s="27"/>
       <c r="U1" s="70"/>
       <c r="V1" s="70"/>
-      <c r="W1" s="392" t="s">
+      <c r="W1" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="393"/>
-      <c r="Y1" s="393"/>
-      <c r="Z1" s="394"/>
-      <c r="AA1" s="392" t="s">
+      <c r="X1" s="399"/>
+      <c r="Y1" s="399"/>
+      <c r="Z1" s="400"/>
+      <c r="AA1" s="398" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="393"/>
-      <c r="AC1" s="393"/>
-      <c r="AD1" s="394"/>
-      <c r="AE1" s="395" t="s">
+      <c r="AB1" s="399"/>
+      <c r="AC1" s="399"/>
+      <c r="AD1" s="400"/>
+      <c r="AE1" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="396"/>
-      <c r="AG1" s="396"/>
-      <c r="AH1" s="396"/>
-      <c r="AI1" s="395" t="s">
+      <c r="AF1" s="402"/>
+      <c r="AG1" s="402"/>
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="401" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="396"/>
-      <c r="AK1" s="396"/>
-      <c r="AL1" s="396"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
     </row>
     <row r="2" spans="1:38" s="288" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
@@ -7701,7 +7716,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="411" t="s">
+      <c r="A3" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="287" t="str">
@@ -7772,7 +7787,7 @@
       <c r="AL3" s="20"/>
     </row>
     <row r="4" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="411" t="s">
+      <c r="A4" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="287" t="str">
@@ -7843,7 +7858,7 @@
       <c r="AL4" s="20"/>
     </row>
     <row r="5" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="411" t="s">
+      <c r="A5" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="287" t="str">
@@ -7915,7 +7930,7 @@
       <c r="AL5" s="20"/>
     </row>
     <row r="6" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="411" t="s">
+      <c r="A6" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="287" t="str">
@@ -7986,7 +8001,7 @@
       <c r="AL6" s="291"/>
     </row>
     <row r="7" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="411" t="s">
+      <c r="A7" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="287" t="str">
@@ -8058,7 +8073,7 @@
       <c r="AL7" s="291"/>
     </row>
     <row r="8" spans="1:38" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="411" t="s">
+      <c r="A8" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="287" t="str">
@@ -8158,7 +8173,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="411" t="s">
+      <c r="A9" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="287" t="str">
@@ -8226,7 +8241,7 @@
       <c r="AL9" s="291"/>
     </row>
     <row r="10" spans="1:38" ht="69" x14ac:dyDescent="0.3">
-      <c r="A10" s="411" t="s">
+      <c r="A10" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="287" t="str">
@@ -8294,7 +8309,7 @@
       <c r="AL10" s="291"/>
     </row>
     <row r="11" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="411" t="s">
+      <c r="A11" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="287" t="str">
@@ -8364,7 +8379,7 @@
       <c r="AL11" s="20"/>
     </row>
     <row r="12" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="411" t="s">
+      <c r="A12" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="287" t="str">
@@ -8428,7 +8443,7 @@
       <c r="AL12" s="20"/>
     </row>
     <row r="13" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="411" t="s">
+      <c r="A13" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="287" t="str">
@@ -8498,7 +8513,7 @@
       <c r="AL13" s="20"/>
     </row>
     <row r="14" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="411" t="s">
+      <c r="A14" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="287" t="str">
@@ -8568,7 +8583,7 @@
       <c r="AL14" s="20"/>
     </row>
     <row r="15" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="411" t="s">
+      <c r="A15" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="287" t="str">
@@ -8638,7 +8653,7 @@
       <c r="AL15" s="20"/>
     </row>
     <row r="16" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="411" t="s">
+      <c r="A16" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="287" t="str">
@@ -8708,7 +8723,7 @@
       <c r="AL16" s="20"/>
     </row>
     <row r="17" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="411" t="s">
+      <c r="A17" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="287" t="str">
@@ -8777,7 +8792,7 @@
       <c r="AL17" s="20"/>
     </row>
     <row r="18" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="411" t="s">
+      <c r="A18" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="287" t="str">
@@ -8846,7 +8861,7 @@
       <c r="AL18" s="20"/>
     </row>
     <row r="19" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="411" t="s">
+      <c r="A19" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="287" t="str">
@@ -8915,7 +8930,7 @@
       <c r="AL19" s="20"/>
     </row>
     <row r="20" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="411" t="s">
+      <c r="A20" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="287" t="str">
@@ -8984,7 +8999,7 @@
       <c r="AL20" s="20"/>
     </row>
     <row r="21" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="411" t="s">
+      <c r="A21" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="287" t="str">
@@ -9053,7 +9068,7 @@
       <c r="AL21" s="20"/>
     </row>
     <row r="22" spans="1:38" s="304" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="411" t="s">
+      <c r="A22" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="287" t="str">
@@ -9118,7 +9133,7 @@
       <c r="AL22" s="245"/>
     </row>
     <row r="23" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="411" t="s">
+      <c r="A23" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="287" t="str">
@@ -9187,7 +9202,7 @@
       <c r="AL23" s="20"/>
     </row>
     <row r="24" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="411" t="s">
+      <c r="A24" s="389" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="287" t="str">
@@ -9288,13 +9303,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9338,21 +9354,21 @@
       <c r="O1" s="27"/>
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
-      <c r="AA1" s="397" t="s">
+      <c r="AA1" s="403" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="397"/>
-      <c r="AC1" s="397"/>
-      <c r="AD1" s="397" t="s">
+      <c r="AB1" s="403"/>
+      <c r="AC1" s="403"/>
+      <c r="AD1" s="403" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="397"/>
-      <c r="AF1" s="397"/>
-      <c r="AG1" s="397" t="s">
+      <c r="AE1" s="403"/>
+      <c r="AF1" s="403"/>
+      <c r="AG1" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="397"/>
-      <c r="AI1" s="397"/>
+      <c r="AH1" s="403"/>
+      <c r="AI1" s="403"/>
       <c r="AJ1" s="108" t="s">
         <v>136</v>
       </c>
@@ -9486,7 +9502,7 @@
       </c>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="250" t="s">
         <v>35</v>
       </c>
@@ -9582,7 +9598,7 @@
       <c r="AL3" s="311"/>
       <c r="AM3" s="312"/>
     </row>
-    <row r="4" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="250" t="s">
         <v>35</v>
       </c>
@@ -9679,7 +9695,7 @@
       <c r="AL4" s="311"/>
       <c r="AM4" s="312"/>
     </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" s="2" customFormat="1" ht="220.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="272" t="s">
         <v>35</v>
       </c>
@@ -9775,7 +9791,7 @@
       <c r="AL5" s="311"/>
       <c r="AM5" s="312"/>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" s="2" customFormat="1" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="272" t="s">
         <v>35</v>
       </c>
@@ -9854,7 +9870,7 @@
       <c r="AL6" s="311"/>
       <c r="AM6" s="312"/>
     </row>
-    <row r="7" spans="1:40" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="138" x14ac:dyDescent="0.3">
       <c r="A7" s="314" t="s">
         <v>34</v>
       </c>
@@ -9894,8 +9910,8 @@
       <c r="N7" s="315" t="s">
         <v>388</v>
       </c>
-      <c r="O7" s="222" t="s">
-        <v>373</v>
+      <c r="O7" s="78" t="s">
+        <v>813</v>
       </c>
       <c r="P7" s="6">
         <v>1</v>
@@ -9970,7 +9986,7 @@
       <c r="N8" s="104" t="s">
         <v>558</v>
       </c>
-      <c r="O8" s="222" t="s">
+      <c r="O8" s="78" t="s">
         <v>559</v>
       </c>
       <c r="P8" s="6">
@@ -10002,8 +10018,8 @@
       <c r="AD8" s="294">
         <v>1000000</v>
       </c>
-      <c r="AE8" s="294" t="s">
-        <v>252</v>
+      <c r="AE8" s="417">
+        <v>0</v>
       </c>
       <c r="AF8" s="294" t="s">
         <v>252</v>
@@ -10074,7 +10090,7 @@
       <c r="N9" s="104" t="s">
         <v>565</v>
       </c>
-      <c r="O9" s="320" t="s">
+      <c r="O9" s="247" t="s">
         <v>566</v>
       </c>
       <c r="P9" s="6">
@@ -10106,8 +10122,8 @@
       <c r="AD9" s="294">
         <v>1000000</v>
       </c>
-      <c r="AE9" s="294" t="s">
-        <v>252</v>
+      <c r="AE9" s="417">
+        <v>0</v>
       </c>
       <c r="AF9" s="294" t="s">
         <v>252</v>
@@ -10324,7 +10340,7 @@
       <c r="AL11" s="75"/>
       <c r="AM11" s="75"/>
     </row>
-    <row r="12" spans="1:40" ht="69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="314" t="s">
         <v>182</v>
       </c>
@@ -10396,7 +10412,7 @@
       <c r="AL12" s="316"/>
       <c r="AM12" s="317"/>
     </row>
-    <row r="13" spans="1:40" s="2" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" s="2" customFormat="1" ht="207" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="272" t="s">
         <v>182</v>
       </c>
@@ -10490,7 +10506,7 @@
       <c r="AM13" s="312"/>
       <c r="AN13" s="216"/>
     </row>
-    <row r="14" spans="1:40" s="325" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" s="325" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="324" t="s">
         <v>182</v>
       </c>
@@ -10557,7 +10573,7 @@
       <c r="AL14" s="294"/>
       <c r="AM14" s="326"/>
     </row>
-    <row r="15" spans="1:40" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="314" t="s">
         <v>183</v>
       </c>
@@ -10629,7 +10645,7 @@
       <c r="AL15" s="316"/>
       <c r="AM15" s="317"/>
     </row>
-    <row r="16" spans="1:40" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="314" t="s">
         <v>183</v>
       </c>
@@ -10721,7 +10737,7 @@
       <c r="AL16" s="57"/>
       <c r="AM16" s="294"/>
     </row>
-    <row r="17" spans="1:39" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="328" t="s">
         <v>775</v>
       </c>
@@ -10793,7 +10809,7 @@
       <c r="AL17" s="316"/>
       <c r="AM17" s="317"/>
     </row>
-    <row r="18" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="329" t="s">
         <v>775</v>
       </c>
@@ -10898,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="329" t="s">
         <v>775</v>
       </c>
@@ -11003,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="319" t="s">
         <v>775</v>
       </c>
@@ -11108,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="2" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="319" t="s">
         <v>775</v>
       </c>
@@ -11213,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="335" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" s="335" customFormat="1" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="314" t="s">
         <v>364</v>
       </c>
@@ -11303,7 +11319,7 @@
       <c r="AL22" s="334"/>
       <c r="AM22" s="334"/>
     </row>
-    <row r="23" spans="1:39" s="335" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="335" customFormat="1" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="314" t="s">
         <v>364</v>
       </c>
@@ -11391,7 +11407,7 @@
       <c r="AL23" s="334"/>
       <c r="AM23" s="334"/>
     </row>
-    <row r="24" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="337" t="s">
         <v>577</v>
       </c>
@@ -11495,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="337" t="s">
         <v>577</v>
       </c>
@@ -11602,7 +11618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="337" t="s">
         <v>589</v>
       </c>
@@ -11707,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="337" t="s">
         <v>589</v>
       </c>
@@ -11814,7 +11830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="337" t="s">
         <v>589</v>
       </c>
@@ -11919,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="337" t="s">
         <v>589</v>
       </c>
@@ -12026,7 +12042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="337" t="s">
         <v>365</v>
       </c>
@@ -12130,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="337" t="s">
         <v>609</v>
       </c>
@@ -12235,7 +12251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="337" t="s">
         <v>609</v>
       </c>
@@ -12342,7 +12358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="337" t="s">
         <v>615</v>
       </c>
@@ -12448,6 +12464,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AM33">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CR ad alzo zero"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -12688,30 +12711,30 @@
       <c r="O1" s="349"/>
       <c r="V1" s="353"/>
       <c r="W1" s="353"/>
-      <c r="X1" s="398" t="s">
+      <c r="X1" s="404" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="399"/>
-      <c r="Z1" s="399"/>
-      <c r="AA1" s="400"/>
-      <c r="AB1" s="398" t="s">
+      <c r="Y1" s="405"/>
+      <c r="Z1" s="405"/>
+      <c r="AA1" s="406"/>
+      <c r="AB1" s="404" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="399"/>
-      <c r="AD1" s="399"/>
-      <c r="AE1" s="400"/>
-      <c r="AF1" s="401" t="s">
+      <c r="AC1" s="405"/>
+      <c r="AD1" s="405"/>
+      <c r="AE1" s="406"/>
+      <c r="AF1" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="401" t="s">
+      <c r="AG1" s="408"/>
+      <c r="AH1" s="408"/>
+      <c r="AI1" s="408"/>
+      <c r="AJ1" s="407" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="402"/>
+      <c r="AK1" s="408"/>
+      <c r="AL1" s="408"/>
+      <c r="AM1" s="408"/>
     </row>
     <row r="2" spans="1:39" s="369" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="354" t="s">
@@ -14178,10 +14201,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
@@ -14235,21 +14259,21 @@
       <c r="W1" s="69"/>
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
-      <c r="Z1" s="397" t="s">
+      <c r="Z1" s="403" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="397"/>
-      <c r="AB1" s="397"/>
-      <c r="AC1" s="397" t="s">
+      <c r="AA1" s="403"/>
+      <c r="AB1" s="403"/>
+      <c r="AC1" s="403" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="397"/>
-      <c r="AE1" s="397"/>
-      <c r="AF1" s="397" t="s">
+      <c r="AD1" s="403"/>
+      <c r="AE1" s="403"/>
+      <c r="AF1" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="397"/>
-      <c r="AH1" s="397"/>
+      <c r="AG1" s="403"/>
+      <c r="AH1" s="403"/>
       <c r="AI1" s="108" t="s">
         <v>136</v>
       </c>
@@ -14263,7 +14287,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="25" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="25" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="265" t="s">
         <v>71</v>
       </c>
@@ -14379,7 +14403,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266" t="s">
         <v>35</v>
       </c>
@@ -14470,7 +14494,7 @@
       <c r="AK3" s="311"/>
       <c r="AL3" s="312"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="255" t="s">
         <v>35</v>
       </c>
@@ -14562,7 +14586,7 @@
       <c r="AK4" s="311"/>
       <c r="AL4" s="312"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" s="2" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="255" t="s">
         <v>35</v>
       </c>
@@ -14653,7 +14677,7 @@
       <c r="AK5" s="311"/>
       <c r="AL5" s="312"/>
     </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="255" t="s">
         <v>35</v>
       </c>
@@ -14745,7 +14769,7 @@
       <c r="AK6" s="311"/>
       <c r="AL6" s="312"/>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" s="2" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="255" t="s">
         <v>35</v>
       </c>
@@ -14837,7 +14861,7 @@
       <c r="AK7" s="311"/>
       <c r="AL7" s="312"/>
     </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" s="2" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="255" t="s">
         <v>35</v>
       </c>
@@ -14929,7 +14953,7 @@
       <c r="AK8" s="311"/>
       <c r="AL8" s="312"/>
     </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" s="2" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="255" t="s">
         <v>35</v>
       </c>
@@ -15021,7 +15045,7 @@
       <c r="AK9" s="311"/>
       <c r="AL9" s="312"/>
     </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="255" t="s">
         <v>35</v>
       </c>
@@ -15113,7 +15137,7 @@
       <c r="AK10" s="311"/>
       <c r="AL10" s="312"/>
     </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" s="2" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="339" t="s">
         <v>35</v>
       </c>
@@ -15211,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" s="2" customFormat="1" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="255" t="s">
         <v>182</v>
       </c>
@@ -15300,7 +15324,7 @@
       <c r="AK12" s="311"/>
       <c r="AL12" s="312"/>
     </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" s="2" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="206" t="s">
         <v>182</v>
       </c>
@@ -15365,7 +15389,7 @@
       <c r="AK13" s="311"/>
       <c r="AL13" s="312"/>
     </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" s="2" customFormat="1" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A14" s="266" t="s">
         <v>34</v>
       </c>
@@ -15457,7 +15481,7 @@
       <c r="AK14" s="75"/>
       <c r="AL14" s="75"/>
     </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" s="2" customFormat="1" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A15" s="255" t="s">
         <v>34</v>
       </c>
@@ -15549,7 +15573,7 @@
       <c r="AK15" s="75"/>
       <c r="AL15" s="75"/>
     </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" s="2" customFormat="1" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A16" s="255" t="s">
         <v>34</v>
       </c>
@@ -15641,7 +15665,7 @@
       <c r="AK16" s="75"/>
       <c r="AL16" s="75"/>
     </row>
-    <row r="17" spans="1:38" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" s="2" customFormat="1" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A17" s="255" t="s">
         <v>34</v>
       </c>
@@ -15731,7 +15755,7 @@
       <c r="AK17" s="75"/>
       <c r="AL17" s="75"/>
     </row>
-    <row r="18" spans="1:38" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" s="2" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A18" s="255" t="s">
         <v>34</v>
       </c>
@@ -15823,7 +15847,7 @@
       <c r="AK18" s="75"/>
       <c r="AL18" s="75"/>
     </row>
-    <row r="19" spans="1:38" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" s="2" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A19" s="255" t="s">
         <v>34</v>
       </c>
@@ -16376,7 +16400,7 @@
       <c r="AK24" s="75"/>
       <c r="AL24" s="75"/>
     </row>
-    <row r="25" spans="1:38" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="267" t="s">
         <v>183</v>
       </c>
@@ -16464,7 +16488,7 @@
       <c r="AK25" s="75"/>
       <c r="AL25" s="75"/>
     </row>
-    <row r="26" spans="1:38" s="77" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" s="77" customFormat="1" ht="400.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="267" t="s">
         <v>183</v>
       </c>
@@ -16552,7 +16576,7 @@
       <c r="AK26" s="57"/>
       <c r="AL26" s="294"/>
     </row>
-    <row r="27" spans="1:38" s="77" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" s="77" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="267" t="s">
         <v>183</v>
       </c>
@@ -16620,7 +16644,7 @@
       <c r="AK27" s="57"/>
       <c r="AL27" s="294"/>
     </row>
-    <row r="28" spans="1:38" s="77" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="271" t="s">
         <v>183</v>
       </c>
@@ -16687,7 +16711,7 @@
       <c r="AK28" s="57"/>
       <c r="AL28" s="294"/>
     </row>
-    <row r="29" spans="1:38" s="77" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="271" t="s">
         <v>183</v>
       </c>
@@ -16755,7 +16779,7 @@
       <c r="AK29" s="57"/>
       <c r="AL29" s="294"/>
     </row>
-    <row r="30" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="271" t="s">
         <v>35</v>
       </c>
@@ -16824,7 +16848,7 @@
       <c r="AK30" s="57"/>
       <c r="AL30" s="294"/>
     </row>
-    <row r="31" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="271" t="s">
         <v>35</v>
       </c>
@@ -16894,7 +16918,7 @@
       <c r="AK31" s="57"/>
       <c r="AL31" s="294"/>
     </row>
-    <row r="32" spans="1:38" s="77" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" s="77" customFormat="1" ht="165.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="271" t="s">
         <v>35</v>
       </c>
@@ -16964,7 +16988,7 @@
       <c r="AK32" s="57"/>
       <c r="AL32" s="294"/>
     </row>
-    <row r="33" spans="1:38" s="77" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" s="77" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="271" t="s">
         <v>35</v>
       </c>
@@ -17316,7 +17340,7 @@
       <c r="AK37" s="57"/>
       <c r="AL37" s="294"/>
     </row>
-    <row r="38" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="271" t="s">
         <v>775</v>
       </c>
@@ -17386,7 +17410,7 @@
       <c r="AK38" s="57"/>
       <c r="AL38" s="294"/>
     </row>
-    <row r="39" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="271" t="s">
         <v>775</v>
       </c>
@@ -17456,7 +17480,7 @@
       <c r="AK39" s="57"/>
       <c r="AL39" s="294"/>
     </row>
-    <row r="40" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271" t="s">
         <v>775</v>
       </c>
@@ -17526,7 +17550,7 @@
       <c r="AK40" s="57"/>
       <c r="AL40" s="294"/>
     </row>
-    <row r="41" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="271" t="s">
         <v>775</v>
       </c>
@@ -17596,7 +17620,7 @@
       <c r="AK41" s="57"/>
       <c r="AL41" s="294"/>
     </row>
-    <row r="42" spans="1:38" s="77" customFormat="1" ht="276" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" s="77" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="271" t="s">
         <v>182</v>
       </c>
@@ -17666,7 +17690,7 @@
       <c r="AK42" s="57"/>
       <c r="AL42" s="294"/>
     </row>
-    <row r="43" spans="1:38" s="77" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" s="77" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="271" t="s">
         <v>182</v>
       </c>
@@ -17736,7 +17760,7 @@
       <c r="AK43" s="57"/>
       <c r="AL43" s="294"/>
     </row>
-    <row r="44" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="271" t="s">
         <v>183</v>
       </c>
@@ -17804,7 +17828,7 @@
       <c r="AK44" s="57"/>
       <c r="AL44" s="294"/>
     </row>
-    <row r="45" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="271" t="s">
         <v>577</v>
       </c>
@@ -17872,7 +17896,7 @@
       <c r="AK45" s="57"/>
       <c r="AL45" s="294"/>
     </row>
-    <row r="46" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="271" t="s">
         <v>577</v>
       </c>
@@ -17942,7 +17966,7 @@
       <c r="AK46" s="57"/>
       <c r="AL46" s="294"/>
     </row>
-    <row r="47" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="271" t="s">
         <v>663</v>
       </c>
@@ -18012,7 +18036,7 @@
       <c r="AK47" s="57"/>
       <c r="AL47" s="294"/>
     </row>
-    <row r="48" spans="1:38" s="77" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="271" t="s">
         <v>663</v>
       </c>
@@ -18082,7 +18106,7 @@
       <c r="AK48" s="57"/>
       <c r="AL48" s="294"/>
     </row>
-    <row r="49" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="271" t="s">
         <v>664</v>
       </c>
@@ -18152,7 +18176,7 @@
       <c r="AK49" s="57"/>
       <c r="AL49" s="294"/>
     </row>
-    <row r="50" spans="1:38" s="77" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="271" t="s">
         <v>664</v>
       </c>
@@ -18222,7 +18246,7 @@
       <c r="AK50" s="57"/>
       <c r="AL50" s="294"/>
     </row>
-    <row r="51" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="271" t="s">
         <v>365</v>
       </c>
@@ -18290,7 +18314,7 @@
       <c r="AK51" s="57"/>
       <c r="AL51" s="294"/>
     </row>
-    <row r="52" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="271" t="s">
         <v>609</v>
       </c>
@@ -18358,7 +18382,7 @@
       <c r="AK52" s="57"/>
       <c r="AL52" s="294"/>
     </row>
-    <row r="53" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="271" t="s">
         <v>609</v>
       </c>
@@ -18426,7 +18450,7 @@
       <c r="AK53" s="57"/>
       <c r="AL53" s="294"/>
     </row>
-    <row r="54" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="271" t="s">
         <v>615</v>
       </c>
@@ -18495,6 +18519,13 @@
       <c r="AL54" s="294"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AL54">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CR ad alzo zero"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -18597,35 +18628,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="392" t="s">
+      <c r="X1" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="393"/>
-      <c r="Z1" s="393"/>
-      <c r="AA1" s="394"/>
-      <c r="AB1" s="392" t="s">
+      <c r="Y1" s="399"/>
+      <c r="Z1" s="399"/>
+      <c r="AA1" s="400"/>
+      <c r="AB1" s="398" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="393"/>
-      <c r="AD1" s="393"/>
-      <c r="AE1" s="394"/>
-      <c r="AF1" s="395" t="s">
+      <c r="AC1" s="399"/>
+      <c r="AD1" s="399"/>
+      <c r="AE1" s="400"/>
+      <c r="AF1" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="396"/>
-      <c r="AH1" s="396"/>
-      <c r="AI1" s="396"/>
-      <c r="AJ1" s="395" t="s">
+      <c r="AG1" s="402"/>
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="401" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="396"/>
-      <c r="AL1" s="396"/>
-      <c r="AM1" s="396"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="402"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="403" t="s">
+      <c r="AO1" s="409" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="403"/>
+      <c r="AP1" s="409"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
@@ -20372,8 +20403,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="413"/>
-      <c r="C1" s="412"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="390"/>
       <c r="D1" s="168"/>
       <c r="E1" s="169"/>
       <c r="F1" s="170"/>
@@ -20384,109 +20415,109 @@
       <c r="A3" s="167" t="s">
         <v>776</v>
       </c>
-      <c r="B3" s="413" t="s">
+      <c r="B3" s="391" t="s">
         <v>778</v>
       </c>
-      <c r="C3" s="412" t="s">
+      <c r="C3" s="390" t="s">
         <v>783</v>
       </c>
-      <c r="D3" s="414" t="s">
+      <c r="D3" s="392" t="s">
         <v>795</v>
       </c>
-      <c r="E3" s="415" t="s">
+      <c r="E3" s="393" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
-      <c r="B4" s="413" t="s">
+      <c r="B4" s="391" t="s">
         <v>779</v>
       </c>
-      <c r="C4" s="412" t="s">
+      <c r="C4" s="390" t="s">
         <v>784</v>
       </c>
-      <c r="D4" s="414" t="s">
+      <c r="D4" s="392" t="s">
         <v>777</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
-      <c r="B5" s="413" t="s">
+      <c r="B5" s="391" t="s">
         <v>780</v>
       </c>
-      <c r="C5" s="412" t="s">
+      <c r="C5" s="390" t="s">
         <v>785</v>
       </c>
-      <c r="D5" s="414" t="s">
+      <c r="D5" s="392" t="s">
         <v>796</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
-      <c r="B6" s="413" t="s">
+      <c r="B6" s="391" t="s">
         <v>781</v>
       </c>
-      <c r="C6" s="412" t="s">
+      <c r="C6" s="390" t="s">
         <v>786</v>
       </c>
-      <c r="D6" s="414" t="s">
+      <c r="D6" s="392" t="s">
         <v>797</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
-      <c r="B7" s="413" t="s">
+      <c r="B7" s="391" t="s">
         <v>782</v>
       </c>
-      <c r="C7" s="412" t="s">
+      <c r="C7" s="390" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
-      <c r="C8" s="412" t="s">
+      <c r="C8" s="390" t="s">
         <v>788</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
-      <c r="C9" s="412" t="s">
+      <c r="C9" s="390" t="s">
         <v>789</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
-      <c r="C10" s="412" t="s">
+      <c r="C10" s="390" t="s">
         <v>790</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
-      <c r="C11" s="412" t="s">
+      <c r="C11" s="390" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
-      <c r="C12" s="412" t="s">
+      <c r="C12" s="390" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
-      <c r="C13" s="412" t="s">
+      <c r="C13" s="390" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
-      <c r="C14" s="412" t="s">
+      <c r="C14" s="390" t="s">
         <v>794</v>
       </c>
     </row>
@@ -20497,13 +20528,13 @@
       <c r="A16" s="167" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="414" t="s">
+      <c r="D16" s="392" t="s">
         <v>799</v>
       </c>
-      <c r="E16" s="415" t="s">
+      <c r="E16" s="393" t="s">
         <v>800</v>
       </c>
-      <c r="G16" s="416" t="s">
+      <c r="G16" s="394" t="s">
         <v>801</v>
       </c>
     </row>
@@ -20518,22 +20549,22 @@
       <c r="A18" s="167" t="s">
         <v>808</v>
       </c>
-      <c r="C18" s="412" t="s">
+      <c r="C18" s="390" t="s">
         <v>812</v>
       </c>
-      <c r="D18" s="414" t="s">
+      <c r="D18" s="392" t="s">
         <v>809</v>
       </c>
-      <c r="E18" s="415" t="s">
+      <c r="E18" s="393" t="s">
         <v>811</v>
       </c>
-      <c r="G18" s="416" t="s">
+      <c r="G18" s="394" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
-      <c r="D19" s="414" t="s">
+      <c r="D19" s="392" t="s">
         <v>810</v>
       </c>
       <c r="E19"/>
@@ -20549,17 +20580,17 @@
       <c r="A21" s="167" t="s">
         <v>267</v>
       </c>
-      <c r="E21" s="415" t="s">
+      <c r="E21" s="393" t="s">
         <v>802</v>
       </c>
-      <c r="G21" s="416" t="s">
+      <c r="G21" s="394" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="D22"/>
-      <c r="E22" s="415" t="s">
+      <c r="E22" s="393" t="s">
         <v>803</v>
       </c>
     </row>
@@ -20574,10 +20605,10 @@
       <c r="A24" s="167" t="s">
         <v>804</v>
       </c>
-      <c r="E24" s="415" t="s">
+      <c r="E24" s="393" t="s">
         <v>805</v>
       </c>
-      <c r="G24" s="416" t="s">
+      <c r="G24" s="394" t="s">
         <v>801</v>
       </c>
     </row>
@@ -20589,10 +20620,10 @@
       <c r="A26" s="167" t="s">
         <v>806</v>
       </c>
-      <c r="D26" s="414" t="s">
+      <c r="D26" s="392" t="s">
         <v>807</v>
       </c>
-      <c r="G26" s="416" t="s">
+      <c r="G26" s="394" t="s">
         <v>801</v>
       </c>
     </row>
@@ -20619,6 +20650,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D428FA97A73D304E91AA59E09D526869" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5184d92e947fddf07e6b6109215ca8be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8022916f55ab85163ee9a5069dec31d5">
     <xsd:element name="properties">
@@ -20732,12 +20769,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20748,6 +20779,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2DE8A8-9F7C-444A-A54C-B908DB2D8D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20763,21 +20809,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
   <ds:schemaRefs>

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -1316,16 +1316,6 @@
   </si>
   <si>
     <t>Numero rate</t>
-  </si>
-  <si>
-    <t>IMP_ACC_CASSA_BT
-IMP_UTIL_CASSA_BT
-IMP_ACC_REV
-IMP_UTIL_REV
-IMP_ACC_PROD_SCAD
-IMP_UTIL_PROD_SCAD
-IMP_ACC_TOT
-IMP_UTIL_TOT</t>
   </si>
   <si>
     <t>IMP_SALDO_CC
@@ -3115,6 +3105,16 @@
 IMP_UTIL_PROD_SCAD
 IMP_ACC_TOT
 IMP_UTIL_TOT</t>
+  </si>
+  <si>
+    <t>AMT_US_SEL_LIQ
+AMT_GRA_SEL_LIQ
+AMT_US_REV
+AMT_GRA_REV
+AMT_US_MAT
+AMT_GRA_MAT
+AMT_US_ST_C
+REVENUE_T1</t>
   </si>
 </sst>
 </file>
@@ -5195,6 +5195,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5259,9 +5262,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6362,19 +6362,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="395" t="s">
-        <v>475</v>
-      </c>
-      <c r="F1" s="395"/>
-      <c r="H1" s="396" t="s">
+      <c r="E1" s="396" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="396"/>
+      <c r="H1" s="397" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="397"/>
+      <c r="I1" s="398"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
       <c r="K1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L1" t="s">
         <v>253</v>
@@ -6383,28 +6383,28 @@
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="214"/>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E2" s="232" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F2" s="232" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H2" s="243" t="s">
+        <v>476</v>
+      </c>
+      <c r="I2" s="248" t="s">
         <v>477</v>
       </c>
-      <c r="I2" s="248" t="s">
-        <v>478</v>
-      </c>
       <c r="J2" s="241" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K2" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L2" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -6416,22 +6416,22 @@
         <v>173</v>
       </c>
       <c r="F3" s="233" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H3" s="243" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3" s="248" t="s">
         <v>479</v>
       </c>
-      <c r="I3" s="248" t="s">
-        <v>480</v>
-      </c>
       <c r="J3" s="241" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K3" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L3" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -6443,22 +6443,22 @@
         <v>174</v>
       </c>
       <c r="F4" s="234" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H4" s="243" t="s">
+        <v>480</v>
+      </c>
+      <c r="I4" s="248" t="s">
         <v>481</v>
       </c>
-      <c r="I4" s="248" t="s">
-        <v>482</v>
-      </c>
       <c r="J4" s="241" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K4" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L4" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -6470,22 +6470,22 @@
         <v>175</v>
       </c>
       <c r="F5" s="235" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H5" s="243" t="s">
+        <v>482</v>
+      </c>
+      <c r="I5" s="248" t="s">
         <v>483</v>
       </c>
-      <c r="I5" s="248" t="s">
-        <v>484</v>
-      </c>
       <c r="J5" s="241" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K5" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L5" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -6497,22 +6497,22 @@
         <v>176</v>
       </c>
       <c r="F6" s="236" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H6" s="243" t="s">
+        <v>484</v>
+      </c>
+      <c r="I6" s="248" t="s">
         <v>485</v>
       </c>
-      <c r="I6" s="248" t="s">
-        <v>486</v>
-      </c>
       <c r="J6" s="241" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K6" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L6" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -6521,299 +6521,299 @@
         <v>331</v>
       </c>
       <c r="E7" s="237" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F7" s="237" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H7" s="243" t="s">
+        <v>486</v>
+      </c>
+      <c r="I7" s="248" t="s">
         <v>487</v>
       </c>
-      <c r="I7" s="248" t="s">
-        <v>488</v>
-      </c>
       <c r="J7" s="242" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K7" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L7" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="223" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" t="s">
         <v>386</v>
       </c>
-      <c r="C8" t="s">
-        <v>387</v>
-      </c>
       <c r="E8" s="238" t="s">
+        <v>469</v>
+      </c>
+      <c r="F8" s="238" t="s">
         <v>470</v>
       </c>
-      <c r="F8" s="238" t="s">
-        <v>471</v>
-      </c>
       <c r="H8" s="243" t="s">
+        <v>488</v>
+      </c>
+      <c r="I8" s="248" t="s">
         <v>489</v>
       </c>
-      <c r="I8" s="248" t="s">
-        <v>490</v>
-      </c>
       <c r="J8" s="242" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K8" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L8" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="244"/>
       <c r="C9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H9" s="243" t="s">
+        <v>490</v>
+      </c>
+      <c r="I9" s="248" t="s">
         <v>491</v>
-      </c>
-      <c r="I9" s="248" t="s">
-        <v>492</v>
       </c>
       <c r="J9" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K9" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L9" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H10" s="243" t="s">
+        <v>492</v>
+      </c>
+      <c r="I10" s="248" t="s">
         <v>493</v>
-      </c>
-      <c r="I10" s="248" t="s">
-        <v>494</v>
       </c>
       <c r="J10" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K10" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L10" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H11" s="243" t="s">
+        <v>494</v>
+      </c>
+      <c r="I11" s="248" t="s">
         <v>495</v>
-      </c>
-      <c r="I11" s="248" t="s">
-        <v>496</v>
       </c>
       <c r="J11" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K11" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L11" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H12" s="243" t="s">
+        <v>496</v>
+      </c>
+      <c r="I12" s="248" t="s">
         <v>497</v>
-      </c>
-      <c r="I12" s="248" t="s">
-        <v>498</v>
       </c>
       <c r="J12" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K12" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L12" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="273"/>
       <c r="C13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H13" s="243" t="s">
+        <v>498</v>
+      </c>
+      <c r="I13" s="248" t="s">
         <v>499</v>
-      </c>
-      <c r="I13" s="248" t="s">
-        <v>500</v>
       </c>
       <c r="J13" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K13" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L13" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="274"/>
       <c r="C14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H14" s="243" t="s">
+        <v>500</v>
+      </c>
+      <c r="I14" s="248" t="s">
         <v>501</v>
-      </c>
-      <c r="I14" s="248" t="s">
-        <v>502</v>
       </c>
       <c r="J14" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K14" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L14" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="275"/>
       <c r="C15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H15" s="243" t="s">
+        <v>502</v>
+      </c>
+      <c r="I15" s="248" t="s">
         <v>503</v>
-      </c>
-      <c r="I15" s="248" t="s">
-        <v>504</v>
       </c>
       <c r="J15" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K15" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L15" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H16" s="243" t="s">
+        <v>504</v>
+      </c>
+      <c r="I16" s="248" t="s">
         <v>505</v>
-      </c>
-      <c r="I16" s="248" t="s">
-        <v>506</v>
       </c>
       <c r="J16" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K16" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L16" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H17" s="243" t="s">
+        <v>506</v>
+      </c>
+      <c r="I17" s="248" t="s">
         <v>507</v>
-      </c>
-      <c r="I17" s="248" t="s">
-        <v>508</v>
       </c>
       <c r="J17" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K17" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L17" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H18" s="243" t="s">
+        <v>508</v>
+      </c>
+      <c r="I18" s="248" t="s">
         <v>509</v>
-      </c>
-      <c r="I18" s="248" t="s">
-        <v>510</v>
       </c>
       <c r="J18" s="184" t="s">
         <v>175</v>
       </c>
       <c r="K18" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L18" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H19" s="243" t="s">
+        <v>510</v>
+      </c>
+      <c r="I19" s="248" t="s">
         <v>511</v>
-      </c>
-      <c r="I19" s="248" t="s">
-        <v>512</v>
       </c>
       <c r="J19" s="184" t="s">
         <v>175</v>
       </c>
       <c r="K19" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L19" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H20" s="243" t="s">
+        <v>512</v>
+      </c>
+      <c r="I20" s="248" t="s">
         <v>513</v>
-      </c>
-      <c r="I20" s="248" t="s">
-        <v>514</v>
       </c>
       <c r="J20" s="184" t="s">
         <v>175</v>
       </c>
       <c r="K20" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L20" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H21" s="243" t="s">
+        <v>514</v>
+      </c>
+      <c r="I21" s="248" t="s">
         <v>515</v>
-      </c>
-      <c r="I21" s="248" t="s">
-        <v>516</v>
       </c>
       <c r="J21" s="184" t="s">
         <v>175</v>
       </c>
       <c r="K21" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L21" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H22" s="243" t="s">
+        <v>516</v>
+      </c>
+      <c r="I22" s="248" t="s">
         <v>517</v>
-      </c>
-      <c r="I22" s="248" t="s">
-        <v>518</v>
       </c>
       <c r="J22" s="184" t="s">
         <v>175</v>
@@ -6822,32 +6822,32 @@
         <v>174</v>
       </c>
       <c r="L22" s="199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H23" s="243" t="s">
+        <v>539</v>
+      </c>
+      <c r="I23" s="248" t="s">
         <v>540</v>
-      </c>
-      <c r="I23" s="248" t="s">
-        <v>541</v>
       </c>
       <c r="J23" s="199"/>
       <c r="K23" s="242" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L23" s="199"/>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H24" s="243" t="s">
+        <v>541</v>
+      </c>
+      <c r="I24" s="248" t="s">
         <v>542</v>
-      </c>
-      <c r="I24" s="248" t="s">
-        <v>543</v>
       </c>
       <c r="J24" s="199"/>
       <c r="K24" s="242" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L24" s="199"/>
     </row>
@@ -6877,11 +6877,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F1" s="414" t="s">
+      <c r="F1" s="415" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="414"/>
-      <c r="H1" s="414"/>
+      <c r="G1" s="415"/>
+      <c r="H1" s="415"/>
     </row>
     <row r="2" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="172" t="s">
@@ -6895,34 +6895,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="410" t="s">
+      <c r="A3" s="411" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="411"/>
+      <c r="B3" s="412"/>
       <c r="C3" s="174"/>
       <c r="D3" s="201" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="410"/>
-      <c r="B4" s="412"/>
+      <c r="A4" s="411"/>
+      <c r="B4" s="413"/>
       <c r="C4" s="175"/>
       <c r="D4" s="202" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="410"/>
-      <c r="B5" s="412"/>
+      <c r="A5" s="411"/>
+      <c r="B5" s="413"/>
       <c r="C5" s="175"/>
       <c r="D5" s="203" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="410"/>
-      <c r="B6" s="413"/>
+      <c r="A6" s="411"/>
+      <c r="B6" s="414"/>
       <c r="C6" s="176"/>
       <c r="D6" s="204" t="s">
         <v>166</v>
@@ -6977,7 +6977,7 @@
       <c r="O2" s="199"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="415"/>
+      <c r="A3" s="416"/>
       <c r="B3" s="180" t="s">
         <v>172</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="415"/>
+      <c r="A4" s="416"/>
       <c r="B4" s="157" t="s">
         <v>173</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="O4" s="199"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="415"/>
+      <c r="A5" s="416"/>
       <c r="B5" s="157" t="s">
         <v>174</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="O5" s="199"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="415"/>
+      <c r="A6" s="416"/>
       <c r="B6" s="157" t="s">
         <v>175</v>
       </c>
@@ -7063,7 +7063,7 @@
       <c r="O6" s="199"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="415"/>
+      <c r="A7" s="416"/>
       <c r="B7" s="157" t="s">
         <v>176</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="416"/>
+      <c r="A12" s="417"/>
       <c r="B12" s="180" t="s">
         <v>172</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="416"/>
+      <c r="A13" s="417"/>
       <c r="B13" s="157" t="s">
         <v>173</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="416"/>
+      <c r="A14" s="417"/>
       <c r="B14" s="157" t="s">
         <v>174</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="416"/>
+      <c r="A15" s="417"/>
       <c r="B15" s="157" t="s">
         <v>175</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="416"/>
+      <c r="A16" s="417"/>
       <c r="B16" s="157" t="s">
         <v>176</v>
       </c>
@@ -7574,30 +7574,30 @@
       <c r="O1" s="27"/>
       <c r="U1" s="70"/>
       <c r="V1" s="70"/>
-      <c r="W1" s="398" t="s">
+      <c r="W1" s="399" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="399"/>
-      <c r="Y1" s="399"/>
-      <c r="Z1" s="400"/>
-      <c r="AA1" s="398" t="s">
+      <c r="X1" s="400"/>
+      <c r="Y1" s="400"/>
+      <c r="Z1" s="401"/>
+      <c r="AA1" s="399" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="399"/>
-      <c r="AC1" s="399"/>
-      <c r="AD1" s="400"/>
-      <c r="AE1" s="401" t="s">
+      <c r="AB1" s="400"/>
+      <c r="AC1" s="400"/>
+      <c r="AD1" s="401"/>
+      <c r="AE1" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="402"/>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="401" t="s">
+      <c r="AF1" s="403"/>
+      <c r="AG1" s="403"/>
+      <c r="AH1" s="403"/>
+      <c r="AI1" s="402" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
+      <c r="AJ1" s="403"/>
+      <c r="AK1" s="403"/>
+      <c r="AL1" s="403"/>
     </row>
     <row r="2" spans="1:38" s="288" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
@@ -7730,7 +7730,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>280</v>
@@ -7801,7 +7801,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>280</v>
@@ -7873,7 +7873,7 @@
         <v>49</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>280</v>
@@ -8273,7 +8273,7 @@
         <v>52</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M10" s="209" t="s">
         <v>260</v>
@@ -8615,7 +8615,7 @@
         <v>52</v>
       </c>
       <c r="L15" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M15" s="209" t="s">
         <v>260</v>
@@ -8685,7 +8685,7 @@
         <v>52</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M16" s="209" t="s">
         <v>260</v>
@@ -8806,7 +8806,7 @@
         <v>61</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>280</v>
@@ -8875,7 +8875,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>280</v>
@@ -8944,7 +8944,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>280</v>
@@ -9013,7 +9013,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>280</v>
@@ -9030,7 +9030,7 @@
         <v>52</v>
       </c>
       <c r="L21" s="193" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M21" s="105" t="s">
         <v>70</v>
@@ -9307,10 +9307,10 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK8" sqref="AK8"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9354,21 +9354,21 @@
       <c r="O1" s="27"/>
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
-      <c r="AA1" s="403" t="s">
+      <c r="AA1" s="404" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="403"/>
-      <c r="AC1" s="403"/>
-      <c r="AD1" s="403" t="s">
+      <c r="AB1" s="404"/>
+      <c r="AC1" s="404"/>
+      <c r="AD1" s="404" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="403"/>
-      <c r="AF1" s="403"/>
-      <c r="AG1" s="403" t="s">
+      <c r="AE1" s="404"/>
+      <c r="AF1" s="404"/>
+      <c r="AG1" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="403"/>
-      <c r="AI1" s="403"/>
+      <c r="AH1" s="404"/>
+      <c r="AI1" s="404"/>
       <c r="AJ1" s="108" t="s">
         <v>136</v>
       </c>
@@ -9535,13 +9535,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M3" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N3" s="103" t="s">
         <v>333</v>
@@ -9564,7 +9564,7 @@
         <v>194</v>
       </c>
       <c r="Z3" s="308" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA3" s="309" t="s">
         <v>28</v>
@@ -9623,7 +9623,7 @@
         <v>103</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I4" s="54" t="s">
         <v>30</v>
@@ -9632,13 +9632,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M4" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N4" s="102" t="s">
         <v>349</v>
@@ -9661,7 +9661,7 @@
         <v>194</v>
       </c>
       <c r="Z4" s="308" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA4" s="309" t="s">
         <v>28</v>
@@ -9719,7 +9719,7 @@
         <v>103</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I5" s="54" t="s">
         <v>28</v>
@@ -9734,7 +9734,7 @@
         <v>332</v>
       </c>
       <c r="M5" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N5" s="104" t="s">
         <v>336</v>
@@ -9757,7 +9757,7 @@
         <v>194</v>
       </c>
       <c r="Z5" s="308" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA5" s="309" t="s">
         <v>28</v>
@@ -9831,7 +9831,7 @@
         <v>332</v>
       </c>
       <c r="M6" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N6" s="104" t="s">
         <v>338</v>
@@ -9854,7 +9854,7 @@
         <v>195</v>
       </c>
       <c r="Z6" s="308" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA6" s="309"/>
       <c r="AB6" s="313"/>
@@ -9870,7 +9870,7 @@
       <c r="AL6" s="311"/>
       <c r="AM6" s="312"/>
     </row>
-    <row r="7" spans="1:40" ht="138" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="314" t="s">
         <v>34</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>103</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="26"/>
@@ -9905,13 +9905,13 @@
         <v>106</v>
       </c>
       <c r="M7" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N7" s="315" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="P7" s="6">
         <v>1</v>
@@ -9942,7 +9942,7 @@
       <c r="AL7" s="316"/>
       <c r="AM7" s="317"/>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="269" t="s">
         <v>34</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>65</v>
@@ -9963,10 +9963,10 @@
         <v>281</v>
       </c>
       <c r="G8" s="277" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>29</v>
@@ -9975,19 +9975,19 @@
         <v>27</v>
       </c>
       <c r="K8" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M8" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N8" s="104" t="s">
+        <v>557</v>
+      </c>
+      <c r="O8" s="78" t="s">
         <v>558</v>
-      </c>
-      <c r="O8" s="78" t="s">
-        <v>559</v>
       </c>
       <c r="P8" s="6">
         <v>3</v>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="Y8" s="57"/>
       <c r="Z8" s="318" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA8" s="293" t="s">
         <v>19</v>
@@ -10018,7 +10018,7 @@
       <c r="AD8" s="294">
         <v>1000000</v>
       </c>
-      <c r="AE8" s="417">
+      <c r="AE8" s="395">
         <v>0</v>
       </c>
       <c r="AF8" s="294" t="s">
@@ -10034,7 +10034,7 @@
         <v>252</v>
       </c>
       <c r="AJ8" s="310" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK8" s="308">
         <v>9999999</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" s="2" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="319" t="s">
         <v>34</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E9" s="80" t="s">
         <v>65</v>
@@ -10067,31 +10067,31 @@
         <v>281</v>
       </c>
       <c r="G9" s="277" t="s">
+        <v>561</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>677</v>
+      </c>
+      <c r="I9" s="54" t="s">
         <v>562</v>
       </c>
-      <c r="H9" s="59" t="s">
-        <v>678</v>
-      </c>
-      <c r="I9" s="54" t="s">
+      <c r="J9" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>564</v>
-      </c>
       <c r="K9" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M9" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N9" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="O9" s="247" t="s">
         <v>565</v>
-      </c>
-      <c r="O9" s="247" t="s">
-        <v>566</v>
       </c>
       <c r="P9" s="6">
         <v>3</v>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="Y9" s="321"/>
       <c r="Z9" s="318" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA9" s="293" t="s">
         <v>19</v>
@@ -10122,7 +10122,7 @@
       <c r="AD9" s="294">
         <v>1000000</v>
       </c>
-      <c r="AE9" s="417">
+      <c r="AE9" s="395">
         <v>0</v>
       </c>
       <c r="AF9" s="294" t="s">
@@ -10138,7 +10138,7 @@
         <v>252</v>
       </c>
       <c r="AJ9" s="310" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK9" s="308">
         <v>9999999</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="251" t="s">
         <v>34</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>29</v>
@@ -10184,13 +10184,13 @@
         <v>27</v>
       </c>
       <c r="K10" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L10" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N10" s="104" t="s">
         <v>323</v>
@@ -10211,7 +10211,7 @@
       <c r="X10" s="73"/>
       <c r="Y10" s="56"/>
       <c r="Z10" s="318" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA10" s="270" t="s">
         <v>19</v>
@@ -10245,7 +10245,7 @@
       <c r="AL10" s="75"/>
       <c r="AM10" s="75"/>
     </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="251" t="s">
         <v>34</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I11" s="54" t="s">
         <v>29</v>
@@ -10279,13 +10279,13 @@
         <v>27</v>
       </c>
       <c r="K11" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L11" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M11" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N11" s="104" t="s">
         <v>324</v>
@@ -10306,7 +10306,7 @@
       <c r="X11" s="73"/>
       <c r="Y11" s="56"/>
       <c r="Z11" s="318" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA11" s="270" t="s">
         <v>19</v>
@@ -10364,7 +10364,7 @@
         <v>103</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="26"/>
@@ -10378,10 +10378,10 @@
         <v>312</v>
       </c>
       <c r="N12" s="315" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O12" s="222" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P12" s="6">
         <v>1</v>
@@ -10446,7 +10446,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>106</v>
@@ -10518,7 +10518,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E14" s="80" t="s">
         <v>65</v>
@@ -10527,19 +10527,19 @@
         <v>97</v>
       </c>
       <c r="G14" s="220" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H14" s="59" t="s">
+        <v>624</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>625</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>626</v>
-      </c>
       <c r="J14" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>106</v>
@@ -10548,10 +10548,10 @@
         <v>312</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O14" s="222" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P14" s="6">
         <v>2</v>
@@ -10597,7 +10597,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="26"/>
@@ -10611,10 +10611,10 @@
         <v>315</v>
       </c>
       <c r="N15" s="315" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O15" s="78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P15" s="6">
         <v>1</v>
@@ -10678,7 +10678,7 @@
         <v>186</v>
       </c>
       <c r="K16" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L16" s="47" t="s">
         <v>106</v>
@@ -10687,7 +10687,7 @@
         <v>315</v>
       </c>
       <c r="N16" s="103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O16" s="78" t="s">
         <v>314</v>
@@ -10737,9 +10737,9 @@
       <c r="AL16" s="57"/>
       <c r="AM16" s="294"/>
     </row>
-    <row r="17" spans="1:39" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A17" s="328" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B17" s="218" t="str">
         <f t="shared" ref="B17:B33" si="5">CONCATENATE("Indicatore ",C17," - ",D17)</f>
@@ -10749,7 +10749,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E17" s="80" t="s">
         <v>65</v>
@@ -10761,7 +10761,7 @@
         <v>103</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="26"/>
@@ -10772,13 +10772,13 @@
         <v>106</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N17" s="315" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O17" s="222" t="s">
-        <v>373</v>
+        <v>813</v>
       </c>
       <c r="P17" s="6">
         <v>1</v>
@@ -10809,9 +10809,9 @@
       <c r="AL17" s="316"/>
       <c r="AM17" s="317"/>
     </row>
-    <row r="18" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A18" s="329" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B18" s="218" t="str">
         <f t="shared" si="5"/>
@@ -10822,7 +10822,7 @@
         <v>91</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>65</v>
@@ -10831,31 +10831,31 @@
         <v>96</v>
       </c>
       <c r="G18" s="277" t="s">
+        <v>545</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="I18" s="54" t="s">
         <v>546</v>
       </c>
-      <c r="H18" s="59" t="s">
-        <v>748</v>
-      </c>
-      <c r="I18" s="54" t="s">
+      <c r="J18" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>548</v>
-      </c>
       <c r="K18" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L18" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="83" t="s">
+        <v>549</v>
+      </c>
+      <c r="N18" s="330" t="s">
         <v>550</v>
       </c>
-      <c r="N18" s="330" t="s">
+      <c r="O18" s="222" t="s">
         <v>551</v>
-      </c>
-      <c r="O18" s="222" t="s">
-        <v>552</v>
       </c>
       <c r="P18" s="6">
         <v>3</v>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="Y18" s="57"/>
       <c r="Z18" s="318" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA18" s="331" t="s">
         <v>19</v>
@@ -10902,7 +10902,7 @@
         <v>252</v>
       </c>
       <c r="AJ18" s="310" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK18" s="308">
         <v>9999999</v>
@@ -10914,9 +10914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A19" s="329" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B19" s="218" t="str">
         <f t="shared" si="5"/>
@@ -10927,7 +10927,7 @@
         <v>92</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E19" s="80" t="s">
         <v>65</v>
@@ -10939,28 +10939,28 @@
         <v>25</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I19" s="54" t="s">
+        <v>546</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>548</v>
-      </c>
       <c r="K19" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L19" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N19" s="104" t="s">
+        <v>567</v>
+      </c>
+      <c r="O19" s="222" t="s">
         <v>568</v>
-      </c>
-      <c r="O19" s="222" t="s">
-        <v>569</v>
       </c>
       <c r="P19" s="6">
         <v>3</v>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="Y19" s="57"/>
       <c r="Z19" s="318" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA19" s="331" t="s">
         <v>19</v>
@@ -11007,7 +11007,7 @@
         <v>252</v>
       </c>
       <c r="AJ19" s="310" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK19" s="308">
         <v>9999999</v>
@@ -11019,9 +11019,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A20" s="319" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B20" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11032,7 +11032,7 @@
         <v>93</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E20" s="80" t="s">
         <v>65</v>
@@ -11044,28 +11044,28 @@
         <v>26</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I20" s="54" t="s">
+        <v>546</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>548</v>
-      </c>
       <c r="K20" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L20" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N20" s="104" t="s">
+        <v>570</v>
+      </c>
+      <c r="O20" s="222" t="s">
         <v>571</v>
-      </c>
-      <c r="O20" s="222" t="s">
-        <v>572</v>
       </c>
       <c r="P20" s="6">
         <v>3</v>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="Y20" s="57"/>
       <c r="Z20" s="318" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA20" s="331" t="s">
         <v>19</v>
@@ -11112,7 +11112,7 @@
         <v>252</v>
       </c>
       <c r="AJ20" s="310" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK20" s="308">
         <v>9999999</v>
@@ -11124,9 +11124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="2" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="319" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B21" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11137,7 +11137,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>65</v>
@@ -11146,31 +11146,31 @@
         <v>96</v>
       </c>
       <c r="G21" s="277" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K21" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L21" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N21" s="104" t="s">
+        <v>574</v>
+      </c>
+      <c r="O21" s="222" t="s">
         <v>575</v>
-      </c>
-      <c r="O21" s="222" t="s">
-        <v>576</v>
       </c>
       <c r="P21" s="6">
         <v>3</v>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="Y21" s="321"/>
       <c r="Z21" s="318" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA21" s="331" t="s">
         <v>19</v>
@@ -11217,7 +11217,7 @@
         <v>252</v>
       </c>
       <c r="AJ21" s="310" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK21" s="308">
         <v>9999999</v>
@@ -11241,7 +11241,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E22" s="80" t="s">
         <v>65</v>
@@ -11253,7 +11253,7 @@
         <v>103</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="26"/>
@@ -11264,13 +11264,13 @@
         <v>332</v>
       </c>
       <c r="M22" s="207" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N22" s="102" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O22" s="193" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P22" s="6">
         <v>1</v>
@@ -11331,7 +11331,7 @@
         <v>151</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E23" s="80" t="s">
         <v>65</v>
@@ -11343,7 +11343,7 @@
         <v>103</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="26"/>
@@ -11354,13 +11354,13 @@
         <v>332</v>
       </c>
       <c r="M23" s="336" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N23" s="102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O23" s="336" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P23" s="6">
         <v>1</v>
@@ -11409,7 +11409,7 @@
     </row>
     <row r="24" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="337" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B24" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11419,40 +11419,40 @@
         <v>162</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E24" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G24" s="220" t="s">
         <v>103</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I24" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="J24" s="26" t="s">
-        <v>581</v>
-      </c>
       <c r="K24" s="276" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L24" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O24" s="320" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P24" s="6">
         <v>2</v>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="Y24" s="321"/>
       <c r="Z24" s="308" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA24" s="292" t="s">
         <v>19</v>
@@ -11499,10 +11499,10 @@
         <v>19</v>
       </c>
       <c r="AJ24" s="57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK24" s="308" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AL24" s="57">
         <v>9999999</v>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="25" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="337" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11524,40 +11524,40 @@
         <v>163</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E25" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G25" s="277" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I25" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="205" t="s">
         <v>585</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="205" t="s">
-        <v>586</v>
       </c>
       <c r="L25" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N25" s="315" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O25" s="253" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P25" s="6">
         <v>1</v>
@@ -11573,10 +11573,10 @@
         <v>4</v>
       </c>
       <c r="Y25" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z25" s="308" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA25" s="279" t="s">
         <v>28</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="26" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="337" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B26" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11631,40 +11631,40 @@
         <v>164</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E26" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G26" s="277" t="s">
+        <v>590</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>684</v>
+      </c>
+      <c r="I26" s="54" t="s">
         <v>591</v>
       </c>
-      <c r="H26" s="59" t="s">
-        <v>685</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>592</v>
-      </c>
       <c r="J26" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K26" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L26" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N26" s="315" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O26" s="222" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P26" s="6">
         <v>2</v>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="Y26" s="321"/>
       <c r="Z26" s="308" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA26" s="292" t="s">
         <v>19</v>
@@ -11711,10 +11711,10 @@
         <v>19</v>
       </c>
       <c r="AJ26" s="57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK26" s="308" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AL26" s="57">
         <v>9999999</v>
@@ -11725,7 +11725,7 @@
     </row>
     <row r="27" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="337" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B27" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11736,40 +11736,40 @@
         <v>165</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E27" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G27" s="277" t="s">
+        <v>595</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>685</v>
+      </c>
+      <c r="I27" s="54" t="s">
         <v>596</v>
       </c>
-      <c r="H27" s="59" t="s">
-        <v>686</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>597</v>
-      </c>
       <c r="J27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="205" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L27" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N27" s="315" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O27" s="253" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P27" s="6">
         <v>1</v>
@@ -11785,10 +11785,10 @@
         <v>4</v>
       </c>
       <c r="Y27" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z27" s="308" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA27" s="279" t="s">
         <v>28</v>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="28" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="337" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B28" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11843,40 +11843,40 @@
         <v>166</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E28" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G28" s="277" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H28" s="59" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K28" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L28" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N28" s="315" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O28" s="222" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P28" s="6">
         <v>2</v>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="Y28" s="321"/>
       <c r="Z28" s="308" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA28" s="292" t="s">
         <v>19</v>
@@ -11923,10 +11923,10 @@
         <v>19</v>
       </c>
       <c r="AJ28" s="57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK28" s="308" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AL28" s="57">
         <v>9999999</v>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="29" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="337" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B29" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11948,40 +11948,40 @@
         <v>167</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E29" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G29" s="277" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J29" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="205" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L29" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N29" s="315" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O29" s="253" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P29" s="6">
         <v>1</v>
@@ -11997,10 +11997,10 @@
         <v>4</v>
       </c>
       <c r="Y29" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z29" s="308" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA29" s="279" t="s">
         <v>28</v>
@@ -12055,28 +12055,28 @@
         <v>168</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E30" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G30" s="220" t="s">
         <v>103</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I30" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>607</v>
-      </c>
       <c r="K30" s="276" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L30" s="47" t="s">
         <v>106</v>
@@ -12085,7 +12085,7 @@
         <v>365</v>
       </c>
       <c r="N30" s="315" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O30" s="222" t="s">
         <v>366</v>
@@ -12104,7 +12104,7 @@
         <v>4</v>
       </c>
       <c r="Z30" s="338" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA30" s="297" t="s">
         <v>19</v>
@@ -12134,7 +12134,7 @@
         <v>19</v>
       </c>
       <c r="AJ30" s="79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK30" s="57">
         <v>9999999</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="31" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="337" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B31" s="218" t="str">
         <f t="shared" si="5"/>
@@ -12159,7 +12159,7 @@
         <v>169</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E31" s="80" t="s">
         <v>65</v>
@@ -12168,31 +12168,31 @@
         <v>24</v>
       </c>
       <c r="G31" s="277" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H31" s="59" t="s">
+        <v>691</v>
+      </c>
+      <c r="I31" s="54" t="s">
         <v>692</v>
       </c>
-      <c r="I31" s="54" t="s">
-        <v>693</v>
-      </c>
       <c r="J31" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K31" s="276" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L31" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N31" s="315" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O31" s="222" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P31" s="6">
         <v>2</v>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="Y31" s="54"/>
       <c r="Z31" s="308" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AA31" s="292" t="s">
         <v>19</v>
@@ -12239,10 +12239,10 @@
         <v>19</v>
       </c>
       <c r="AJ31" s="57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK31" s="308" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AL31" s="57">
         <v>9999999</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="32" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="337" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B32" s="218" t="str">
         <f t="shared" si="5"/>
@@ -12264,7 +12264,7 @@
         <v>170</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E32" s="80" t="s">
         <v>65</v>
@@ -12273,31 +12273,31 @@
         <v>24</v>
       </c>
       <c r="G32" s="277" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K32" s="205" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L32" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M32" s="80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N32" s="315" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O32" s="253" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P32" s="6">
         <v>1</v>
@@ -12313,10 +12313,10 @@
         <v>4</v>
       </c>
       <c r="Y32" s="54" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z32" s="308" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AA32" s="279" t="s">
         <v>28</v>
@@ -12360,7 +12360,7 @@
     </row>
     <row r="33" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="337" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B33" s="218" t="str">
         <f t="shared" si="5"/>
@@ -12371,40 +12371,40 @@
         <v>171</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G33" s="220" t="s">
         <v>103</v>
       </c>
       <c r="H33" s="59" t="s">
+        <v>616</v>
+      </c>
+      <c r="I33" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="J33" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="J33" s="26" t="s">
-        <v>619</v>
-      </c>
       <c r="K33" s="276" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L33" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M33" s="80" t="s">
+        <v>619</v>
+      </c>
+      <c r="N33" s="315" t="s">
         <v>620</v>
       </c>
-      <c r="N33" s="315" t="s">
+      <c r="O33" s="222" t="s">
         <v>621</v>
-      </c>
-      <c r="O33" s="222" t="s">
-        <v>622</v>
       </c>
       <c r="P33" s="6">
         <v>2</v>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="Y33" s="54"/>
       <c r="Z33" s="308" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA33" s="292" t="s">
         <v>19</v>
@@ -12451,7 +12451,7 @@
         <v>19</v>
       </c>
       <c r="AJ33" s="57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK33" s="57">
         <v>9999999</v>
@@ -12467,7 +12467,7 @@
   <autoFilter ref="A2:AM33">
     <filterColumn colId="0">
       <filters>
-        <filter val="CR ad alzo zero"/>
+        <filter val="CR Sistema Netto Banca"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12711,30 +12711,30 @@
       <c r="O1" s="349"/>
       <c r="V1" s="353"/>
       <c r="W1" s="353"/>
-      <c r="X1" s="404" t="s">
+      <c r="X1" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="405"/>
-      <c r="Z1" s="405"/>
-      <c r="AA1" s="406"/>
-      <c r="AB1" s="404" t="s">
+      <c r="Y1" s="406"/>
+      <c r="Z1" s="406"/>
+      <c r="AA1" s="407"/>
+      <c r="AB1" s="405" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="405"/>
-      <c r="AD1" s="405"/>
-      <c r="AE1" s="406"/>
-      <c r="AF1" s="407" t="s">
+      <c r="AC1" s="406"/>
+      <c r="AD1" s="406"/>
+      <c r="AE1" s="407"/>
+      <c r="AF1" s="408" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="408"/>
-      <c r="AH1" s="408"/>
-      <c r="AI1" s="408"/>
-      <c r="AJ1" s="407" t="s">
+      <c r="AG1" s="409"/>
+      <c r="AH1" s="409"/>
+      <c r="AI1" s="409"/>
+      <c r="AJ1" s="408" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="408"/>
-      <c r="AL1" s="408"/>
-      <c r="AM1" s="408"/>
+      <c r="AK1" s="409"/>
+      <c r="AL1" s="409"/>
+      <c r="AM1" s="409"/>
     </row>
     <row r="2" spans="1:39" s="369" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="354" t="s">
@@ -12873,13 +12873,13 @@
         <v>65</v>
       </c>
       <c r="F3" s="370" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G3" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="371" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I3" s="373"/>
       <c r="J3" s="373"/>
@@ -12887,16 +12887,16 @@
         <v>261</v>
       </c>
       <c r="L3" s="375" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M3" s="376" t="s">
         <v>260</v>
       </c>
       <c r="N3" s="377" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O3" s="371" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P3" s="7">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>4</v>
       </c>
       <c r="W3" s="379" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="X3" s="380"/>
       <c r="Y3" s="380"/>
@@ -12941,13 +12941,13 @@
         <v>102</v>
       </c>
       <c r="D4" s="371" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E4" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="370" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G4" s="372" t="s">
         <v>103</v>
@@ -12967,10 +12967,10 @@
         <v>264</v>
       </c>
       <c r="N4" s="377" t="s">
+        <v>723</v>
+      </c>
+      <c r="O4" s="371" t="s">
         <v>724</v>
-      </c>
-      <c r="O4" s="371" t="s">
-        <v>725</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -12984,7 +12984,7 @@
         <v>4</v>
       </c>
       <c r="W4" s="379" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X4" s="380"/>
       <c r="Y4" s="380"/>
@@ -13022,7 +13022,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="370" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G5" s="372" t="s">
         <v>103</v>
@@ -13042,10 +13042,10 @@
         <v>264</v>
       </c>
       <c r="N5" s="377" t="s">
+        <v>725</v>
+      </c>
+      <c r="O5" s="371" t="s">
         <v>726</v>
-      </c>
-      <c r="O5" s="371" t="s">
-        <v>727</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>4</v>
       </c>
       <c r="W5" s="379" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X5" s="380"/>
       <c r="Y5" s="380"/>
@@ -13097,7 +13097,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="370" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G6" s="372" t="s">
         <v>103</v>
@@ -13117,10 +13117,10 @@
         <v>264</v>
       </c>
       <c r="N6" s="377" t="s">
+        <v>727</v>
+      </c>
+      <c r="O6" s="371" t="s">
         <v>728</v>
-      </c>
-      <c r="O6" s="371" t="s">
-        <v>729</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -13134,7 +13134,7 @@
         <v>4</v>
       </c>
       <c r="W6" s="379" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X6" s="380"/>
       <c r="Y6" s="380"/>
@@ -13166,19 +13166,19 @@
         <v>105</v>
       </c>
       <c r="D7" s="254" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E7" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="370" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G7" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="371" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I7" s="373"/>
       <c r="J7" s="373"/>
@@ -13192,7 +13192,7 @@
         <v>264</v>
       </c>
       <c r="N7" s="377" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O7" s="371"/>
       <c r="P7" s="7">
@@ -13207,7 +13207,7 @@
         <v>4</v>
       </c>
       <c r="W7" s="379" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X7" s="380"/>
       <c r="Y7" s="380"/>
@@ -13239,19 +13239,19 @@
         <v>106</v>
       </c>
       <c r="D8" s="371" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E8" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G8" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="371" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I8" s="373"/>
       <c r="J8" s="373"/>
@@ -13262,13 +13262,13 @@
         <v>109</v>
       </c>
       <c r="M8" s="376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N8" s="377" t="s">
         <v>372</v>
       </c>
       <c r="O8" s="371" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P8" s="7">
         <v>1</v>
@@ -13282,7 +13282,7 @@
         <v>4</v>
       </c>
       <c r="W8" s="379" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X8" s="380"/>
       <c r="Y8" s="380"/>
@@ -13314,19 +13314,19 @@
         <v>107</v>
       </c>
       <c r="D9" s="371" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E9" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G9" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H9" s="371" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I9" s="373"/>
       <c r="J9" s="373"/>
@@ -13337,13 +13337,13 @@
         <v>109</v>
       </c>
       <c r="M9" s="376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N9" s="377" t="s">
+        <v>732</v>
+      </c>
+      <c r="O9" s="371" t="s">
         <v>733</v>
-      </c>
-      <c r="O9" s="371" t="s">
-        <v>734</v>
       </c>
       <c r="P9" s="7">
         <v>1</v>
@@ -13357,7 +13357,7 @@
         <v>4</v>
       </c>
       <c r="W9" s="379" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X9" s="380"/>
       <c r="Y9" s="380"/>
@@ -13389,19 +13389,19 @@
         <v>108</v>
       </c>
       <c r="D10" s="371" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E10" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G10" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H10" s="371" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I10" s="373"/>
       <c r="J10" s="373"/>
@@ -13412,13 +13412,13 @@
         <v>109</v>
       </c>
       <c r="M10" s="376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N10" s="377" t="s">
         <v>371</v>
       </c>
       <c r="O10" s="371" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7">
         <v>1</v>
@@ -13432,7 +13432,7 @@
         <v>4</v>
       </c>
       <c r="W10" s="379" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X10" s="380"/>
       <c r="Y10" s="380"/>
@@ -13463,19 +13463,19 @@
         <v>109</v>
       </c>
       <c r="D11" s="254" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E11" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G11" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="371" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I11" s="373"/>
       <c r="J11" s="373"/>
@@ -13486,13 +13486,13 @@
         <v>109</v>
       </c>
       <c r="M11" s="376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N11" s="377" t="s">
         <v>372</v>
       </c>
       <c r="O11" s="371" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P11" s="7">
         <v>1</v>
@@ -13506,7 +13506,7 @@
         <v>4</v>
       </c>
       <c r="W11" s="379" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X11" s="380"/>
       <c r="Y11" s="380"/>
@@ -13537,19 +13537,19 @@
         <v>110</v>
       </c>
       <c r="D12" s="254" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E12" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G12" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H12" s="371" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I12" s="373"/>
       <c r="J12" s="373"/>
@@ -13560,13 +13560,13 @@
         <v>109</v>
       </c>
       <c r="M12" s="376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N12" s="377" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O12" s="371" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P12" s="7">
         <v>1</v>
@@ -13580,7 +13580,7 @@
         <v>4</v>
       </c>
       <c r="W12" s="379" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X12" s="380"/>
       <c r="Y12" s="380"/>
@@ -13611,19 +13611,19 @@
         <v>111</v>
       </c>
       <c r="D13" s="254" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E13" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G13" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H13" s="371" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I13" s="373"/>
       <c r="J13" s="373"/>
@@ -13634,13 +13634,13 @@
         <v>109</v>
       </c>
       <c r="M13" s="376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N13" s="377" t="s">
         <v>371</v>
       </c>
       <c r="O13" s="371" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7">
         <v>1</v>
@@ -13654,7 +13654,7 @@
         <v>4</v>
       </c>
       <c r="W13" s="379" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X13" s="380"/>
       <c r="Y13" s="380"/>
@@ -13691,7 +13691,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="370" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G14" s="372" t="s">
         <v>103</v>
@@ -13728,7 +13728,7 @@
         <v>4</v>
       </c>
       <c r="W14" s="379" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="X14" s="380"/>
       <c r="Y14" s="380"/>
@@ -13765,7 +13765,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="370" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G15" s="372" t="s">
         <v>103</v>
@@ -13802,7 +13802,7 @@
         <v>4</v>
       </c>
       <c r="W15" s="379" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="X15" s="380"/>
       <c r="Y15" s="380"/>
@@ -13839,13 +13839,13 @@
         <v>65</v>
       </c>
       <c r="F16" s="370" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G16" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="371" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I16" s="373"/>
       <c r="J16" s="373"/>
@@ -13859,10 +13859,10 @@
         <v>268</v>
       </c>
       <c r="N16" s="377" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O16" s="371" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7">
         <v>1</v>
@@ -13876,7 +13876,7 @@
         <v>4</v>
       </c>
       <c r="W16" s="252" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="X16" s="380"/>
       <c r="Y16" s="380"/>
@@ -13907,19 +13907,19 @@
         <v>117</v>
       </c>
       <c r="D17" s="371" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E17" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="370" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G17" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H17" s="371" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I17" s="373"/>
       <c r="J17" s="373"/>
@@ -13933,10 +13933,10 @@
         <v>268</v>
       </c>
       <c r="N17" s="377" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O17" s="371" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7">
         <v>1</v>
@@ -13950,7 +13950,7 @@
         <v>4</v>
       </c>
       <c r="W17" s="252" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="X17" s="380"/>
       <c r="Y17" s="380"/>
@@ -13981,19 +13981,19 @@
         <v>119</v>
       </c>
       <c r="D18" s="254" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E18" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G18" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="371" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I18" s="373"/>
       <c r="J18" s="373"/>
@@ -14004,7 +14004,7 @@
         <v>109</v>
       </c>
       <c r="M18" s="376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N18" s="377" t="s">
         <v>371</v>
@@ -14022,7 +14022,7 @@
         <v>4</v>
       </c>
       <c r="W18" s="379" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X18" s="380"/>
       <c r="Y18" s="380"/>
@@ -14053,19 +14053,19 @@
         <v>120</v>
       </c>
       <c r="D19" s="254" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E19" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G19" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="371" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I19" s="373"/>
       <c r="J19" s="373"/>
@@ -14076,7 +14076,7 @@
         <v>109</v>
       </c>
       <c r="M19" s="376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N19" s="377" t="s">
         <v>371</v>
@@ -14094,7 +14094,7 @@
         <v>4</v>
       </c>
       <c r="W19" s="379" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X19" s="380"/>
       <c r="Y19" s="380"/>
@@ -14204,11 +14204,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14221,13 +14221,13 @@
     <col min="6" max="6" width="13.69921875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57.8984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.09765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.8984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.8984375" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.59765625" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="22.69921875" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="18.8984375" style="17" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.59765625" style="18" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="32.296875" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.59765625" style="4" bestFit="1" customWidth="1"/>
@@ -14259,21 +14259,21 @@
       <c r="W1" s="69"/>
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
-      <c r="Z1" s="403" t="s">
+      <c r="Z1" s="404" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="403"/>
-      <c r="AB1" s="403"/>
-      <c r="AC1" s="403" t="s">
+      <c r="AA1" s="404"/>
+      <c r="AB1" s="404"/>
+      <c r="AC1" s="404" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="403"/>
-      <c r="AE1" s="403"/>
-      <c r="AF1" s="403" t="s">
+      <c r="AD1" s="404"/>
+      <c r="AE1" s="404"/>
+      <c r="AF1" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="403"/>
-      <c r="AH1" s="403"/>
+      <c r="AG1" s="404"/>
+      <c r="AH1" s="404"/>
       <c r="AI1" s="108" t="s">
         <v>136</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>7</v>
       </c>
       <c r="S2" s="71" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="T2" s="71" t="s">
         <v>135</v>
@@ -14421,7 +14421,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G3" s="257"/>
       <c r="H3" s="104" t="s">
@@ -14434,13 +14434,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M3" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N3" s="103" t="s">
         <v>334</v>
@@ -14513,7 +14513,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G4" s="257"/>
       <c r="H4" s="102" t="s">
@@ -14526,13 +14526,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M4" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N4" s="103" t="s">
         <v>347</v>
@@ -14604,7 +14604,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G5" s="257"/>
       <c r="H5" s="102" t="s">
@@ -14617,13 +14617,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M5" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N5" s="103" t="s">
         <v>353</v>
@@ -14696,7 +14696,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G6" s="257"/>
       <c r="H6" s="102" t="s">
@@ -14709,13 +14709,13 @@
         <v>28</v>
       </c>
       <c r="K6" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L6" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M6" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N6" s="103" t="s">
         <v>355</v>
@@ -14788,7 +14788,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G7" s="257"/>
       <c r="H7" s="259" t="s">
@@ -14801,13 +14801,13 @@
         <v>28</v>
       </c>
       <c r="K7" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L7" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M7" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N7" s="103" t="s">
         <v>354</v>
@@ -14880,7 +14880,7 @@
         <v>103</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G8" s="257"/>
       <c r="H8" s="104" t="s">
@@ -14899,7 +14899,7 @@
         <v>332</v>
       </c>
       <c r="M8" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N8" s="103" t="s">
         <v>357</v>
@@ -14972,7 +14972,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G9" s="257"/>
       <c r="H9" s="102" t="s">
@@ -14985,13 +14985,13 @@
         <v>28</v>
       </c>
       <c r="K9" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M9" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N9" s="103" t="s">
         <v>359</v>
@@ -15064,7 +15064,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G10" s="257"/>
       <c r="H10" s="102" t="s">
@@ -15077,13 +15077,13 @@
         <v>28</v>
       </c>
       <c r="K10" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L10" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M10" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N10" s="103" t="s">
         <v>361</v>
@@ -15149,40 +15149,40 @@
         <v>234</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E11" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G11" s="264" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="80" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I11" s="82" t="s">
+        <v>628</v>
+      </c>
+      <c r="J11" s="82" t="s">
         <v>629</v>
       </c>
-      <c r="J11" s="82" t="s">
+      <c r="K11" s="205" t="s">
+        <v>548</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="M11" s="307" t="s">
+        <v>670</v>
+      </c>
+      <c r="N11" s="103" t="s">
+        <v>759</v>
+      </c>
+      <c r="O11" s="47" t="s">
         <v>630</v>
-      </c>
-      <c r="K11" s="205" t="s">
-        <v>549</v>
-      </c>
-      <c r="L11" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="M11" s="307" t="s">
-        <v>671</v>
-      </c>
-      <c r="N11" s="103" t="s">
-        <v>760</v>
-      </c>
-      <c r="O11" s="47" t="s">
-        <v>631</v>
       </c>
       <c r="P11" s="6">
         <v>2</v>
@@ -15223,10 +15223,10 @@
         <v>19</v>
       </c>
       <c r="AI11" s="57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AJ11" s="308" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK11" s="57">
         <v>9999999</v>
@@ -15253,7 +15253,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G12" s="261"/>
       <c r="H12" s="102" t="s">
@@ -15266,7 +15266,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L12" s="47" t="s">
         <v>106</v>
@@ -15336,24 +15336,24 @@
         <v>235</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E13" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G13" s="257"/>
       <c r="H13" s="102" t="s">
+        <v>698</v>
+      </c>
+      <c r="I13" s="82" t="s">
         <v>699</v>
-      </c>
-      <c r="I13" s="82" t="s">
-        <v>700</v>
       </c>
       <c r="J13" s="258"/>
       <c r="K13" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>106</v>
@@ -15389,7 +15389,7 @@
       <c r="AK13" s="311"/>
       <c r="AL13" s="312"/>
     </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" s="2" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="266" t="s">
         <v>34</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>103</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>25</v>
@@ -15423,13 +15423,13 @@
         <v>27</v>
       </c>
       <c r="K14" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M14" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N14" s="103" t="s">
         <v>323</v>
@@ -15481,7 +15481,7 @@
       <c r="AK14" s="75"/>
       <c r="AL14" s="75"/>
     </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" s="2" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="255" t="s">
         <v>34</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>103</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>26</v>
@@ -15515,13 +15515,13 @@
         <v>27</v>
       </c>
       <c r="K15" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L15" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M15" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N15" s="103" t="s">
         <v>324</v>
@@ -15573,7 +15573,7 @@
       <c r="AK15" s="75"/>
       <c r="AL15" s="75"/>
     </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" s="2" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="255" t="s">
         <v>34</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G16" s="65" t="s">
         <v>36</v>
@@ -15607,13 +15607,13 @@
         <v>27</v>
       </c>
       <c r="K16" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L16" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N16" s="103" t="s">
         <v>326</v>
@@ -15665,7 +15665,7 @@
       <c r="AK16" s="75"/>
       <c r="AL16" s="75"/>
     </row>
-    <row r="17" spans="1:38" s="2" customFormat="1" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" s="2" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="255" t="s">
         <v>34</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="61" t="s">
@@ -15697,13 +15697,13 @@
         <v>27</v>
       </c>
       <c r="K17" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L17" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M17" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N17" s="103" t="s">
         <v>328</v>
@@ -15755,7 +15755,7 @@
       <c r="AK17" s="75"/>
       <c r="AL17" s="75"/>
     </row>
-    <row r="18" spans="1:38" s="2" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" s="2" customFormat="1" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="255" t="s">
         <v>34</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G18" s="66" t="s">
         <v>36</v>
@@ -15789,13 +15789,13 @@
         <v>27</v>
       </c>
       <c r="K18" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L18" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N18" s="103" t="s">
         <v>326</v>
@@ -15847,7 +15847,7 @@
       <c r="AK18" s="75"/>
       <c r="AL18" s="75"/>
     </row>
-    <row r="19" spans="1:38" s="2" customFormat="1" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" s="2" customFormat="1" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="255" t="s">
         <v>34</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>103</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="61" t="s">
@@ -15879,13 +15879,13 @@
         <v>27</v>
       </c>
       <c r="K19" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L19" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N19" s="103" t="s">
         <v>328</v>
@@ -15937,7 +15937,7 @@
       <c r="AK19" s="75"/>
       <c r="AL19" s="75"/>
     </row>
-    <row r="20" spans="1:38" s="77" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="267" t="s">
         <v>34</v>
       </c>
@@ -15949,13 +15949,13 @@
         <v>220</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E20" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G20" s="65" t="s">
         <v>36</v>
@@ -15970,13 +15970,13 @@
         <v>27</v>
       </c>
       <c r="K20" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L20" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N20" s="103" t="s">
         <v>326</v>
@@ -16028,7 +16028,7 @@
       <c r="AK20" s="76"/>
       <c r="AL20" s="76"/>
     </row>
-    <row r="21" spans="1:38" s="77" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="267" t="s">
         <v>34</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="60" t="s">
@@ -16060,13 +16060,13 @@
         <v>27</v>
       </c>
       <c r="K21" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L21" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M21" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N21" s="103" t="s">
         <v>328</v>
@@ -16118,7 +16118,7 @@
       <c r="AK21" s="76"/>
       <c r="AL21" s="76"/>
     </row>
-    <row r="22" spans="1:38" s="77" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" s="77" customFormat="1" ht="248.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="267" t="s">
         <v>34</v>
       </c>
@@ -16131,13 +16131,13 @@
         <v>222</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E22" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G22" s="65" t="s">
         <v>25</v>
@@ -16152,13 +16152,13 @@
         <v>193</v>
       </c>
       <c r="K22" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L22" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M22" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N22" s="103" t="s">
         <v>323</v>
@@ -16212,7 +16212,7 @@
       <c r="AK22" s="76"/>
       <c r="AL22" s="76"/>
     </row>
-    <row r="23" spans="1:38" s="77" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" s="77" customFormat="1" ht="248.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="267" t="s">
         <v>34</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>103</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G23" s="67" t="s">
         <v>26</v>
@@ -16246,13 +16246,13 @@
         <v>193</v>
       </c>
       <c r="K23" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L23" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M23" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N23" s="103" t="s">
         <v>324</v>
@@ -16306,7 +16306,7 @@
       <c r="AK23" s="76"/>
       <c r="AL23" s="76"/>
     </row>
-    <row r="24" spans="1:38" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="248.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="267" t="s">
         <v>34</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>103</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G24" s="65" t="s">
         <v>36</v>
@@ -16340,13 +16340,13 @@
         <v>193</v>
       </c>
       <c r="K24" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L24" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M24" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N24" s="103" t="s">
         <v>326</v>
@@ -16419,7 +16419,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G25" s="67"/>
       <c r="H25" s="60" t="s">
@@ -16432,7 +16432,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L25" s="47" t="s">
         <v>106</v>
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N25" s="103"/>
       <c r="O25" s="47" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P25" s="6">
         <v>2</v>
@@ -16507,7 +16507,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G26" s="65"/>
       <c r="H26" s="60" t="s">
@@ -16520,7 +16520,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L26" s="47" t="s">
         <v>106</v>
@@ -16595,7 +16595,7 @@
         <v>103</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G27" s="67"/>
       <c r="H27" s="60" t="s">
@@ -16606,7 +16606,7 @@
       </c>
       <c r="J27" s="82"/>
       <c r="K27" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L27" s="47" t="s">
         <v>106</v>
@@ -16656,26 +16656,26 @@
         <v>232</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E28" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G28" s="67"/>
       <c r="H28" s="60" t="s">
+        <v>700</v>
+      </c>
+      <c r="I28" s="82" t="s">
         <v>701</v>
       </c>
-      <c r="I28" s="82" t="s">
-        <v>702</v>
-      </c>
       <c r="J28" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K28" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L28" s="47" t="s">
         <v>106</v>
@@ -16724,26 +16724,26 @@
         <v>233</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E29" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="60" t="s">
+        <v>702</v>
+      </c>
+      <c r="I29" s="82" t="s">
         <v>703</v>
       </c>
-      <c r="I29" s="82" t="s">
-        <v>704</v>
-      </c>
       <c r="J29" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L29" s="47" t="s">
         <v>106</v>
@@ -16791,32 +16791,32 @@
         <v>250</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E30" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G30" s="67"/>
       <c r="H30" s="60" t="s">
+        <v>704</v>
+      </c>
+      <c r="I30" s="82" t="s">
         <v>705</v>
       </c>
-      <c r="I30" s="82" t="s">
-        <v>706</v>
-      </c>
       <c r="J30" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L30" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M30" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N30" s="103"/>
       <c r="O30" s="47"/>
@@ -16861,20 +16861,20 @@
         <v>251</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E31" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="60" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I31" s="82" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J31" s="82" t="s">
         <v>28</v>
@@ -16886,7 +16886,7 @@
         <v>332</v>
       </c>
       <c r="M31" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="47"/>
@@ -16931,17 +16931,17 @@
         <v>252</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E32" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="60" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I32" s="82" t="s">
         <v>28</v>
@@ -16956,7 +16956,7 @@
         <v>332</v>
       </c>
       <c r="M32" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="47"/>
@@ -17001,17 +17001,17 @@
         <v>253</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E33" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="60" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I33" s="82" t="s">
         <v>28</v>
@@ -17026,7 +17026,7 @@
         <v>332</v>
       </c>
       <c r="M33" s="307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="47"/>
@@ -17058,12 +17058,12 @@
       <c r="AK33" s="57"/>
       <c r="AL33" s="294"/>
     </row>
-    <row r="34" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="271" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="218" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("Indicatore ",C34," - ",D34)</f>
         <v>Indicatore 254 - CR0_TUA_NOCOL_L3M</v>
       </c>
       <c r="C34" s="219">
@@ -17071,19 +17071,19 @@
         <v>254</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E34" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I34" s="82" t="s">
         <v>29</v>
@@ -17092,13 +17092,13 @@
         <v>27</v>
       </c>
       <c r="K34" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L34" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M34" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="47"/>
@@ -17128,7 +17128,7 @@
       <c r="AK34" s="57"/>
       <c r="AL34" s="294"/>
     </row>
-    <row r="35" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="271" t="s">
         <v>34</v>
       </c>
@@ -17141,19 +17141,19 @@
         <v>255</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E35" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G35" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="60" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I35" s="82" t="s">
         <v>29</v>
@@ -17162,13 +17162,13 @@
         <v>27</v>
       </c>
       <c r="K35" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L35" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M35" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="47"/>
@@ -17198,7 +17198,7 @@
       <c r="AK35" s="57"/>
       <c r="AL35" s="294"/>
     </row>
-    <row r="36" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="271" t="s">
         <v>34</v>
       </c>
@@ -17211,19 +17211,19 @@
         <v>256</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E36" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G36" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I36" s="82" t="s">
         <v>29</v>
@@ -17232,13 +17232,13 @@
         <v>27</v>
       </c>
       <c r="K36" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L36" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M36" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="47"/>
@@ -17268,7 +17268,7 @@
       <c r="AK36" s="57"/>
       <c r="AL36" s="294"/>
     </row>
-    <row r="37" spans="1:38" s="77" customFormat="1" ht="289.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" s="77" customFormat="1" ht="289.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="271" t="s">
         <v>34</v>
       </c>
@@ -17281,34 +17281,34 @@
         <v>257</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E37" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G37" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>677</v>
+      </c>
+      <c r="I37" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="H37" s="60" t="s">
-        <v>678</v>
-      </c>
-      <c r="I37" s="82" t="s">
+      <c r="J37" s="82" t="s">
         <v>563</v>
       </c>
-      <c r="J37" s="82" t="s">
-        <v>564</v>
-      </c>
       <c r="K37" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L37" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M37" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="47"/>
@@ -17324,7 +17324,7 @@
       <c r="W37" s="278"/>
       <c r="X37" s="36"/>
       <c r="Y37" s="36" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Z37" s="309"/>
       <c r="AA37" s="309"/>
@@ -17340,9 +17340,9 @@
       <c r="AK37" s="57"/>
       <c r="AL37" s="294"/>
     </row>
-    <row r="38" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="271" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B38" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17353,34 +17353,34 @@
         <v>258</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E38" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G38" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="I38" s="82" t="s">
         <v>546</v>
       </c>
-      <c r="H38" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="I38" s="82" t="s">
+      <c r="J38" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="J38" s="82" t="s">
-        <v>548</v>
-      </c>
       <c r="K38" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L38" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M38" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N38" s="103"/>
       <c r="O38" s="47"/>
@@ -17410,9 +17410,9 @@
       <c r="AK38" s="57"/>
       <c r="AL38" s="294"/>
     </row>
-    <row r="39" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A39" s="271" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B39" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17423,34 +17423,34 @@
         <v>259</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E39" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G39" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I39" s="82" t="s">
+        <v>546</v>
+      </c>
+      <c r="J39" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="J39" s="82" t="s">
-        <v>548</v>
-      </c>
       <c r="K39" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L39" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M39" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N39" s="103"/>
       <c r="O39" s="47"/>
@@ -17480,9 +17480,9 @@
       <c r="AK39" s="57"/>
       <c r="AL39" s="294"/>
     </row>
-    <row r="40" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A40" s="271" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B40" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17493,34 +17493,34 @@
         <v>260</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E40" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G40" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I40" s="82" t="s">
+        <v>546</v>
+      </c>
+      <c r="J40" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="J40" s="82" t="s">
-        <v>548</v>
-      </c>
       <c r="K40" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L40" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M40" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N40" s="103"/>
       <c r="O40" s="47"/>
@@ -17550,9 +17550,9 @@
       <c r="AK40" s="57"/>
       <c r="AL40" s="294"/>
     </row>
-    <row r="41" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="271" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B41" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17563,34 +17563,34 @@
         <v>261</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E41" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G41" s="67" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H41" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I41" s="82" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J41" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K41" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L41" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M41" s="307" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N41" s="103"/>
       <c r="O41" s="47"/>
@@ -17633,26 +17633,26 @@
         <v>262</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E42" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="60" t="s">
         <v>189</v>
       </c>
       <c r="I42" s="82" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J42" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K42" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L42" s="47" t="s">
         <v>106</v>
@@ -17703,26 +17703,26 @@
         <v>263</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E43" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="60" t="s">
+        <v>624</v>
+      </c>
+      <c r="I43" s="82" t="s">
         <v>625</v>
       </c>
-      <c r="I43" s="82" t="s">
-        <v>626</v>
-      </c>
       <c r="J43" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K43" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L43" s="47" t="s">
         <v>106</v>
@@ -17773,13 +17773,13 @@
         <v>264</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E44" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="60" t="s">
@@ -17792,7 +17792,7 @@
         <v>186</v>
       </c>
       <c r="K44" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L44" s="47" t="s">
         <v>106</v>
@@ -17830,7 +17830,7 @@
     </row>
     <row r="45" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="271" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B45" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17841,32 +17841,32 @@
         <v>265</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E45" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G45" s="67"/>
       <c r="H45" s="60" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I45" s="82" t="s">
+        <v>579</v>
+      </c>
+      <c r="J45" s="82" t="s">
         <v>580</v>
       </c>
-      <c r="J45" s="82" t="s">
-        <v>581</v>
-      </c>
       <c r="K45" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L45" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N45" s="103"/>
       <c r="O45" s="47"/>
@@ -17898,7 +17898,7 @@
     </row>
     <row r="46" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="271" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B46" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17909,22 +17909,22 @@
         <v>266</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E46" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G46" s="67" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I46" s="82" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J46" s="82" t="s">
         <v>28</v>
@@ -17936,7 +17936,7 @@
         <v>106</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N46" s="103"/>
       <c r="O46" s="47"/>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="47" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="271" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B47" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17979,34 +17979,34 @@
         <v>267</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E47" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G47" s="67" t="s">
+        <v>590</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>684</v>
+      </c>
+      <c r="I47" s="82" t="s">
         <v>591</v>
       </c>
-      <c r="H47" s="60" t="s">
-        <v>685</v>
-      </c>
-      <c r="I47" s="82" t="s">
-        <v>592</v>
-      </c>
       <c r="J47" s="82" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K47" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L47" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N47" s="103"/>
       <c r="O47" s="47"/>
@@ -18038,7 +18038,7 @@
     </row>
     <row r="48" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="271" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B48" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18049,22 +18049,22 @@
         <v>268</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E48" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G48" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>685</v>
+      </c>
+      <c r="I48" s="82" t="s">
         <v>596</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>686</v>
-      </c>
-      <c r="I48" s="82" t="s">
-        <v>597</v>
       </c>
       <c r="J48" s="82" t="s">
         <v>28</v>
@@ -18076,7 +18076,7 @@
         <v>106</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N48" s="103"/>
       <c r="O48" s="47"/>
@@ -18108,7 +18108,7 @@
     </row>
     <row r="49" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="271" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B49" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18119,34 +18119,34 @@
         <v>269</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E49" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G49" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I49" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J49" s="82" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K49" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L49" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N49" s="103"/>
       <c r="O49" s="47"/>
@@ -18178,7 +18178,7 @@
     </row>
     <row r="50" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="271" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B50" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18189,22 +18189,22 @@
         <v>270</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E50" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H50" s="60" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I50" s="82" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J50" s="82" t="s">
         <v>28</v>
@@ -18216,7 +18216,7 @@
         <v>106</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N50" s="103"/>
       <c r="O50" s="47"/>
@@ -18259,26 +18259,26 @@
         <v>271</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E51" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G51" s="67"/>
       <c r="H51" s="60" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I51" s="82" t="s">
+        <v>605</v>
+      </c>
+      <c r="J51" s="82" t="s">
         <v>606</v>
       </c>
-      <c r="J51" s="82" t="s">
-        <v>607</v>
-      </c>
       <c r="K51" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L51" s="47" t="s">
         <v>106</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="52" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="271" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B52" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18327,32 +18327,32 @@
         <v>272</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E52" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G52" s="67"/>
       <c r="H52" s="60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I52" s="82" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J52" s="82" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K52" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L52" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M52" s="37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N52" s="103"/>
       <c r="O52" s="47"/>
@@ -18384,7 +18384,7 @@
     </row>
     <row r="53" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="271" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B53" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18395,20 +18395,20 @@
         <v>273</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E53" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G53" s="67"/>
       <c r="H53" s="60" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I53" s="82" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J53" s="82" t="s">
         <v>28</v>
@@ -18420,7 +18420,7 @@
         <v>106</v>
       </c>
       <c r="M53" s="80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N53" s="103"/>
       <c r="O53" s="47"/>
@@ -18452,7 +18452,7 @@
     </row>
     <row r="54" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="271" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B54" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18463,32 +18463,32 @@
         <v>274</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E54" s="82" t="s">
         <v>103</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="60" t="s">
+        <v>616</v>
+      </c>
+      <c r="I54" s="82" t="s">
         <v>617</v>
       </c>
-      <c r="I54" s="82" t="s">
+      <c r="J54" s="82" t="s">
         <v>618</v>
       </c>
-      <c r="J54" s="82" t="s">
-        <v>619</v>
-      </c>
       <c r="K54" s="205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L54" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M54" s="80" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N54" s="103"/>
       <c r="O54" s="47"/>
@@ -18522,7 +18522,7 @@
   <autoFilter ref="A2:AL54">
     <filterColumn colId="0">
       <filters>
-        <filter val="CR ad alzo zero"/>
+        <filter val="CR Sistema Netto Banca"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18628,35 +18628,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="398" t="s">
+      <c r="X1" s="399" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="399"/>
-      <c r="Z1" s="399"/>
-      <c r="AA1" s="400"/>
-      <c r="AB1" s="398" t="s">
+      <c r="Y1" s="400"/>
+      <c r="Z1" s="400"/>
+      <c r="AA1" s="401"/>
+      <c r="AB1" s="399" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="399"/>
-      <c r="AD1" s="399"/>
-      <c r="AE1" s="400"/>
-      <c r="AF1" s="401" t="s">
+      <c r="AC1" s="400"/>
+      <c r="AD1" s="400"/>
+      <c r="AE1" s="401"/>
+      <c r="AF1" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="401" t="s">
+      <c r="AG1" s="403"/>
+      <c r="AH1" s="403"/>
+      <c r="AI1" s="403"/>
+      <c r="AJ1" s="402" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="402"/>
+      <c r="AK1" s="403"/>
+      <c r="AL1" s="403"/>
+      <c r="AM1" s="403"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="409" t="s">
+      <c r="AO1" s="410" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="409"/>
+      <c r="AP1" s="410"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
@@ -19674,7 +19674,7 @@
         <v>181</v>
       </c>
       <c r="B5" s="165" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="227" t="s">
         <v>177</v>
@@ -19686,7 +19686,7 @@
         <v>155</v>
       </c>
       <c r="F5" s="229" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G5" s="164" t="s">
         <v>148</v>
@@ -19697,176 +19697,176 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="343" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D6" s="199" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E6" s="230"/>
       <c r="F6" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G6" s="160"/>
       <c r="H6" s="160"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="343" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D7" s="199" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E7" s="230"/>
       <c r="F7" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G7" s="199"/>
       <c r="H7" s="199"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="343" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D8" s="199" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E8" s="230"/>
       <c r="F8" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G8" s="199"/>
       <c r="H8" s="199"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="343" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D9" s="199" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E9" s="230"/>
       <c r="F9" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G9" s="199"/>
       <c r="H9" s="199"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D10" s="199" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E10" s="230"/>
       <c r="F10" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G10" s="199"/>
       <c r="H10" s="199"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D11" s="199" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E11" s="230"/>
       <c r="F11" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G11" s="199"/>
       <c r="H11" s="199"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="343" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D12" s="199" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E12" s="230"/>
       <c r="F12" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G12" s="199"/>
       <c r="H12" s="199"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D13" s="199" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13" s="230"/>
       <c r="F13" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G13" s="199"/>
       <c r="H13" s="199"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D14" s="199" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E14" s="230"/>
       <c r="F14" s="231"/>
@@ -19875,276 +19875,276 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="199" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E15" s="230"/>
       <c r="F15" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G15" s="199"/>
       <c r="H15" s="199"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D16" s="199" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E16" s="230"/>
       <c r="F16" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G16" s="199"/>
       <c r="H16" s="199"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D17" s="199" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E17" s="230"/>
       <c r="F17" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G17" s="199"/>
       <c r="H17" s="199"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D18" s="199" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E18" s="230"/>
       <c r="F18" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G18" s="199"/>
       <c r="H18" s="199"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D19" s="199" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E19" s="230"/>
       <c r="F19" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G19" s="199"/>
       <c r="H19" s="199"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D20" s="199" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G20" s="199"/>
       <c r="H20" s="199"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D21" s="199" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E21" s="230"/>
       <c r="F21" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G21" s="199"/>
       <c r="H21" s="199"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D22" s="199" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E22" s="230"/>
       <c r="F22" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G22" s="199"/>
       <c r="H22" s="199"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="346" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D23" s="199" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E23" s="230"/>
       <c r="F23" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G23" s="199"/>
       <c r="H23" s="199"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D24" s="199" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E24" s="230"/>
       <c r="F24" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G24" s="199"/>
       <c r="H24" s="199"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D25" s="199" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E25" s="230"/>
       <c r="F25" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G25" s="199"/>
       <c r="H25" s="199"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D26" s="199" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E26" s="230"/>
       <c r="F26" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G26" s="199"/>
       <c r="H26" s="199"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D27" s="199" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E27" s="230"/>
       <c r="F27" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G27" s="199"/>
       <c r="H27" s="199"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B28" t="s">
         <v>114</v>
       </c>
       <c r="C28" s="344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D28" s="199" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E28" s="230"/>
       <c r="F28" s="231"/>
@@ -20153,19 +20153,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D29" s="199" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E29" s="230" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F29" s="231"/>
       <c r="G29" s="199"/>
@@ -20173,19 +20173,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="346" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D30" s="199" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E30" s="230" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F30" s="231"/>
       <c r="G30" s="199"/>
@@ -20193,16 +20193,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B31" t="s">
         <v>114</v>
       </c>
       <c r="C31" s="345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D31" s="199" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E31" s="230"/>
       <c r="F31" s="231"/>
@@ -20211,16 +20211,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="346" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D32" s="199" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E32" s="230"/>
       <c r="F32" s="231"/>
@@ -20229,16 +20229,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="228" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B33" s="228" t="s">
         <v>114</v>
       </c>
       <c r="C33" s="346" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D33" s="342" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E33" s="230"/>
       <c r="F33" s="231"/>
@@ -20247,102 +20247,102 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B34" t="s">
         <v>114</v>
       </c>
       <c r="C34" s="346" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D34" s="199" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E34" s="230"/>
       <c r="F34" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G34" s="199"/>
       <c r="H34" s="199"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B35" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D35" s="199" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E35" s="230"/>
       <c r="F35" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G35" s="199"/>
       <c r="H35" s="199"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B36" t="s">
         <v>260</v>
       </c>
       <c r="C36" s="344" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D36" s="199" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E36" s="230"/>
       <c r="F36" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G36" s="199"/>
       <c r="H36" s="199"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B37" t="s">
         <v>260</v>
       </c>
       <c r="C37" s="346" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D37" s="199" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E37" s="230"/>
       <c r="F37" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G37" s="199"/>
       <c r="H37" s="199"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="225" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B38" s="224" t="s">
         <v>260</v>
       </c>
       <c r="C38" s="347" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D38" s="226" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E38" s="230" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F38" s="231" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G38" s="197"/>
       <c r="H38" s="198"/>
@@ -20413,112 +20413,112 @@
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="167" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B3" s="391" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C3" s="390" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D3" s="392" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E3" s="393" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" s="391" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C4" s="390" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D4" s="392" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="391" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C5" s="390" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D5" s="392" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="391" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C6" s="390" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D6" s="392" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="391" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C7" s="390" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="C8" s="390" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="C9" s="390" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="390" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="C11" s="390" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="C12" s="390" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="C13" s="390" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="C14" s="390" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20529,13 +20529,13 @@
         <v>260</v>
       </c>
       <c r="D16" s="392" t="s">
+        <v>798</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>799</v>
       </c>
-      <c r="E16" s="393" t="s">
+      <c r="G16" s="394" t="s">
         <v>800</v>
-      </c>
-      <c r="G16" s="394" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20547,25 +20547,25 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="167" t="s">
+        <v>807</v>
+      </c>
+      <c r="C18" s="390" t="s">
+        <v>811</v>
+      </c>
+      <c r="D18" s="392" t="s">
         <v>808</v>
       </c>
-      <c r="C18" s="390" t="s">
-        <v>812</v>
-      </c>
-      <c r="D18" s="392" t="s">
-        <v>809</v>
-      </c>
       <c r="E18" s="393" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G18" s="394" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="D19" s="392" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E19"/>
     </row>
@@ -20581,17 +20581,17 @@
         <v>267</v>
       </c>
       <c r="E21" s="393" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G21" s="394" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="D22"/>
       <c r="E22" s="393" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20603,13 +20603,13 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="167" t="s">
+        <v>803</v>
+      </c>
+      <c r="E24" s="393" t="s">
         <v>804</v>
       </c>
-      <c r="E24" s="393" t="s">
-        <v>805</v>
-      </c>
       <c r="G24" s="394" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20618,13 +20618,13 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="167" t="s">
+        <v>805</v>
+      </c>
+      <c r="D26" s="392" t="s">
         <v>806</v>
       </c>
-      <c r="D26" s="392" t="s">
-        <v>807</v>
-      </c>
       <c r="G26" s="394" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20650,9 +20650,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20770,25 +20773,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20810,9 +20803,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="814">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -1567,22 +1567,10 @@
     <t>BR162 - Socio di società a sofferenza (Indicatore 104)</t>
   </si>
   <si>
-    <t>BR561 - Garanzie a favore di soggetti in sofferenza (Indicatore 103)</t>
-  </si>
-  <si>
-    <t>BR161 - Garanzie a favore di soggetti in sofferenza con importo significativo (Indicatore 103)</t>
-  </si>
-  <si>
     <t>BR160 - Garanzie attivate con esito negativo (Indicatore 102)</t>
   </si>
   <si>
     <t>BR146 - Sconfino CC  con importo significativo (Indicatore 114, Indicatore 115)</t>
-  </si>
-  <si>
-    <t>BR163 - Rate impagate su c/c Banca  (Indicatore 106, Indicatore 107, Indicatore 108)</t>
-  </si>
-  <si>
-    <t>BR164 - Rate impagate con RID/MAV (Indicatore 109, Indicatore 110, Indicatore 111)</t>
   </si>
   <si>
     <t>presente in CORPORATE</t>
@@ -2937,9 +2925,6 @@
     </r>
   </si>
   <si>
-    <t>dove va l'uguale?</t>
-  </si>
-  <si>
     <t>IND_114 &gt; 0 AND IND_115 &gt; 1</t>
   </si>
   <si>
@@ -2958,9 +2943,6 @@
   </si>
   <si>
     <t>IND_103 = 1 AND IND_105 &gt; 0.1</t>
-  </si>
-  <si>
-    <t>IND_103 = 1 AND IND_105 &lt; 0.1</t>
   </si>
   <si>
     <t>Importo residuo debito rate impagate per prodotti su cc</t>
@@ -3115,6 +3097,24 @@
 AMT_GRA_MAT
 AMT_US_ST_C
 REVENUE_T1</t>
+  </si>
+  <si>
+    <t>IND_103 = 1 AND IND_105 = &lt; 0.1</t>
+  </si>
+  <si>
+    <t>BR161 - Garanzie a favore di soggetti in sofferenza con importo significativo (Indicatore 103,indicatore 105)</t>
+  </si>
+  <si>
+    <t>BR561 - Garanzie a favore di soggetti in sofferenza (Indicatore 103, indicatore 105)</t>
+  </si>
+  <si>
+    <t>BR163 - Rate impagate su c/c Banca  (Indicatore 106, Indicatore 107, Indicatore 108, indicatore 119)</t>
+  </si>
+  <si>
+    <t>BR164 - Rate impagate con RID/MAV (Indicatore 109, Indicatore 110, Indicatore 111, indicatore 120)</t>
+  </si>
+  <si>
+    <t>uguale su Arancione?</t>
   </si>
 </sst>
 </file>
@@ -6363,7 +6363,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E1" s="396" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F1" s="396"/>
       <c r="H1" s="397" t="s">
@@ -6374,7 +6374,7 @@
         <v>254</v>
       </c>
       <c r="K1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L1" t="s">
         <v>253</v>
@@ -6386,25 +6386,25 @@
         <v>382</v>
       </c>
       <c r="E2" s="232" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F2" s="232" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2" s="243" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" s="248" t="s">
         <v>473</v>
       </c>
-      <c r="H2" s="243" t="s">
-        <v>476</v>
-      </c>
-      <c r="I2" s="248" t="s">
-        <v>477</v>
-      </c>
       <c r="J2" s="241" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K2" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L2" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -6416,22 +6416,22 @@
         <v>173</v>
       </c>
       <c r="F3" s="233" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H3" s="243" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I3" s="248" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J3" s="241" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K3" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L3" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -6446,19 +6446,19 @@
         <v>449</v>
       </c>
       <c r="H4" s="243" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I4" s="248" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J4" s="241" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K4" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L4" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -6473,19 +6473,19 @@
         <v>447</v>
       </c>
       <c r="H5" s="243" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I5" s="248" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J5" s="241" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K5" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L5" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -6500,19 +6500,19 @@
         <v>446</v>
       </c>
       <c r="H6" s="243" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I6" s="248" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J6" s="241" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K6" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L6" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -6521,25 +6521,25 @@
         <v>331</v>
       </c>
       <c r="E7" s="237" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F7" s="237" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H7" s="243" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I7" s="248" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J7" s="242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K7" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L7" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -6550,270 +6550,270 @@
         <v>386</v>
       </c>
       <c r="E8" s="238" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F8" s="238" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H8" s="243" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I8" s="248" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J8" s="242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K8" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L8" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="244"/>
       <c r="C9" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H9" s="243" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I9" s="248" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J9" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K9" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L9" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H10" s="243" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I10" s="248" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J10" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K10" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L10" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H11" s="243" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I11" s="248" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J11" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K11" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L11" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H12" s="243" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I12" s="248" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J12" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K12" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L12" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="273"/>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H13" s="243" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I13" s="248" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J13" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K13" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L13" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="274"/>
       <c r="C14" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H14" s="243" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I14" s="248" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J14" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K14" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L14" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="275"/>
       <c r="C15" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H15" s="243" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I15" s="248" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J15" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K15" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L15" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H16" s="243" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I16" s="248" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J16" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K16" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L16" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H17" s="243" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I17" s="248" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J17" s="185" t="s">
         <v>176</v>
       </c>
       <c r="K17" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L17" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H18" s="243" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I18" s="248" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J18" s="184" t="s">
         <v>175</v>
       </c>
       <c r="K18" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L18" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H19" s="243" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I19" s="248" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J19" s="184" t="s">
         <v>175</v>
       </c>
       <c r="K19" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L19" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H20" s="243" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I20" s="248" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J20" s="184" t="s">
         <v>175</v>
       </c>
       <c r="K20" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L20" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H21" s="243" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I21" s="248" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J21" s="184" t="s">
         <v>175</v>
       </c>
       <c r="K21" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L21" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H22" s="243" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I22" s="248" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J22" s="184" t="s">
         <v>175</v>
@@ -6822,32 +6822,32 @@
         <v>174</v>
       </c>
       <c r="L22" s="199" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H23" s="243" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I23" s="248" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J23" s="199"/>
       <c r="K23" s="242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L23" s="199"/>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H24" s="243" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I24" s="248" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J24" s="199"/>
       <c r="K24" s="242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L24" s="199"/>
     </row>
@@ -7730,7 +7730,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>280</v>
@@ -7801,7 +7801,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>280</v>
@@ -7873,7 +7873,7 @@
         <v>49</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>280</v>
@@ -8273,7 +8273,7 @@
         <v>52</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M10" s="209" t="s">
         <v>260</v>
@@ -8615,7 +8615,7 @@
         <v>52</v>
       </c>
       <c r="L15" s="47" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M15" s="209" t="s">
         <v>260</v>
@@ -8685,7 +8685,7 @@
         <v>52</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M16" s="209" t="s">
         <v>260</v>
@@ -8806,7 +8806,7 @@
         <v>61</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>280</v>
@@ -8875,7 +8875,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>280</v>
@@ -8944,7 +8944,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>280</v>
@@ -9013,7 +9013,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>280</v>
@@ -9030,7 +9030,7 @@
         <v>52</v>
       </c>
       <c r="L21" s="193" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M21" s="105" t="s">
         <v>70</v>
@@ -9306,7 +9306,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9535,13 +9535,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M3" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N3" s="103" t="s">
         <v>333</v>
@@ -9564,7 +9564,7 @@
         <v>194</v>
       </c>
       <c r="Z3" s="308" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AA3" s="309" t="s">
         <v>28</v>
@@ -9623,7 +9623,7 @@
         <v>103</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="I4" s="54" t="s">
         <v>30</v>
@@ -9632,13 +9632,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M4" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N4" s="102" t="s">
         <v>349</v>
@@ -9661,7 +9661,7 @@
         <v>194</v>
       </c>
       <c r="Z4" s="308" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AA4" s="309" t="s">
         <v>28</v>
@@ -9719,7 +9719,7 @@
         <v>103</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I5" s="54" t="s">
         <v>28</v>
@@ -9734,7 +9734,7 @@
         <v>332</v>
       </c>
       <c r="M5" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N5" s="104" t="s">
         <v>336</v>
@@ -9757,7 +9757,7 @@
         <v>194</v>
       </c>
       <c r="Z5" s="308" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AA5" s="309" t="s">
         <v>28</v>
@@ -9831,7 +9831,7 @@
         <v>332</v>
       </c>
       <c r="M6" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N6" s="104" t="s">
         <v>338</v>
@@ -9854,7 +9854,7 @@
         <v>195</v>
       </c>
       <c r="Z6" s="308" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AA6" s="309"/>
       <c r="AB6" s="313"/>
@@ -9905,13 +9905,13 @@
         <v>106</v>
       </c>
       <c r="M7" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N7" s="315" t="s">
         <v>387</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="P7" s="6">
         <v>1</v>
@@ -9954,7 +9954,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>65</v>
@@ -9963,10 +9963,10 @@
         <v>281</v>
       </c>
       <c r="G8" s="277" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>29</v>
@@ -9975,19 +9975,19 @@
         <v>27</v>
       </c>
       <c r="K8" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M8" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N8" s="104" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P8" s="6">
         <v>3</v>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="Y8" s="57"/>
       <c r="Z8" s="318" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AA8" s="293" t="s">
         <v>19</v>
@@ -10034,7 +10034,7 @@
         <v>252</v>
       </c>
       <c r="AJ8" s="310" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK8" s="308">
         <v>9999999</v>
@@ -10058,7 +10058,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E9" s="80" t="s">
         <v>65</v>
@@ -10067,31 +10067,31 @@
         <v>281</v>
       </c>
       <c r="G9" s="277" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K9" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M9" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N9" s="104" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="O9" s="247" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="P9" s="6">
         <v>3</v>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="Y9" s="321"/>
       <c r="Z9" s="318" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AA9" s="293" t="s">
         <v>19</v>
@@ -10138,7 +10138,7 @@
         <v>252</v>
       </c>
       <c r="AJ9" s="310" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK9" s="308">
         <v>9999999</v>
@@ -10175,7 +10175,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>29</v>
@@ -10184,13 +10184,13 @@
         <v>27</v>
       </c>
       <c r="K10" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L10" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N10" s="104" t="s">
         <v>323</v>
@@ -10211,7 +10211,7 @@
       <c r="X10" s="73"/>
       <c r="Y10" s="56"/>
       <c r="Z10" s="318" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AA10" s="270" t="s">
         <v>19</v>
@@ -10270,7 +10270,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="I11" s="54" t="s">
         <v>29</v>
@@ -10279,13 +10279,13 @@
         <v>27</v>
       </c>
       <c r="K11" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L11" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M11" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N11" s="104" t="s">
         <v>324</v>
@@ -10306,7 +10306,7 @@
       <c r="X11" s="73"/>
       <c r="Y11" s="56"/>
       <c r="Z11" s="318" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AA11" s="270" t="s">
         <v>19</v>
@@ -10364,7 +10364,7 @@
         <v>103</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="26"/>
@@ -10446,7 +10446,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>106</v>
@@ -10518,7 +10518,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E14" s="80" t="s">
         <v>65</v>
@@ -10527,19 +10527,19 @@
         <v>97</v>
       </c>
       <c r="G14" s="220" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>106</v>
@@ -10548,10 +10548,10 @@
         <v>312</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="O14" s="222" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="P14" s="6">
         <v>2</v>
@@ -10597,7 +10597,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="26"/>
@@ -10678,7 +10678,7 @@
         <v>186</v>
       </c>
       <c r="K16" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L16" s="47" t="s">
         <v>106</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="17" spans="1:39" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A17" s="328" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B17" s="218" t="str">
         <f t="shared" ref="B17:B33" si="5">CONCATENATE("Indicatore ",C17," - ",D17)</f>
@@ -10749,7 +10749,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E17" s="80" t="s">
         <v>65</v>
@@ -10761,7 +10761,7 @@
         <v>103</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="26"/>
@@ -10772,13 +10772,13 @@
         <v>106</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N17" s="315" t="s">
         <v>387</v>
       </c>
       <c r="O17" s="222" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="P17" s="6">
         <v>1</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="18" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A18" s="329" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B18" s="218" t="str">
         <f t="shared" si="5"/>
@@ -10822,7 +10822,7 @@
         <v>91</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>65</v>
@@ -10831,31 +10831,31 @@
         <v>96</v>
       </c>
       <c r="G18" s="277" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K18" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L18" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N18" s="330" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O18" s="222" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P18" s="6">
         <v>3</v>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="Y18" s="57"/>
       <c r="Z18" s="318" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AA18" s="331" t="s">
         <v>19</v>
@@ -10902,7 +10902,7 @@
         <v>252</v>
       </c>
       <c r="AJ18" s="310" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK18" s="308">
         <v>9999999</v>
@@ -10916,7 +10916,7 @@
     </row>
     <row r="19" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A19" s="329" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B19" s="218" t="str">
         <f t="shared" si="5"/>
@@ -10927,7 +10927,7 @@
         <v>92</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E19" s="80" t="s">
         <v>65</v>
@@ -10939,28 +10939,28 @@
         <v>25</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K19" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L19" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N19" s="104" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="O19" s="222" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P19" s="6">
         <v>3</v>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="Y19" s="57"/>
       <c r="Z19" s="318" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AA19" s="331" t="s">
         <v>19</v>
@@ -11007,7 +11007,7 @@
         <v>252</v>
       </c>
       <c r="AJ19" s="310" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK19" s="308">
         <v>9999999</v>
@@ -11021,7 +11021,7 @@
     </row>
     <row r="20" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A20" s="319" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B20" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11032,7 +11032,7 @@
         <v>93</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E20" s="80" t="s">
         <v>65</v>
@@ -11044,28 +11044,28 @@
         <v>26</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K20" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L20" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N20" s="104" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="O20" s="222" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P20" s="6">
         <v>3</v>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="Y20" s="57"/>
       <c r="Z20" s="318" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AA20" s="331" t="s">
         <v>19</v>
@@ -11112,7 +11112,7 @@
         <v>252</v>
       </c>
       <c r="AJ20" s="310" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK20" s="308">
         <v>9999999</v>
@@ -11126,7 +11126,7 @@
     </row>
     <row r="21" spans="1:39" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="319" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B21" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11137,7 +11137,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>65</v>
@@ -11146,31 +11146,31 @@
         <v>96</v>
       </c>
       <c r="G21" s="277" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K21" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L21" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N21" s="104" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="O21" s="222" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="P21" s="6">
         <v>3</v>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="Y21" s="321"/>
       <c r="Z21" s="318" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AA21" s="331" t="s">
         <v>19</v>
@@ -11217,7 +11217,7 @@
         <v>252</v>
       </c>
       <c r="AJ21" s="310" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK21" s="308">
         <v>9999999</v>
@@ -11241,7 +11241,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E22" s="80" t="s">
         <v>65</v>
@@ -11253,7 +11253,7 @@
         <v>103</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="26"/>
@@ -11264,13 +11264,13 @@
         <v>332</v>
       </c>
       <c r="M22" s="207" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="N22" s="102" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O22" s="193" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P22" s="6">
         <v>1</v>
@@ -11331,7 +11331,7 @@
         <v>151</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E23" s="80" t="s">
         <v>65</v>
@@ -11343,7 +11343,7 @@
         <v>103</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="26"/>
@@ -11354,13 +11354,13 @@
         <v>332</v>
       </c>
       <c r="M23" s="336" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N23" s="102" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O23" s="336" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P23" s="6">
         <v>1</v>
@@ -11409,7 +11409,7 @@
     </row>
     <row r="24" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="337" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B24" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11419,40 +11419,40 @@
         <v>162</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E24" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G24" s="220" t="s">
         <v>103</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K24" s="276" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L24" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O24" s="320" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="P24" s="6">
         <v>2</v>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="Y24" s="321"/>
       <c r="Z24" s="308" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AA24" s="292" t="s">
         <v>19</v>
@@ -11499,10 +11499,10 @@
         <v>19</v>
       </c>
       <c r="AJ24" s="57" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK24" s="308" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AL24" s="57">
         <v>9999999</v>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="25" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="337" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B25" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11524,40 +11524,40 @@
         <v>163</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E25" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G25" s="277" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J25" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K25" s="205" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L25" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N25" s="315" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="O25" s="253" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P25" s="6">
         <v>1</v>
@@ -11573,10 +11573,10 @@
         <v>4</v>
       </c>
       <c r="Y25" s="57" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="Z25" s="308" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AA25" s="279" t="s">
         <v>28</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="26" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="337" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B26" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11631,40 +11631,40 @@
         <v>164</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E26" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G26" s="277" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H26" s="59" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K26" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L26" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M26" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="N26" s="315" t="s">
+        <v>749</v>
+      </c>
+      <c r="O26" s="222" t="s">
         <v>588</v>
-      </c>
-      <c r="N26" s="315" t="s">
-        <v>753</v>
-      </c>
-      <c r="O26" s="222" t="s">
-        <v>592</v>
       </c>
       <c r="P26" s="6">
         <v>2</v>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="Y26" s="321"/>
       <c r="Z26" s="308" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AA26" s="292" t="s">
         <v>19</v>
@@ -11711,10 +11711,10 @@
         <v>19</v>
       </c>
       <c r="AJ26" s="57" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK26" s="308" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AL26" s="57">
         <v>9999999</v>
@@ -11725,7 +11725,7 @@
     </row>
     <row r="27" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="337" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B27" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11736,40 +11736,40 @@
         <v>165</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E27" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G27" s="277" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H27" s="59" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="205" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L27" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N27" s="315" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="O27" s="253" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="P27" s="6">
         <v>1</v>
@@ -11785,10 +11785,10 @@
         <v>4</v>
       </c>
       <c r="Y27" s="57" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="Z27" s="308" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AA27" s="279" t="s">
         <v>28</v>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="28" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="337" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B28" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11843,40 +11843,40 @@
         <v>166</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E28" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G28" s="277" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H28" s="59" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K28" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L28" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N28" s="315" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="O28" s="222" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P28" s="6">
         <v>2</v>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="Y28" s="321"/>
       <c r="Z28" s="308" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AA28" s="292" t="s">
         <v>19</v>
@@ -11923,10 +11923,10 @@
         <v>19</v>
       </c>
       <c r="AJ28" s="57" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK28" s="308" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AL28" s="57">
         <v>9999999</v>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="29" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="337" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B29" s="218" t="str">
         <f t="shared" si="5"/>
@@ -11948,40 +11948,40 @@
         <v>167</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E29" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G29" s="277" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J29" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="205" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L29" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N29" s="315" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="O29" s="253" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P29" s="6">
         <v>1</v>
@@ -11997,10 +11997,10 @@
         <v>4</v>
       </c>
       <c r="Y29" s="57" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="Z29" s="308" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AA29" s="279" t="s">
         <v>28</v>
@@ -12055,28 +12055,28 @@
         <v>168</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E30" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G30" s="220" t="s">
         <v>103</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I30" s="54" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="K30" s="276" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L30" s="47" t="s">
         <v>106</v>
@@ -12085,7 +12085,7 @@
         <v>365</v>
       </c>
       <c r="N30" s="315" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="O30" s="222" t="s">
         <v>366</v>
@@ -12104,7 +12104,7 @@
         <v>4</v>
       </c>
       <c r="Z30" s="338" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AA30" s="297" t="s">
         <v>19</v>
@@ -12134,7 +12134,7 @@
         <v>19</v>
       </c>
       <c r="AJ30" s="79" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK30" s="57">
         <v>9999999</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="31" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="337" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B31" s="218" t="str">
         <f t="shared" si="5"/>
@@ -12159,7 +12159,7 @@
         <v>169</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E31" s="80" t="s">
         <v>65</v>
@@ -12168,31 +12168,31 @@
         <v>24</v>
       </c>
       <c r="G31" s="277" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="I31" s="54" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K31" s="276" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L31" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N31" s="315" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="O31" s="222" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P31" s="6">
         <v>2</v>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="Y31" s="54"/>
       <c r="Z31" s="308" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AA31" s="292" t="s">
         <v>19</v>
@@ -12239,10 +12239,10 @@
         <v>19</v>
       </c>
       <c r="AJ31" s="57" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK31" s="308" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AL31" s="57">
         <v>9999999</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="32" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="337" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B32" s="218" t="str">
         <f t="shared" si="5"/>
@@ -12264,7 +12264,7 @@
         <v>170</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E32" s="80" t="s">
         <v>65</v>
@@ -12273,31 +12273,31 @@
         <v>24</v>
       </c>
       <c r="G32" s="277" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H32" s="59" t="s">
+        <v>685</v>
+      </c>
+      <c r="I32" s="54" t="s">
         <v>689</v>
       </c>
-      <c r="I32" s="54" t="s">
-        <v>693</v>
-      </c>
       <c r="J32" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K32" s="205" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L32" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M32" s="80" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N32" s="315" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="O32" s="253" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P32" s="6">
         <v>1</v>
@@ -12313,10 +12313,10 @@
         <v>4</v>
       </c>
       <c r="Y32" s="54" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="Z32" s="308" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AA32" s="279" t="s">
         <v>28</v>
@@ -12360,7 +12360,7 @@
     </row>
     <row r="33" spans="1:39" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="337" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B33" s="218" t="str">
         <f t="shared" si="5"/>
@@ -12371,40 +12371,40 @@
         <v>171</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G33" s="220" t="s">
         <v>103</v>
       </c>
       <c r="H33" s="59" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K33" s="276" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L33" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M33" s="80" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="N33" s="315" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="O33" s="222" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="P33" s="6">
         <v>2</v>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="Y33" s="54"/>
       <c r="Z33" s="308" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AA33" s="292" t="s">
         <v>19</v>
@@ -12451,7 +12451,7 @@
         <v>19</v>
       </c>
       <c r="AJ33" s="57" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK33" s="57">
         <v>9999999</v>
@@ -12664,10 +12664,10 @@
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12873,13 +12873,13 @@
         <v>65</v>
       </c>
       <c r="F3" s="370" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G3" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="371" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I3" s="373"/>
       <c r="J3" s="373"/>
@@ -12887,16 +12887,16 @@
         <v>261</v>
       </c>
       <c r="L3" s="375" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M3" s="376" t="s">
         <v>260</v>
       </c>
       <c r="N3" s="377" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="O3" s="371" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P3" s="7">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>4</v>
       </c>
       <c r="W3" s="379" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="X3" s="380"/>
       <c r="Y3" s="380"/>
@@ -12941,13 +12941,13 @@
         <v>102</v>
       </c>
       <c r="D4" s="371" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E4" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="370" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G4" s="372" t="s">
         <v>103</v>
@@ -12967,10 +12967,10 @@
         <v>264</v>
       </c>
       <c r="N4" s="377" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="O4" s="371" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -12984,7 +12984,7 @@
         <v>4</v>
       </c>
       <c r="W4" s="379" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="X4" s="380"/>
       <c r="Y4" s="380"/>
@@ -13022,7 +13022,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="370" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G5" s="372" t="s">
         <v>103</v>
@@ -13042,10 +13042,10 @@
         <v>264</v>
       </c>
       <c r="N5" s="377" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="O5" s="371" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>4</v>
       </c>
       <c r="W5" s="379" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="X5" s="380"/>
       <c r="Y5" s="380"/>
@@ -13097,7 +13097,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="370" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G6" s="372" t="s">
         <v>103</v>
@@ -13117,10 +13117,10 @@
         <v>264</v>
       </c>
       <c r="N6" s="377" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="O6" s="371" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -13134,7 +13134,7 @@
         <v>4</v>
       </c>
       <c r="W6" s="379" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="X6" s="380"/>
       <c r="Y6" s="380"/>
@@ -13166,19 +13166,19 @@
         <v>105</v>
       </c>
       <c r="D7" s="254" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E7" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="370" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G7" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="371" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I7" s="373"/>
       <c r="J7" s="373"/>
@@ -13192,7 +13192,7 @@
         <v>264</v>
       </c>
       <c r="N7" s="377" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="O7" s="371"/>
       <c r="P7" s="7">
@@ -13207,7 +13207,7 @@
         <v>4</v>
       </c>
       <c r="W7" s="379" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="X7" s="380"/>
       <c r="Y7" s="380"/>
@@ -13239,19 +13239,19 @@
         <v>106</v>
       </c>
       <c r="D8" s="371" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E8" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="370" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G8" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="371" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="I8" s="373"/>
       <c r="J8" s="373"/>
@@ -13268,7 +13268,7 @@
         <v>372</v>
       </c>
       <c r="O8" s="371" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="P8" s="7">
         <v>1</v>
@@ -13282,7 +13282,7 @@
         <v>4</v>
       </c>
       <c r="W8" s="379" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X8" s="380"/>
       <c r="Y8" s="380"/>
@@ -13314,13 +13314,13 @@
         <v>107</v>
       </c>
       <c r="D9" s="371" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E9" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="370" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G9" s="372" t="s">
         <v>103</v>
@@ -13340,10 +13340,10 @@
         <v>384</v>
       </c>
       <c r="N9" s="377" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="O9" s="371" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="P9" s="7">
         <v>1</v>
@@ -13357,7 +13357,7 @@
         <v>4</v>
       </c>
       <c r="W9" s="379" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X9" s="380"/>
       <c r="Y9" s="380"/>
@@ -13389,13 +13389,13 @@
         <v>108</v>
       </c>
       <c r="D10" s="371" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E10" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="370" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G10" s="372" t="s">
         <v>103</v>
@@ -13432,7 +13432,7 @@
         <v>4</v>
       </c>
       <c r="W10" s="379" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X10" s="380"/>
       <c r="Y10" s="380"/>
@@ -13463,19 +13463,19 @@
         <v>109</v>
       </c>
       <c r="D11" s="254" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E11" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="370" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G11" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="371" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I11" s="373"/>
       <c r="J11" s="373"/>
@@ -13492,7 +13492,7 @@
         <v>372</v>
       </c>
       <c r="O11" s="371" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="P11" s="7">
         <v>1</v>
@@ -13506,7 +13506,7 @@
         <v>4</v>
       </c>
       <c r="W11" s="379" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X11" s="380"/>
       <c r="Y11" s="380"/>
@@ -13537,13 +13537,13 @@
         <v>110</v>
       </c>
       <c r="D12" s="254" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E12" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="370" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G12" s="372" t="s">
         <v>103</v>
@@ -13563,10 +13563,10 @@
         <v>384</v>
       </c>
       <c r="N12" s="377" t="s">
+        <v>728</v>
+      </c>
+      <c r="O12" s="371" t="s">
         <v>732</v>
-      </c>
-      <c r="O12" s="371" t="s">
-        <v>736</v>
       </c>
       <c r="P12" s="7">
         <v>1</v>
@@ -13580,7 +13580,7 @@
         <v>4</v>
       </c>
       <c r="W12" s="379" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X12" s="380"/>
       <c r="Y12" s="380"/>
@@ -13611,13 +13611,13 @@
         <v>111</v>
       </c>
       <c r="D13" s="254" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E13" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="370" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G13" s="372" t="s">
         <v>103</v>
@@ -13654,7 +13654,7 @@
         <v>4</v>
       </c>
       <c r="W13" s="379" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X13" s="380"/>
       <c r="Y13" s="380"/>
@@ -13691,7 +13691,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="370" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G14" s="372" t="s">
         <v>103</v>
@@ -13728,7 +13728,7 @@
         <v>4</v>
       </c>
       <c r="W14" s="379" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="X14" s="380"/>
       <c r="Y14" s="380"/>
@@ -13765,7 +13765,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="370" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G15" s="372" t="s">
         <v>103</v>
@@ -13802,7 +13802,7 @@
         <v>4</v>
       </c>
       <c r="W15" s="379" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="X15" s="380"/>
       <c r="Y15" s="380"/>
@@ -13839,7 +13839,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="370" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G16" s="372" t="s">
         <v>103</v>
@@ -13876,7 +13876,7 @@
         <v>4</v>
       </c>
       <c r="W16" s="252" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="X16" s="380"/>
       <c r="Y16" s="380"/>
@@ -13913,7 +13913,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="370" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G17" s="372" t="s">
         <v>103</v>
@@ -13950,7 +13950,7 @@
         <v>4</v>
       </c>
       <c r="W17" s="252" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="X17" s="380"/>
       <c r="Y17" s="380"/>
@@ -13981,19 +13981,19 @@
         <v>119</v>
       </c>
       <c r="D18" s="254" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E18" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="370" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G18" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="371" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="I18" s="373"/>
       <c r="J18" s="373"/>
@@ -14022,7 +14022,7 @@
         <v>4</v>
       </c>
       <c r="W18" s="379" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X18" s="380"/>
       <c r="Y18" s="380"/>
@@ -14053,19 +14053,19 @@
         <v>120</v>
       </c>
       <c r="D19" s="254" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E19" s="371" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="370" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G19" s="372" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="371" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="I19" s="373"/>
       <c r="J19" s="373"/>
@@ -14094,7 +14094,7 @@
         <v>4</v>
       </c>
       <c r="W19" s="379" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X19" s="380"/>
       <c r="Y19" s="380"/>
@@ -14343,7 +14343,7 @@
         <v>7</v>
       </c>
       <c r="S2" s="71" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="T2" s="71" t="s">
         <v>135</v>
@@ -14421,7 +14421,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G3" s="257"/>
       <c r="H3" s="104" t="s">
@@ -14434,13 +14434,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M3" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N3" s="103" t="s">
         <v>334</v>
@@ -14513,7 +14513,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G4" s="257"/>
       <c r="H4" s="102" t="s">
@@ -14526,13 +14526,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M4" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N4" s="103" t="s">
         <v>347</v>
@@ -14604,7 +14604,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G5" s="257"/>
       <c r="H5" s="102" t="s">
@@ -14617,13 +14617,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M5" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N5" s="103" t="s">
         <v>353</v>
@@ -14677,7 +14677,7 @@
       <c r="AK5" s="311"/>
       <c r="AL5" s="312"/>
     </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="255" t="s">
         <v>35</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G6" s="257"/>
       <c r="H6" s="102" t="s">
@@ -14709,13 +14709,13 @@
         <v>28</v>
       </c>
       <c r="K6" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L6" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M6" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N6" s="103" t="s">
         <v>355</v>
@@ -14788,7 +14788,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G7" s="257"/>
       <c r="H7" s="259" t="s">
@@ -14801,13 +14801,13 @@
         <v>28</v>
       </c>
       <c r="K7" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L7" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M7" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N7" s="103" t="s">
         <v>354</v>
@@ -14880,7 +14880,7 @@
         <v>103</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G8" s="257"/>
       <c r="H8" s="104" t="s">
@@ -14899,7 +14899,7 @@
         <v>332</v>
       </c>
       <c r="M8" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N8" s="103" t="s">
         <v>357</v>
@@ -14972,7 +14972,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G9" s="257"/>
       <c r="H9" s="102" t="s">
@@ -14985,13 +14985,13 @@
         <v>28</v>
       </c>
       <c r="K9" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M9" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N9" s="103" t="s">
         <v>359</v>
@@ -15045,7 +15045,7 @@
       <c r="AK9" s="311"/>
       <c r="AL9" s="312"/>
     </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="255" t="s">
         <v>35</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G10" s="257"/>
       <c r="H10" s="102" t="s">
@@ -15077,13 +15077,13 @@
         <v>28</v>
       </c>
       <c r="K10" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L10" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M10" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N10" s="103" t="s">
         <v>361</v>
@@ -15149,40 +15149,40 @@
         <v>234</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E11" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G11" s="264" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="80" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J11" s="82" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K11" s="205" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M11" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N11" s="103" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="P11" s="6">
         <v>2</v>
@@ -15223,10 +15223,10 @@
         <v>19</v>
       </c>
       <c r="AI11" s="57" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AJ11" s="308" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK11" s="57">
         <v>9999999</v>
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" s="2" customFormat="1" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="255" t="s">
         <v>182</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G12" s="261"/>
       <c r="H12" s="102" t="s">
@@ -15266,7 +15266,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L12" s="47" t="s">
         <v>106</v>
@@ -15324,7 +15324,7 @@
       <c r="AK12" s="311"/>
       <c r="AL12" s="312"/>
     </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" s="2" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="206" t="s">
         <v>182</v>
       </c>
@@ -15336,24 +15336,24 @@
         <v>235</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E13" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G13" s="257"/>
       <c r="H13" s="102" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="I13" s="82" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J13" s="258"/>
       <c r="K13" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>106</v>
@@ -15408,7 +15408,7 @@
         <v>103</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>25</v>
@@ -15423,13 +15423,13 @@
         <v>27</v>
       </c>
       <c r="K14" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M14" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N14" s="103" t="s">
         <v>323</v>
@@ -15500,7 +15500,7 @@
         <v>103</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>26</v>
@@ -15515,13 +15515,13 @@
         <v>27</v>
       </c>
       <c r="K15" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L15" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M15" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N15" s="103" t="s">
         <v>324</v>
@@ -15592,7 +15592,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G16" s="65" t="s">
         <v>36</v>
@@ -15607,13 +15607,13 @@
         <v>27</v>
       </c>
       <c r="K16" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L16" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N16" s="103" t="s">
         <v>326</v>
@@ -15684,7 +15684,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="61" t="s">
@@ -15697,13 +15697,13 @@
         <v>27</v>
       </c>
       <c r="K17" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L17" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M17" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N17" s="103" t="s">
         <v>328</v>
@@ -15774,7 +15774,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G18" s="66" t="s">
         <v>36</v>
@@ -15789,13 +15789,13 @@
         <v>27</v>
       </c>
       <c r="K18" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L18" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N18" s="103" t="s">
         <v>326</v>
@@ -15866,7 +15866,7 @@
         <v>103</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="61" t="s">
@@ -15879,13 +15879,13 @@
         <v>27</v>
       </c>
       <c r="K19" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L19" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N19" s="103" t="s">
         <v>328</v>
@@ -15949,13 +15949,13 @@
         <v>220</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E20" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G20" s="65" t="s">
         <v>36</v>
@@ -15970,13 +15970,13 @@
         <v>27</v>
       </c>
       <c r="K20" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L20" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N20" s="103" t="s">
         <v>326</v>
@@ -16047,7 +16047,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="60" t="s">
@@ -16060,13 +16060,13 @@
         <v>27</v>
       </c>
       <c r="K21" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L21" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M21" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N21" s="103" t="s">
         <v>328</v>
@@ -16131,13 +16131,13 @@
         <v>222</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E22" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G22" s="65" t="s">
         <v>25</v>
@@ -16152,13 +16152,13 @@
         <v>193</v>
       </c>
       <c r="K22" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L22" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M22" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N22" s="103" t="s">
         <v>323</v>
@@ -16231,7 +16231,7 @@
         <v>103</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G23" s="67" t="s">
         <v>26</v>
@@ -16246,13 +16246,13 @@
         <v>193</v>
       </c>
       <c r="K23" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L23" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M23" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N23" s="103" t="s">
         <v>324</v>
@@ -16325,7 +16325,7 @@
         <v>103</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G24" s="65" t="s">
         <v>36</v>
@@ -16340,13 +16340,13 @@
         <v>193</v>
       </c>
       <c r="K24" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L24" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M24" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N24" s="103" t="s">
         <v>326</v>
@@ -16400,7 +16400,7 @@
       <c r="AK24" s="75"/>
       <c r="AL24" s="75"/>
     </row>
-    <row r="25" spans="1:38" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="267" t="s">
         <v>183</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G25" s="67"/>
       <c r="H25" s="60" t="s">
@@ -16432,7 +16432,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L25" s="47" t="s">
         <v>106</v>
@@ -16442,7 +16442,7 @@
       </c>
       <c r="N25" s="103"/>
       <c r="O25" s="47" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P25" s="6">
         <v>2</v>
@@ -16488,7 +16488,7 @@
       <c r="AK25" s="75"/>
       <c r="AL25" s="75"/>
     </row>
-    <row r="26" spans="1:38" s="77" customFormat="1" ht="400.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" s="77" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="267" t="s">
         <v>183</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G26" s="65"/>
       <c r="H26" s="60" t="s">
@@ -16520,7 +16520,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L26" s="47" t="s">
         <v>106</v>
@@ -16576,7 +16576,7 @@
       <c r="AK26" s="57"/>
       <c r="AL26" s="294"/>
     </row>
-    <row r="27" spans="1:38" s="77" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" s="77" customFormat="1" ht="220.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="267" t="s">
         <v>183</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>103</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G27" s="67"/>
       <c r="H27" s="60" t="s">
@@ -16606,7 +16606,7 @@
       </c>
       <c r="J27" s="82"/>
       <c r="K27" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L27" s="47" t="s">
         <v>106</v>
@@ -16644,7 +16644,7 @@
       <c r="AK27" s="57"/>
       <c r="AL27" s="294"/>
     </row>
-    <row r="28" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="271" t="s">
         <v>183</v>
       </c>
@@ -16656,26 +16656,26 @@
         <v>232</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E28" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G28" s="67"/>
       <c r="H28" s="60" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I28" s="82" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J28" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K28" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L28" s="47" t="s">
         <v>106</v>
@@ -16711,7 +16711,7 @@
       <c r="AK28" s="57"/>
       <c r="AL28" s="294"/>
     </row>
-    <row r="29" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="271" t="s">
         <v>183</v>
       </c>
@@ -16724,26 +16724,26 @@
         <v>233</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E29" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="60" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I29" s="82" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J29" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L29" s="47" t="s">
         <v>106</v>
@@ -16779,7 +16779,7 @@
       <c r="AK29" s="57"/>
       <c r="AL29" s="294"/>
     </row>
-    <row r="30" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="271" t="s">
         <v>35</v>
       </c>
@@ -16791,32 +16791,32 @@
         <v>250</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E30" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G30" s="67"/>
       <c r="H30" s="60" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J30" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L30" s="47" t="s">
         <v>332</v>
       </c>
       <c r="M30" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N30" s="103"/>
       <c r="O30" s="47"/>
@@ -16861,20 +16861,20 @@
         <v>251</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E31" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="60" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="I31" s="82" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J31" s="82" t="s">
         <v>28</v>
@@ -16886,7 +16886,7 @@
         <v>332</v>
       </c>
       <c r="M31" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="47"/>
@@ -16931,17 +16931,17 @@
         <v>252</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E32" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="60" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="I32" s="82" t="s">
         <v>28</v>
@@ -16956,7 +16956,7 @@
         <v>332</v>
       </c>
       <c r="M32" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="47"/>
@@ -17001,17 +17001,17 @@
         <v>253</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E33" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="60" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="I33" s="82" t="s">
         <v>28</v>
@@ -17026,7 +17026,7 @@
         <v>332</v>
       </c>
       <c r="M33" s="307" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="47"/>
@@ -17071,19 +17071,19 @@
         <v>254</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E34" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="I34" s="82" t="s">
         <v>29</v>
@@ -17092,13 +17092,13 @@
         <v>27</v>
       </c>
       <c r="K34" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L34" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M34" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="47"/>
@@ -17141,19 +17141,19 @@
         <v>255</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E35" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G35" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="60" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I35" s="82" t="s">
         <v>29</v>
@@ -17162,13 +17162,13 @@
         <v>27</v>
       </c>
       <c r="K35" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L35" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M35" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="47"/>
@@ -17211,19 +17211,19 @@
         <v>256</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E36" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G36" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="I36" s="82" t="s">
         <v>29</v>
@@ -17232,13 +17232,13 @@
         <v>27</v>
       </c>
       <c r="K36" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L36" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M36" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="47"/>
@@ -17281,34 +17281,34 @@
         <v>257</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E37" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G37" s="67" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H37" s="60" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="I37" s="82" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J37" s="82" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K37" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L37" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M37" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="47"/>
@@ -17324,7 +17324,7 @@
       <c r="W37" s="278"/>
       <c r="X37" s="36"/>
       <c r="Y37" s="36" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="Z37" s="309"/>
       <c r="AA37" s="309"/>
@@ -17342,7 +17342,7 @@
     </row>
     <row r="38" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="271" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B38" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17353,34 +17353,34 @@
         <v>258</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E38" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H38" s="60" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I38" s="82" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J38" s="82" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K38" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L38" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M38" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N38" s="103"/>
       <c r="O38" s="47"/>
@@ -17412,7 +17412,7 @@
     </row>
     <row r="39" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A39" s="271" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B39" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17423,34 +17423,34 @@
         <v>259</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E39" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G39" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I39" s="82" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J39" s="82" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K39" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L39" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M39" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N39" s="103"/>
       <c r="O39" s="47"/>
@@ -17482,7 +17482,7 @@
     </row>
     <row r="40" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A40" s="271" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B40" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17493,34 +17493,34 @@
         <v>260</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E40" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G40" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I40" s="82" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J40" s="82" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K40" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L40" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M40" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N40" s="103"/>
       <c r="O40" s="47"/>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="41" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="271" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B41" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17563,34 +17563,34 @@
         <v>261</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E41" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G41" s="67" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H41" s="60" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="I41" s="82" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J41" s="82" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K41" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L41" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M41" s="307" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="N41" s="103"/>
       <c r="O41" s="47"/>
@@ -17620,7 +17620,7 @@
       <c r="AK41" s="57"/>
       <c r="AL41" s="294"/>
     </row>
-    <row r="42" spans="1:38" s="77" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" s="77" customFormat="1" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="271" t="s">
         <v>182</v>
       </c>
@@ -17633,26 +17633,26 @@
         <v>262</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E42" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="60" t="s">
         <v>189</v>
       </c>
       <c r="I42" s="82" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J42" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K42" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L42" s="47" t="s">
         <v>106</v>
@@ -17690,7 +17690,7 @@
       <c r="AK42" s="57"/>
       <c r="AL42" s="294"/>
     </row>
-    <row r="43" spans="1:38" s="77" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="271" t="s">
         <v>182</v>
       </c>
@@ -17703,26 +17703,26 @@
         <v>263</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E43" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="60" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="I43" s="82" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J43" s="82" t="s">
         <v>28</v>
       </c>
       <c r="K43" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L43" s="47" t="s">
         <v>106</v>
@@ -17760,7 +17760,7 @@
       <c r="AK43" s="57"/>
       <c r="AL43" s="294"/>
     </row>
-    <row r="44" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="271" t="s">
         <v>183</v>
       </c>
@@ -17773,13 +17773,13 @@
         <v>264</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E44" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="60" t="s">
@@ -17792,7 +17792,7 @@
         <v>186</v>
       </c>
       <c r="K44" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L44" s="47" t="s">
         <v>106</v>
@@ -17830,7 +17830,7 @@
     </row>
     <row r="45" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="271" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B45" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17841,32 +17841,32 @@
         <v>265</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E45" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G45" s="67"/>
       <c r="H45" s="60" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I45" s="82" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="J45" s="82" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K45" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L45" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N45" s="103"/>
       <c r="O45" s="47"/>
@@ -17896,9 +17896,9 @@
       <c r="AK45" s="57"/>
       <c r="AL45" s="294"/>
     </row>
-    <row r="46" spans="1:38" s="77" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="271" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B46" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17909,22 +17909,22 @@
         <v>266</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E46" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G46" s="67" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="I46" s="82" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J46" s="82" t="s">
         <v>28</v>
@@ -17936,7 +17936,7 @@
         <v>106</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N46" s="103"/>
       <c r="O46" s="47"/>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="47" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="271" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B47" s="218" t="str">
         <f t="shared" si="0"/>
@@ -17979,34 +17979,34 @@
         <v>267</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E47" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G47" s="67" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H47" s="60" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I47" s="82" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J47" s="82" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K47" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L47" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N47" s="103"/>
       <c r="O47" s="47"/>
@@ -18036,9 +18036,9 @@
       <c r="AK47" s="57"/>
       <c r="AL47" s="294"/>
     </row>
-    <row r="48" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="271" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B48" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18049,22 +18049,22 @@
         <v>268</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E48" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G48" s="67" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H48" s="60" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J48" s="82" t="s">
         <v>28</v>
@@ -18076,7 +18076,7 @@
         <v>106</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N48" s="103"/>
       <c r="O48" s="47"/>
@@ -18108,7 +18108,7 @@
     </row>
     <row r="49" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="271" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B49" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18119,34 +18119,34 @@
         <v>269</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E49" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G49" s="67" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="I49" s="82" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J49" s="82" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K49" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L49" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N49" s="103"/>
       <c r="O49" s="47"/>
@@ -18176,9 +18176,9 @@
       <c r="AK49" s="57"/>
       <c r="AL49" s="294"/>
     </row>
-    <row r="50" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="271" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B50" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18189,22 +18189,22 @@
         <v>270</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E50" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H50" s="60" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="I50" s="82" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J50" s="82" t="s">
         <v>28</v>
@@ -18216,7 +18216,7 @@
         <v>106</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N50" s="103"/>
       <c r="O50" s="47"/>
@@ -18259,26 +18259,26 @@
         <v>271</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E51" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G51" s="67"/>
       <c r="H51" s="60" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I51" s="82" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J51" s="82" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="K51" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L51" s="47" t="s">
         <v>106</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="52" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="271" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B52" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18327,32 +18327,32 @@
         <v>272</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E52" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G52" s="67"/>
       <c r="H52" s="60" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="I52" s="82" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J52" s="82" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K52" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L52" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M52" s="37" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N52" s="103"/>
       <c r="O52" s="47"/>
@@ -18384,7 +18384,7 @@
     </row>
     <row r="53" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="271" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B53" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18395,20 +18395,20 @@
         <v>273</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E53" s="256" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G53" s="67"/>
       <c r="H53" s="60" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="I53" s="82" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J53" s="82" t="s">
         <v>28</v>
@@ -18420,7 +18420,7 @@
         <v>106</v>
       </c>
       <c r="M53" s="80" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N53" s="103"/>
       <c r="O53" s="47"/>
@@ -18452,7 +18452,7 @@
     </row>
     <row r="54" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="271" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B54" s="218" t="str">
         <f t="shared" si="0"/>
@@ -18463,32 +18463,32 @@
         <v>274</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E54" s="82" t="s">
         <v>103</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="60" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I54" s="82" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="J54" s="82" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K54" s="205" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L54" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M54" s="80" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="N54" s="103"/>
       <c r="O54" s="47"/>
@@ -19633,13 +19633,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B6:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.796875" bestFit="1" customWidth="1"/>
@@ -19686,7 +19686,7 @@
         <v>155</v>
       </c>
       <c r="F5" s="229" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G5" s="164" t="s">
         <v>148</v>
@@ -19703,14 +19703,14 @@
         <v>72</v>
       </c>
       <c r="C6" s="343" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D6" s="199" t="s">
         <v>419</v>
       </c>
       <c r="E6" s="230"/>
       <c r="F6" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G6" s="160"/>
       <c r="H6" s="160"/>
@@ -19723,14 +19723,14 @@
         <v>72</v>
       </c>
       <c r="C7" s="343" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D7" s="199" t="s">
         <v>420</v>
       </c>
       <c r="E7" s="230"/>
       <c r="F7" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G7" s="199"/>
       <c r="H7" s="199"/>
@@ -19743,14 +19743,14 @@
         <v>72</v>
       </c>
       <c r="C8" s="343" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D8" s="199" t="s">
         <v>421</v>
       </c>
       <c r="E8" s="230"/>
       <c r="F8" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G8" s="199"/>
       <c r="H8" s="199"/>
@@ -19763,14 +19763,14 @@
         <v>72</v>
       </c>
       <c r="C9" s="343" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D9" s="199" t="s">
         <v>422</v>
       </c>
       <c r="E9" s="230"/>
       <c r="F9" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G9" s="199"/>
       <c r="H9" s="199"/>
@@ -19790,7 +19790,7 @@
       </c>
       <c r="E10" s="230"/>
       <c r="F10" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G10" s="199"/>
       <c r="H10" s="199"/>
@@ -19803,14 +19803,14 @@
         <v>72</v>
       </c>
       <c r="C11" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D11" s="199" t="s">
         <v>424</v>
       </c>
       <c r="E11" s="230"/>
       <c r="F11" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G11" s="199"/>
       <c r="H11" s="199"/>
@@ -19823,14 +19823,14 @@
         <v>72</v>
       </c>
       <c r="C12" s="343" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D12" s="199" t="s">
         <v>425</v>
       </c>
       <c r="E12" s="230"/>
       <c r="F12" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G12" s="199"/>
       <c r="H12" s="199"/>
@@ -19843,14 +19843,14 @@
         <v>72</v>
       </c>
       <c r="C13" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D13" s="199" t="s">
         <v>426</v>
       </c>
       <c r="E13" s="230"/>
       <c r="F13" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G13" s="199"/>
       <c r="H13" s="199"/>
@@ -19863,7 +19863,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D14" s="199" t="s">
         <v>427</v>
@@ -19881,14 +19881,14 @@
         <v>72</v>
       </c>
       <c r="C15" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D15" s="199" t="s">
         <v>428</v>
       </c>
       <c r="E15" s="230"/>
       <c r="F15" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G15" s="199"/>
       <c r="H15" s="199"/>
@@ -19901,14 +19901,14 @@
         <v>72</v>
       </c>
       <c r="C16" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D16" s="199" t="s">
         <v>429</v>
       </c>
       <c r="E16" s="230"/>
       <c r="F16" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G16" s="199"/>
       <c r="H16" s="199"/>
@@ -19921,14 +19921,14 @@
         <v>72</v>
       </c>
       <c r="C17" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D17" s="199" t="s">
         <v>430</v>
       </c>
       <c r="E17" s="230"/>
       <c r="F17" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G17" s="199"/>
       <c r="H17" s="199"/>
@@ -19941,14 +19941,14 @@
         <v>72</v>
       </c>
       <c r="C18" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D18" s="199" t="s">
         <v>431</v>
       </c>
       <c r="E18" s="230"/>
       <c r="F18" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G18" s="199"/>
       <c r="H18" s="199"/>
@@ -19961,14 +19961,14 @@
         <v>72</v>
       </c>
       <c r="C19" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D19" s="199" t="s">
         <v>432</v>
       </c>
       <c r="E19" s="230"/>
       <c r="F19" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G19" s="199"/>
       <c r="H19" s="199"/>
@@ -19981,14 +19981,14 @@
         <v>72</v>
       </c>
       <c r="C20" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D20" s="199" t="s">
         <v>433</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G20" s="199"/>
       <c r="H20" s="199"/>
@@ -20001,14 +20001,14 @@
         <v>72</v>
       </c>
       <c r="C21" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D21" s="199" t="s">
         <v>434</v>
       </c>
       <c r="E21" s="230"/>
       <c r="F21" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G21" s="199"/>
       <c r="H21" s="199"/>
@@ -20021,14 +20021,14 @@
         <v>72</v>
       </c>
       <c r="C22" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D22" s="199" t="s">
         <v>435</v>
       </c>
       <c r="E22" s="230"/>
       <c r="F22" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G22" s="199"/>
       <c r="H22" s="199"/>
@@ -20048,7 +20048,7 @@
       </c>
       <c r="E23" s="230"/>
       <c r="F23" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G23" s="199"/>
       <c r="H23" s="199"/>
@@ -20064,11 +20064,11 @@
         <v>446</v>
       </c>
       <c r="D24" s="199" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E24" s="230"/>
       <c r="F24" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G24" s="199"/>
       <c r="H24" s="199"/>
@@ -20081,14 +20081,14 @@
         <v>72</v>
       </c>
       <c r="C25" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D25" s="199" t="s">
         <v>437</v>
       </c>
       <c r="E25" s="230"/>
       <c r="F25" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G25" s="199"/>
       <c r="H25" s="199"/>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="E26" s="230"/>
       <c r="F26" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G26" s="199"/>
       <c r="H26" s="199"/>
@@ -20128,14 +20128,14 @@
       </c>
       <c r="E27" s="230"/>
       <c r="F27" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G27" s="199"/>
       <c r="H27" s="199"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B28" t="s">
         <v>114</v>
@@ -20153,7 +20153,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>809</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
@@ -20162,18 +20162,16 @@
         <v>446</v>
       </c>
       <c r="D29" s="199" t="s">
-        <v>766</v>
-      </c>
-      <c r="E29" s="230" t="s">
-        <v>760</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="E29" s="230"/>
       <c r="F29" s="231"/>
       <c r="G29" s="199"/>
       <c r="H29" s="199"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>810</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -20182,10 +20180,10 @@
         <v>447</v>
       </c>
       <c r="D30" s="199" t="s">
-        <v>767</v>
+        <v>808</v>
       </c>
       <c r="E30" s="230" t="s">
-        <v>760</v>
+        <v>813</v>
       </c>
       <c r="F30" s="231"/>
       <c r="G30" s="199"/>
@@ -20199,7 +20197,7 @@
         <v>114</v>
       </c>
       <c r="C31" s="345" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D31" s="199" t="s">
         <v>441</v>
@@ -20211,7 +20209,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>455</v>
+        <v>811</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
@@ -20220,7 +20218,7 @@
         <v>447</v>
       </c>
       <c r="D32" s="199" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E32" s="230"/>
       <c r="F32" s="231"/>
@@ -20229,7 +20227,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="228" t="s">
-        <v>456</v>
+        <v>812</v>
       </c>
       <c r="B33" s="228" t="s">
         <v>114</v>
@@ -20238,7 +20236,7 @@
         <v>447</v>
       </c>
       <c r="D33" s="342" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E33" s="230"/>
       <c r="F33" s="231"/>
@@ -20247,7 +20245,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B34" t="s">
         <v>114</v>
@@ -20256,18 +20254,18 @@
         <v>447</v>
       </c>
       <c r="D34" s="199" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E34" s="230"/>
       <c r="F34" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G34" s="199"/>
       <c r="H34" s="199"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B35" t="s">
         <v>114</v>
@@ -20276,11 +20274,11 @@
         <v>446</v>
       </c>
       <c r="D35" s="199" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E35" s="230"/>
       <c r="F35" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G35" s="199"/>
       <c r="H35" s="199"/>
@@ -20300,7 +20298,7 @@
       </c>
       <c r="E36" s="230"/>
       <c r="F36" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G36" s="199"/>
       <c r="H36" s="199"/>
@@ -20320,7 +20318,7 @@
       </c>
       <c r="E37" s="230"/>
       <c r="F37" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G37" s="199"/>
       <c r="H37" s="199"/>
@@ -20339,10 +20337,10 @@
         <v>444</v>
       </c>
       <c r="E38" s="230" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F38" s="231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G38" s="197"/>
       <c r="H38" s="198"/>
@@ -20413,112 +20411,112 @@
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="167" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B3" s="391" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C3" s="390" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D3" s="392" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E3" s="393" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" s="391" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C4" s="390" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D4" s="392" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="391" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C5" s="390" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D5" s="392" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="391" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C6" s="390" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D6" s="392" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="391" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C7" s="390" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="C8" s="390" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="C9" s="390" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="390" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="C11" s="390" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="C12" s="390" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="C13" s="390" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="C14" s="390" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20529,13 +20527,13 @@
         <v>260</v>
       </c>
       <c r="D16" s="392" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E16" s="393" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G16" s="394" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20547,25 +20545,25 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="167" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C18" s="390" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D18" s="392" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E18" s="393" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G18" s="394" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="D19" s="392" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E19"/>
     </row>
@@ -20581,17 +20579,17 @@
         <v>267</v>
       </c>
       <c r="E21" s="393" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="G21" s="394" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="D22"/>
       <c r="E22" s="393" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20603,13 +20601,13 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="167" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E24" s="393" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G24" s="394" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20618,13 +20616,13 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="167" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D26" s="392" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G26" s="394" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20650,15 +20648,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D428FA97A73D304E91AA59E09D526869" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5184d92e947fddf07e6b6109215ca8be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8022916f55ab85163ee9a5069dec31d5">
     <xsd:element name="properties">
@@ -20772,6 +20761,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20779,14 +20777,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2DE8A8-9F7C-444A-A54C-B908DB2D8D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20798,6 +20788,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="840">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3115,6 +3115,194 @@
   </si>
   <si>
     <t>uguale su Arancione?</t>
+  </si>
+  <si>
+    <t>AMT_US_SEL_LIQ_AZ_NOCOL_M0
+AMT_US_SEL_LIQ_AZ_NOCOL_M1
+AMT_US_SEL_LIQ_AZ_NOCOL_M2
+AMT_GRA_SEL_LIQ_AZ_NOCOL_M0
+AMT_GRA_SEL_LIQ_AZ_NOCOL_M1
+AMT_GRA_SEL_LIQ_AZ_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>IMP_ACC_REV_NOCOL_M0
+IMP_ACC_REV_NOCOL_M1
+IMP_ACC_REV_NOCOL_M2
+IMP_UTIL_REV_NOCOL_M0
+IMP_UTIL_REV_NOCOL_M1
+IMP_UTIL_REV_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>IMP_ACC_PROD_SCAD_NOCOL_M0
+IMP_ACC_PROD_SCAD_NOCOL_M1
+IMP_ACC_PROD_SCAD_NOCOL_M2
+IMP_UTIL_PROD_SCAD_NOCOL_M0
+IMP_UTIL_PROD_SCAD_NOCOL_M1
+IMP_UTIL_PROD_SCAD_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>AMT_US_S_T_C_AZ_NOCOL_M0
+AMT_US_S_T_C_AZ_NOCOL_M1
+AMT_US_S_T_C_AZ_NOCOL_M2
+REVENUE_NOCOL_T1</t>
+  </si>
+  <si>
+    <t>AMT_US_SEL_LIQ_NOCOL_M0
+AMT_US_SEL_LIQ_NOCOL_M1
+AMT_US_SEL_LIQ_NOCOL_M2
+AMT_GRA_SEL_LIQ_NOCOL_M0
+AMT_GRA_SEL_LIQ_NOCOL_M1
+AMT_GRA_SEL_LIQ_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>AMT_US_REV_NOCOL_M0
+AMT_US_REV_NOCOL_M1
+AMT_US_REV_NOCOL_M2
+AMT_GRA_REV_NOCOL_M0
+AMT_GRA_REV_NOCOL_M1
+AMT_GRA_REV_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>AMT_US_MAT_NOCOL_M0
+AMT_US_MAT_NOCOL_M1
+AMT_US_MAT_NOCOL_M2
+AMT_GRA_MAT_NOCOL_M0
+AMT_GRA_MAT_NOCOL_M1
+AMT_GRA_MAT_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>AMT_US_ST_C_NOCOL_M0
+AMT_US_ST_C_NOCOL_M1
+AMT_US_ST_C_NOCOL_M2
+REVENUE_NOCOL_T1</t>
+  </si>
+  <si>
+    <t>IMP_ENT_CORR_M0
+IMP_ENT_CORR_M1
+IMP_ENT_CORR_M2
+IMP_ENT_CORR_M3
+IMP_ENT_CORR_M4
+IMP_ENT_CORR_M5
+IMP_USC_CORR_M0
+IMP_USC_CORR_M1
+IMP_USC_CORR_M2
+IMP_USC_CORR_M3
+IMP_USC_CORR_M4
+IMP_USC_CORR_M5</t>
+  </si>
+  <si>
+    <t>IMP_ENT_TOT_M0
+IMP_ENT_TOT_M1
+IMP_ENT_TOT_M2
+IMP_ENT_TOT_M3
+IMP_ENT_TOT_M4
+IMP_ENT_TOT_M5
+IMP_USC_TOT_M0
+IMP_USC_TOT_M1
+IMP_USC_TOT_M2
+IMP_USC_TOT_M3
+IMP_USC_TOT_M4
+IMP_USC_TOT_M5</t>
+  </si>
+  <si>
+    <t>IMP_PAG_RAFI_NOCOL_M0
+IMP_PAG_RAFI_NOCOL_M1
+IMP_PAG_RAFI_NOCOL_M2
+IMP_ENT_CORR_NOCOL_M0
+IMP_ENT_CORR_NOCOL_M1
+IMP_ENT_CORR_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>nocol</t>
+  </si>
+  <si>
+    <t>IMP_SALDO_CC_NOCOL_M0
+IMP_SALDO_CC_NOCOL_M1
+IMP_SALDO_CC_NOCOL_M2
+IMP_VAL_MERC_CD_NOCOL_M0
+IMP_VAL_MERC_CD_NOCOL_M1
+IMP_VAL_MERC_CD_NOCOL_M2
+IMP_SALDO_PCT_NOCOL_M0
+IMP_SALDO_PCT_NOCOL_M1
+IMP_SALDO_PCT_NOCOL_M2
+IMP_SALDO_GPM_NOCOL_M0
+IMP_SALDO_GPM_NOCOL_M1
+IMP_SALDO_GPM_NOCOL_M2
+IMP_SALDO_ASSIC_NOCOL_M0
+IMP_SALDO_ASSIC_NOCOL_M1
+IMP_SALDO_ASSIC_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>AMT_FAT_OVERDUE_NOCOL_M0
+AMT_GRA_ST_C_NOCOL_M0</t>
+  </si>
+  <si>
+    <t>OVERDUE_DD_FAT_NOCOL</t>
+  </si>
+  <si>
+    <t>AMT_ANTEXP_30D_NOCOL_M0
+AMT_GRA_ST_C_NOCOL_M0</t>
+  </si>
+  <si>
+    <t>OVERDUE_DD_ANTEXP_NOCOL_1M</t>
+  </si>
+  <si>
+    <t>AMT_FINEXP_30D_NOCOL_M0
+AMT_GRA_ST_C_NOCOL_M0</t>
+  </si>
+  <si>
+    <t>OVERDUE_DD_FINEXP_NOCOL_1M</t>
+  </si>
+  <si>
+    <t>PTF_AMT_OUT_PREVQ_NOCOL
+PTF_AMT_EXPIRED_PREVQ_NOCOL</t>
+  </si>
+  <si>
+    <t>AMT_FAT_OVERDUE_NOCOL
+AMT_GRA_ST_C_NOCOL_M0</t>
+  </si>
+  <si>
+    <t>OVERDUE_DD_FACT_NOCOL</t>
+  </si>
+  <si>
+    <t>PREAM_AMT_UTI_NOCOL
+PREAM_AMT_INI_LOANS_NOCOL</t>
+  </si>
+  <si>
+    <t>IMP_SCONF_MEAN_90GG_NOCOL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FLG_SCONF_MAX_NOCOL_M0
+FLG_SCONF_MAX_NOCOL_M1
+FLG_SCONF_MAX_NOCOL_M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_GIO_SCONFINO_NOCOL
+IMP_SCONFINO_NOCOL
+IMP_UTILIZZO_TOT_NOCOL
+IMP_SCONF_CUM_90GG_NOCOL
+IMP_UTILIZZO_CUM_90GG_NOCOL
+</t>
   </si>
 </sst>
 </file>
@@ -4095,7 +4283,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="420">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5264,6 +5452,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad 2" xfId="2"/>
@@ -5275,7 +5467,27 @@
     <cellStyle name="Normal 5" xfId="5"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -7528,7 +7740,7 @@
   <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3:A24"/>
@@ -9279,20 +9491,20 @@
     <mergeCell ref="AI1:AL1"/>
   </mergeCells>
   <conditionalFormatting sqref="R1:R2 R25:R1048576">
-    <cfRule type="cellIs" dxfId="77" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:Q1048576 P1:Q2 P3:R11 P13:Q21 R13:R22 P22:R24">
-    <cfRule type="cellIs" dxfId="75" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R24">
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9306,11 +9518,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9502,7 +9714,7 @@
       </c>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="250" t="s">
         <v>35</v>
       </c>
@@ -9598,7 +9810,7 @@
       <c r="AL3" s="311"/>
       <c r="AM3" s="312"/>
     </row>
-    <row r="4" spans="1:40" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="250" t="s">
         <v>35</v>
       </c>
@@ -9695,7 +9907,7 @@
       <c r="AL4" s="311"/>
       <c r="AM4" s="312"/>
     </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" ht="220.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" s="2" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A5" s="272" t="s">
         <v>35</v>
       </c>
@@ -9791,7 +10003,7 @@
       <c r="AL5" s="311"/>
       <c r="AM5" s="312"/>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A6" s="272" t="s">
         <v>35</v>
       </c>
@@ -10737,7 +10949,7 @@
       <c r="AL16" s="57"/>
       <c r="AM16" s="294"/>
     </row>
-    <row r="17" spans="1:39" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="328" t="s">
         <v>768</v>
       </c>
@@ -10809,7 +11021,7 @@
       <c r="AL17" s="316"/>
       <c r="AM17" s="317"/>
     </row>
-    <row r="18" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="329" t="s">
         <v>768</v>
       </c>
@@ -10914,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="329" t="s">
         <v>768</v>
       </c>
@@ -11019,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="2" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="319" t="s">
         <v>768</v>
       </c>
@@ -11124,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="2" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="319" t="s">
         <v>768</v>
       </c>
@@ -11728,7 +11940,7 @@
         <v>584</v>
       </c>
       <c r="B27" s="218" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("Indicatore ",C27," - ",D27)</f>
         <v>Indicatore 165 - ANTEXP_MAX_GG_L1M</v>
       </c>
       <c r="C27" s="219">
@@ -12467,7 +12679,7 @@
   <autoFilter ref="A2:AM33">
     <filterColumn colId="0">
       <filters>
-        <filter val="CR Sistema Netto Banca"/>
+        <filter val="XRA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12477,180 +12689,180 @@
     <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U34:U1048576">
-    <cfRule type="cellIs" dxfId="73" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="126" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="128" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34:T1048576 Q1:T2 P16:U16 P13 P5:U6 Z14:AA14 Q3:W33">
-    <cfRule type="cellIs" dxfId="71" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="127" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U14">
-    <cfRule type="cellIs" dxfId="70" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:P1048576 P1:P2">
-    <cfRule type="cellIs" dxfId="68" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="cellIs" dxfId="67" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="65" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:U7">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:U23">
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:P23">
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:U23">
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:P23">
-    <cfRule type="cellIs" dxfId="59" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:U33">
-    <cfRule type="cellIs" dxfId="58" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P33">
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:U4">
-    <cfRule type="cellIs" dxfId="56" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:U11">
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P11">
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:T8">
-    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:T9">
-    <cfRule type="cellIs" dxfId="49" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18:T21">
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:U21">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:U21">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:U33">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24:U33">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:W17">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:U17">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14122,75 +14334,75 @@
     <mergeCell ref="AJ1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="S1:S2 S20:S1048576">
-    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="54" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="56" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R2 T14:U14 Q16:U16 Q20:R1048576 Q4:S10 P8:P10 P11:S13 P18:S19">
-    <cfRule type="cellIs" dxfId="35" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S3">
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P2 P14 P16 P20:P1048576">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P7">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:S15">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:U17">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14204,11 +14416,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14223,10 +14435,10 @@
     <col min="8" max="8" width="57.8984375" style="4" customWidth="1"/>
     <col min="9" max="9" width="27.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.8984375" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.69921875" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.8984375" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.8984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="22.69921875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.8984375" style="17" customWidth="1"/>
     <col min="15" max="15" width="32.296875" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
@@ -14287,7 +14499,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="25" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="25" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="265" t="s">
         <v>71</v>
       </c>
@@ -16400,7 +16612,7 @@
       <c r="AK24" s="75"/>
       <c r="AL24" s="75"/>
     </row>
-    <row r="25" spans="1:38" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A25" s="267" t="s">
         <v>183</v>
       </c>
@@ -16488,7 +16700,7 @@
       <c r="AK25" s="75"/>
       <c r="AL25" s="75"/>
     </row>
-    <row r="26" spans="1:38" s="77" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" s="77" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A26" s="267" t="s">
         <v>183</v>
       </c>
@@ -16576,7 +16788,7 @@
       <c r="AK26" s="57"/>
       <c r="AL26" s="294"/>
     </row>
-    <row r="27" spans="1:38" s="77" customFormat="1" ht="220.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" s="77" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A27" s="267" t="s">
         <v>183</v>
       </c>
@@ -16644,7 +16856,7 @@
       <c r="AK27" s="57"/>
       <c r="AL27" s="294"/>
     </row>
-    <row r="28" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" s="77" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A28" s="271" t="s">
         <v>183</v>
       </c>
@@ -16684,7 +16896,9 @@
         <v>315</v>
       </c>
       <c r="N28" s="103"/>
-      <c r="O28" s="47"/>
+      <c r="O28" s="222" t="s">
+        <v>822</v>
+      </c>
       <c r="P28" s="6">
         <v>2</v>
       </c>
@@ -16711,7 +16925,7 @@
       <c r="AK28" s="57"/>
       <c r="AL28" s="294"/>
     </row>
-    <row r="29" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" s="77" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A29" s="271" t="s">
         <v>183</v>
       </c>
@@ -16752,7 +16966,9 @@
         <v>315</v>
       </c>
       <c r="N29" s="103"/>
-      <c r="O29" s="47"/>
+      <c r="O29" s="222" t="s">
+        <v>823</v>
+      </c>
       <c r="P29" s="6">
         <v>2</v>
       </c>
@@ -16819,7 +17035,9 @@
         <v>666</v>
       </c>
       <c r="N30" s="103"/>
-      <c r="O30" s="47"/>
+      <c r="O30" s="419" t="s">
+        <v>837</v>
+      </c>
       <c r="P30" s="6">
         <v>1</v>
       </c>
@@ -16923,7 +17141,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="218" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("Indicatore ",C32," - ",D32)</f>
         <v xml:space="preserve">Indicatore 252 - XRA_NOSCONF_CONT_NOCOL_L3M </v>
       </c>
       <c r="C32" s="219">
@@ -16959,7 +17177,9 @@
         <v>666</v>
       </c>
       <c r="N32" s="103"/>
-      <c r="O32" s="47"/>
+      <c r="O32" s="47" t="s">
+        <v>838</v>
+      </c>
       <c r="P32" s="6">
         <v>2</v>
       </c>
@@ -17029,7 +17249,9 @@
         <v>666</v>
       </c>
       <c r="N33" s="103"/>
-      <c r="O33" s="47"/>
+      <c r="O33" s="418" t="s">
+        <v>839</v>
+      </c>
       <c r="P33" s="6">
         <v>2</v>
       </c>
@@ -17058,7 +17280,7 @@
       <c r="AK33" s="57"/>
       <c r="AL33" s="294"/>
     </row>
-    <row r="34" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="271" t="s">
         <v>34</v>
       </c>
@@ -17101,7 +17323,9 @@
         <v>715</v>
       </c>
       <c r="N34" s="103"/>
-      <c r="O34" s="47"/>
+      <c r="O34" s="222" t="s">
+        <v>814</v>
+      </c>
       <c r="P34" s="6">
         <v>3</v>
       </c>
@@ -17128,7 +17352,7 @@
       <c r="AK34" s="57"/>
       <c r="AL34" s="294"/>
     </row>
-    <row r="35" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="271" t="s">
         <v>34</v>
       </c>
@@ -17171,7 +17395,9 @@
         <v>715</v>
       </c>
       <c r="N35" s="103"/>
-      <c r="O35" s="47"/>
+      <c r="O35" s="222" t="s">
+        <v>815</v>
+      </c>
       <c r="P35" s="6">
         <v>3</v>
       </c>
@@ -17198,7 +17424,7 @@
       <c r="AK35" s="57"/>
       <c r="AL35" s="294"/>
     </row>
-    <row r="36" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="271" t="s">
         <v>34</v>
       </c>
@@ -17241,7 +17467,9 @@
         <v>715</v>
       </c>
       <c r="N36" s="103"/>
-      <c r="O36" s="47"/>
+      <c r="O36" s="222" t="s">
+        <v>816</v>
+      </c>
       <c r="P36" s="6">
         <v>3</v>
       </c>
@@ -17268,7 +17496,7 @@
       <c r="AK36" s="57"/>
       <c r="AL36" s="294"/>
     </row>
-    <row r="37" spans="1:38" s="77" customFormat="1" ht="289.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" s="77" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="271" t="s">
         <v>34</v>
       </c>
@@ -17311,7 +17539,9 @@
         <v>715</v>
       </c>
       <c r="N37" s="103"/>
-      <c r="O37" s="47"/>
+      <c r="O37" s="320" t="s">
+        <v>817</v>
+      </c>
       <c r="P37" s="6">
         <v>2</v>
       </c>
@@ -17340,7 +17570,7 @@
       <c r="AK37" s="57"/>
       <c r="AL37" s="294"/>
     </row>
-    <row r="38" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="271" t="s">
         <v>768</v>
       </c>
@@ -17383,7 +17613,9 @@
         <v>715</v>
       </c>
       <c r="N38" s="103"/>
-      <c r="O38" s="47"/>
+      <c r="O38" s="222" t="s">
+        <v>818</v>
+      </c>
       <c r="P38" s="6">
         <v>3</v>
       </c>
@@ -17410,7 +17642,7 @@
       <c r="AK38" s="57"/>
       <c r="AL38" s="294"/>
     </row>
-    <row r="39" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="271" t="s">
         <v>768</v>
       </c>
@@ -17453,7 +17685,9 @@
         <v>715</v>
       </c>
       <c r="N39" s="103"/>
-      <c r="O39" s="47"/>
+      <c r="O39" s="222" t="s">
+        <v>819</v>
+      </c>
       <c r="P39" s="6">
         <v>3</v>
       </c>
@@ -17480,7 +17714,7 @@
       <c r="AK39" s="57"/>
       <c r="AL39" s="294"/>
     </row>
-    <row r="40" spans="1:38" s="77" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271" t="s">
         <v>768</v>
       </c>
@@ -17523,7 +17757,9 @@
         <v>715</v>
       </c>
       <c r="N40" s="103"/>
-      <c r="O40" s="47"/>
+      <c r="O40" s="222" t="s">
+        <v>820</v>
+      </c>
       <c r="P40" s="6">
         <v>3</v>
       </c>
@@ -17550,7 +17786,7 @@
       <c r="AK40" s="57"/>
       <c r="AL40" s="294"/>
     </row>
-    <row r="41" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="271" t="s">
         <v>768</v>
       </c>
@@ -17593,7 +17829,9 @@
         <v>715</v>
       </c>
       <c r="N41" s="103"/>
-      <c r="O41" s="47"/>
+      <c r="O41" s="222" t="s">
+        <v>821</v>
+      </c>
       <c r="P41" s="6">
         <v>2</v>
       </c>
@@ -17620,7 +17858,7 @@
       <c r="AK41" s="57"/>
       <c r="AL41" s="294"/>
     </row>
-    <row r="42" spans="1:38" s="77" customFormat="1" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" s="77" customFormat="1" ht="151.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="271" t="s">
         <v>182</v>
       </c>
@@ -17661,9 +17899,11 @@
         <v>312</v>
       </c>
       <c r="N42" s="103"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="6">
-        <v>2</v>
+      <c r="O42" s="222" t="s">
+        <v>826</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>825</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -17690,7 +17930,7 @@
       <c r="AK42" s="57"/>
       <c r="AL42" s="294"/>
     </row>
-    <row r="43" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="271" t="s">
         <v>182</v>
       </c>
@@ -17760,7 +18000,7 @@
       <c r="AK43" s="57"/>
       <c r="AL43" s="294"/>
     </row>
-    <row r="44" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" s="77" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="271" t="s">
         <v>183</v>
       </c>
@@ -17801,7 +18041,9 @@
         <v>315</v>
       </c>
       <c r="N44" s="103"/>
-      <c r="O44" s="47"/>
+      <c r="O44" s="222" t="s">
+        <v>824</v>
+      </c>
       <c r="P44" s="6">
         <v>2</v>
       </c>
@@ -17828,7 +18070,7 @@
       <c r="AK44" s="57"/>
       <c r="AL44" s="294"/>
     </row>
-    <row r="45" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="271" t="s">
         <v>572</v>
       </c>
@@ -17869,7 +18111,9 @@
         <v>572</v>
       </c>
       <c r="N45" s="103"/>
-      <c r="O45" s="47"/>
+      <c r="O45" s="320" t="s">
+        <v>827</v>
+      </c>
       <c r="P45" s="6">
         <v>2</v>
       </c>
@@ -17896,7 +18140,7 @@
       <c r="AK45" s="57"/>
       <c r="AL45" s="294"/>
     </row>
-    <row r="46" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="271" t="s">
         <v>572</v>
       </c>
@@ -17939,7 +18183,9 @@
         <v>572</v>
       </c>
       <c r="N46" s="103"/>
-      <c r="O46" s="47"/>
+      <c r="O46" s="253" t="s">
+        <v>828</v>
+      </c>
       <c r="P46" s="6">
         <v>1</v>
       </c>
@@ -17966,7 +18212,7 @@
       <c r="AK46" s="57"/>
       <c r="AL46" s="294"/>
     </row>
-    <row r="47" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="271" t="s">
         <v>658</v>
       </c>
@@ -18009,7 +18255,9 @@
         <v>584</v>
       </c>
       <c r="N47" s="103"/>
-      <c r="O47" s="47"/>
+      <c r="O47" s="222" t="s">
+        <v>829</v>
+      </c>
       <c r="P47" s="6">
         <v>2</v>
       </c>
@@ -18036,7 +18284,7 @@
       <c r="AK47" s="57"/>
       <c r="AL47" s="294"/>
     </row>
-    <row r="48" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="271" t="s">
         <v>658</v>
       </c>
@@ -18079,7 +18327,9 @@
         <v>584</v>
       </c>
       <c r="N48" s="103"/>
-      <c r="O48" s="47"/>
+      <c r="O48" s="253" t="s">
+        <v>830</v>
+      </c>
       <c r="P48" s="6">
         <v>1</v>
       </c>
@@ -18106,7 +18356,7 @@
       <c r="AK48" s="57"/>
       <c r="AL48" s="294"/>
     </row>
-    <row r="49" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="271" t="s">
         <v>659</v>
       </c>
@@ -18149,7 +18399,9 @@
         <v>584</v>
       </c>
       <c r="N49" s="103"/>
-      <c r="O49" s="47"/>
+      <c r="O49" s="222" t="s">
+        <v>831</v>
+      </c>
       <c r="P49" s="6">
         <v>2</v>
       </c>
@@ -18176,7 +18428,7 @@
       <c r="AK49" s="57"/>
       <c r="AL49" s="294"/>
     </row>
-    <row r="50" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="271" t="s">
         <v>659</v>
       </c>
@@ -18219,7 +18471,9 @@
         <v>584</v>
       </c>
       <c r="N50" s="103"/>
-      <c r="O50" s="47"/>
+      <c r="O50" s="253" t="s">
+        <v>832</v>
+      </c>
       <c r="P50" s="6">
         <v>1</v>
       </c>
@@ -18246,7 +18500,7 @@
       <c r="AK50" s="57"/>
       <c r="AL50" s="294"/>
     </row>
-    <row r="51" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="271" t="s">
         <v>365</v>
       </c>
@@ -18287,7 +18541,9 @@
         <v>365</v>
       </c>
       <c r="N51" s="103"/>
-      <c r="O51" s="47"/>
+      <c r="O51" s="222" t="s">
+        <v>833</v>
+      </c>
       <c r="P51" s="6">
         <v>2</v>
       </c>
@@ -18314,7 +18570,7 @@
       <c r="AK51" s="57"/>
       <c r="AL51" s="294"/>
     </row>
-    <row r="52" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="271" t="s">
         <v>604</v>
       </c>
@@ -18355,7 +18611,9 @@
         <v>604</v>
       </c>
       <c r="N52" s="103"/>
-      <c r="O52" s="47"/>
+      <c r="O52" s="222" t="s">
+        <v>834</v>
+      </c>
       <c r="P52" s="6">
         <v>2</v>
       </c>
@@ -18382,7 +18640,7 @@
       <c r="AK52" s="57"/>
       <c r="AL52" s="294"/>
     </row>
-    <row r="53" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="271" t="s">
         <v>604</v>
       </c>
@@ -18423,7 +18681,9 @@
         <v>604</v>
       </c>
       <c r="N53" s="103"/>
-      <c r="O53" s="47"/>
+      <c r="O53" s="418" t="s">
+        <v>835</v>
+      </c>
       <c r="P53" s="6">
         <v>1</v>
       </c>
@@ -18450,16 +18710,16 @@
       <c r="AK53" s="57"/>
       <c r="AL53" s="294"/>
     </row>
-    <row r="54" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="271" t="s">
         <v>610</v>
       </c>
       <c r="B54" s="218" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("Indicatore ",C54," - ",D54)</f>
         <v>Indicatore 274 - PREAM_UTIL_ACC_NOCOL_L1M</v>
       </c>
       <c r="C54" s="219">
-        <f t="shared" si="3"/>
+        <f>1+C53</f>
         <v>274</v>
       </c>
       <c r="D54" s="47" t="s">
@@ -18491,7 +18751,9 @@
         <v>615</v>
       </c>
       <c r="N54" s="103"/>
-      <c r="O54" s="47"/>
+      <c r="O54" s="222" t="s">
+        <v>836</v>
+      </c>
       <c r="P54" s="6">
         <v>2</v>
       </c>
@@ -18522,7 +18784,7 @@
   <autoFilter ref="A2:AL54">
     <filterColumn colId="0">
       <filters>
-        <filter val="CR Sistema Netto Banca"/>
+        <filter val="Bilancio Familiare"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18532,40 +18794,45 @@
     <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U55:U1048576">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T2 P5:U10 P12:U12 P14:U27 Q3:U27 P1:P27 P55:T1048576">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:U11">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28:U29">
     <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11">
+  <conditionalFormatting sqref="P13:U13">
     <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P28:U29">
+  <conditionalFormatting sqref="P30:U54">
     <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:U13">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P30:U54">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="O41">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18796,20 +19063,20 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R1048576">
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19572,55 +19839,55 @@
     <sortCondition ref="C2"/>
   </sortState>
   <conditionalFormatting sqref="W1">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:V1">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:V3">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:V4">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:V5">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:V7">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W7">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19633,7 +19900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -20648,6 +20915,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D428FA97A73D304E91AA59E09D526869" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5184d92e947fddf07e6b6109215ca8be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8022916f55ab85163ee9a5069dec31d5">
     <xsd:element name="properties">
@@ -20761,22 +21043,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2DE8A8-9F7C-444A-A54C-B908DB2D8D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20790,27 +21080,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="842">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3303,6 +3303,12 @@
 IMP_SCONF_CUM_90GG_NOCOL
 IMP_UTILIZZO_CUM_90GG_NOCOL
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore calcola la media su 90 giorni del numero di giorni di sconfino per cassa, calcolata considerando solo i giorni per cui si rileva uno sconfino. </t>
+  </si>
+  <si>
+    <t>NUM_GIO_SCONF_MEAN_90GG_NOCOL</t>
   </si>
 </sst>
 </file>
@@ -5386,6 +5392,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5452,10 +5462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad 2" xfId="2"/>
@@ -5467,27 +5473,7 @@
     <cellStyle name="Normal 5" xfId="5"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5625,6 +5611,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6574,14 +6570,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="396" t="s">
+      <c r="E1" s="398" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="396"/>
-      <c r="H1" s="397" t="s">
+      <c r="F1" s="398"/>
+      <c r="H1" s="399" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="398"/>
+      <c r="I1" s="400"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -7089,11 +7085,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F1" s="415" t="s">
+      <c r="F1" s="417" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="415"/>
-      <c r="H1" s="415"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
     </row>
     <row r="2" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="172" t="s">
@@ -7107,34 +7103,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="411" t="s">
+      <c r="A3" s="413" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="412"/>
+      <c r="B3" s="414"/>
       <c r="C3" s="174"/>
       <c r="D3" s="201" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="411"/>
-      <c r="B4" s="413"/>
+      <c r="A4" s="413"/>
+      <c r="B4" s="415"/>
       <c r="C4" s="175"/>
       <c r="D4" s="202" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="411"/>
-      <c r="B5" s="413"/>
+      <c r="A5" s="413"/>
+      <c r="B5" s="415"/>
       <c r="C5" s="175"/>
       <c r="D5" s="203" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="411"/>
-      <c r="B6" s="414"/>
+      <c r="A6" s="413"/>
+      <c r="B6" s="416"/>
       <c r="C6" s="176"/>
       <c r="D6" s="204" t="s">
         <v>166</v>
@@ -7189,7 +7185,7 @@
       <c r="O2" s="199"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="416"/>
+      <c r="A3" s="418"/>
       <c r="B3" s="180" t="s">
         <v>172</v>
       </c>
@@ -7212,7 +7208,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="416"/>
+      <c r="A4" s="418"/>
       <c r="B4" s="157" t="s">
         <v>173</v>
       </c>
@@ -7233,7 +7229,7 @@
       <c r="O4" s="199"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="416"/>
+      <c r="A5" s="418"/>
       <c r="B5" s="157" t="s">
         <v>174</v>
       </c>
@@ -7254,7 +7250,7 @@
       <c r="O5" s="199"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="416"/>
+      <c r="A6" s="418"/>
       <c r="B6" s="157" t="s">
         <v>175</v>
       </c>
@@ -7275,7 +7271,7 @@
       <c r="O6" s="199"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="416"/>
+      <c r="A7" s="418"/>
       <c r="B7" s="157" t="s">
         <v>176</v>
       </c>
@@ -7325,7 +7321,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="417"/>
+      <c r="A12" s="419"/>
       <c r="B12" s="180" t="s">
         <v>172</v>
       </c>
@@ -7348,7 +7344,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="417"/>
+      <c r="A13" s="419"/>
       <c r="B13" s="157" t="s">
         <v>173</v>
       </c>
@@ -7369,7 +7365,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="417"/>
+      <c r="A14" s="419"/>
       <c r="B14" s="157" t="s">
         <v>174</v>
       </c>
@@ -7390,7 +7386,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="417"/>
+      <c r="A15" s="419"/>
       <c r="B15" s="157" t="s">
         <v>175</v>
       </c>
@@ -7411,7 +7407,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="417"/>
+      <c r="A16" s="419"/>
       <c r="B16" s="157" t="s">
         <v>176</v>
       </c>
@@ -7786,30 +7782,30 @@
       <c r="O1" s="27"/>
       <c r="U1" s="70"/>
       <c r="V1" s="70"/>
-      <c r="W1" s="399" t="s">
+      <c r="W1" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="400"/>
-      <c r="Y1" s="400"/>
-      <c r="Z1" s="401"/>
-      <c r="AA1" s="399" t="s">
+      <c r="X1" s="402"/>
+      <c r="Y1" s="402"/>
+      <c r="Z1" s="403"/>
+      <c r="AA1" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="400"/>
-      <c r="AC1" s="400"/>
-      <c r="AD1" s="401"/>
-      <c r="AE1" s="402" t="s">
+      <c r="AB1" s="402"/>
+      <c r="AC1" s="402"/>
+      <c r="AD1" s="403"/>
+      <c r="AE1" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="403"/>
-      <c r="AG1" s="403"/>
-      <c r="AH1" s="403"/>
-      <c r="AI1" s="402" t="s">
+      <c r="AF1" s="405"/>
+      <c r="AG1" s="405"/>
+      <c r="AH1" s="405"/>
+      <c r="AI1" s="404" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="403"/>
-      <c r="AK1" s="403"/>
-      <c r="AL1" s="403"/>
+      <c r="AJ1" s="405"/>
+      <c r="AK1" s="405"/>
+      <c r="AL1" s="405"/>
     </row>
     <row r="2" spans="1:38" s="288" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
@@ -9491,20 +9487,20 @@
     <mergeCell ref="AI1:AL1"/>
   </mergeCells>
   <conditionalFormatting sqref="R1:R2 R25:R1048576">
-    <cfRule type="cellIs" dxfId="79" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:Q1048576 P1:Q2 P3:R11 P13:Q21 R13:R22 P22:R24">
-    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R24">
-    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9518,7 +9514,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9566,21 +9562,21 @@
       <c r="O1" s="27"/>
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
-      <c r="AA1" s="404" t="s">
+      <c r="AA1" s="406" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="404"/>
-      <c r="AC1" s="404"/>
-      <c r="AD1" s="404" t="s">
+      <c r="AB1" s="406"/>
+      <c r="AC1" s="406"/>
+      <c r="AD1" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="404"/>
-      <c r="AF1" s="404"/>
-      <c r="AG1" s="404" t="s">
+      <c r="AE1" s="406"/>
+      <c r="AF1" s="406"/>
+      <c r="AG1" s="406" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="404"/>
-      <c r="AI1" s="404"/>
+      <c r="AH1" s="406"/>
+      <c r="AI1" s="406"/>
       <c r="AJ1" s="108" t="s">
         <v>136</v>
       </c>
@@ -12689,180 +12685,180 @@
     <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U34:U1048576">
-    <cfRule type="cellIs" dxfId="75" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="126" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="128" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34:T1048576 Q1:T2 P16:U16 P13 P5:U6 Z14:AA14 Q3:W33">
-    <cfRule type="cellIs" dxfId="73" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="127" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U14">
-    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:P1048576 P1:P2">
-    <cfRule type="cellIs" dxfId="70" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="cellIs" dxfId="69" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="68" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:U7">
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:U23">
-    <cfRule type="cellIs" dxfId="64" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:P23">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:U23">
-    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:P23">
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:U33">
-    <cfRule type="cellIs" dxfId="60" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P33">
-    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:U4">
-    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="57" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:U11">
-    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P11">
-    <cfRule type="cellIs" dxfId="55" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:T8">
-    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="53" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:T9">
-    <cfRule type="cellIs" dxfId="51" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18:T21">
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:U21">
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:U21">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:U33">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24:U33">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:W17">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:U17">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12923,30 +12919,30 @@
       <c r="O1" s="349"/>
       <c r="V1" s="353"/>
       <c r="W1" s="353"/>
-      <c r="X1" s="405" t="s">
+      <c r="X1" s="407" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="406"/>
-      <c r="Z1" s="406"/>
-      <c r="AA1" s="407"/>
-      <c r="AB1" s="405" t="s">
+      <c r="Y1" s="408"/>
+      <c r="Z1" s="408"/>
+      <c r="AA1" s="409"/>
+      <c r="AB1" s="407" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="406"/>
-      <c r="AD1" s="406"/>
-      <c r="AE1" s="407"/>
-      <c r="AF1" s="408" t="s">
+      <c r="AC1" s="408"/>
+      <c r="AD1" s="408"/>
+      <c r="AE1" s="409"/>
+      <c r="AF1" s="410" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="409"/>
-      <c r="AH1" s="409"/>
-      <c r="AI1" s="409"/>
-      <c r="AJ1" s="408" t="s">
+      <c r="AG1" s="411"/>
+      <c r="AH1" s="411"/>
+      <c r="AI1" s="411"/>
+      <c r="AJ1" s="410" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="409"/>
-      <c r="AL1" s="409"/>
-      <c r="AM1" s="409"/>
+      <c r="AK1" s="411"/>
+      <c r="AL1" s="411"/>
+      <c r="AM1" s="411"/>
     </row>
     <row r="2" spans="1:39" s="369" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="354" t="s">
@@ -14334,75 +14330,75 @@
     <mergeCell ref="AJ1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="S1:S2 S20:S1048576">
-    <cfRule type="cellIs" dxfId="39" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="56" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R2 T14:U14 Q16:U16 Q20:R1048576 Q4:S10 P8:P10 P11:S13 P18:S19">
-    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S3">
-    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P2 P14 P16 P20:P1048576">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P7">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:S15">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:U17">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14413,14 +14409,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14471,21 +14466,21 @@
       <c r="W1" s="69"/>
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
-      <c r="Z1" s="404" t="s">
+      <c r="Z1" s="406" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="404"/>
-      <c r="AB1" s="404"/>
-      <c r="AC1" s="404" t="s">
+      <c r="AA1" s="406"/>
+      <c r="AB1" s="406"/>
+      <c r="AC1" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="404"/>
-      <c r="AE1" s="404"/>
-      <c r="AF1" s="404" t="s">
+      <c r="AD1" s="406"/>
+      <c r="AE1" s="406"/>
+      <c r="AF1" s="406" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="404"/>
-      <c r="AH1" s="404"/>
+      <c r="AG1" s="406"/>
+      <c r="AH1" s="406"/>
       <c r="AI1" s="108" t="s">
         <v>136</v>
       </c>
@@ -14615,12 +14610,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="266" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="218" t="str">
-        <f t="shared" ref="B3:B54" si="0">CONCATENATE("Indicatore ",C3," - ",D3)</f>
+        <f t="shared" ref="B3:B53" si="0">CONCATENATE("Indicatore ",C3," - ",D3)</f>
         <v>Indicatore 201 - XRA_MEANMISS_NUM_GG_L3M</v>
       </c>
       <c r="C3" s="219">
@@ -14706,7 +14701,7 @@
       <c r="AK3" s="311"/>
       <c r="AL3" s="312"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="255" t="s">
         <v>35</v>
       </c>
@@ -14798,7 +14793,7 @@
       <c r="AK4" s="311"/>
       <c r="AL4" s="312"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="255" t="s">
         <v>35</v>
       </c>
@@ -14889,7 +14884,7 @@
       <c r="AK5" s="311"/>
       <c r="AL5" s="312"/>
     </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="255" t="s">
         <v>35</v>
       </c>
@@ -14981,7 +14976,7 @@
       <c r="AK6" s="311"/>
       <c r="AL6" s="312"/>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="255" t="s">
         <v>35</v>
       </c>
@@ -15073,7 +15068,7 @@
       <c r="AK7" s="311"/>
       <c r="AL7" s="312"/>
     </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="255" t="s">
         <v>35</v>
       </c>
@@ -15165,7 +15160,7 @@
       <c r="AK8" s="311"/>
       <c r="AL8" s="312"/>
     </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="255" t="s">
         <v>35</v>
       </c>
@@ -15257,7 +15252,7 @@
       <c r="AK9" s="311"/>
       <c r="AL9" s="312"/>
     </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="255" t="s">
         <v>35</v>
       </c>
@@ -15349,7 +15344,7 @@
       <c r="AK10" s="311"/>
       <c r="AL10" s="312"/>
     </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A11" s="339" t="s">
         <v>35</v>
       </c>
@@ -15447,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A12" s="255" t="s">
         <v>182</v>
       </c>
@@ -15536,7 +15531,7 @@
       <c r="AK12" s="311"/>
       <c r="AL12" s="312"/>
     </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" ht="276" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" s="2" customFormat="1" ht="276" x14ac:dyDescent="0.3">
       <c r="A13" s="206" t="s">
         <v>182</v>
       </c>
@@ -15601,7 +15596,7 @@
       <c r="AK13" s="311"/>
       <c r="AL13" s="312"/>
     </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A14" s="266" t="s">
         <v>34</v>
       </c>
@@ -15693,7 +15688,7 @@
       <c r="AK14" s="75"/>
       <c r="AL14" s="75"/>
     </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A15" s="255" t="s">
         <v>34</v>
       </c>
@@ -15785,7 +15780,7 @@
       <c r="AK15" s="75"/>
       <c r="AL15" s="75"/>
     </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A16" s="255" t="s">
         <v>34</v>
       </c>
@@ -15877,7 +15872,7 @@
       <c r="AK16" s="75"/>
       <c r="AL16" s="75"/>
     </row>
-    <row r="17" spans="1:38" s="2" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A17" s="255" t="s">
         <v>34</v>
       </c>
@@ -15967,7 +15962,7 @@
       <c r="AK17" s="75"/>
       <c r="AL17" s="75"/>
     </row>
-    <row r="18" spans="1:38" s="2" customFormat="1" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A18" s="255" t="s">
         <v>34</v>
       </c>
@@ -16059,7 +16054,7 @@
       <c r="AK18" s="75"/>
       <c r="AL18" s="75"/>
     </row>
-    <row r="19" spans="1:38" s="2" customFormat="1" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A19" s="255" t="s">
         <v>34</v>
       </c>
@@ -16149,7 +16144,7 @@
       <c r="AK19" s="75"/>
       <c r="AL19" s="75"/>
     </row>
-    <row r="20" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" s="77" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A20" s="267" t="s">
         <v>34</v>
       </c>
@@ -16240,7 +16235,7 @@
       <c r="AK20" s="76"/>
       <c r="AL20" s="76"/>
     </row>
-    <row r="21" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" s="77" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A21" s="267" t="s">
         <v>34</v>
       </c>
@@ -16330,7 +16325,7 @@
       <c r="AK21" s="76"/>
       <c r="AL21" s="76"/>
     </row>
-    <row r="22" spans="1:38" s="77" customFormat="1" ht="248.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" s="77" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A22" s="267" t="s">
         <v>34</v>
       </c>
@@ -16424,7 +16419,7 @@
       <c r="AK22" s="76"/>
       <c r="AL22" s="76"/>
     </row>
-    <row r="23" spans="1:38" s="77" customFormat="1" ht="248.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" s="77" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A23" s="267" t="s">
         <v>34</v>
       </c>
@@ -16518,7 +16513,7 @@
       <c r="AK23" s="76"/>
       <c r="AL23" s="76"/>
     </row>
-    <row r="24" spans="1:38" ht="248.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A24" s="267" t="s">
         <v>34</v>
       </c>
@@ -16995,7 +16990,7 @@
       <c r="AK29" s="57"/>
       <c r="AL29" s="294"/>
     </row>
-    <row r="30" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="271" t="s">
         <v>35</v>
       </c>
@@ -17035,7 +17030,7 @@
         <v>666</v>
       </c>
       <c r="N30" s="103"/>
-      <c r="O30" s="419" t="s">
+      <c r="O30" s="397" t="s">
         <v>837</v>
       </c>
       <c r="P30" s="6">
@@ -17066,7 +17061,7 @@
       <c r="AK30" s="57"/>
       <c r="AL30" s="294"/>
     </row>
-    <row r="31" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" s="77" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="271" t="s">
         <v>35</v>
       </c>
@@ -17088,8 +17083,8 @@
         <v>663</v>
       </c>
       <c r="G31" s="67"/>
-      <c r="H31" s="60" t="s">
-        <v>670</v>
+      <c r="H31" s="78" t="s">
+        <v>840</v>
       </c>
       <c r="I31" s="82" t="s">
         <v>702</v>
@@ -17107,7 +17102,9 @@
         <v>666</v>
       </c>
       <c r="N31" s="103"/>
-      <c r="O31" s="47"/>
+      <c r="O31" s="396" t="s">
+        <v>841</v>
+      </c>
       <c r="P31" s="6">
         <v>1</v>
       </c>
@@ -17136,7 +17133,7 @@
       <c r="AK31" s="57"/>
       <c r="AL31" s="294"/>
     </row>
-    <row r="32" spans="1:38" s="77" customFormat="1" ht="165.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" s="77" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A32" s="271" t="s">
         <v>35</v>
       </c>
@@ -17145,7 +17142,7 @@
         <v xml:space="preserve">Indicatore 252 - XRA_NOSCONF_CONT_NOCOL_L3M </v>
       </c>
       <c r="C32" s="219">
-        <f t="shared" ref="C32:C54" si="3">1+C31</f>
+        <f t="shared" ref="C32:C53" si="3">1+C31</f>
         <v>252</v>
       </c>
       <c r="D32" s="47" t="s">
@@ -17208,7 +17205,7 @@
       <c r="AK32" s="57"/>
       <c r="AL32" s="294"/>
     </row>
-    <row r="33" spans="1:38" s="77" customFormat="1" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" s="77" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A33" s="271" t="s">
         <v>35</v>
       </c>
@@ -17249,7 +17246,7 @@
         <v>666</v>
       </c>
       <c r="N33" s="103"/>
-      <c r="O33" s="418" t="s">
+      <c r="O33" s="396" t="s">
         <v>839</v>
       </c>
       <c r="P33" s="6">
@@ -17280,7 +17277,7 @@
       <c r="AK33" s="57"/>
       <c r="AL33" s="294"/>
     </row>
-    <row r="34" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" s="77" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="271" t="s">
         <v>34</v>
       </c>
@@ -17352,7 +17349,7 @@
       <c r="AK34" s="57"/>
       <c r="AL34" s="294"/>
     </row>
-    <row r="35" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" s="77" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="271" t="s">
         <v>34</v>
       </c>
@@ -17424,7 +17421,7 @@
       <c r="AK35" s="57"/>
       <c r="AL35" s="294"/>
     </row>
-    <row r="36" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" s="77" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="271" t="s">
         <v>34</v>
       </c>
@@ -17496,7 +17493,7 @@
       <c r="AK36" s="57"/>
       <c r="AL36" s="294"/>
     </row>
-    <row r="37" spans="1:38" s="77" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" s="77" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="271" t="s">
         <v>34</v>
       </c>
@@ -17570,7 +17567,7 @@
       <c r="AK37" s="57"/>
       <c r="AL37" s="294"/>
     </row>
-    <row r="38" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" s="77" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A38" s="271" t="s">
         <v>768</v>
       </c>
@@ -17642,7 +17639,7 @@
       <c r="AK38" s="57"/>
       <c r="AL38" s="294"/>
     </row>
-    <row r="39" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" s="77" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A39" s="271" t="s">
         <v>768</v>
       </c>
@@ -17714,7 +17711,7 @@
       <c r="AK39" s="57"/>
       <c r="AL39" s="294"/>
     </row>
-    <row r="40" spans="1:38" s="77" customFormat="1" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" s="77" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A40" s="271" t="s">
         <v>768</v>
       </c>
@@ -17786,7 +17783,7 @@
       <c r="AK40" s="57"/>
       <c r="AL40" s="294"/>
     </row>
-    <row r="41" spans="1:38" s="77" customFormat="1" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" s="77" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A41" s="271" t="s">
         <v>768</v>
       </c>
@@ -17858,7 +17855,7 @@
       <c r="AK41" s="57"/>
       <c r="AL41" s="294"/>
     </row>
-    <row r="42" spans="1:38" s="77" customFormat="1" ht="151.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" s="77" customFormat="1" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="271" t="s">
         <v>182</v>
       </c>
@@ -17930,7 +17927,7 @@
       <c r="AK42" s="57"/>
       <c r="AL42" s="294"/>
     </row>
-    <row r="43" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="271" t="s">
         <v>182</v>
       </c>
@@ -18070,7 +18067,7 @@
       <c r="AK44" s="57"/>
       <c r="AL44" s="294"/>
     </row>
-    <row r="45" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="271" t="s">
         <v>572</v>
       </c>
@@ -18140,7 +18137,7 @@
       <c r="AK45" s="57"/>
       <c r="AL45" s="294"/>
     </row>
-    <row r="46" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="271" t="s">
         <v>572</v>
       </c>
@@ -18212,7 +18209,7 @@
       <c r="AK46" s="57"/>
       <c r="AL46" s="294"/>
     </row>
-    <row r="47" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="271" t="s">
         <v>658</v>
       </c>
@@ -18284,7 +18281,7 @@
       <c r="AK47" s="57"/>
       <c r="AL47" s="294"/>
     </row>
-    <row r="48" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="271" t="s">
         <v>658</v>
       </c>
@@ -18356,7 +18353,7 @@
       <c r="AK48" s="57"/>
       <c r="AL48" s="294"/>
     </row>
-    <row r="49" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="271" t="s">
         <v>659</v>
       </c>
@@ -18428,7 +18425,7 @@
       <c r="AK49" s="57"/>
       <c r="AL49" s="294"/>
     </row>
-    <row r="50" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="271" t="s">
         <v>659</v>
       </c>
@@ -18500,7 +18497,7 @@
       <c r="AK50" s="57"/>
       <c r="AL50" s="294"/>
     </row>
-    <row r="51" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="271" t="s">
         <v>365</v>
       </c>
@@ -18570,7 +18567,7 @@
       <c r="AK51" s="57"/>
       <c r="AL51" s="294"/>
     </row>
-    <row r="52" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="271" t="s">
         <v>604</v>
       </c>
@@ -18640,7 +18637,7 @@
       <c r="AK52" s="57"/>
       <c r="AL52" s="294"/>
     </row>
-    <row r="53" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="271" t="s">
         <v>604</v>
       </c>
@@ -18681,7 +18678,7 @@
         <v>604</v>
       </c>
       <c r="N53" s="103"/>
-      <c r="O53" s="418" t="s">
+      <c r="O53" s="396" t="s">
         <v>835</v>
       </c>
       <c r="P53" s="6">
@@ -18710,7 +18707,7 @@
       <c r="AK53" s="57"/>
       <c r="AL53" s="294"/>
     </row>
-    <row r="54" spans="1:38" s="77" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" s="77" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="271" t="s">
         <v>610</v>
       </c>
@@ -18781,58 +18778,51 @@
       <c r="AL54" s="294"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AL54">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Bilancio Familiare"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U55:U1048576">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T2 P5:U10 P12:U12 P14:U27 Q3:U27 P1:P27 P55:T1048576">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:U11">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:U29">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:U13">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:U54">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18895,35 +18885,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="399" t="s">
+      <c r="X1" s="401" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="400"/>
-      <c r="Z1" s="400"/>
-      <c r="AA1" s="401"/>
-      <c r="AB1" s="399" t="s">
+      <c r="Y1" s="402"/>
+      <c r="Z1" s="402"/>
+      <c r="AA1" s="403"/>
+      <c r="AB1" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="400"/>
-      <c r="AD1" s="400"/>
-      <c r="AE1" s="401"/>
-      <c r="AF1" s="402" t="s">
+      <c r="AC1" s="402"/>
+      <c r="AD1" s="402"/>
+      <c r="AE1" s="403"/>
+      <c r="AF1" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="403"/>
-      <c r="AH1" s="403"/>
-      <c r="AI1" s="403"/>
-      <c r="AJ1" s="402" t="s">
+      <c r="AG1" s="405"/>
+      <c r="AH1" s="405"/>
+      <c r="AI1" s="405"/>
+      <c r="AJ1" s="404" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="403"/>
-      <c r="AL1" s="403"/>
-      <c r="AM1" s="403"/>
+      <c r="AK1" s="405"/>
+      <c r="AL1" s="405"/>
+      <c r="AM1" s="405"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="410" t="s">
+      <c r="AO1" s="412" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="410"/>
+      <c r="AP1" s="412"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
@@ -19063,20 +19053,20 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R1048576">
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19839,55 +19829,55 @@
     <sortCondition ref="C2"/>
   </sortState>
   <conditionalFormatting sqref="W1">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:V1">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:V3">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:V4">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:V5">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:V7">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W7">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19900,7 +19890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -20915,18 +20905,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21044,6 +21034,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -21054,14 +21052,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -3108,12 +3108,6 @@
     <t>BR561 - Garanzie a favore di soggetti in sofferenza (Indicatore 103, indicatore 105)</t>
   </si>
   <si>
-    <t>BR163 - Rate impagate su c/c Banca  (Indicatore 106, Indicatore 107, Indicatore 108, indicatore 119)</t>
-  </si>
-  <si>
-    <t>BR164 - Rate impagate con RID/MAV (Indicatore 109, Indicatore 110, Indicatore 111, indicatore 120)</t>
-  </si>
-  <si>
     <t>uguale su Arancione?</t>
   </si>
   <si>
@@ -3310,14 +3304,27 @@
   <si>
     <t>NUM_GIO_SCONF_MEAN_90GG_NOCOL</t>
   </si>
+  <si>
+    <t>BR163 - Rate impagate su c/c Banca  (Indicatore 106, Indicatore 107, Indicatore 108, indicatore 120)</t>
+  </si>
+  <si>
+    <t>BR164 - Rate impagate con RID/MAV (Indicatore 109, Indicatore 110, Indicatore 111, indicatore 121)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4281,454 +4288,454 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="420">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4746,48 +4753,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -4802,43 +4809,43 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4850,40 +4857,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="34" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="34" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="34" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="33" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="34" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4892,50 +4899,50 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4945,294 +4952,294 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5250,217 +5257,220 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6552,7 +6562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7736,10 +7748,10 @@
   <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A24"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12872,10 +12884,10 @@
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14182,11 +14194,11 @@
         <v>267</v>
       </c>
       <c r="B18" s="286" t="str">
-        <f t="shared" si="0"/>
-        <v>Indicatore 119 - Importo residuo debito rate impagate per prodotti su cc</v>
+        <f>CONCATENATE("Indicatore ",C18," - ",D18)</f>
+        <v>Indicatore 120 - Importo residuo debito rate impagate per prodotti su cc</v>
       </c>
       <c r="C18" s="384">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="254" t="s">
         <v>762</v>
@@ -14200,7 +14212,7 @@
       <c r="G18" s="372" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="371" t="s">
+      <c r="H18" s="420" t="s">
         <v>766</v>
       </c>
       <c r="I18" s="373"/>
@@ -14255,10 +14267,10 @@
       </c>
       <c r="B19" s="286" t="str">
         <f t="shared" si="0"/>
-        <v>Indicatore 120 - Importo residuo debito rate impagate per prodotti su RID/MAV</v>
+        <v>Indicatore 121 - Importo residuo debito rate impagate per prodotti su RID/MAV</v>
       </c>
       <c r="C19" s="384">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D19" s="254" t="s">
         <v>763</v>
@@ -14411,8 +14423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
@@ -16892,7 +16904,7 @@
       </c>
       <c r="N28" s="103"/>
       <c r="O28" s="222" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="P28" s="6">
         <v>2</v>
@@ -16962,7 +16974,7 @@
       </c>
       <c r="N29" s="103"/>
       <c r="O29" s="222" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="P29" s="6">
         <v>2</v>
@@ -17031,7 +17043,7 @@
       </c>
       <c r="N30" s="103"/>
       <c r="O30" s="397" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="P30" s="6">
         <v>1</v>
@@ -17084,7 +17096,7 @@
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="78" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I31" s="82" t="s">
         <v>702</v>
@@ -17103,7 +17115,7 @@
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="396" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="P31" s="6">
         <v>1</v>
@@ -17175,7 +17187,7 @@
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="47" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="P32" s="6">
         <v>2</v>
@@ -17247,7 +17259,7 @@
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="396" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="P33" s="6">
         <v>2</v>
@@ -17321,7 +17333,7 @@
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="222" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="P34" s="6">
         <v>3</v>
@@ -17393,7 +17405,7 @@
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="222" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="P35" s="6">
         <v>3</v>
@@ -17465,7 +17477,7 @@
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="222" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="P36" s="6">
         <v>3</v>
@@ -17537,7 +17549,7 @@
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="320" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="P37" s="6">
         <v>2</v>
@@ -17611,7 +17623,7 @@
       </c>
       <c r="N38" s="103"/>
       <c r="O38" s="222" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="P38" s="6">
         <v>3</v>
@@ -17683,7 +17695,7 @@
       </c>
       <c r="N39" s="103"/>
       <c r="O39" s="222" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="P39" s="6">
         <v>3</v>
@@ -17755,7 +17767,7 @@
       </c>
       <c r="N40" s="103"/>
       <c r="O40" s="222" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="P40" s="6">
         <v>3</v>
@@ -17827,7 +17839,7 @@
       </c>
       <c r="N41" s="103"/>
       <c r="O41" s="222" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="P41" s="6">
         <v>2</v>
@@ -17897,10 +17909,10 @@
       </c>
       <c r="N42" s="103"/>
       <c r="O42" s="222" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -18039,7 +18051,7 @@
       </c>
       <c r="N44" s="103"/>
       <c r="O44" s="222" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="P44" s="6">
         <v>2</v>
@@ -18109,7 +18121,7 @@
       </c>
       <c r="N45" s="103"/>
       <c r="O45" s="320" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="P45" s="6">
         <v>2</v>
@@ -18181,7 +18193,7 @@
       </c>
       <c r="N46" s="103"/>
       <c r="O46" s="253" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="P46" s="6">
         <v>1</v>
@@ -18253,7 +18265,7 @@
       </c>
       <c r="N47" s="103"/>
       <c r="O47" s="222" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="P47" s="6">
         <v>2</v>
@@ -18325,7 +18337,7 @@
       </c>
       <c r="N48" s="103"/>
       <c r="O48" s="253" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="P48" s="6">
         <v>1</v>
@@ -18397,7 +18409,7 @@
       </c>
       <c r="N49" s="103"/>
       <c r="O49" s="222" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="P49" s="6">
         <v>2</v>
@@ -18469,7 +18481,7 @@
       </c>
       <c r="N50" s="103"/>
       <c r="O50" s="253" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="P50" s="6">
         <v>1</v>
@@ -18539,7 +18551,7 @@
       </c>
       <c r="N51" s="103"/>
       <c r="O51" s="222" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="P51" s="6">
         <v>2</v>
@@ -18609,7 +18621,7 @@
       </c>
       <c r="N52" s="103"/>
       <c r="O52" s="222" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="P52" s="6">
         <v>2</v>
@@ -18679,7 +18691,7 @@
       </c>
       <c r="N53" s="103"/>
       <c r="O53" s="396" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="P53" s="6">
         <v>1</v>
@@ -18749,7 +18761,7 @@
       </c>
       <c r="N54" s="103"/>
       <c r="O54" s="222" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="P54" s="6">
         <v>2</v>
@@ -19890,8 +19902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20440,7 +20452,7 @@
         <v>808</v>
       </c>
       <c r="E30" s="230" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F30" s="231"/>
       <c r="G30" s="199"/>
@@ -20466,7 +20478,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>811</v>
+        <v>840</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
@@ -20484,7 +20496,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="228" t="s">
-        <v>812</v>
+        <v>841</v>
       </c>
       <c r="B33" s="228" t="s">
         <v>114</v>
@@ -20905,18 +20917,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21034,14 +21046,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -21052,6 +21056,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\Document\SpecificheIndicatori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\Document\SpecificheIndicatori\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="31992" windowHeight="16272" tabRatio="918"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Indicatori Tecnici'!$A$2:$AP$2</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="10">Eccezioni!$A$3:$O$8</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="870">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3370,11 +3370,40 @@
   <si>
     <t>dovranno inserire il campo FLG_NOPG_AR_RIF</t>
   </si>
+  <si>
+    <t xml:space="preserve">IMP_FAT_OVERDUE_M0
+</t>
+  </si>
+  <si>
+    <t>NUM_OVERDUE_DD_FAT</t>
+  </si>
+  <si>
+    <t>IMP_PFT_INSOL_TPREC
+IMP_PTF_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP_FINEXP_30D_M0
+</t>
+  </si>
+  <si>
+    <t>NUM_OVERDUE_DD_FINEXP_1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP_ANTEXP_30D_M0
+</t>
+  </si>
+  <si>
+    <t>NUM_OVERDUE_DD_ANTEXP_1M</t>
+  </si>
+  <si>
+    <t>IMP_PREAM_UTI
+IMP_PREAM_INI_LOANS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4369,7 +4398,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5508,72 +5537,6 @@
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5582,6 +5545,81 @@
     <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6663,37 +6701,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" customWidth="1"/>
-    <col min="2" max="2" width="8.8984375" style="45"/>
-    <col min="3" max="3" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" customWidth="1"/>
-    <col min="5" max="5" width="6.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="45"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.19921875" customWidth="1"/>
-    <col min="8" max="8" width="4.69921875" style="239" customWidth="1"/>
-    <col min="9" max="9" width="40.09765625" style="239" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="4.75" style="239" customWidth="1"/>
+    <col min="9" max="9" width="40.125" style="239" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="238" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="E1" s="410" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E1" s="415" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="410"/>
-      <c r="H1" s="411" t="s">
+      <c r="F1" s="415"/>
+      <c r="H1" s="416" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="412"/>
+      <c r="I1" s="417"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -6706,20 +6744,20 @@
       <c r="N1" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="O1" s="433" t="s">
+      <c r="O1" s="411" t="s">
         <v>844</v>
       </c>
-      <c r="P1" s="433" t="s">
+      <c r="P1" s="411" t="s">
         <v>845</v>
       </c>
-      <c r="Q1" s="433" t="s">
+      <c r="Q1" s="411" t="s">
         <v>846</v>
       </c>
-      <c r="R1" s="433" t="s">
+      <c r="R1" s="411" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="213"/>
       <c r="C2" t="s">
         <v>379</v>
@@ -6765,7 +6803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="211"/>
       <c r="C3" s="210" t="s">
         <v>304</v>
@@ -6811,7 +6849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="212"/>
       <c r="C4" s="210" t="s">
         <v>305</v>
@@ -6857,7 +6895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="214"/>
       <c r="C5" t="s">
         <v>327</v>
@@ -6903,7 +6941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="220"/>
       <c r="C6" t="s">
         <v>359</v>
@@ -6930,7 +6968,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="216"/>
       <c r="C7" t="s">
         <v>328</v>
@@ -6972,7 +7010,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="222" t="s">
         <v>382</v>
       </c>
@@ -7016,7 +7054,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="243"/>
       <c r="C9" t="s">
         <v>526</v>
@@ -7052,7 +7090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H10" s="242" t="s">
         <v>485</v>
       </c>
@@ -7084,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H11" s="242" t="s">
         <v>487</v>
       </c>
@@ -7101,7 +7139,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H12" s="242" t="s">
         <v>489</v>
       </c>
@@ -7137,7 +7175,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="272"/>
       <c r="C13" t="s">
         <v>664</v>
@@ -7177,7 +7215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="273"/>
       <c r="C14" t="s">
         <v>665</v>
@@ -7217,7 +7255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="274"/>
       <c r="C15" t="s">
         <v>666</v>
@@ -7257,7 +7295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H16" s="242" t="s">
         <v>497</v>
       </c>
@@ -7273,27 +7311,27 @@
       <c r="L16" s="198" t="s">
         <v>530</v>
       </c>
-      <c r="N16" s="433" t="s">
+      <c r="N16" s="411" t="s">
         <v>848</v>
       </c>
-      <c r="O16" s="433">
+      <c r="O16" s="411">
         <f>SUM(O12:O15)</f>
         <v>2.75</v>
       </c>
-      <c r="P16" s="433">
+      <c r="P16" s="411">
         <f t="shared" ref="P16:R16" si="3">SUM(P12:P15)</f>
         <v>13.75</v>
       </c>
-      <c r="Q16" s="433">
+      <c r="Q16" s="411">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="R16" s="433">
+      <c r="R16" s="411">
         <f t="shared" si="3"/>
         <v>32.375</v>
       </c>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H17" s="242" t="s">
         <v>499</v>
       </c>
@@ -7310,7 +7348,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H18" s="242" t="s">
         <v>501</v>
       </c>
@@ -7341,11 +7379,11 @@
       <c r="R18" s="138" t="s">
         <v>852</v>
       </c>
-      <c r="S18" s="434" t="s">
+      <c r="S18" s="412" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H19" s="242" t="s">
         <v>503</v>
       </c>
@@ -7362,21 +7400,21 @@
         <v>530</v>
       </c>
       <c r="N19" s="138"/>
-      <c r="O19" s="435">
+      <c r="O19" s="413">
         <v>42891</v>
       </c>
-      <c r="P19" s="435">
+      <c r="P19" s="413">
         <v>42898</v>
       </c>
-      <c r="Q19" s="435">
+      <c r="Q19" s="413">
         <v>42912</v>
       </c>
-      <c r="R19" s="435">
+      <c r="R19" s="413">
         <v>42898</v>
       </c>
       <c r="S19" s="138"/>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H20" s="242" t="s">
         <v>505</v>
       </c>
@@ -7394,16 +7432,16 @@
       </c>
       <c r="N20" s="138"/>
       <c r="O20" s="138"/>
-      <c r="P20" s="435">
+      <c r="P20" s="413">
         <v>42905</v>
       </c>
       <c r="Q20" s="138"/>
-      <c r="R20" s="435">
+      <c r="R20" s="413">
         <v>42912</v>
       </c>
       <c r="S20" s="138"/>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H21" s="242" t="s">
         <v>507</v>
       </c>
@@ -7423,12 +7461,12 @@
       <c r="O21" s="138"/>
       <c r="P21" s="138"/>
       <c r="Q21" s="138"/>
-      <c r="R21" s="435">
+      <c r="R21" s="413">
         <v>42919</v>
       </c>
       <c r="S21" s="138"/>
     </row>
-    <row r="22" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H22" s="242" t="s">
         <v>509</v>
       </c>
@@ -7448,12 +7486,12 @@
       <c r="O22" s="138"/>
       <c r="P22" s="138"/>
       <c r="Q22" s="138"/>
-      <c r="R22" s="435">
+      <c r="R22" s="413">
         <v>42926</v>
       </c>
       <c r="S22" s="138"/>
     </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H23" s="242" t="s">
         <v>532</v>
       </c>
@@ -7476,7 +7514,7 @@
       <c r="R23" s="138"/>
       <c r="S23" s="138"/>
     </row>
-    <row r="24" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H24" s="242" t="s">
         <v>534</v>
       </c>
@@ -7499,7 +7537,7 @@
       <c r="R24" s="138"/>
       <c r="S24" s="138"/>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="N25" s="138" t="s">
         <v>855</v>
       </c>
@@ -7529,21 +7567,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.59765625" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F1" s="429" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="434" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+    </row>
+    <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
         <v>159</v>
       </c>
@@ -7554,41 +7592,41 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="425" t="s">
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="430" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="426"/>
+      <c r="B3" s="431"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="425"/>
-      <c r="B4" s="427"/>
+    <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="430"/>
+      <c r="B4" s="432"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="425"/>
-      <c r="B5" s="427"/>
+    <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="430"/>
+      <c r="B5" s="432"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="425"/>
-      <c r="B6" s="428"/>
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="430"/>
+      <c r="B6" s="433"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="186" t="s">
         <v>167</v>
       </c>
@@ -7617,27 +7655,27 @@
       <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="8.8984375" style="178"/>
-    <col min="3" max="3" width="11.09765625" style="178" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="11.59765625" style="178" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.59765625" style="178" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="178"/>
+    <col min="3" max="3" width="11.125" style="178" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="11.625" style="178" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.625" style="178" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="185"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="187" t="s">
         <v>169</v>
       </c>
       <c r="N2" s="198"/>
       <c r="O2" s="198"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="430"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="435"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -7659,8 +7697,8 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="430"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="435"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -7680,8 +7718,8 @@
       <c r="N4" s="198"/>
       <c r="O4" s="198"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="430"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="435"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -7701,8 +7739,8 @@
       <c r="N5" s="198"/>
       <c r="O5" s="198"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="430"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="435"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -7722,8 +7760,8 @@
       <c r="N6" s="198"/>
       <c r="O6" s="198"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="430"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="435"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -7743,10 +7781,10 @@
       <c r="N7" s="198"/>
       <c r="O7" s="198"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="157"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" s="198"/>
       <c r="G10" s="198"/>
       <c r="H10" s="198"/>
@@ -7756,7 +7794,7 @@
       <c r="L10" s="198"/>
       <c r="M10" s="198"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="188" t="s">
         <v>170</v>
       </c>
@@ -7772,8 +7810,8 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="431"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="436"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -7795,8 +7833,8 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="431"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="436"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -7816,8 +7854,8 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="431"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="436"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -7837,8 +7875,8 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="431"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="436"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -7858,8 +7896,8 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="431"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="436"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -7879,7 +7917,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="157"/>
       <c r="D17" s="198"/>
       <c r="E17" s="198"/>
@@ -7894,7 +7932,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="157"/>
       <c r="D18" s="198"/>
       <c r="E18" s="198"/>
@@ -7907,7 +7945,7 @@
       <c r="L18" s="198"/>
       <c r="M18" s="198"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="157"/>
       <c r="D19" s="198"/>
       <c r="E19" s="198"/>
@@ -7920,7 +7958,7 @@
       <c r="L19" s="198"/>
       <c r="M19" s="198"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="157"/>
       <c r="D20" s="198"/>
       <c r="E20" s="198"/>
@@ -7933,7 +7971,7 @@
       <c r="L20" s="198"/>
       <c r="M20" s="198"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="157"/>
       <c r="D21" s="198"/>
       <c r="E21" s="198"/>
@@ -7946,7 +7984,7 @@
       <c r="L21" s="198"/>
       <c r="M21" s="198"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="157"/>
       <c r="D22" s="198"/>
       <c r="E22" s="198"/>
@@ -7959,7 +7997,7 @@
       <c r="L22" s="198"/>
       <c r="M22" s="198"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="157"/>
       <c r="D23" s="198"/>
       <c r="E23" s="198"/>
@@ -7972,7 +8010,7 @@
       <c r="L23" s="198"/>
       <c r="M23" s="198"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="157"/>
       <c r="D24" s="198"/>
       <c r="E24" s="198"/>
@@ -7985,7 +8023,7 @@
       <c r="L24" s="198"/>
       <c r="M24" s="198"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="157"/>
       <c r="D25" s="198"/>
       <c r="E25" s="198"/>
@@ -7998,7 +8036,7 @@
       <c r="L25" s="198"/>
       <c r="M25" s="198"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="157"/>
       <c r="D26" s="198"/>
       <c r="E26" s="198"/>
@@ -8011,7 +8049,7 @@
       <c r="L26" s="198"/>
       <c r="M26" s="198"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F28" s="198"/>
       <c r="G28" s="198"/>
       <c r="H28" s="198"/>
@@ -8021,7 +8059,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="198"/>
       <c r="B29" s="198"/>
       <c r="C29" s="198"/>
@@ -8036,7 +8074,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="198"/>
       <c r="B30" s="198"/>
       <c r="C30" s="198"/>
@@ -8051,7 +8089,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="198"/>
       <c r="B31" s="198"/>
       <c r="C31" s="198"/>
@@ -8066,7 +8104,7 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="198"/>
       <c r="B32" s="198"/>
       <c r="C32" s="198"/>
@@ -8081,7 +8119,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="198"/>
       <c r="B33" s="198"/>
       <c r="C33" s="198"/>
@@ -8096,7 +8134,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="198"/>
       <c r="B34" s="198"/>
       <c r="C34" s="198"/>
@@ -8111,7 +8149,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="157"/>
       <c r="D35" s="198"/>
       <c r="E35" s="198"/>
@@ -8124,7 +8162,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="157"/>
       <c r="D36" s="198"/>
       <c r="E36" s="198"/>
@@ -8137,7 +8175,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="157"/>
       <c r="D37" s="198"/>
       <c r="E37" s="198"/>
@@ -8146,7 +8184,7 @@
       <c r="H37" s="198"/>
       <c r="I37" s="198"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="157"/>
       <c r="D38" s="198"/>
       <c r="E38" s="198"/>
@@ -8155,22 +8193,22 @@
       <c r="H38" s="198"/>
       <c r="I38" s="198"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="157"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="157"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="157"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="157"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="157"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="157"/>
     </row>
   </sheetData>
@@ -8188,80 +8226,80 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.3984375" style="76" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="76" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.09765625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="52.59765625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="52.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="117.09765625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="38.3984375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="117.125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="38.375" style="45" customWidth="1"/>
     <col min="10" max="10" width="36.5" style="45" customWidth="1"/>
-    <col min="11" max="12" width="17.09765625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="25.8984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="49.59765625" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="43.59765625" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.8984375" style="49" customWidth="1"/>
-    <col min="17" max="18" width="13.09765625" style="69" customWidth="1"/>
-    <col min="19" max="19" width="15.59765625" style="69" customWidth="1"/>
-    <col min="20" max="20" width="17.09765625" style="69" customWidth="1"/>
-    <col min="21" max="22" width="22.3984375" style="69" customWidth="1"/>
-    <col min="23" max="23" width="17.3984375" style="11" customWidth="1"/>
-    <col min="24" max="24" width="29.09765625" style="11" customWidth="1"/>
+    <col min="11" max="12" width="17.125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="25.875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.625" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="43.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" style="49" customWidth="1"/>
+    <col min="17" max="18" width="13.125" style="69" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="69" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="69" customWidth="1"/>
+    <col min="21" max="22" width="22.375" style="69" customWidth="1"/>
+    <col min="23" max="23" width="17.375" style="11" customWidth="1"/>
+    <col min="24" max="24" width="29.125" style="11" customWidth="1"/>
     <col min="25" max="25" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" style="11" customWidth="1"/>
     <col min="29" max="31" width="11.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.8984375" style="11" customWidth="1"/>
+    <col min="32" max="32" width="12.875" style="11" customWidth="1"/>
     <col min="33" max="35" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11.5" style="40" customWidth="1"/>
-    <col min="37" max="39" width="12.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.59765625" style="4"/>
+    <col min="37" max="39" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="413" t="s">
+      <c r="Y1" s="418" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="414"/>
-      <c r="AA1" s="414"/>
-      <c r="AB1" s="415"/>
-      <c r="AC1" s="413" t="s">
+      <c r="Z1" s="419"/>
+      <c r="AA1" s="419"/>
+      <c r="AB1" s="420"/>
+      <c r="AC1" s="418" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="414"/>
-      <c r="AE1" s="414"/>
-      <c r="AF1" s="415"/>
-      <c r="AG1" s="416" t="s">
+      <c r="AD1" s="419"/>
+      <c r="AE1" s="419"/>
+      <c r="AF1" s="420"/>
+      <c r="AG1" s="421" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="417"/>
-      <c r="AI1" s="417"/>
-      <c r="AJ1" s="417"/>
-      <c r="AK1" s="416" t="s">
+      <c r="AH1" s="422"/>
+      <c r="AI1" s="422"/>
+      <c r="AJ1" s="422"/>
+      <c r="AK1" s="421" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="417"/>
-      <c r="AM1" s="417"/>
-      <c r="AN1" s="417"/>
-    </row>
-    <row r="2" spans="1:40" s="287" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AL1" s="422"/>
+      <c r="AM1" s="422"/>
+      <c r="AN1" s="422"/>
+    </row>
+    <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>71</v>
       </c>
@@ -8310,7 +8348,7 @@
       <c r="P2" s="407" t="s">
         <v>838</v>
       </c>
-      <c r="Q2" s="432" t="s">
+      <c r="Q2" s="410" t="s">
         <v>841</v>
       </c>
       <c r="R2" s="71" t="s">
@@ -8383,7 +8421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="382" t="s">
         <v>72</v>
       </c>
@@ -8461,7 +8499,7 @@
       <c r="AM3" s="20"/>
       <c r="AN3" s="20"/>
     </row>
-    <row r="4" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="382" t="s">
         <v>72</v>
       </c>
@@ -8539,7 +8577,7 @@
       <c r="AM4" s="20"/>
       <c r="AN4" s="20"/>
     </row>
-    <row r="5" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="382" t="s">
         <v>72</v>
       </c>
@@ -8618,7 +8656,7 @@
       <c r="AM5" s="20"/>
       <c r="AN5" s="20"/>
     </row>
-    <row r="6" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="382" t="s">
         <v>72</v>
       </c>
@@ -8696,7 +8734,7 @@
       <c r="AM6" s="290"/>
       <c r="AN6" s="290"/>
     </row>
-    <row r="7" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="382" t="s">
         <v>72</v>
       </c>
@@ -8775,7 +8813,7 @@
       <c r="AM7" s="290"/>
       <c r="AN7" s="290"/>
     </row>
-    <row r="8" spans="1:40" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="382" t="s">
         <v>72</v>
       </c>
@@ -8882,7 +8920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="382" t="s">
         <v>72</v>
       </c>
@@ -8957,7 +8995,7 @@
       <c r="AM9" s="290"/>
       <c r="AN9" s="290"/>
     </row>
-    <row r="10" spans="1:40" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="405" t="s">
         <v>72</v>
       </c>
@@ -8999,7 +9037,7 @@
       <c r="O10" s="392" t="s">
         <v>317</v>
       </c>
-      <c r="P10" s="436" t="s">
+      <c r="P10" s="414" t="s">
         <v>859</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -9031,7 +9069,7 @@
       <c r="AM10" s="290"/>
       <c r="AN10" s="290"/>
     </row>
-    <row r="11" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="382" t="s">
         <v>72</v>
       </c>
@@ -9108,7 +9146,7 @@
       <c r="AM11" s="20"/>
       <c r="AN11" s="20"/>
     </row>
-    <row r="12" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="382" t="s">
         <v>72</v>
       </c>
@@ -9184,7 +9222,7 @@
       <c r="AM12" s="20"/>
       <c r="AN12" s="20"/>
     </row>
-    <row r="13" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="382" t="s">
         <v>72</v>
       </c>
@@ -9261,7 +9299,7 @@
       <c r="AM13" s="20"/>
       <c r="AN13" s="20"/>
     </row>
-    <row r="14" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="408" t="s">
         <v>72</v>
       </c>
@@ -9305,7 +9343,7 @@
       <c r="O14" s="393" t="s">
         <v>315</v>
       </c>
-      <c r="P14" s="436" t="s">
+      <c r="P14" s="414" t="s">
         <v>860</v>
       </c>
       <c r="Q14" s="6" t="s">
@@ -9337,7 +9375,7 @@
       <c r="AM14" s="20"/>
       <c r="AN14" s="20"/>
     </row>
-    <row r="15" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="408" t="s">
         <v>72</v>
       </c>
@@ -9381,7 +9419,7 @@
       <c r="O15" s="393" t="s">
         <v>316</v>
       </c>
-      <c r="P15" s="436" t="s">
+      <c r="P15" s="414" t="s">
         <v>861</v>
       </c>
       <c r="Q15" s="6" t="s">
@@ -9413,7 +9451,7 @@
       <c r="AM15" s="20"/>
       <c r="AN15" s="20"/>
     </row>
-    <row r="16" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="382" t="s">
         <v>72</v>
       </c>
@@ -9489,7 +9527,7 @@
       <c r="AM16" s="20"/>
       <c r="AN16" s="20"/>
     </row>
-    <row r="17" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="382" t="s">
         <v>72</v>
       </c>
@@ -9565,7 +9603,7 @@
       <c r="AM17" s="20"/>
       <c r="AN17" s="20"/>
     </row>
-    <row r="18" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="382" t="s">
         <v>72</v>
       </c>
@@ -9641,7 +9679,7 @@
       <c r="AM18" s="20"/>
       <c r="AN18" s="20"/>
     </row>
-    <row r="19" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="382" t="s">
         <v>72</v>
       </c>
@@ -9717,7 +9755,7 @@
       <c r="AM19" s="20"/>
       <c r="AN19" s="20"/>
     </row>
-    <row r="20" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="382" t="s">
         <v>72</v>
       </c>
@@ -9793,7 +9831,7 @@
       <c r="AM20" s="20"/>
       <c r="AN20" s="20"/>
     </row>
-    <row r="21" spans="1:40" s="298" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" s="298" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="408" t="s">
         <v>72</v>
       </c>
@@ -9864,7 +9902,7 @@
       <c r="AM21" s="244"/>
       <c r="AN21" s="244"/>
     </row>
-    <row r="22" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="382" t="s">
         <v>72</v>
       </c>
@@ -9940,7 +9978,7 @@
       <c r="AM22" s="20"/>
       <c r="AN22" s="20"/>
     </row>
-    <row r="23" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="382" t="s">
         <v>72</v>
       </c>
@@ -10047,70 +10085,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="O23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.19921875" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="76" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.09765625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.69921875" style="50" customWidth="1"/>
-    <col min="9" max="9" width="57.59765625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.75" style="50" customWidth="1"/>
+    <col min="9" max="9" width="57.625" style="62" customWidth="1"/>
     <col min="10" max="10" width="28" style="45" customWidth="1"/>
-    <col min="11" max="12" width="17.09765625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="26.3984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.59765625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="17.125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="26.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.625" style="4" customWidth="1"/>
     <col min="15" max="16" width="30" style="49" customWidth="1"/>
-    <col min="17" max="18" width="13.09765625" style="69" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" style="69" customWidth="1"/>
-    <col min="20" max="20" width="15.59765625" style="69" customWidth="1"/>
+    <col min="17" max="18" width="13.125" style="69" customWidth="1"/>
+    <col min="19" max="19" width="14.875" style="69" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="69" customWidth="1"/>
     <col min="21" max="21" width="22" style="69" customWidth="1"/>
-    <col min="22" max="22" width="18.8984375" style="69" customWidth="1"/>
-    <col min="23" max="23" width="7.69921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.875" style="69" customWidth="1"/>
+    <col min="23" max="23" width="7.75" style="69" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" style="69" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="68.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="8.59765625" style="4"/>
-    <col min="32" max="32" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="8.59765625" style="4"/>
+    <col min="26" max="26" width="68.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="8.625" style="4"/>
+    <col min="32" max="32" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="8.625" style="4"/>
     <col min="37" max="38" width="11.5" style="11" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="11" customWidth="1"/>
     <col min="40" max="40" width="11.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="50.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.59765625" style="4"/>
+    <col min="41" max="41" width="50.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="418" t="s">
+      <c r="AB1" s="423" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="418"/>
-      <c r="AD1" s="418"/>
-      <c r="AE1" s="418" t="s">
+      <c r="AC1" s="423"/>
+      <c r="AD1" s="423"/>
+      <c r="AE1" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="418"/>
-      <c r="AG1" s="418"/>
-      <c r="AH1" s="418" t="s">
+      <c r="AF1" s="423"/>
+      <c r="AG1" s="423"/>
+      <c r="AH1" s="423" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="418"/>
-      <c r="AJ1" s="418"/>
+      <c r="AI1" s="423"/>
+      <c r="AJ1" s="423"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10124,7 +10162,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="287" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" s="287" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>71</v>
       </c>
@@ -10247,7 +10285,7 @@
       </c>
       <c r="AO2" s="4"/>
     </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="249" t="s">
         <v>35</v>
       </c>
@@ -10294,7 +10332,9 @@
       <c r="O3" s="394" t="s">
         <v>341</v>
       </c>
-      <c r="P3" s="394"/>
+      <c r="P3" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q3" s="6">
         <v>1</v>
       </c>
@@ -10344,7 +10384,7 @@
       <c r="AM3" s="305"/>
       <c r="AN3" s="306"/>
     </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="249" t="s">
         <v>35</v>
       </c>
@@ -10392,7 +10432,9 @@
       <c r="O4" s="394" t="s">
         <v>345</v>
       </c>
-      <c r="P4" s="394"/>
+      <c r="P4" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q4" s="6">
         <v>1</v>
       </c>
@@ -10442,7 +10484,7 @@
       <c r="AM4" s="305"/>
       <c r="AN4" s="306"/>
     </row>
-    <row r="5" spans="1:41" s="2" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="271" t="s">
         <v>35</v>
       </c>
@@ -10489,7 +10531,9 @@
       <c r="O5" s="395" t="s">
         <v>332</v>
       </c>
-      <c r="P5" s="395"/>
+      <c r="P5" s="37" t="s">
+        <v>530</v>
+      </c>
       <c r="Q5" s="6">
         <v>2</v>
       </c>
@@ -10539,7 +10583,7 @@
       <c r="AM5" s="305"/>
       <c r="AN5" s="306"/>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="271" t="s">
         <v>35</v>
       </c>
@@ -10587,7 +10631,9 @@
       <c r="O6" s="392" t="s">
         <v>334</v>
       </c>
-      <c r="P6" s="392"/>
+      <c r="P6" s="55" t="s">
+        <v>530</v>
+      </c>
       <c r="Q6" s="6">
         <v>2</v>
       </c>
@@ -10619,7 +10665,7 @@
       <c r="AM6" s="305"/>
       <c r="AN6" s="306"/>
     </row>
-    <row r="7" spans="1:41" ht="138" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A7" s="308" t="s">
         <v>34</v>
       </c>
@@ -10692,7 +10738,7 @@
       <c r="AM7" s="310"/>
       <c r="AN7" s="311"/>
     </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="268" t="s">
         <v>34</v>
       </c>
@@ -10797,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="313" t="s">
         <v>34</v>
       </c>
@@ -10902,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="250" t="s">
         <v>34</v>
       </c>
@@ -10998,7 +11044,7 @@
       <c r="AM10" s="74"/>
       <c r="AN10" s="74"/>
     </row>
-    <row r="11" spans="1:41" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="250" t="s">
         <v>34</v>
       </c>
@@ -11094,7 +11140,7 @@
       <c r="AM11" s="74"/>
       <c r="AN11" s="74"/>
     </row>
-    <row r="12" spans="1:41" ht="69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="308" t="s">
         <v>182</v>
       </c>
@@ -11167,7 +11213,7 @@
       <c r="AM12" s="310"/>
       <c r="AN12" s="311"/>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A13" s="271" t="s">
         <v>182</v>
       </c>
@@ -11213,7 +11259,9 @@
       <c r="O13" s="79" t="s">
         <v>307</v>
       </c>
-      <c r="P13" s="79"/>
+      <c r="P13" s="79" t="s">
+        <v>530</v>
+      </c>
       <c r="Q13" s="6" t="s">
         <v>842</v>
       </c>
@@ -11262,7 +11310,7 @@
       <c r="AN13" s="306"/>
       <c r="AO13" s="215"/>
     </row>
-    <row r="14" spans="1:41" s="319" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" s="319" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="318" t="s">
         <v>182</v>
       </c>
@@ -11339,7 +11387,7 @@
       <c r="AM14" s="293"/>
       <c r="AN14" s="320"/>
     </row>
-    <row r="15" spans="1:41" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="308" t="s">
         <v>183</v>
       </c>
@@ -11412,7 +11460,7 @@
       <c r="AM15" s="310"/>
       <c r="AN15" s="311"/>
     </row>
-    <row r="16" spans="1:41" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="308" t="s">
         <v>183</v>
       </c>
@@ -11459,7 +11507,9 @@
       <c r="O16" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="P16" s="77"/>
+      <c r="P16" s="77" t="s">
+        <v>530</v>
+      </c>
       <c r="Q16" s="6" t="s">
         <v>842</v>
       </c>
@@ -11505,7 +11555,7 @@
       <c r="AM16" s="57"/>
       <c r="AN16" s="293"/>
     </row>
-    <row r="17" spans="1:40" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="322" t="s">
         <v>765</v>
       </c>
@@ -11578,7 +11628,7 @@
       <c r="AM17" s="310"/>
       <c r="AN17" s="311"/>
     </row>
-    <row r="18" spans="1:40" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="323" t="s">
         <v>765</v>
       </c>
@@ -11684,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="323" t="s">
         <v>765</v>
       </c>
@@ -11790,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="313" t="s">
         <v>765</v>
       </c>
@@ -11896,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="313" t="s">
         <v>765</v>
       </c>
@@ -12002,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="329" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A22" s="308" t="s">
         <v>361</v>
       </c>
@@ -12045,7 +12095,9 @@
       <c r="O22" s="397" t="s">
         <v>456</v>
       </c>
-      <c r="P22" s="397"/>
+      <c r="P22" s="438" t="s">
+        <v>530</v>
+      </c>
       <c r="Q22" s="6">
         <v>1</v>
       </c>
@@ -12093,7 +12145,7 @@
       <c r="AM22" s="328"/>
       <c r="AN22" s="328"/>
     </row>
-    <row r="23" spans="1:40" s="329" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="308" t="s">
         <v>361</v>
       </c>
@@ -12136,7 +12188,9 @@
       <c r="O23" s="403" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="403"/>
+      <c r="P23" s="439" t="s">
+        <v>530</v>
+      </c>
       <c r="Q23" s="6">
         <v>1</v>
       </c>
@@ -12182,12 +12236,12 @@
       <c r="AM23" s="328"/>
       <c r="AN23" s="328"/>
     </row>
-    <row r="24" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="330" t="s">
         <v>569</v>
       </c>
       <c r="B24" s="217" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("Indicatore ",C24," - ",D24)</f>
         <v>Indicatore 162 - NPAF_ANT_ACC_60G_L1M</v>
       </c>
       <c r="C24" s="218">
@@ -12229,7 +12283,9 @@
       <c r="O24" s="314" t="s">
         <v>574</v>
       </c>
-      <c r="P24" s="314"/>
+      <c r="P24" s="246" t="s">
+        <v>862</v>
+      </c>
       <c r="Q24" s="6">
         <v>2</v>
       </c>
@@ -12287,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="330" t="s">
         <v>569</v>
       </c>
@@ -12335,7 +12391,9 @@
       <c r="O25" s="252" t="s">
         <v>579</v>
       </c>
-      <c r="P25" s="252"/>
+      <c r="P25" s="104" t="s">
+        <v>863</v>
+      </c>
       <c r="Q25" s="6">
         <v>1</v>
       </c>
@@ -12395,7 +12453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="330" t="s">
         <v>581</v>
       </c>
@@ -12443,7 +12501,9 @@
       <c r="O26" s="221" t="s">
         <v>585</v>
       </c>
-      <c r="P26" s="221"/>
+      <c r="P26" s="77" t="s">
+        <v>867</v>
+      </c>
       <c r="Q26" s="6">
         <v>2</v>
       </c>
@@ -12501,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="330" t="s">
         <v>581</v>
       </c>
@@ -12549,7 +12609,9 @@
       <c r="O27" s="252" t="s">
         <v>590</v>
       </c>
-      <c r="P27" s="252"/>
+      <c r="P27" s="104" t="s">
+        <v>868</v>
+      </c>
       <c r="Q27" s="6">
         <v>1</v>
       </c>
@@ -12609,7 +12671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="330" t="s">
         <v>581</v>
       </c>
@@ -12657,7 +12719,9 @@
       <c r="O28" s="221" t="s">
         <v>593</v>
       </c>
-      <c r="P28" s="221"/>
+      <c r="P28" s="77" t="s">
+        <v>865</v>
+      </c>
       <c r="Q28" s="6">
         <v>2</v>
       </c>
@@ -12715,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="330" t="s">
         <v>581</v>
       </c>
@@ -12763,7 +12827,9 @@
       <c r="O29" s="252" t="s">
         <v>596</v>
       </c>
-      <c r="P29" s="252"/>
+      <c r="P29" s="104" t="s">
+        <v>866</v>
+      </c>
       <c r="Q29" s="6">
         <v>1</v>
       </c>
@@ -12823,7 +12889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="330" t="s">
         <v>362</v>
       </c>
@@ -12871,7 +12937,9 @@
       <c r="O30" s="221" t="s">
         <v>363</v>
       </c>
-      <c r="P30" s="221"/>
+      <c r="P30" s="77" t="s">
+        <v>864</v>
+      </c>
       <c r="Q30" s="6">
         <v>2</v>
       </c>
@@ -12929,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="330" t="s">
         <v>601</v>
       </c>
@@ -12977,7 +13045,7 @@
       <c r="O31" s="221" t="s">
         <v>603</v>
       </c>
-      <c r="P31" s="221"/>
+      <c r="P31" s="77"/>
       <c r="Q31" s="6">
         <v>2</v>
       </c>
@@ -13035,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="330" t="s">
         <v>601</v>
       </c>
@@ -13083,7 +13151,7 @@
       <c r="O32" s="252" t="s">
         <v>606</v>
       </c>
-      <c r="P32" s="252"/>
+      <c r="P32" s="104"/>
       <c r="Q32" s="6">
         <v>1</v>
       </c>
@@ -13143,7 +13211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="330" t="s">
         <v>607</v>
       </c>
@@ -13191,7 +13259,9 @@
       <c r="O33" s="221" t="s">
         <v>614</v>
       </c>
-      <c r="P33" s="221"/>
+      <c r="P33" s="77" t="s">
+        <v>869</v>
+      </c>
       <c r="Q33" s="6">
         <v>2</v>
       </c>
@@ -13444,80 +13514,80 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" style="341" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.59765625" style="284" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" style="281" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.19921875" style="341" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" style="342" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" style="281" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="342" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="175.59765625" style="343" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="341" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.625" style="284" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="281" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.25" style="341" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="342" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="281" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" style="342" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="175.625" style="343" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="344" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="344" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.59765625" style="343" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="343" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.5" style="343" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.69921875" style="342" customWidth="1"/>
-    <col min="14" max="14" width="31.69921875" style="281" customWidth="1"/>
-    <col min="15" max="16" width="28.19921875" style="379" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="342" customWidth="1"/>
+    <col min="14" max="14" width="31.75" style="281" customWidth="1"/>
+    <col min="15" max="16" width="28.25" style="379" customWidth="1"/>
     <col min="17" max="17" width="13" style="345" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.59765625" style="345" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.8984375" style="345" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.59765625" style="345" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="345" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.3984375" style="345" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.09765625" style="380" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.69921875" style="380" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" style="345" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.875" style="345" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.625" style="345" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="345" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="345" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.125" style="380" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.75" style="380" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="12.5" style="380" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.5" style="380" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="12.5" style="380" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.5" style="380" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="12.5" style="380" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.8984375" style="381" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.875" style="381" bestFit="1" customWidth="1"/>
     <col min="37" max="39" width="12.5" style="281" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.8984375" style="281" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.59765625" style="281"/>
+    <col min="40" max="40" width="15.875" style="281" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.625" style="281"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="281"/>
       <c r="O1" s="342"/>
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="419" t="s">
+      <c r="Y1" s="424" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="420"/>
-      <c r="AA1" s="420"/>
-      <c r="AB1" s="421"/>
-      <c r="AC1" s="419" t="s">
+      <c r="Z1" s="425"/>
+      <c r="AA1" s="425"/>
+      <c r="AB1" s="426"/>
+      <c r="AC1" s="424" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="420"/>
-      <c r="AE1" s="420"/>
-      <c r="AF1" s="421"/>
-      <c r="AG1" s="422" t="s">
+      <c r="AD1" s="425"/>
+      <c r="AE1" s="425"/>
+      <c r="AF1" s="426"/>
+      <c r="AG1" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="423"/>
-      <c r="AI1" s="423"/>
-      <c r="AJ1" s="423"/>
-      <c r="AK1" s="422" t="s">
+      <c r="AH1" s="428"/>
+      <c r="AI1" s="428"/>
+      <c r="AJ1" s="428"/>
+      <c r="AK1" s="427" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="423"/>
-      <c r="AM1" s="423"/>
-      <c r="AN1" s="423"/>
-    </row>
-    <row r="2" spans="1:40" s="362" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AL1" s="428"/>
+      <c r="AM1" s="428"/>
+      <c r="AN1" s="428"/>
+    </row>
+    <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
         <v>71</v>
       </c>
@@ -13639,7 +13709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="280" t="s">
         <v>259</v>
       </c>
@@ -13714,7 +13784,7 @@
       <c r="AM3" s="375"/>
       <c r="AN3" s="375"/>
     </row>
-    <row r="4" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="280" t="s">
         <v>262</v>
       </c>
@@ -13789,7 +13859,7 @@
       <c r="AM4" s="375"/>
       <c r="AN4" s="375"/>
     </row>
-    <row r="5" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="280" t="s">
         <v>262</v>
       </c>
@@ -13865,7 +13935,7 @@
       <c r="AM5" s="375"/>
       <c r="AN5" s="375"/>
     </row>
-    <row r="6" spans="1:40" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="280" t="s">
         <v>262</v>
       </c>
@@ -13941,7 +14011,7 @@
       <c r="AM6" s="375"/>
       <c r="AN6" s="375"/>
     </row>
-    <row r="7" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="376" t="s">
         <v>262</v>
       </c>
@@ -14015,7 +14085,7 @@
       <c r="AM7" s="375"/>
       <c r="AN7" s="375"/>
     </row>
-    <row r="8" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="280" t="s">
         <v>266</v>
       </c>
@@ -14091,7 +14161,7 @@
       <c r="AM8" s="375"/>
       <c r="AN8" s="375"/>
     </row>
-    <row r="9" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="280" t="s">
         <v>266</v>
       </c>
@@ -14167,7 +14237,7 @@
       <c r="AM9" s="375"/>
       <c r="AN9" s="375"/>
     </row>
-    <row r="10" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="280" t="s">
         <v>266</v>
       </c>
@@ -14243,7 +14313,7 @@
       <c r="AM10" s="375"/>
       <c r="AN10" s="375"/>
     </row>
-    <row r="11" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="378" t="s">
         <v>266</v>
       </c>
@@ -14318,7 +14388,7 @@
       <c r="AM11" s="375"/>
       <c r="AN11" s="375"/>
     </row>
-    <row r="12" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="378" t="s">
         <v>266</v>
       </c>
@@ -14393,7 +14463,7 @@
       <c r="AM12" s="375"/>
       <c r="AN12" s="375"/>
     </row>
-    <row r="13" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="378" t="s">
         <v>266</v>
       </c>
@@ -14468,7 +14538,7 @@
       <c r="AM13" s="375"/>
       <c r="AN13" s="375"/>
     </row>
-    <row r="14" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="280" t="s">
         <v>269</v>
       </c>
@@ -14543,7 +14613,7 @@
       <c r="AM14" s="375"/>
       <c r="AN14" s="375"/>
     </row>
-    <row r="15" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="280" t="s">
         <v>269</v>
       </c>
@@ -14618,7 +14688,7 @@
       <c r="AM15" s="375"/>
       <c r="AN15" s="375"/>
     </row>
-    <row r="16" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="280" t="s">
         <v>270</v>
       </c>
@@ -14693,7 +14763,7 @@
       <c r="AM16" s="375"/>
       <c r="AN16" s="375"/>
     </row>
-    <row r="17" spans="1:40" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="280" t="s">
         <v>270</v>
       </c>
@@ -14768,7 +14838,7 @@
       <c r="AM17" s="375"/>
       <c r="AN17" s="375"/>
     </row>
-    <row r="18" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="376" t="s">
         <v>266</v>
       </c>
@@ -14841,7 +14911,7 @@
       <c r="AM18" s="375"/>
       <c r="AN18" s="375"/>
     </row>
-    <row r="19" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="376" t="s">
         <v>266</v>
       </c>
@@ -15004,49 +15074,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O45" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="76" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="105" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.8984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.8984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="22.69921875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.8984375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="32.19921875" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.19921875" style="18" customWidth="1"/>
-    <col min="17" max="17" width="7.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.59765625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="16.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="105" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="22.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="32.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.25" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="24" style="4" customWidth="1"/>
-    <col min="25" max="26" width="28.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="8.59765625" style="4"/>
-    <col min="31" max="31" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="8.59765625" style="4"/>
-    <col min="36" max="36" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="28.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="8.625" style="4"/>
+    <col min="31" max="31" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="8.625" style="4"/>
+    <col min="36" max="36" width="13.625" style="11" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.59765625" style="4"/>
+    <col min="38" max="38" width="13.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="4"/>
       <c r="O1" s="62"/>
@@ -15061,21 +15131,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="418" t="s">
+      <c r="AA1" s="423" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="418"/>
-      <c r="AC1" s="418"/>
-      <c r="AD1" s="418" t="s">
+      <c r="AB1" s="423"/>
+      <c r="AC1" s="423"/>
+      <c r="AD1" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="418"/>
-      <c r="AF1" s="418"/>
-      <c r="AG1" s="418" t="s">
+      <c r="AE1" s="423"/>
+      <c r="AF1" s="423"/>
+      <c r="AG1" s="423" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="418"/>
-      <c r="AI1" s="418"/>
+      <c r="AH1" s="423"/>
+      <c r="AI1" s="423"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -15089,7 +15159,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="25" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="264" t="s">
         <v>71</v>
       </c>
@@ -15208,7 +15278,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="265" t="s">
         <v>35</v>
       </c>
@@ -15253,7 +15323,9 @@
       <c r="O3" s="394" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="394"/>
+      <c r="P3" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q3" s="6">
         <v>2</v>
       </c>
@@ -15300,7 +15372,7 @@
       <c r="AL3" s="305"/>
       <c r="AM3" s="306"/>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="254" t="s">
         <v>35</v>
       </c>
@@ -15346,7 +15418,9 @@
       <c r="O4" s="394" t="s">
         <v>343</v>
       </c>
-      <c r="P4" s="394"/>
+      <c r="P4" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q4" s="6">
         <v>3</v>
       </c>
@@ -15393,7 +15467,7 @@
       <c r="AL4" s="305"/>
       <c r="AM4" s="306"/>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="254" t="s">
         <v>35</v>
       </c>
@@ -15438,7 +15512,9 @@
       <c r="O5" s="394" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="394"/>
+      <c r="P5" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q5" s="6">
         <v>3</v>
       </c>
@@ -15485,7 +15561,7 @@
       <c r="AL5" s="305"/>
       <c r="AM5" s="306"/>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="254" t="s">
         <v>35</v>
       </c>
@@ -15531,7 +15607,9 @@
       <c r="O6" s="394" t="s">
         <v>348</v>
       </c>
-      <c r="P6" s="394"/>
+      <c r="P6" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q6" s="6">
         <v>3</v>
       </c>
@@ -15578,7 +15656,7 @@
       <c r="AL6" s="305"/>
       <c r="AM6" s="306"/>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="254" t="s">
         <v>35</v>
       </c>
@@ -15624,7 +15702,9 @@
       <c r="O7" s="394" t="s">
         <v>349</v>
       </c>
-      <c r="P7" s="394"/>
+      <c r="P7" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q7" s="6">
         <v>3</v>
       </c>
@@ -15671,7 +15751,7 @@
       <c r="AL7" s="305"/>
       <c r="AM7" s="306"/>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="254" t="s">
         <v>35</v>
       </c>
@@ -15717,7 +15797,9 @@
       <c r="O8" s="394" t="s">
         <v>353</v>
       </c>
-      <c r="P8" s="394"/>
+      <c r="P8" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q8" s="6">
         <v>2</v>
       </c>
@@ -15764,7 +15846,7 @@
       <c r="AL8" s="305"/>
       <c r="AM8" s="306"/>
     </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="254" t="s">
         <v>35</v>
       </c>
@@ -15810,7 +15892,9 @@
       <c r="O9" s="394" t="s">
         <v>355</v>
       </c>
-      <c r="P9" s="394"/>
+      <c r="P9" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q9" s="6">
         <v>1</v>
       </c>
@@ -15857,7 +15941,7 @@
       <c r="AL9" s="305"/>
       <c r="AM9" s="306"/>
     </row>
-    <row r="10" spans="1:39" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="254" t="s">
         <v>35</v>
       </c>
@@ -15903,7 +15987,9 @@
       <c r="O10" s="394" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="394"/>
+      <c r="P10" s="437" t="s">
+        <v>530</v>
+      </c>
       <c r="Q10" s="6">
         <v>1</v>
       </c>
@@ -15950,7 +16036,7 @@
       <c r="AL10" s="305"/>
       <c r="AM10" s="306"/>
     </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="332" t="s">
         <v>35</v>
       </c>
@@ -16049,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
         <v>182</v>
       </c>
@@ -16139,7 +16225,7 @@
       <c r="AL12" s="305"/>
       <c r="AM12" s="306"/>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" ht="276" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A13" s="205" t="s">
         <v>182</v>
       </c>
@@ -16205,7 +16291,7 @@
       <c r="AL13" s="305"/>
       <c r="AM13" s="306"/>
     </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A14" s="265" t="s">
         <v>34</v>
       </c>
@@ -16298,7 +16384,7 @@
       <c r="AL14" s="74"/>
       <c r="AM14" s="74"/>
     </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A15" s="254" t="s">
         <v>34</v>
       </c>
@@ -16391,7 +16477,7 @@
       <c r="AL15" s="74"/>
       <c r="AM15" s="74"/>
     </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A16" s="254" t="s">
         <v>34</v>
       </c>
@@ -16484,7 +16570,7 @@
       <c r="AL16" s="74"/>
       <c r="AM16" s="74"/>
     </row>
-    <row r="17" spans="1:39" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A17" s="254" t="s">
         <v>34</v>
       </c>
@@ -16575,7 +16661,7 @@
       <c r="AL17" s="74"/>
       <c r="AM17" s="74"/>
     </row>
-    <row r="18" spans="1:39" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A18" s="254" t="s">
         <v>34</v>
       </c>
@@ -16668,7 +16754,7 @@
       <c r="AL18" s="74"/>
       <c r="AM18" s="74"/>
     </row>
-    <row r="19" spans="1:39" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A19" s="254" t="s">
         <v>34</v>
       </c>
@@ -16759,7 +16845,7 @@
       <c r="AL19" s="74"/>
       <c r="AM19" s="74"/>
     </row>
-    <row r="20" spans="1:39" s="76" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="266" t="s">
         <v>34</v>
       </c>
@@ -16851,7 +16937,7 @@
       <c r="AL20" s="75"/>
       <c r="AM20" s="75"/>
     </row>
-    <row r="21" spans="1:39" s="76" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="266" t="s">
         <v>34</v>
       </c>
@@ -16942,7 +17028,7 @@
       <c r="AL21" s="75"/>
       <c r="AM21" s="75"/>
     </row>
-    <row r="22" spans="1:39" s="76" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" s="76" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A22" s="266" t="s">
         <v>34</v>
       </c>
@@ -17037,7 +17123,7 @@
       <c r="AL22" s="75"/>
       <c r="AM22" s="75"/>
     </row>
-    <row r="23" spans="1:39" s="76" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="76" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A23" s="266" t="s">
         <v>34</v>
       </c>
@@ -17132,7 +17218,7 @@
       <c r="AL23" s="75"/>
       <c r="AM23" s="75"/>
     </row>
-    <row r="24" spans="1:39" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A24" s="266" t="s">
         <v>34</v>
       </c>
@@ -17227,7 +17313,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
     </row>
-    <row r="25" spans="1:39" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A25" s="266" t="s">
         <v>183</v>
       </c>
@@ -17271,7 +17357,9 @@
       <c r="O25" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="P25" s="47"/>
+      <c r="P25" s="47" t="s">
+        <v>530</v>
+      </c>
       <c r="Q25" s="6" t="s">
         <v>842</v>
       </c>
@@ -17316,7 +17404,7 @@
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
     </row>
-    <row r="26" spans="1:39" s="76" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A26" s="266" t="s">
         <v>183</v>
       </c>
@@ -17360,7 +17448,9 @@
       <c r="O26" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="P26" s="47"/>
+      <c r="P26" s="47" t="s">
+        <v>530</v>
+      </c>
       <c r="Q26" s="6" t="s">
         <v>842</v>
       </c>
@@ -17405,7 +17495,7 @@
       <c r="AL26" s="57"/>
       <c r="AM26" s="293"/>
     </row>
-    <row r="27" spans="1:39" s="76" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A27" s="266" t="s">
         <v>183</v>
       </c>
@@ -17447,7 +17537,9 @@
       <c r="O27" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="P27" s="47"/>
+      <c r="P27" s="47" t="s">
+        <v>530</v>
+      </c>
       <c r="Q27" s="6" t="s">
         <v>842</v>
       </c>
@@ -17474,7 +17566,7 @@
       <c r="AL27" s="57"/>
       <c r="AM27" s="293"/>
     </row>
-    <row r="28" spans="1:39" s="76" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="270" t="s">
         <v>183</v>
       </c>
@@ -17544,7 +17636,7 @@
       <c r="AL28" s="57"/>
       <c r="AM28" s="293"/>
     </row>
-    <row r="29" spans="1:39" s="76" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="270" t="s">
         <v>183</v>
       </c>
@@ -17615,7 +17707,7 @@
       <c r="AL29" s="57"/>
       <c r="AM29" s="293"/>
     </row>
-    <row r="30" spans="1:39" s="76" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="76" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="270" t="s">
         <v>35</v>
       </c>
@@ -17687,7 +17779,7 @@
       <c r="AL30" s="57"/>
       <c r="AM30" s="293"/>
     </row>
-    <row r="31" spans="1:39" s="76" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="76" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="270" t="s">
         <v>35</v>
       </c>
@@ -17760,7 +17852,7 @@
       <c r="AL31" s="57"/>
       <c r="AM31" s="293"/>
     </row>
-    <row r="32" spans="1:39" s="76" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A32" s="270" t="s">
         <v>35</v>
       </c>
@@ -17833,7 +17925,7 @@
       <c r="AL32" s="57"/>
       <c r="AM32" s="293"/>
     </row>
-    <row r="33" spans="1:39" s="76" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="76" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A33" s="270" t="s">
         <v>35</v>
       </c>
@@ -17906,7 +17998,7 @@
       <c r="AL33" s="57"/>
       <c r="AM33" s="293"/>
     </row>
-    <row r="34" spans="1:39" s="76" customFormat="1" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="270" t="s">
         <v>34</v>
       </c>
@@ -17979,7 +18071,7 @@
       <c r="AL34" s="57"/>
       <c r="AM34" s="293"/>
     </row>
-    <row r="35" spans="1:39" s="76" customFormat="1" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="270" t="s">
         <v>34</v>
       </c>
@@ -18052,7 +18144,7 @@
       <c r="AL35" s="57"/>
       <c r="AM35" s="293"/>
     </row>
-    <row r="36" spans="1:39" s="76" customFormat="1" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="270" t="s">
         <v>34</v>
       </c>
@@ -18125,7 +18217,7 @@
       <c r="AL36" s="57"/>
       <c r="AM36" s="293"/>
     </row>
-    <row r="37" spans="1:39" s="76" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" s="76" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="270" t="s">
         <v>34</v>
       </c>
@@ -18200,7 +18292,7 @@
       <c r="AL37" s="57"/>
       <c r="AM37" s="293"/>
     </row>
-    <row r="38" spans="1:39" s="76" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="270" t="s">
         <v>765</v>
       </c>
@@ -18273,7 +18365,7 @@
       <c r="AL38" s="57"/>
       <c r="AM38" s="293"/>
     </row>
-    <row r="39" spans="1:39" s="76" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="270" t="s">
         <v>765</v>
       </c>
@@ -18346,7 +18438,7 @@
       <c r="AL39" s="57"/>
       <c r="AM39" s="293"/>
     </row>
-    <row r="40" spans="1:39" s="76" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="270" t="s">
         <v>765</v>
       </c>
@@ -18419,7 +18511,7 @@
       <c r="AL40" s="57"/>
       <c r="AM40" s="293"/>
     </row>
-    <row r="41" spans="1:39" s="76" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="270" t="s">
         <v>765</v>
       </c>
@@ -18492,7 +18584,7 @@
       <c r="AL41" s="57"/>
       <c r="AM41" s="293"/>
     </row>
-    <row r="42" spans="1:39" s="76" customFormat="1" ht="151.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" s="76" customFormat="1" ht="151.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="270" t="s">
         <v>182</v>
       </c>
@@ -18565,7 +18657,7 @@
       <c r="AL42" s="57"/>
       <c r="AM42" s="293"/>
     </row>
-    <row r="43" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="270" t="s">
         <v>182</v>
       </c>
@@ -18636,7 +18728,7 @@
       <c r="AL43" s="57"/>
       <c r="AM43" s="293"/>
     </row>
-    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="270" t="s">
         <v>183</v>
       </c>
@@ -18707,7 +18799,7 @@
       <c r="AL44" s="57"/>
       <c r="AM44" s="293"/>
     </row>
-    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="270" t="s">
         <v>569</v>
       </c>
@@ -18778,7 +18870,7 @@
       <c r="AL45" s="57"/>
       <c r="AM45" s="293"/>
     </row>
-    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="270" t="s">
         <v>569</v>
       </c>
@@ -18851,7 +18943,7 @@
       <c r="AL46" s="57"/>
       <c r="AM46" s="293"/>
     </row>
-    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="270" t="s">
         <v>655</v>
       </c>
@@ -18924,7 +19016,7 @@
       <c r="AL47" s="57"/>
       <c r="AM47" s="293"/>
     </row>
-    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="270" t="s">
         <v>655</v>
       </c>
@@ -18997,7 +19089,7 @@
       <c r="AL48" s="57"/>
       <c r="AM48" s="293"/>
     </row>
-    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="270" t="s">
         <v>656</v>
       </c>
@@ -19070,7 +19162,7 @@
       <c r="AL49" s="57"/>
       <c r="AM49" s="293"/>
     </row>
-    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="270" t="s">
         <v>656</v>
       </c>
@@ -19143,7 +19235,7 @@
       <c r="AL50" s="57"/>
       <c r="AM50" s="293"/>
     </row>
-    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="270" t="s">
         <v>362</v>
       </c>
@@ -19214,7 +19306,7 @@
       <c r="AL51" s="57"/>
       <c r="AM51" s="293"/>
     </row>
-    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="270" t="s">
         <v>601</v>
       </c>
@@ -19285,7 +19377,7 @@
       <c r="AL52" s="57"/>
       <c r="AM52" s="293"/>
     </row>
-    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="270" t="s">
         <v>601</v>
       </c>
@@ -19356,7 +19448,7 @@
       <c r="AL53" s="57"/>
       <c r="AM53" s="293"/>
     </row>
-    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="270" t="s">
         <v>607</v>
       </c>
@@ -19493,80 +19585,80 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.3984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.19921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.59765625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="98.8984375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="38.3984375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.875" style="31" customWidth="1"/>
+    <col min="9" max="9" width="38.375" style="45" customWidth="1"/>
     <col min="10" max="10" width="36.5" style="45" customWidth="1"/>
-    <col min="11" max="12" width="17.09765625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="25.8984375" style="27" customWidth="1"/>
-    <col min="14" max="14" width="77.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.59765625" style="49" customWidth="1"/>
-    <col min="16" max="17" width="13.09765625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="15.59765625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.09765625" style="8" customWidth="1"/>
-    <col min="20" max="21" width="22.3984375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="17.3984375" style="9" customWidth="1"/>
-    <col min="23" max="23" width="29.09765625" style="9" customWidth="1"/>
+    <col min="11" max="12" width="17.125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="25.875" style="27" customWidth="1"/>
+    <col min="14" max="14" width="77.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.625" style="49" customWidth="1"/>
+    <col min="16" max="17" width="13.125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="8" customWidth="1"/>
+    <col min="20" max="21" width="22.375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="17.375" style="9" customWidth="1"/>
+    <col min="23" max="23" width="29.125" style="9" customWidth="1"/>
     <col min="24" max="24" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.5" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" style="11" customWidth="1"/>
     <col min="28" max="30" width="11.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.8984375" style="11" customWidth="1"/>
+    <col min="31" max="31" width="12.875" style="11" customWidth="1"/>
     <col min="32" max="34" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.5" style="40" customWidth="1"/>
-    <col min="36" max="38" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.59765625" style="12" customWidth="1"/>
-    <col min="41" max="41" width="21.09765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.59765625" style="3"/>
+    <col min="36" max="38" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.625" style="12" customWidth="1"/>
+    <col min="41" max="41" width="21.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="413" t="s">
+      <c r="X1" s="418" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="414"/>
-      <c r="Z1" s="414"/>
-      <c r="AA1" s="415"/>
-      <c r="AB1" s="413" t="s">
+      <c r="Y1" s="419"/>
+      <c r="Z1" s="419"/>
+      <c r="AA1" s="420"/>
+      <c r="AB1" s="418" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="414"/>
-      <c r="AD1" s="414"/>
-      <c r="AE1" s="415"/>
-      <c r="AF1" s="416" t="s">
+      <c r="AC1" s="419"/>
+      <c r="AD1" s="419"/>
+      <c r="AE1" s="420"/>
+      <c r="AF1" s="421" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="417"/>
-      <c r="AH1" s="417"/>
-      <c r="AI1" s="417"/>
-      <c r="AJ1" s="416" t="s">
+      <c r="AG1" s="422"/>
+      <c r="AH1" s="422"/>
+      <c r="AI1" s="422"/>
+      <c r="AJ1" s="421" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="417"/>
-      <c r="AL1" s="417"/>
-      <c r="AM1" s="417"/>
+      <c r="AK1" s="422"/>
+      <c r="AL1" s="422"/>
+      <c r="AM1" s="422"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="424" t="s">
+      <c r="AO1" s="429" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="424"/>
-    </row>
-    <row r="2" spans="1:42" s="46" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="AP1" s="429"/>
+    </row>
+    <row r="2" spans="1:42" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>71</v>
       </c>
@@ -19734,49 +19826,49 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="156.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="156.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="37.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="7.125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="7.125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="99" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="99" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>71</v>
       </c>
@@ -19913,7 +20005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="90" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" s="90" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="136" t="s">
         <v>72</v>
       </c>
@@ -19995,7 +20087,7 @@
       <c r="AK2" s="88"/>
       <c r="AL2" s="88"/>
     </row>
-    <row r="3" spans="1:46" s="90" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" s="90" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
         <v>72</v>
       </c>
@@ -20077,7 +20169,7 @@
       <c r="AK3" s="88"/>
       <c r="AL3" s="88"/>
     </row>
-    <row r="4" spans="1:46" s="90" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" s="90" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="110" t="s">
         <v>72</v>
       </c>
@@ -20165,7 +20257,7 @@
       <c r="AR4" s="147"/>
       <c r="AS4" s="147"/>
     </row>
-    <row r="5" spans="1:46" s="129" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" s="129" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="161" t="s">
         <v>72</v>
       </c>
@@ -20256,7 +20348,7 @@
       <c r="AS5" s="155"/>
       <c r="AT5" s="128"/>
     </row>
-    <row r="6" spans="1:46" s="129" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" s="129" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
         <v>72</v>
       </c>
@@ -20347,7 +20439,7 @@
       <c r="AS6" s="155"/>
       <c r="AT6" s="128"/>
     </row>
-    <row r="7" spans="1:46" s="129" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" s="129" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
         <v>72</v>
       </c>
@@ -20469,7 +20561,7 @@
       <c r="AS7" s="148"/>
       <c r="AT7" s="128"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="138"/>
       <c r="B9" t="s">
         <v>150</v>
@@ -20545,31 +20637,31 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" style="333" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" style="227" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="333" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="227" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="165" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L4" s="156" t="s">
         <v>180</v>
       </c>
@@ -20577,7 +20669,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="164" t="s">
         <v>181</v>
       </c>
@@ -20603,7 +20695,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>392</v>
       </c>
@@ -20623,7 +20715,7 @@
       <c r="G6" s="159"/>
       <c r="H6" s="159"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -20643,7 +20735,7 @@
       <c r="G7" s="198"/>
       <c r="H7" s="198"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>394</v>
       </c>
@@ -20663,7 +20755,7 @@
       <c r="G8" s="198"/>
       <c r="H8" s="198"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>395</v>
       </c>
@@ -20683,7 +20775,7 @@
       <c r="G9" s="198"/>
       <c r="H9" s="198"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>396</v>
       </c>
@@ -20703,7 +20795,7 @@
       <c r="G10" s="198"/>
       <c r="H10" s="198"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>397</v>
       </c>
@@ -20723,7 +20815,7 @@
       <c r="G11" s="198"/>
       <c r="H11" s="198"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>398</v>
       </c>
@@ -20743,7 +20835,7 @@
       <c r="G12" s="198"/>
       <c r="H12" s="198"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>399</v>
       </c>
@@ -20763,7 +20855,7 @@
       <c r="G13" s="198"/>
       <c r="H13" s="198"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>400</v>
       </c>
@@ -20781,7 +20873,7 @@
       <c r="G14" s="198"/>
       <c r="H14" s="198"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>401</v>
       </c>
@@ -20801,7 +20893,7 @@
       <c r="G15" s="198"/>
       <c r="H15" s="198"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>402</v>
       </c>
@@ -20821,7 +20913,7 @@
       <c r="G16" s="198"/>
       <c r="H16" s="198"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>403</v>
       </c>
@@ -20841,7 +20933,7 @@
       <c r="G17" s="198"/>
       <c r="H17" s="198"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>404</v>
       </c>
@@ -20861,7 +20953,7 @@
       <c r="G18" s="198"/>
       <c r="H18" s="198"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>405</v>
       </c>
@@ -20881,7 +20973,7 @@
       <c r="G19" s="198"/>
       <c r="H19" s="198"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>406</v>
       </c>
@@ -20901,7 +20993,7 @@
       <c r="G20" s="198"/>
       <c r="H20" s="198"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -20921,7 +21013,7 @@
       <c r="G21" s="198"/>
       <c r="H21" s="198"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -20941,7 +21033,7 @@
       <c r="G22" s="198"/>
       <c r="H22" s="198"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>409</v>
       </c>
@@ -20961,7 +21053,7 @@
       <c r="G23" s="198"/>
       <c r="H23" s="198"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>410</v>
       </c>
@@ -20981,7 +21073,7 @@
       <c r="G24" s="198"/>
       <c r="H24" s="198"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>411</v>
       </c>
@@ -21001,7 +21093,7 @@
       <c r="G25" s="198"/>
       <c r="H25" s="198"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>412</v>
       </c>
@@ -21021,7 +21113,7 @@
       <c r="G26" s="198"/>
       <c r="H26" s="198"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>413</v>
       </c>
@@ -21041,7 +21133,7 @@
       <c r="G27" s="198"/>
       <c r="H27" s="198"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>448</v>
       </c>
@@ -21059,7 +21151,7 @@
       <c r="G28" s="198"/>
       <c r="H28" s="198"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>806</v>
       </c>
@@ -21077,7 +21169,7 @@
       <c r="G29" s="198"/>
       <c r="H29" s="198"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>807</v>
       </c>
@@ -21097,7 +21189,7 @@
       <c r="G30" s="198"/>
       <c r="H30" s="198"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>447</v>
       </c>
@@ -21115,7 +21207,7 @@
       <c r="G31" s="198"/>
       <c r="H31" s="198"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>836</v>
       </c>
@@ -21133,7 +21225,7 @@
       <c r="G32" s="198"/>
       <c r="H32" s="198"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="227" t="s">
         <v>837</v>
       </c>
@@ -21151,7 +21243,7 @@
       <c r="G33" s="198"/>
       <c r="H33" s="198"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>449</v>
       </c>
@@ -21171,7 +21263,7 @@
       <c r="G34" s="198"/>
       <c r="H34" s="198"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>454</v>
       </c>
@@ -21191,7 +21283,7 @@
       <c r="G35" s="198"/>
       <c r="H35" s="198"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>414</v>
       </c>
@@ -21211,7 +21303,7 @@
       <c r="G36" s="198"/>
       <c r="H36" s="198"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>415</v>
       </c>
@@ -21231,7 +21323,7 @@
       <c r="G37" s="198"/>
       <c r="H37" s="198"/>
     </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="224" t="s">
         <v>445</v>
       </c>
@@ -21253,31 +21345,31 @@
       <c r="G38" s="196"/>
       <c r="H38" s="197"/>
     </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="83"/>
       <c r="D39" s="109"/>
       <c r="G39" s="196"/>
       <c r="H39" s="197"/>
     </row>
-    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="83"/>
       <c r="D40" s="109"/>
       <c r="G40" s="196"/>
       <c r="H40" s="197"/>
     </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="83"/>
       <c r="D41" s="109"/>
       <c r="G41" s="196"/>
       <c r="H41" s="197"/>
     </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83"/>
       <c r="D42" s="109"/>
       <c r="G42" s="196"/>
       <c r="H42" s="109"/>
     </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="83"/>
       <c r="D43" s="109"/>
       <c r="G43" s="196"/>
@@ -21297,18 +21389,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" style="157" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="157" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="160" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="160" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="160" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="160" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="160" customWidth="1"/>
     <col min="5" max="5" width="12" style="160" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="384"/>
       <c r="C1" s="383"/>
       <c r="D1" s="167"/>
@@ -21316,8 +21408,8 @@
       <c r="F1" s="169"/>
       <c r="G1" s="170"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="166" t="s">
         <v>766</v>
       </c>
@@ -21334,7 +21426,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="384" t="s">
         <v>769</v>
@@ -21347,7 +21439,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="384" t="s">
         <v>770</v>
@@ -21360,7 +21452,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="384" t="s">
         <v>771</v>
@@ -21373,7 +21465,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="384" t="s">
         <v>772</v>
@@ -21382,55 +21474,55 @@
         <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="C8" s="383" t="s">
         <v>778</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="C9" s="383" t="s">
         <v>779</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="C10" s="383" t="s">
         <v>780</v>
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="C11" s="383" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="383" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="C13" s="383" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="C14" s="383" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="166" t="s">
         <v>259</v>
       </c>
@@ -21444,14 +21536,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="166" t="s">
         <v>798</v>
       </c>
@@ -21468,21 +21560,21 @@
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="D19" s="385" t="s">
         <v>800</v>
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="166" t="s">
         <v>266</v>
       </c>
@@ -21493,21 +21585,21 @@
         <v>791</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22"/>
       <c r="E22" s="386" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="166" t="s">
         <v>794</v>
       </c>
@@ -21518,11 +21610,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="166" t="s">
         <v>796</v>
       </c>
@@ -21533,20 +21625,20 @@
         <v>791</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
   </sheetData>
@@ -21556,6 +21648,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D428FA97A73D304E91AA59E09D526869" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5184d92e947fddf07e6b6109215ca8be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8022916f55ab85163ee9a5069dec31d5">
     <xsd:element name="properties">
@@ -21669,15 +21770,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -21685,6 +21777,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2DE8A8-9F7C-444A-A54C-B908DB2D8D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21696,14 +21796,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="886">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3371,10 +3371,6 @@
     <t>dovranno inserire il campo FLG_NOPG_AR_RIF</t>
   </si>
   <si>
-    <t xml:space="preserve">IMP_FAT_OVERDUE_M0
-</t>
-  </si>
-  <si>
     <t>NUM_OVERDUE_DD_FAT</t>
   </si>
   <si>
@@ -3382,15 +3378,7 @@
 IMP_PTF_SCAD_TPREC</t>
   </si>
   <si>
-    <t xml:space="preserve">IMP_FINEXP_30D_M0
-</t>
-  </si>
-  <si>
     <t>NUM_OVERDUE_DD_FINEXP_1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMP_ANTEXP_30D_M0
-</t>
   </si>
   <si>
     <t>NUM_OVERDUE_DD_ANTEXP_1M</t>
@@ -3398,6 +3386,136 @@
   <si>
     <t>IMP_PREAM_UTI
 IMP_PREAM_INI_LOANS</t>
+  </si>
+  <si>
+    <t>IMP_SALDO_CC_LT_0_M0
+IMP_SALDO_CC_LT_0_M1
+IMP_SALDO_CC_LT_0_M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP_SALDO_CC_GT_0_M0
+IMP_SALDO_CC_GT_0_M1
+IMP_SALDO_CC_GT_0_M2
+IMP_VAL_MERC_CD_M0
+IMP_VAL_MERC_CD_M1
+IMP_VAL_MERC_CD_M2
+IMP_SALDO_PCT_M0
+IMP_SALDO_PCT_M1
+IMP_SALDO_PCT_M2
+IMP_SALDO_GPM_M0
+IMP_SALDO_GPM_M1
+IMP_SALDO_GPM_M2
+IMP_SALDO_ASSIC_M0
+IMP_SALDO_ASSIC_M1
+IMP_SALDO_ASSIC_M2
+IMP_FIDO_RESIDUO_M0
+IMP_FIDO_RESIDUO_M1
+IMP_FIDO_RESIDUO_M2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_MOV_DARE_CC_NC_M0
+NUM_MOV_DARE_CC_NC_M1
+NUM_MOV_DARE_CC_NC_M2
+NUM_MOV_AVERE_CC_NC_M0
+NUM_MOV_AVERE_CC_NC_M1
+NUM_MOV_AVERE_CC_NC_M2
+</t>
+  </si>
+  <si>
+    <t>IMP_VAL_MERC_CD_NC_M0
+IMP_VAL_MERC_CD_NC_M1
+IMP_VAL_MERC_CD_NC_M2
+IMP_SALDO_PCT_NC_M0
+IMP_SALDO_PCT_NC_M1
+IMP_SALDO_PCT_NC_M2
+IMP_SALDO_GPM_NC_M0
+IMP_SALDO_GPM_NC_M1
+IMP_SALDO_GPM_NC_M2
+IMP_SALDO_ASSIC_NC_M0
+IMP_SALDO_ASSIC_NC_M1
+IMP_SALDO_ASSIC_NC_M2</t>
+  </si>
+  <si>
+    <t>NUM_MOV_DARE_CC_M0
+NUM_MOV_DARE_CC_M1
+NUM_MOV_DARE_CC_M2
+NUM_MOV_AVERE_CC_M0
+NUM_MOV_AVERE_CC_M1
+NUM_MOV_AVERE_CC_M2</t>
+  </si>
+  <si>
+    <t>IMP_ENT_CORR_NC_M0
+IMP_ENT_CORR_NC_M1
+IMP_ENT_CORR_NC_M2
+IMP_PAG_RAFI_NC_M0
+IMP_PAG_RAFI_NC_M1
+IMP_PAG_RAFI_NC_M2</t>
+  </si>
+  <si>
+    <t>IMP_FAT_OVERDUE_NOCOL_M0</t>
+  </si>
+  <si>
+    <t>NUM_OVERDUE_DD_FAT_NOCOL</t>
+  </si>
+  <si>
+    <t>IMP_SCONF_MEAN_30GG
+IMP_ACC_OPE_MEAN_30GG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NUM_GIO_SCONFINO
+IMP_SCONFINO
+IMP_UTILIZZO_TOT
+IMP_SCONF_CUM_90GG
+IMP_UTILIZZO_CUM_90GG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>IMP_ANTEXP_30D_NOCOL_M0</t>
+  </si>
+  <si>
+    <t>NUM_OVERDUE_DD_ANTEXP_NOCOL_1M</t>
+  </si>
+  <si>
+    <t>NUM_OVERDUE_DD_FINEXP_NOCOL_1M</t>
+  </si>
+  <si>
+    <t>IMP_FINEXP_30D_NOCOL_M0</t>
+  </si>
+  <si>
+    <t>IMP_PFT_INSOL_NOCOL_TPREC
+IMP_PTF_SCAD_NOCOL_TPREC</t>
+  </si>
+  <si>
+    <t>IMP_PREAM_UTI_NOCOL
+IMP_PREAM_INI_LOANS_NOCOL</t>
+  </si>
+  <si>
+    <t>IMP_FAT_OVERDUE_M0</t>
+  </si>
+  <si>
+    <t>IMP_ANTEXP_30D_M0</t>
+  </si>
+  <si>
+    <t>IMP_FINEXP_30D_M0</t>
   </si>
 </sst>
 </file>
@@ -4398,7 +4516,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5546,6 +5664,15 @@
     <xf numFmtId="0" fontId="37" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5612,13 +5739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6724,14 +6845,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="415" t="s">
+      <c r="E1" s="418" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="415"/>
-      <c r="H1" s="416" t="s">
+      <c r="F1" s="418"/>
+      <c r="H1" s="419" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="417"/>
+      <c r="I1" s="420"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -7575,11 +7696,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="434" t="s">
+      <c r="F1" s="437" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="434"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="437"/>
+      <c r="H1" s="437"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
@@ -7593,34 +7714,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="430" t="s">
+      <c r="A3" s="433" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="431"/>
+      <c r="B3" s="434"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="430"/>
-      <c r="B4" s="432"/>
+      <c r="A4" s="433"/>
+      <c r="B4" s="435"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="430"/>
-      <c r="B5" s="432"/>
+      <c r="A5" s="433"/>
+      <c r="B5" s="435"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="430"/>
-      <c r="B6" s="433"/>
+      <c r="A6" s="433"/>
+      <c r="B6" s="436"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
@@ -7675,7 +7796,7 @@
       <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="435"/>
+      <c r="A3" s="438"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -7698,7 +7819,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="435"/>
+      <c r="A4" s="438"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -7719,7 +7840,7 @@
       <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="435"/>
+      <c r="A5" s="438"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -7740,7 +7861,7 @@
       <c r="O5" s="198"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="435"/>
+      <c r="A6" s="438"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -7761,7 +7882,7 @@
       <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="435"/>
+      <c r="A7" s="438"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -7811,7 +7932,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="436"/>
+      <c r="A12" s="439"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -7834,7 +7955,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="436"/>
+      <c r="A13" s="439"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -7855,7 +7976,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="436"/>
+      <c r="A14" s="439"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -7876,7 +7997,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="436"/>
+      <c r="A15" s="439"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -7897,7 +8018,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="436"/>
+      <c r="A16" s="439"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -8225,11 +8346,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8274,30 +8395,30 @@
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="418" t="s">
+      <c r="Y1" s="421" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="419"/>
-      <c r="AA1" s="419"/>
-      <c r="AB1" s="420"/>
-      <c r="AC1" s="418" t="s">
+      <c r="Z1" s="422"/>
+      <c r="AA1" s="422"/>
+      <c r="AB1" s="423"/>
+      <c r="AC1" s="421" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="419"/>
-      <c r="AE1" s="419"/>
-      <c r="AF1" s="420"/>
-      <c r="AG1" s="421" t="s">
+      <c r="AD1" s="422"/>
+      <c r="AE1" s="422"/>
+      <c r="AF1" s="423"/>
+      <c r="AG1" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="422"/>
-      <c r="AI1" s="422"/>
-      <c r="AJ1" s="422"/>
-      <c r="AK1" s="421" t="s">
+      <c r="AH1" s="425"/>
+      <c r="AI1" s="425"/>
+      <c r="AJ1" s="425"/>
+      <c r="AK1" s="424" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="422"/>
-      <c r="AM1" s="422"/>
-      <c r="AN1" s="422"/>
+      <c r="AL1" s="425"/>
+      <c r="AM1" s="425"/>
+      <c r="AN1" s="425"/>
     </row>
     <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -10085,11 +10206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="O23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="P31:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10134,21 +10255,21 @@
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="423" t="s">
+      <c r="AB1" s="426" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="423"/>
-      <c r="AD1" s="423"/>
-      <c r="AE1" s="423" t="s">
+      <c r="AC1" s="426"/>
+      <c r="AD1" s="426"/>
+      <c r="AE1" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="423"/>
-      <c r="AG1" s="423"/>
-      <c r="AH1" s="423" t="s">
+      <c r="AF1" s="426"/>
+      <c r="AG1" s="426"/>
+      <c r="AH1" s="426" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="423"/>
-      <c r="AJ1" s="423"/>
+      <c r="AI1" s="426"/>
+      <c r="AJ1" s="426"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10332,7 +10453,7 @@
       <c r="O3" s="394" t="s">
         <v>341</v>
       </c>
-      <c r="P3" s="437" t="s">
+      <c r="P3" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q3" s="6">
@@ -10432,7 +10553,7 @@
       <c r="O4" s="394" t="s">
         <v>345</v>
       </c>
-      <c r="P4" s="437" t="s">
+      <c r="P4" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q4" s="6">
@@ -11310,7 +11431,7 @@
       <c r="AN13" s="306"/>
       <c r="AO13" s="215"/>
     </row>
-    <row r="14" spans="1:41" s="319" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="318" t="s">
         <v>182</v>
       </c>
@@ -11357,7 +11478,9 @@
       <c r="O14" s="221" t="s">
         <v>689</v>
       </c>
-      <c r="P14" s="221"/>
+      <c r="P14" s="392" t="s">
+        <v>871</v>
+      </c>
       <c r="Q14" s="6">
         <v>3</v>
       </c>
@@ -12095,7 +12218,7 @@
       <c r="O22" s="397" t="s">
         <v>456</v>
       </c>
-      <c r="P22" s="438" t="s">
+      <c r="P22" s="416" t="s">
         <v>530</v>
       </c>
       <c r="Q22" s="6">
@@ -12188,7 +12311,7 @@
       <c r="O23" s="403" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="439" t="s">
+      <c r="P23" s="417" t="s">
         <v>530</v>
       </c>
       <c r="Q23" s="6">
@@ -12283,8 +12406,8 @@
       <c r="O24" s="314" t="s">
         <v>574</v>
       </c>
-      <c r="P24" s="246" t="s">
-        <v>862</v>
+      <c r="P24" s="396" t="s">
+        <v>883</v>
       </c>
       <c r="Q24" s="6">
         <v>2</v>
@@ -12391,8 +12514,8 @@
       <c r="O25" s="252" t="s">
         <v>579</v>
       </c>
-      <c r="P25" s="104" t="s">
-        <v>863</v>
+      <c r="P25" s="393" t="s">
+        <v>862</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -12501,8 +12624,8 @@
       <c r="O26" s="221" t="s">
         <v>585</v>
       </c>
-      <c r="P26" s="77" t="s">
-        <v>867</v>
+      <c r="P26" s="392" t="s">
+        <v>884</v>
       </c>
       <c r="Q26" s="6">
         <v>2</v>
@@ -12609,8 +12732,8 @@
       <c r="O27" s="252" t="s">
         <v>590</v>
       </c>
-      <c r="P27" s="104" t="s">
-        <v>868</v>
+      <c r="P27" s="393" t="s">
+        <v>865</v>
       </c>
       <c r="Q27" s="6">
         <v>1</v>
@@ -12719,8 +12842,8 @@
       <c r="O28" s="221" t="s">
         <v>593</v>
       </c>
-      <c r="P28" s="77" t="s">
-        <v>865</v>
+      <c r="P28" s="392" t="s">
+        <v>885</v>
       </c>
       <c r="Q28" s="6">
         <v>2</v>
@@ -12827,8 +12950,8 @@
       <c r="O29" s="252" t="s">
         <v>596</v>
       </c>
-      <c r="P29" s="104" t="s">
-        <v>866</v>
+      <c r="P29" s="393" t="s">
+        <v>864</v>
       </c>
       <c r="Q29" s="6">
         <v>1</v>
@@ -12937,8 +13060,8 @@
       <c r="O30" s="221" t="s">
         <v>363</v>
       </c>
-      <c r="P30" s="77" t="s">
-        <v>864</v>
+      <c r="P30" s="392" t="s">
+        <v>863</v>
       </c>
       <c r="Q30" s="6">
         <v>2</v>
@@ -13045,7 +13168,7 @@
       <c r="O31" s="221" t="s">
         <v>603</v>
       </c>
-      <c r="P31" s="77"/>
+      <c r="P31" s="392"/>
       <c r="Q31" s="6">
         <v>2</v>
       </c>
@@ -13151,7 +13274,7 @@
       <c r="O32" s="252" t="s">
         <v>606</v>
       </c>
-      <c r="P32" s="104"/>
+      <c r="P32" s="393"/>
       <c r="Q32" s="6">
         <v>1</v>
       </c>
@@ -13259,8 +13382,8 @@
       <c r="O33" s="221" t="s">
         <v>614</v>
       </c>
-      <c r="P33" s="77" t="s">
-        <v>869</v>
+      <c r="P33" s="392" t="s">
+        <v>866</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -13514,10 +13637,10 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13562,30 +13685,30 @@
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="424" t="s">
+      <c r="Y1" s="427" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="425"/>
-      <c r="AA1" s="425"/>
-      <c r="AB1" s="426"/>
-      <c r="AC1" s="424" t="s">
+      <c r="Z1" s="428"/>
+      <c r="AA1" s="428"/>
+      <c r="AB1" s="429"/>
+      <c r="AC1" s="427" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="425"/>
-      <c r="AE1" s="425"/>
-      <c r="AF1" s="426"/>
-      <c r="AG1" s="427" t="s">
+      <c r="AD1" s="428"/>
+      <c r="AE1" s="428"/>
+      <c r="AF1" s="429"/>
+      <c r="AG1" s="430" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="428"/>
-      <c r="AI1" s="428"/>
-      <c r="AJ1" s="428"/>
-      <c r="AK1" s="427" t="s">
+      <c r="AH1" s="431"/>
+      <c r="AI1" s="431"/>
+      <c r="AJ1" s="431"/>
+      <c r="AK1" s="430" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="428"/>
-      <c r="AM1" s="428"/>
-      <c r="AN1" s="428"/>
+      <c r="AL1" s="431"/>
+      <c r="AM1" s="431"/>
+      <c r="AN1" s="431"/>
     </row>
     <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
@@ -15075,16 +15198,16 @@
   <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5" style="76" customWidth="1"/>
+    <col min="2" max="2" width="56" style="76" customWidth="1"/>
     <col min="3" max="3" width="5.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.375" style="105" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="4" bestFit="1" customWidth="1"/>
@@ -15098,7 +15221,7 @@
     <col min="13" max="13" width="22.75" style="4" customWidth="1"/>
     <col min="14" max="14" width="18.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="32.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.25" style="18" customWidth="1"/>
+    <col min="16" max="16" width="36" style="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.375" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.625" style="4" bestFit="1" customWidth="1"/>
@@ -15131,21 +15254,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="423" t="s">
+      <c r="AA1" s="426" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="423"/>
-      <c r="AC1" s="423"/>
-      <c r="AD1" s="423" t="s">
+      <c r="AB1" s="426"/>
+      <c r="AC1" s="426"/>
+      <c r="AD1" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="423"/>
-      <c r="AF1" s="423"/>
-      <c r="AG1" s="423" t="s">
+      <c r="AE1" s="426"/>
+      <c r="AF1" s="426"/>
+      <c r="AG1" s="426" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="423"/>
-      <c r="AI1" s="423"/>
+      <c r="AH1" s="426"/>
+      <c r="AI1" s="426"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -15323,7 +15446,7 @@
       <c r="O3" s="394" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="437" t="s">
+      <c r="P3" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q3" s="6">
@@ -15418,7 +15541,7 @@
       <c r="O4" s="394" t="s">
         <v>343</v>
       </c>
-      <c r="P4" s="437" t="s">
+      <c r="P4" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q4" s="6">
@@ -15512,7 +15635,7 @@
       <c r="O5" s="394" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="437" t="s">
+      <c r="P5" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q5" s="6">
@@ -15607,7 +15730,7 @@
       <c r="O6" s="394" t="s">
         <v>348</v>
       </c>
-      <c r="P6" s="437" t="s">
+      <c r="P6" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q6" s="6">
@@ -15702,7 +15825,7 @@
       <c r="O7" s="394" t="s">
         <v>349</v>
       </c>
-      <c r="P7" s="437" t="s">
+      <c r="P7" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q7" s="6">
@@ -15797,7 +15920,7 @@
       <c r="O8" s="394" t="s">
         <v>353</v>
       </c>
-      <c r="P8" s="437" t="s">
+      <c r="P8" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q8" s="6">
@@ -15892,7 +16015,7 @@
       <c r="O9" s="394" t="s">
         <v>355</v>
       </c>
-      <c r="P9" s="437" t="s">
+      <c r="P9" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q9" s="6">
@@ -15987,7 +16110,7 @@
       <c r="O10" s="394" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="437" t="s">
+      <c r="P10" s="415" t="s">
         <v>530</v>
       </c>
       <c r="Q10" s="6">
@@ -16083,7 +16206,9 @@
       <c r="O11" s="394" t="s">
         <v>623</v>
       </c>
-      <c r="P11" s="394"/>
+      <c r="P11" s="394" t="s">
+        <v>875</v>
+      </c>
       <c r="Q11" s="6">
         <v>2</v>
       </c>
@@ -16178,7 +16303,9 @@
       <c r="O12" s="394" t="s">
         <v>306</v>
       </c>
-      <c r="P12" s="394"/>
+      <c r="P12" s="397" t="s">
+        <v>867</v>
+      </c>
       <c r="Q12" s="6">
         <v>2</v>
       </c>
@@ -16264,7 +16391,9 @@
       </c>
       <c r="N13" s="102"/>
       <c r="O13" s="394"/>
-      <c r="P13" s="394"/>
+      <c r="P13" s="394" t="s">
+        <v>868</v>
+      </c>
       <c r="Q13" s="6">
         <v>2</v>
       </c>
@@ -17609,7 +17738,9 @@
       <c r="O28" s="221" t="s">
         <v>817</v>
       </c>
-      <c r="P28" s="221"/>
+      <c r="P28" s="392" t="s">
+        <v>817</v>
+      </c>
       <c r="Q28" s="6">
         <v>2</v>
       </c>
@@ -17680,7 +17811,9 @@
       <c r="O29" s="221" t="s">
         <v>818</v>
       </c>
-      <c r="P29" s="221"/>
+      <c r="P29" s="392" t="s">
+        <v>818</v>
+      </c>
       <c r="Q29" s="6">
         <v>2</v>
       </c>
@@ -17969,7 +18102,9 @@
       <c r="O33" s="389" t="s">
         <v>833</v>
       </c>
-      <c r="P33" s="389"/>
+      <c r="P33" s="389" t="s">
+        <v>876</v>
+      </c>
       <c r="Q33" s="6">
         <v>2</v>
       </c>
@@ -18584,7 +18719,7 @@
       <c r="AL41" s="57"/>
       <c r="AM41" s="293"/>
     </row>
-    <row r="42" spans="1:39" s="76" customFormat="1" ht="151.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A42" s="270" t="s">
         <v>182</v>
       </c>
@@ -18628,7 +18763,9 @@
       <c r="O42" s="221" t="s">
         <v>820</v>
       </c>
-      <c r="P42" s="221"/>
+      <c r="P42" s="392" t="s">
+        <v>870</v>
+      </c>
       <c r="Q42" s="6">
         <v>2</v>
       </c>
@@ -18657,7 +18794,7 @@
       <c r="AL42" s="57"/>
       <c r="AM42" s="293"/>
     </row>
-    <row r="43" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A43" s="270" t="s">
         <v>182</v>
       </c>
@@ -18699,7 +18836,9 @@
       </c>
       <c r="N43" s="102"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
+      <c r="P43" s="394" t="s">
+        <v>869</v>
+      </c>
       <c r="Q43" s="6">
         <v>2</v>
       </c>
@@ -18772,7 +18911,9 @@
       <c r="O44" s="221" t="s">
         <v>819</v>
       </c>
-      <c r="P44" s="221"/>
+      <c r="P44" s="392" t="s">
+        <v>872</v>
+      </c>
       <c r="Q44" s="6">
         <v>2</v>
       </c>
@@ -18843,7 +18984,9 @@
       <c r="O45" s="314" t="s">
         <v>821</v>
       </c>
-      <c r="P45" s="314"/>
+      <c r="P45" s="392" t="s">
+        <v>873</v>
+      </c>
       <c r="Q45" s="6">
         <v>2</v>
       </c>
@@ -18916,7 +19059,9 @@
       <c r="O46" s="252" t="s">
         <v>822</v>
       </c>
-      <c r="P46" s="252"/>
+      <c r="P46" s="393" t="s">
+        <v>874</v>
+      </c>
       <c r="Q46" s="6">
         <v>1</v>
       </c>
@@ -18989,7 +19134,9 @@
       <c r="O47" s="221" t="s">
         <v>823</v>
       </c>
-      <c r="P47" s="221"/>
+      <c r="P47" s="392" t="s">
+        <v>877</v>
+      </c>
       <c r="Q47" s="6">
         <v>2</v>
       </c>
@@ -19062,7 +19209,9 @@
       <c r="O48" s="252" t="s">
         <v>824</v>
       </c>
-      <c r="P48" s="252"/>
+      <c r="P48" s="393" t="s">
+        <v>878</v>
+      </c>
       <c r="Q48" s="6">
         <v>1</v>
       </c>
@@ -19135,7 +19284,9 @@
       <c r="O49" s="221" t="s">
         <v>825</v>
       </c>
-      <c r="P49" s="221"/>
+      <c r="P49" s="392" t="s">
+        <v>880</v>
+      </c>
       <c r="Q49" s="6">
         <v>2</v>
       </c>
@@ -19208,7 +19359,9 @@
       <c r="O50" s="252" t="s">
         <v>826</v>
       </c>
-      <c r="P50" s="252"/>
+      <c r="P50" s="393" t="s">
+        <v>879</v>
+      </c>
       <c r="Q50" s="6">
         <v>1</v>
       </c>
@@ -19279,7 +19432,9 @@
       <c r="O51" s="221" t="s">
         <v>827</v>
       </c>
-      <c r="P51" s="221"/>
+      <c r="P51" s="392" t="s">
+        <v>881</v>
+      </c>
       <c r="Q51" s="6">
         <v>2</v>
       </c>
@@ -19350,7 +19505,7 @@
       <c r="O52" s="221" t="s">
         <v>828</v>
       </c>
-      <c r="P52" s="221"/>
+      <c r="P52" s="414"/>
       <c r="Q52" s="6">
         <v>2</v>
       </c>
@@ -19421,7 +19576,7 @@
       <c r="O53" s="389" t="s">
         <v>829</v>
       </c>
-      <c r="P53" s="389"/>
+      <c r="P53" s="440"/>
       <c r="Q53" s="6">
         <v>1</v>
       </c>
@@ -19492,7 +19647,9 @@
       <c r="O54" s="221" t="s">
         <v>830</v>
       </c>
-      <c r="P54" s="221"/>
+      <c r="P54" s="392" t="s">
+        <v>882</v>
+      </c>
       <c r="Q54" s="6">
         <v>2</v>
       </c>
@@ -19582,7 +19739,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19628,35 +19785,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="418" t="s">
+      <c r="X1" s="421" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="419"/>
-      <c r="Z1" s="419"/>
-      <c r="AA1" s="420"/>
-      <c r="AB1" s="418" t="s">
+      <c r="Y1" s="422"/>
+      <c r="Z1" s="422"/>
+      <c r="AA1" s="423"/>
+      <c r="AB1" s="421" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="419"/>
-      <c r="AD1" s="419"/>
-      <c r="AE1" s="420"/>
-      <c r="AF1" s="421" t="s">
+      <c r="AC1" s="422"/>
+      <c r="AD1" s="422"/>
+      <c r="AE1" s="423"/>
+      <c r="AF1" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="422"/>
-      <c r="AH1" s="422"/>
-      <c r="AI1" s="422"/>
-      <c r="AJ1" s="421" t="s">
+      <c r="AG1" s="425"/>
+      <c r="AH1" s="425"/>
+      <c r="AI1" s="425"/>
+      <c r="AJ1" s="424" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="422"/>
-      <c r="AL1" s="422"/>
-      <c r="AM1" s="422"/>
+      <c r="AK1" s="425"/>
+      <c r="AL1" s="425"/>
+      <c r="AM1" s="425"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="429" t="s">
+      <c r="AO1" s="432" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="429"/>
+      <c r="AP1" s="432"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -21648,15 +21805,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D428FA97A73D304E91AA59E09D526869" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5184d92e947fddf07e6b6109215ca8be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8022916f55ab85163ee9a5069dec31d5">
     <xsd:element name="properties">
@@ -21770,6 +21918,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -21777,14 +21934,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2DE8A8-9F7C-444A-A54C-B908DB2D8D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21796,6 +21945,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="887">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3516,6 +3516,9 @@
   </si>
   <si>
     <t>IMP_FINEXP_30D_M0</t>
+  </si>
+  <si>
+    <t>nel mapping della CT per questo indicatore ci sono altri campi oltre a questi</t>
   </si>
 </sst>
 </file>
@@ -5673,6 +5676,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5738,9 +5744,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6845,14 +6848,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="418" t="s">
+      <c r="E1" s="419" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="418"/>
-      <c r="H1" s="419" t="s">
+      <c r="F1" s="419"/>
+      <c r="H1" s="420" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="420"/>
+      <c r="I1" s="421"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -7696,11 +7699,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="437" t="s">
+      <c r="F1" s="438" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="437"/>
-      <c r="H1" s="437"/>
+      <c r="G1" s="438"/>
+      <c r="H1" s="438"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
@@ -7714,34 +7717,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="433" t="s">
+      <c r="A3" s="434" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="434"/>
+      <c r="B3" s="435"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="433"/>
-      <c r="B4" s="435"/>
+      <c r="A4" s="434"/>
+      <c r="B4" s="436"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="433"/>
-      <c r="B5" s="435"/>
+      <c r="A5" s="434"/>
+      <c r="B5" s="436"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="433"/>
-      <c r="B6" s="436"/>
+      <c r="A6" s="434"/>
+      <c r="B6" s="437"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
@@ -7796,7 +7799,7 @@
       <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="438"/>
+      <c r="A3" s="439"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -7819,7 +7822,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="438"/>
+      <c r="A4" s="439"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -7840,7 +7843,7 @@
       <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="438"/>
+      <c r="A5" s="439"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -7861,7 +7864,7 @@
       <c r="O5" s="198"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="438"/>
+      <c r="A6" s="439"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -7882,7 +7885,7 @@
       <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="438"/>
+      <c r="A7" s="439"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -7932,7 +7935,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="439"/>
+      <c r="A12" s="440"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -7955,7 +7958,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="439"/>
+      <c r="A13" s="440"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -7976,7 +7979,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="439"/>
+      <c r="A14" s="440"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -7997,7 +8000,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="439"/>
+      <c r="A15" s="440"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -8018,7 +8021,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="439"/>
+      <c r="A16" s="440"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -8346,11 +8349,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8395,30 +8398,30 @@
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="421" t="s">
+      <c r="Y1" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="422"/>
-      <c r="AA1" s="422"/>
-      <c r="AB1" s="423"/>
-      <c r="AC1" s="421" t="s">
+      <c r="Z1" s="423"/>
+      <c r="AA1" s="423"/>
+      <c r="AB1" s="424"/>
+      <c r="AC1" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="422"/>
-      <c r="AE1" s="422"/>
-      <c r="AF1" s="423"/>
-      <c r="AG1" s="424" t="s">
+      <c r="AD1" s="423"/>
+      <c r="AE1" s="423"/>
+      <c r="AF1" s="424"/>
+      <c r="AG1" s="425" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="425"/>
-      <c r="AI1" s="425"/>
-      <c r="AJ1" s="425"/>
-      <c r="AK1" s="424" t="s">
+      <c r="AH1" s="426"/>
+      <c r="AI1" s="426"/>
+      <c r="AJ1" s="426"/>
+      <c r="AK1" s="425" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="425"/>
-      <c r="AM1" s="425"/>
-      <c r="AN1" s="425"/>
+      <c r="AL1" s="426"/>
+      <c r="AM1" s="426"/>
+      <c r="AN1" s="426"/>
     </row>
     <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -10204,13 +10207,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="P31:P32"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10255,21 +10259,21 @@
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="426" t="s">
+      <c r="AB1" s="427" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="426"/>
-      <c r="AD1" s="426"/>
-      <c r="AE1" s="426" t="s">
+      <c r="AC1" s="427"/>
+      <c r="AD1" s="427"/>
+      <c r="AE1" s="427" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="426"/>
-      <c r="AG1" s="426"/>
-      <c r="AH1" s="426" t="s">
+      <c r="AF1" s="427"/>
+      <c r="AG1" s="427"/>
+      <c r="AH1" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="426"/>
-      <c r="AJ1" s="426"/>
+      <c r="AI1" s="427"/>
+      <c r="AJ1" s="427"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10653,7 +10657,7 @@
         <v>332</v>
       </c>
       <c r="P5" s="37" t="s">
-        <v>530</v>
+        <v>886</v>
       </c>
       <c r="Q5" s="6">
         <v>2</v>
@@ -10786,7 +10790,7 @@
       <c r="AM6" s="305"/>
       <c r="AN6" s="306"/>
     </row>
-    <row r="7" spans="1:41" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="308" t="s">
         <v>34</v>
       </c>
@@ -10859,7 +10863,7 @@
       <c r="AM7" s="310"/>
       <c r="AN7" s="311"/>
     </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="268" t="s">
         <v>34</v>
       </c>
@@ -10964,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="313" t="s">
         <v>34</v>
       </c>
@@ -11069,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="250" t="s">
         <v>34</v>
       </c>
@@ -11165,7 +11169,7 @@
       <c r="AM10" s="74"/>
       <c r="AN10" s="74"/>
     </row>
-    <row r="11" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="250" t="s">
         <v>34</v>
       </c>
@@ -11261,7 +11265,7 @@
       <c r="AM11" s="74"/>
       <c r="AN11" s="74"/>
     </row>
-    <row r="12" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="308" t="s">
         <v>182</v>
       </c>
@@ -11334,7 +11338,7 @@
       <c r="AM12" s="310"/>
       <c r="AN12" s="311"/>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="271" t="s">
         <v>182</v>
       </c>
@@ -11431,7 +11435,7 @@
       <c r="AN13" s="306"/>
       <c r="AO13" s="215"/>
     </row>
-    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="318" t="s">
         <v>182</v>
       </c>
@@ -11510,7 +11514,7 @@
       <c r="AM14" s="293"/>
       <c r="AN14" s="320"/>
     </row>
-    <row r="15" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="308" t="s">
         <v>183</v>
       </c>
@@ -11583,7 +11587,7 @@
       <c r="AM15" s="310"/>
       <c r="AN15" s="311"/>
     </row>
-    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="308" t="s">
         <v>183</v>
       </c>
@@ -11678,7 +11682,7 @@
       <c r="AM16" s="57"/>
       <c r="AN16" s="293"/>
     </row>
-    <row r="17" spans="1:40" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="322" t="s">
         <v>765</v>
       </c>
@@ -11751,7 +11755,7 @@
       <c r="AM17" s="310"/>
       <c r="AN17" s="311"/>
     </row>
-    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="323" t="s">
         <v>765</v>
       </c>
@@ -11857,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="323" t="s">
         <v>765</v>
       </c>
@@ -11963,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="313" t="s">
         <v>765</v>
       </c>
@@ -12069,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="313" t="s">
         <v>765</v>
       </c>
@@ -12175,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="308" t="s">
         <v>361</v>
       </c>
@@ -12268,7 +12272,7 @@
       <c r="AM22" s="328"/>
       <c r="AN22" s="328"/>
     </row>
-    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="308" t="s">
         <v>361</v>
       </c>
@@ -12359,7 +12363,7 @@
       <c r="AM23" s="328"/>
       <c r="AN23" s="328"/>
     </row>
-    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="330" t="s">
         <v>569</v>
       </c>
@@ -12466,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="330" t="s">
         <v>569</v>
       </c>
@@ -12576,7 +12580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="330" t="s">
         <v>581</v>
       </c>
@@ -12684,7 +12688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="330" t="s">
         <v>581</v>
       </c>
@@ -12794,7 +12798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="330" t="s">
         <v>581</v>
       </c>
@@ -12902,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="330" t="s">
         <v>581</v>
       </c>
@@ -13012,7 +13016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="330" t="s">
         <v>362</v>
       </c>
@@ -13120,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="330" t="s">
         <v>601</v>
       </c>
@@ -13226,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="330" t="s">
         <v>601</v>
       </c>
@@ -13334,7 +13338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="330" t="s">
         <v>607</v>
       </c>
@@ -13443,7 +13447,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AN33"/>
+  <autoFilter ref="A2:AN33">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="XRA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13685,30 +13695,30 @@
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="427" t="s">
+      <c r="Y1" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="428"/>
-      <c r="AA1" s="428"/>
-      <c r="AB1" s="429"/>
-      <c r="AC1" s="427" t="s">
+      <c r="Z1" s="429"/>
+      <c r="AA1" s="429"/>
+      <c r="AB1" s="430"/>
+      <c r="AC1" s="428" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="428"/>
-      <c r="AE1" s="428"/>
-      <c r="AF1" s="429"/>
-      <c r="AG1" s="430" t="s">
+      <c r="AD1" s="429"/>
+      <c r="AE1" s="429"/>
+      <c r="AF1" s="430"/>
+      <c r="AG1" s="431" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="431"/>
-      <c r="AI1" s="431"/>
-      <c r="AJ1" s="431"/>
-      <c r="AK1" s="430" t="s">
+      <c r="AH1" s="432"/>
+      <c r="AI1" s="432"/>
+      <c r="AJ1" s="432"/>
+      <c r="AK1" s="431" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="431"/>
-      <c r="AM1" s="431"/>
-      <c r="AN1" s="431"/>
+      <c r="AL1" s="432"/>
+      <c r="AM1" s="432"/>
+      <c r="AN1" s="432"/>
     </row>
     <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
@@ -15195,13 +15205,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="A1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15254,21 +15265,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="426" t="s">
+      <c r="AA1" s="427" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="426"/>
-      <c r="AC1" s="426"/>
-      <c r="AD1" s="426" t="s">
+      <c r="AB1" s="427"/>
+      <c r="AC1" s="427"/>
+      <c r="AD1" s="427" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="426"/>
-      <c r="AF1" s="426"/>
-      <c r="AG1" s="426" t="s">
+      <c r="AE1" s="427"/>
+      <c r="AF1" s="427"/>
+      <c r="AG1" s="427" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="426"/>
-      <c r="AI1" s="426"/>
+      <c r="AH1" s="427"/>
+      <c r="AI1" s="427"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -16260,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
         <v>182</v>
       </c>
@@ -16352,7 +16363,7 @@
       <c r="AL12" s="305"/>
       <c r="AM12" s="306"/>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="205" t="s">
         <v>182</v>
       </c>
@@ -16420,7 +16431,7 @@
       <c r="AL13" s="305"/>
       <c r="AM13" s="306"/>
     </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="2" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="265" t="s">
         <v>34</v>
       </c>
@@ -16513,7 +16524,7 @@
       <c r="AL14" s="74"/>
       <c r="AM14" s="74"/>
     </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="2" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="254" t="s">
         <v>34</v>
       </c>
@@ -16606,7 +16617,7 @@
       <c r="AL15" s="74"/>
       <c r="AM15" s="74"/>
     </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="2" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="254" t="s">
         <v>34</v>
       </c>
@@ -16699,7 +16710,7 @@
       <c r="AL16" s="74"/>
       <c r="AM16" s="74"/>
     </row>
-    <row r="17" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" s="2" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="254" t="s">
         <v>34</v>
       </c>
@@ -16790,7 +16801,7 @@
       <c r="AL17" s="74"/>
       <c r="AM17" s="74"/>
     </row>
-    <row r="18" spans="1:39" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" s="2" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="254" t="s">
         <v>34</v>
       </c>
@@ -16883,7 +16894,7 @@
       <c r="AL18" s="74"/>
       <c r="AM18" s="74"/>
     </row>
-    <row r="19" spans="1:39" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" s="2" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="254" t="s">
         <v>34</v>
       </c>
@@ -16974,7 +16985,7 @@
       <c r="AL19" s="74"/>
       <c r="AM19" s="74"/>
     </row>
-    <row r="20" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="266" t="s">
         <v>34</v>
       </c>
@@ -17066,7 +17077,7 @@
       <c r="AL20" s="75"/>
       <c r="AM20" s="75"/>
     </row>
-    <row r="21" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="266" t="s">
         <v>34</v>
       </c>
@@ -17157,7 +17168,7 @@
       <c r="AL21" s="75"/>
       <c r="AM21" s="75"/>
     </row>
-    <row r="22" spans="1:39" s="76" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" s="76" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="266" t="s">
         <v>34</v>
       </c>
@@ -17252,7 +17263,7 @@
       <c r="AL22" s="75"/>
       <c r="AM22" s="75"/>
     </row>
-    <row r="23" spans="1:39" s="76" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" s="76" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="266" t="s">
         <v>34</v>
       </c>
@@ -17347,7 +17358,7 @@
       <c r="AL23" s="75"/>
       <c r="AM23" s="75"/>
     </row>
-    <row r="24" spans="1:39" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="266" t="s">
         <v>34</v>
       </c>
@@ -17442,7 +17453,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
     </row>
-    <row r="25" spans="1:39" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="266" t="s">
         <v>183</v>
       </c>
@@ -17533,7 +17544,7 @@
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
     </row>
-    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="266" t="s">
         <v>183</v>
       </c>
@@ -17624,7 +17635,7 @@
       <c r="AL26" s="57"/>
       <c r="AM26" s="293"/>
     </row>
-    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="266" t="s">
         <v>183</v>
       </c>
@@ -17695,7 +17706,7 @@
       <c r="AL27" s="57"/>
       <c r="AM27" s="293"/>
     </row>
-    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="270" t="s">
         <v>183</v>
       </c>
@@ -17767,7 +17778,7 @@
       <c r="AL28" s="57"/>
       <c r="AM28" s="293"/>
     </row>
-    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="270" t="s">
         <v>183</v>
       </c>
@@ -18133,7 +18144,7 @@
       <c r="AL33" s="57"/>
       <c r="AM33" s="293"/>
     </row>
-    <row r="34" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" s="76" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="270" t="s">
         <v>34</v>
       </c>
@@ -18206,7 +18217,7 @@
       <c r="AL34" s="57"/>
       <c r="AM34" s="293"/>
     </row>
-    <row r="35" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" s="76" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="270" t="s">
         <v>34</v>
       </c>
@@ -18279,7 +18290,7 @@
       <c r="AL35" s="57"/>
       <c r="AM35" s="293"/>
     </row>
-    <row r="36" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" s="76" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="270" t="s">
         <v>34</v>
       </c>
@@ -18352,7 +18363,7 @@
       <c r="AL36" s="57"/>
       <c r="AM36" s="293"/>
     </row>
-    <row r="37" spans="1:39" s="76" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" s="76" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="270" t="s">
         <v>34</v>
       </c>
@@ -18427,7 +18438,7 @@
       <c r="AL37" s="57"/>
       <c r="AM37" s="293"/>
     </row>
-    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="270" t="s">
         <v>765</v>
       </c>
@@ -18500,7 +18511,7 @@
       <c r="AL38" s="57"/>
       <c r="AM38" s="293"/>
     </row>
-    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="270" t="s">
         <v>765</v>
       </c>
@@ -18573,7 +18584,7 @@
       <c r="AL39" s="57"/>
       <c r="AM39" s="293"/>
     </row>
-    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="270" t="s">
         <v>765</v>
       </c>
@@ -18646,7 +18657,7 @@
       <c r="AL40" s="57"/>
       <c r="AM40" s="293"/>
     </row>
-    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="270" t="s">
         <v>765</v>
       </c>
@@ -18719,7 +18730,7 @@
       <c r="AL41" s="57"/>
       <c r="AM41" s="293"/>
     </row>
-    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="270" t="s">
         <v>182</v>
       </c>
@@ -18794,7 +18805,7 @@
       <c r="AL42" s="57"/>
       <c r="AM42" s="293"/>
     </row>
-    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="270" t="s">
         <v>182</v>
       </c>
@@ -18867,7 +18878,7 @@
       <c r="AL43" s="57"/>
       <c r="AM43" s="293"/>
     </row>
-    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="270" t="s">
         <v>183</v>
       </c>
@@ -18940,7 +18951,7 @@
       <c r="AL44" s="57"/>
       <c r="AM44" s="293"/>
     </row>
-    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="270" t="s">
         <v>569</v>
       </c>
@@ -19013,7 +19024,7 @@
       <c r="AL45" s="57"/>
       <c r="AM45" s="293"/>
     </row>
-    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="270" t="s">
         <v>569</v>
       </c>
@@ -19088,7 +19099,7 @@
       <c r="AL46" s="57"/>
       <c r="AM46" s="293"/>
     </row>
-    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="270" t="s">
         <v>655</v>
       </c>
@@ -19163,7 +19174,7 @@
       <c r="AL47" s="57"/>
       <c r="AM47" s="293"/>
     </row>
-    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="270" t="s">
         <v>655</v>
       </c>
@@ -19238,7 +19249,7 @@
       <c r="AL48" s="57"/>
       <c r="AM48" s="293"/>
     </row>
-    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="270" t="s">
         <v>656</v>
       </c>
@@ -19313,7 +19324,7 @@
       <c r="AL49" s="57"/>
       <c r="AM49" s="293"/>
     </row>
-    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="270" t="s">
         <v>656</v>
       </c>
@@ -19388,7 +19399,7 @@
       <c r="AL50" s="57"/>
       <c r="AM50" s="293"/>
     </row>
-    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="270" t="s">
         <v>362</v>
       </c>
@@ -19461,7 +19472,7 @@
       <c r="AL51" s="57"/>
       <c r="AM51" s="293"/>
     </row>
-    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="270" t="s">
         <v>601</v>
       </c>
@@ -19532,7 +19543,7 @@
       <c r="AL52" s="57"/>
       <c r="AM52" s="293"/>
     </row>
-    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="270" t="s">
         <v>601</v>
       </c>
@@ -19576,7 +19587,7 @@
       <c r="O53" s="389" t="s">
         <v>829</v>
       </c>
-      <c r="P53" s="440"/>
+      <c r="P53" s="418"/>
       <c r="Q53" s="6">
         <v>1</v>
       </c>
@@ -19603,7 +19614,7 @@
       <c r="AL53" s="57"/>
       <c r="AM53" s="293"/>
     </row>
-    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="270" t="s">
         <v>607</v>
       </c>
@@ -19677,7 +19688,13 @@
       <c r="AM54" s="293"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AM54"/>
+  <autoFilter ref="A2:AM54">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="XRA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -19785,35 +19802,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="421" t="s">
+      <c r="X1" s="422" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="422"/>
-      <c r="Z1" s="422"/>
-      <c r="AA1" s="423"/>
-      <c r="AB1" s="421" t="s">
+      <c r="Y1" s="423"/>
+      <c r="Z1" s="423"/>
+      <c r="AA1" s="424"/>
+      <c r="AB1" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="422"/>
-      <c r="AD1" s="422"/>
-      <c r="AE1" s="423"/>
-      <c r="AF1" s="424" t="s">
+      <c r="AC1" s="423"/>
+      <c r="AD1" s="423"/>
+      <c r="AE1" s="424"/>
+      <c r="AF1" s="425" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="425"/>
-      <c r="AH1" s="425"/>
-      <c r="AI1" s="425"/>
-      <c r="AJ1" s="424" t="s">
+      <c r="AG1" s="426"/>
+      <c r="AH1" s="426"/>
+      <c r="AI1" s="426"/>
+      <c r="AJ1" s="425" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="425"/>
-      <c r="AL1" s="425"/>
-      <c r="AM1" s="425"/>
+      <c r="AK1" s="426"/>
+      <c r="AL1" s="426"/>
+      <c r="AM1" s="426"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="432" t="s">
+      <c r="AO1" s="433" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="432"/>
+      <c r="AP1" s="433"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -21805,6 +21822,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D428FA97A73D304E91AA59E09D526869" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5184d92e947fddf07e6b6109215ca8be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8022916f55ab85163ee9a5069dec31d5">
     <xsd:element name="properties">
@@ -21918,22 +21950,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2DE8A8-9F7C-444A-A54C-B908DB2D8D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21947,27 +21987,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -29,8 +29,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Eccezioni!$A$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Indicatore Simulativi'!$A$2:$AM$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Indicatori High_priority'!$A$2:$AN$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Indicatori Qualitativi'!$A$2:$AN$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Indicatori Statistici'!$A$2:$AN$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Indicatori Qualitativi'!$A$2:$AN$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Indicatori Statistici'!$A$2:$AO$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Indicatori Tecnici'!$A$2:$AP$2</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="10">Eccezioni!$A$3:$O$8</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="899">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3518,16 +3518,73 @@
     <t>IMP_FINEXP_30D_M0</t>
   </si>
   <si>
-    <t>nel mapping della CT per questo indicatore ci sono altri campi oltre a questi</t>
+    <t>NUM_GG_SCADUTO</t>
+  </si>
+  <si>
+    <t>NUM_RATE_IMPAGATE</t>
+  </si>
+  <si>
+    <t>stand by</t>
+  </si>
+  <si>
+    <t>IMP_ARRETRATO</t>
+  </si>
+  <si>
+    <t>CLONE</t>
+  </si>
+  <si>
+    <t>FLG_IRIS_GAR_TOT</t>
+  </si>
+  <si>
+    <t>FLG_IRIS_GAR_NDG_TOT</t>
+  </si>
+  <si>
+    <t>FLG_IRIS_SOC_TOT</t>
+  </si>
+  <si>
+    <t>dubbi sui campi</t>
+  </si>
+  <si>
+    <t>dubbi logici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nel mapping della CT per questo indicatore ci sono altri campi oltre a questi:
+NUM_GIO_SCONF_MAX_M0
+FLG_SCONF_MAX_M0
+NUM_GIO_SCONF_MAX_M1
+FLG_SCONF_MAX_M1
+NUM_GIO_SCONF_MAX_M2
+FLG_SCONF_MAX_M2
+</t>
+  </si>
+  <si>
+    <t>IMP_UTIL_SEL_LIQ_M0
+IMP_UTIL_SEL_LIQ_M1
+IMP_UTIL_SEL_LIQ_M2
+IMP_ACC_SEL_LIQ_M0
+IMP_ACC_SEL_LIQ_M1
+IMP_ACC_SEL_LIQ_M2</t>
+  </si>
+  <si>
+    <t>IMP_UTIL_S_T_C_M0
+IMP_UTIL_S_T_C_M1
+IMP_UTIL_S_T_C_M2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3850,7 +3907,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4075,6 +4132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4511,451 +4574,451 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="441">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4973,48 +5036,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -5029,43 +5092,43 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5077,40 +5140,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="36" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="36" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="36" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="36" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5119,50 +5182,50 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5172,276 +5235,276 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5459,281 +5522,298 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6823,10 +6903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S25"/>
+  <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="G13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6848,14 +6928,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="419" t="s">
+      <c r="E1" s="426" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="419"/>
-      <c r="H1" s="420" t="s">
+      <c r="F1" s="426"/>
+      <c r="H1" s="427" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="421"/>
+      <c r="I1" s="428"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -6868,16 +6948,16 @@
       <c r="N1" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="O1" s="411" t="s">
+      <c r="O1" s="408" t="s">
         <v>844</v>
       </c>
-      <c r="P1" s="411" t="s">
+      <c r="P1" s="408" t="s">
         <v>845</v>
       </c>
-      <c r="Q1" s="411" t="s">
+      <c r="Q1" s="408" t="s">
         <v>846</v>
       </c>
-      <c r="R1" s="411" t="s">
+      <c r="R1" s="408" t="s">
         <v>847</v>
       </c>
     </row>
@@ -6916,7 +6996,7 @@
       </c>
       <c r="P2">
         <f>COUNTIF('Indicatori Statistici'!$Q$3:$Q$124,Legenda!$N2)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q2">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N2)</f>
@@ -6924,7 +7004,7 @@
       </c>
       <c r="R2">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N2)</f>
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -6962,7 +7042,7 @@
       </c>
       <c r="P3">
         <f>COUNTIF('Indicatori Statistici'!$Q$3:$Q$124,Legenda!$N3)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q3">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N3)</f>
@@ -6970,7 +7050,7 @@
       </c>
       <c r="R3">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N3)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -7008,7 +7088,7 @@
       </c>
       <c r="P4">
         <f>COUNTIF('Indicatori Statistici'!$Q$3:$Q$124,Legenda!$N4)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q4">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N4)</f>
@@ -7016,7 +7096,7 @@
       </c>
       <c r="R4">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N4)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -7062,7 +7142,7 @@
       </c>
       <c r="R5">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N5)</f>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -7288,7 +7368,7 @@
       </c>
       <c r="P12">
         <f t="shared" ref="P12:R12" si="0">P2*P7</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
@@ -7296,7 +7376,7 @@
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -7328,7 +7408,7 @@
       </c>
       <c r="P13">
         <f t="shared" ref="P13:R13" si="1">P3*P8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -7336,7 +7416,7 @@
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -7368,7 +7448,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
@@ -7376,7 +7456,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
@@ -7416,7 +7496,7 @@
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
@@ -7435,24 +7515,24 @@
       <c r="L16" s="198" t="s">
         <v>530</v>
       </c>
-      <c r="N16" s="411" t="s">
+      <c r="N16" s="408" t="s">
         <v>848</v>
       </c>
-      <c r="O16" s="411">
+      <c r="O16" s="408">
         <f>SUM(O12:O15)</f>
         <v>2.75</v>
       </c>
-      <c r="P16" s="411">
+      <c r="P16" s="408">
         <f t="shared" ref="P16:R16" si="3">SUM(P12:P15)</f>
-        <v>13.75</v>
-      </c>
-      <c r="Q16" s="411">
+        <v>12.5</v>
+      </c>
+      <c r="Q16" s="408">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="R16" s="411">
+      <c r="R16" s="408">
         <f t="shared" si="3"/>
-        <v>32.375</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.25">
@@ -7503,7 +7583,7 @@
       <c r="R18" s="138" t="s">
         <v>852</v>
       </c>
-      <c r="S18" s="412" t="s">
+      <c r="S18" s="409" t="s">
         <v>853</v>
       </c>
     </row>
@@ -7524,16 +7604,16 @@
         <v>530</v>
       </c>
       <c r="N19" s="138"/>
-      <c r="O19" s="413">
+      <c r="O19" s="410">
         <v>42891</v>
       </c>
-      <c r="P19" s="413">
+      <c r="P19" s="410">
         <v>42898</v>
       </c>
-      <c r="Q19" s="413">
+      <c r="Q19" s="410">
         <v>42912</v>
       </c>
-      <c r="R19" s="413">
+      <c r="R19" s="410">
         <v>42898</v>
       </c>
       <c r="S19" s="138"/>
@@ -7556,11 +7636,11 @@
       </c>
       <c r="N20" s="138"/>
       <c r="O20" s="138"/>
-      <c r="P20" s="413">
+      <c r="P20" s="410">
         <v>42905</v>
       </c>
       <c r="Q20" s="138"/>
-      <c r="R20" s="413">
+      <c r="R20" s="410">
         <v>42912</v>
       </c>
       <c r="S20" s="138"/>
@@ -7585,7 +7665,7 @@
       <c r="O21" s="138"/>
       <c r="P21" s="138"/>
       <c r="Q21" s="138"/>
-      <c r="R21" s="413">
+      <c r="R21" s="410">
         <v>42919</v>
       </c>
       <c r="S21" s="138"/>
@@ -7610,7 +7690,7 @@
       <c r="O22" s="138"/>
       <c r="P22" s="138"/>
       <c r="Q22" s="138"/>
-      <c r="R22" s="413">
+      <c r="R22" s="410">
         <v>42926</v>
       </c>
       <c r="S22" s="138"/>
@@ -7672,6 +7752,16 @@
       <c r="Q25" s="138"/>
       <c r="R25" s="138"/>
       <c r="S25" s="138"/>
+    </row>
+    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="I28" s="420" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="I29" s="421" t="s">
+        <v>895</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7699,11 +7789,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="438" t="s">
+      <c r="F1" s="445" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="438"/>
-      <c r="H1" s="438"/>
+      <c r="G1" s="445"/>
+      <c r="H1" s="445"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
@@ -7717,34 +7807,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="441" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="435"/>
+      <c r="B3" s="442"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="434"/>
-      <c r="B4" s="436"/>
+      <c r="A4" s="441"/>
+      <c r="B4" s="443"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="434"/>
-      <c r="B5" s="436"/>
+      <c r="A5" s="441"/>
+      <c r="B5" s="443"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="434"/>
-      <c r="B6" s="437"/>
+      <c r="A6" s="441"/>
+      <c r="B6" s="444"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
@@ -7799,7 +7889,7 @@
       <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="439"/>
+      <c r="A3" s="446"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -7822,7 +7912,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="439"/>
+      <c r="A4" s="446"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -7843,7 +7933,7 @@
       <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="439"/>
+      <c r="A5" s="446"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -7864,7 +7954,7 @@
       <c r="O5" s="198"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="439"/>
+      <c r="A6" s="446"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -7885,7 +7975,7 @@
       <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="439"/>
+      <c r="A7" s="446"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -7935,7 +8025,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="440"/>
+      <c r="A12" s="447"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -7958,7 +8048,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="440"/>
+      <c r="A13" s="447"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -7979,7 +8069,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="440"/>
+      <c r="A14" s="447"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -8000,7 +8090,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="440"/>
+      <c r="A15" s="447"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -8021,7 +8111,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="440"/>
+      <c r="A16" s="447"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -8350,10 +8440,10 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8398,30 +8488,30 @@
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="422" t="s">
+      <c r="Y1" s="429" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="423"/>
-      <c r="AA1" s="423"/>
-      <c r="AB1" s="424"/>
-      <c r="AC1" s="422" t="s">
+      <c r="Z1" s="430"/>
+      <c r="AA1" s="430"/>
+      <c r="AB1" s="431"/>
+      <c r="AC1" s="429" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="423"/>
-      <c r="AE1" s="423"/>
-      <c r="AF1" s="424"/>
-      <c r="AG1" s="425" t="s">
+      <c r="AD1" s="430"/>
+      <c r="AE1" s="430"/>
+      <c r="AF1" s="431"/>
+      <c r="AG1" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="426"/>
-      <c r="AI1" s="426"/>
-      <c r="AJ1" s="426"/>
-      <c r="AK1" s="425" t="s">
+      <c r="AH1" s="433"/>
+      <c r="AI1" s="433"/>
+      <c r="AJ1" s="433"/>
+      <c r="AK1" s="432" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="426"/>
-      <c r="AM1" s="426"/>
-      <c r="AN1" s="426"/>
+      <c r="AL1" s="433"/>
+      <c r="AM1" s="433"/>
+      <c r="AN1" s="433"/>
     </row>
     <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -8469,10 +8559,10 @@
       <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="407" t="s">
+      <c r="P2" s="404" t="s">
         <v>838</v>
       </c>
-      <c r="Q2" s="410" t="s">
+      <c r="Q2" s="407" t="s">
         <v>841</v>
       </c>
       <c r="R2" s="71" t="s">
@@ -8597,7 +8687,9 @@
         <f>IF(P3="ok","clone",0)</f>
         <v>clone</v>
       </c>
-      <c r="R3" s="6"/>
+      <c r="R3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
@@ -8675,7 +8767,9 @@
         <f t="shared" ref="Q4:Q23" si="1">IF(P4="ok","clone",0)</f>
         <v>clone</v>
       </c>
-      <c r="R4" s="6"/>
+      <c r="R4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -8754,7 +8848,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -8832,7 +8928,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
@@ -8911,7 +9009,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -8992,7 +9092,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -9093,7 +9195,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -9120,10 +9224,10 @@
       <c r="AN9" s="290"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="405" t="s">
+      <c r="A10" s="402" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="406" t="str">
+      <c r="B10" s="403" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 14 - Avvio di una procedura concorsuale per il debitore</v>
       </c>
@@ -9161,7 +9265,7 @@
       <c r="O10" s="392" t="s">
         <v>317</v>
       </c>
-      <c r="P10" s="414" t="s">
+      <c r="P10" s="411" t="s">
         <v>859</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -9244,7 +9348,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -9320,7 +9426,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -9397,7 +9505,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -9424,10 +9534,10 @@
       <c r="AN13" s="20"/>
     </row>
     <row r="14" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="408" t="s">
+      <c r="A14" s="405" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="406" t="str">
+      <c r="B14" s="403" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 19 - Richiesta ammissione ad una procedura concorsuale per il debitore</v>
       </c>
@@ -9467,7 +9577,7 @@
       <c r="O14" s="393" t="s">
         <v>315</v>
       </c>
-      <c r="P14" s="414" t="s">
+      <c r="P14" s="411" t="s">
         <v>860</v>
       </c>
       <c r="Q14" s="6" t="s">
@@ -9500,10 +9610,10 @@
       <c r="AN14" s="20"/>
     </row>
     <row r="15" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="408" t="s">
+      <c r="A15" s="405" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="406" t="str">
+      <c r="B15" s="403" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 20 - Deposito/Pubblicazione di accordo ristrutturazione per liquidazione</v>
       </c>
@@ -9543,7 +9653,7 @@
       <c r="O15" s="393" t="s">
         <v>316</v>
       </c>
-      <c r="P15" s="414" t="s">
+      <c r="P15" s="411" t="s">
         <v>861</v>
       </c>
       <c r="Q15" s="6" t="s">
@@ -9625,7 +9735,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R16" s="6"/>
+      <c r="R16" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -9701,7 +9813,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="R17" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -9777,7 +9891,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R18" s="6"/>
+      <c r="R18" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -9853,7 +9969,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R19" s="6"/>
+      <c r="R19" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -9929,7 +10047,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="R20" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -9956,10 +10076,10 @@
       <c r="AN20" s="20"/>
     </row>
     <row r="21" spans="1:40" s="298" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="408" t="s">
+      <c r="A21" s="405" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="406" t="str">
+      <c r="B21" s="403" t="str">
         <f>CONCATENATE("Indicatore ",C21," - ",D21)</f>
         <v>Indicatore 31 - Covenant non rispettato e non sanato</v>
       </c>
@@ -9993,16 +10113,18 @@
         <v>69</v>
       </c>
       <c r="N21" s="193"/>
-      <c r="O21" s="392" t="s">
+      <c r="O21" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="P21" s="392" t="s">
+      <c r="P21" s="77" t="s">
         <v>839</v>
       </c>
       <c r="Q21" s="6">
         <v>1</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="R21" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -10076,7 +10198,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -10153,7 +10277,9 @@
         <f t="shared" si="1"/>
         <v>clone</v>
       </c>
-      <c r="R23" s="6"/>
+      <c r="R23" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -10180,7 +10306,6 @@
       <c r="AN23" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AN23"/>
   <mergeCells count="4">
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
@@ -10210,11 +10335,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10259,21 +10384,21 @@
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="427" t="s">
+      <c r="AB1" s="434" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="427"/>
-      <c r="AD1" s="427"/>
-      <c r="AE1" s="427" t="s">
+      <c r="AC1" s="434"/>
+      <c r="AD1" s="434"/>
+      <c r="AE1" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="427"/>
-      <c r="AG1" s="427"/>
-      <c r="AH1" s="427" t="s">
+      <c r="AF1" s="434"/>
+      <c r="AG1" s="434"/>
+      <c r="AH1" s="434" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="427"/>
-      <c r="AJ1" s="427"/>
+      <c r="AI1" s="434"/>
+      <c r="AJ1" s="434"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10333,7 +10458,7 @@
       <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="407" t="s">
+      <c r="P2" s="404" t="s">
         <v>840</v>
       </c>
       <c r="Q2" s="71" t="s">
@@ -10410,7 +10535,7 @@
       </c>
       <c r="AO2" s="4"/>
     </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="249" t="s">
         <v>35</v>
       </c>
@@ -10454,23 +10579,25 @@
       <c r="N3" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="O3" s="394" t="s">
+      <c r="O3" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="P3" s="415" t="s">
+      <c r="P3" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="400"/>
+      <c r="Y3" s="398"/>
       <c r="Z3" s="55" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +10636,7 @@
       <c r="AM3" s="305"/>
       <c r="AN3" s="306"/>
     </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="249" t="s">
         <v>35</v>
       </c>
@@ -10554,23 +10681,25 @@
       <c r="N4" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="O4" s="394" t="s">
+      <c r="O4" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="P4" s="415" t="s">
+      <c r="P4" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="400"/>
+      <c r="Y4" s="398"/>
       <c r="Z4" s="55" t="s">
         <v>194</v>
       </c>
@@ -10609,7 +10738,7 @@
       <c r="AM4" s="305"/>
       <c r="AN4" s="306"/>
     </row>
-    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="271" t="s">
         <v>35</v>
       </c>
@@ -10656,8 +10785,8 @@
       <c r="O5" s="395" t="s">
         <v>332</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>886</v>
+      <c r="P5" s="425" t="s">
+        <v>896</v>
       </c>
       <c r="Q5" s="6">
         <v>2</v>
@@ -10708,7 +10837,7 @@
       <c r="AM5" s="305"/>
       <c r="AN5" s="306"/>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="271" t="s">
         <v>35</v>
       </c>
@@ -10753,7 +10882,7 @@
       <c r="N6" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="O6" s="392" t="s">
+      <c r="O6" s="77" t="s">
         <v>334</v>
       </c>
       <c r="P6" s="55" t="s">
@@ -10762,7 +10891,9 @@
       <c r="Q6" s="6">
         <v>2</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
@@ -10863,7 +10994,7 @@
       <c r="AM7" s="310"/>
       <c r="AN7" s="311"/>
     </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" s="2" customFormat="1" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="268" t="s">
         <v>34</v>
       </c>
@@ -10910,7 +11041,9 @@
       <c r="O8" s="392" t="s">
         <v>551</v>
       </c>
-      <c r="P8" s="392"/>
+      <c r="P8" s="392" t="s">
+        <v>897</v>
+      </c>
       <c r="Q8" s="6">
         <v>2</v>
       </c>
@@ -11015,7 +11148,9 @@
       <c r="O9" s="396" t="s">
         <v>558</v>
       </c>
-      <c r="P9" s="396"/>
+      <c r="P9" s="396" t="s">
+        <v>898</v>
+      </c>
       <c r="Q9" s="6">
         <v>2</v>
       </c>
@@ -11073,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="250" t="s">
         <v>34</v>
       </c>
@@ -11118,21 +11253,25 @@
       <c r="N10" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="O10" s="395" t="s">
+      <c r="O10" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="P10" s="395"/>
-      <c r="Q10" s="6">
-        <v>2</v>
-      </c>
-      <c r="R10" s="6"/>
+      <c r="P10" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="400"/>
+      <c r="Y10" s="398"/>
       <c r="Z10" s="56"/>
       <c r="AA10" s="312" t="s">
         <v>552</v>
@@ -11169,7 +11308,7 @@
       <c r="AM10" s="74"/>
       <c r="AN10" s="74"/>
     </row>
-    <row r="11" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="250" t="s">
         <v>34</v>
       </c>
@@ -11214,21 +11353,25 @@
       <c r="N11" s="103" t="s">
         <v>321</v>
       </c>
-      <c r="O11" s="395" t="s">
+      <c r="O11" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="P11" s="395"/>
-      <c r="Q11" s="6">
-        <v>2</v>
-      </c>
-      <c r="R11" s="6"/>
+      <c r="P11" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="400"/>
+      <c r="Y11" s="398"/>
       <c r="Z11" s="56"/>
       <c r="AA11" s="312" t="s">
         <v>552</v>
@@ -11390,7 +11533,9 @@
       <c r="Q13" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -11495,20 +11640,20 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="404"/>
+      <c r="Y14" s="401"/>
       <c r="Z14" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AA14" s="304"/>
       <c r="AB14" s="304"/>
-      <c r="AC14" s="404"/>
-      <c r="AD14" s="404"/>
-      <c r="AE14" s="404"/>
-      <c r="AF14" s="404"/>
-      <c r="AG14" s="404"/>
-      <c r="AH14" s="404"/>
-      <c r="AI14" s="404"/>
-      <c r="AJ14" s="404"/>
+      <c r="AC14" s="401"/>
+      <c r="AD14" s="401"/>
+      <c r="AE14" s="401"/>
+      <c r="AF14" s="401"/>
+      <c r="AG14" s="401"/>
+      <c r="AH14" s="401"/>
+      <c r="AI14" s="401"/>
+      <c r="AJ14" s="401"/>
       <c r="AK14" s="304"/>
       <c r="AL14" s="304"/>
       <c r="AM14" s="293"/>
@@ -11587,7 +11732,7 @@
       <c r="AM15" s="310"/>
       <c r="AN15" s="311"/>
     </row>
-    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="308" t="s">
         <v>183</v>
       </c>
@@ -11640,7 +11785,9 @@
       <c r="Q16" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="R16" s="6"/>
+      <c r="R16" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -12219,16 +12366,18 @@
       <c r="N22" s="101" t="s">
         <v>457</v>
       </c>
-      <c r="O22" s="397" t="s">
+      <c r="O22" s="192" t="s">
         <v>456</v>
       </c>
-      <c r="P22" s="416" t="s">
+      <c r="P22" s="413" t="s">
         <v>530</v>
       </c>
-      <c r="Q22" s="6">
-        <v>1</v>
-      </c>
-      <c r="R22" s="6"/>
+      <c r="Q22" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -12306,22 +12455,24 @@
       <c r="L23" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="M23" s="402" t="s">
+      <c r="M23" s="400" t="s">
         <v>668</v>
       </c>
       <c r="N23" s="101" t="s">
         <v>455</v>
       </c>
-      <c r="O23" s="403" t="s">
+      <c r="O23" s="422" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="417" t="s">
+      <c r="P23" s="414" t="s">
         <v>530</v>
       </c>
-      <c r="Q23" s="6">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -12410,7 +12561,7 @@
       <c r="O24" s="314" t="s">
         <v>574</v>
       </c>
-      <c r="P24" s="396" t="s">
+      <c r="P24" s="417" t="s">
         <v>883</v>
       </c>
       <c r="Q24" s="6">
@@ -12518,13 +12669,15 @@
       <c r="O25" s="252" t="s">
         <v>579</v>
       </c>
-      <c r="P25" s="393" t="s">
+      <c r="P25" s="104" t="s">
         <v>862</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
       </c>
-      <c r="R25" s="6"/>
+      <c r="R25" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -12628,7 +12781,7 @@
       <c r="O26" s="221" t="s">
         <v>585</v>
       </c>
-      <c r="P26" s="392" t="s">
+      <c r="P26" s="418" t="s">
         <v>884</v>
       </c>
       <c r="Q26" s="6">
@@ -12736,13 +12889,15 @@
       <c r="O27" s="252" t="s">
         <v>590</v>
       </c>
-      <c r="P27" s="393" t="s">
+      <c r="P27" s="104" t="s">
         <v>865</v>
       </c>
       <c r="Q27" s="6">
         <v>1</v>
       </c>
-      <c r="R27" s="6"/>
+      <c r="R27" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -12846,7 +13001,7 @@
       <c r="O28" s="221" t="s">
         <v>593</v>
       </c>
-      <c r="P28" s="392" t="s">
+      <c r="P28" s="418" t="s">
         <v>885</v>
       </c>
       <c r="Q28" s="6">
@@ -12954,13 +13109,15 @@
       <c r="O29" s="252" t="s">
         <v>596</v>
       </c>
-      <c r="P29" s="393" t="s">
+      <c r="P29" s="104" t="s">
         <v>864</v>
       </c>
       <c r="Q29" s="6">
         <v>1</v>
       </c>
-      <c r="R29" s="6"/>
+      <c r="R29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -13064,7 +13221,7 @@
       <c r="O30" s="221" t="s">
         <v>363</v>
       </c>
-      <c r="P30" s="392" t="s">
+      <c r="P30" s="418" t="s">
         <v>863</v>
       </c>
       <c r="Q30" s="6">
@@ -13080,7 +13237,7 @@
       <c r="Y30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Z30" s="401"/>
+      <c r="Z30" s="399"/>
       <c r="AA30" s="331" t="s">
         <v>600</v>
       </c>
@@ -13386,13 +13543,15 @@
       <c r="O33" s="221" t="s">
         <v>614</v>
       </c>
-      <c r="P33" s="392" t="s">
+      <c r="P33" s="77" t="s">
         <v>866</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
       </c>
-      <c r="R33" s="6"/>
+      <c r="R33" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
@@ -13447,10 +13606,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AN33">
+  <autoFilter ref="A2:AO33">
     <filterColumn colId="0">
       <filters>
-        <filter val="XRA"/>
+        <filter val="Bilancio Familiare"/>
+        <filter val="CR ad alzo zero"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="ok"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13647,10 +13812,10 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13695,30 +13860,30 @@
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="428" t="s">
+      <c r="Y1" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="429"/>
-      <c r="AA1" s="429"/>
-      <c r="AB1" s="430"/>
-      <c r="AC1" s="428" t="s">
+      <c r="Z1" s="436"/>
+      <c r="AA1" s="436"/>
+      <c r="AB1" s="437"/>
+      <c r="AC1" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="429"/>
-      <c r="AE1" s="429"/>
-      <c r="AF1" s="430"/>
-      <c r="AG1" s="431" t="s">
+      <c r="AD1" s="436"/>
+      <c r="AE1" s="436"/>
+      <c r="AF1" s="437"/>
+      <c r="AG1" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="432"/>
-      <c r="AI1" s="432"/>
-      <c r="AJ1" s="432"/>
-      <c r="AK1" s="431" t="s">
+      <c r="AH1" s="439"/>
+      <c r="AI1" s="439"/>
+      <c r="AJ1" s="439"/>
+      <c r="AK1" s="438" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="432"/>
-      <c r="AM1" s="432"/>
-      <c r="AN1" s="432"/>
+      <c r="AL1" s="439"/>
+      <c r="AM1" s="439"/>
+      <c r="AN1" s="439"/>
     </row>
     <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
@@ -13766,7 +13931,7 @@
       <c r="O2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="409" t="s">
+      <c r="P2" s="406" t="s">
         <v>840</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -13882,10 +14047,10 @@
       <c r="N3" s="370" t="s">
         <v>525</v>
       </c>
-      <c r="O3" s="398" t="s">
+      <c r="O3" s="397" t="s">
         <v>528</v>
       </c>
-      <c r="P3" s="398"/>
+      <c r="P3" s="397"/>
       <c r="Q3" s="7">
         <v>1</v>
       </c>
@@ -13957,14 +14122,18 @@
       <c r="N4" s="370" t="s">
         <v>716</v>
       </c>
-      <c r="O4" s="398" t="s">
+      <c r="O4" s="364" t="s">
         <v>717</v>
       </c>
-      <c r="P4" s="398"/>
+      <c r="P4" s="253" t="s">
+        <v>891</v>
+      </c>
       <c r="Q4" s="7">
         <v>1</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -14033,14 +14202,18 @@
       <c r="N5" s="370" t="s">
         <v>718</v>
       </c>
-      <c r="O5" s="398" t="s">
+      <c r="O5" s="364" t="s">
         <v>719</v>
       </c>
-      <c r="P5" s="398"/>
+      <c r="P5" s="253" t="s">
+        <v>892</v>
+      </c>
       <c r="Q5" s="7">
         <v>1</v>
       </c>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -14109,14 +14282,18 @@
       <c r="N6" s="370" t="s">
         <v>720</v>
       </c>
-      <c r="O6" s="399" t="s">
+      <c r="O6" s="423" t="s">
         <v>721</v>
       </c>
-      <c r="P6" s="399"/>
+      <c r="P6" s="253" t="s">
+        <v>893</v>
+      </c>
       <c r="Q6" s="7">
         <v>1</v>
       </c>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -14185,8 +14362,8 @@
       <c r="N7" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="O7" s="398"/>
-      <c r="P7" s="398"/>
+      <c r="O7" s="397"/>
+      <c r="P7" s="397"/>
       <c r="Q7" s="7">
         <v>2</v>
       </c>
@@ -14259,14 +14436,18 @@
       <c r="N8" s="370" t="s">
         <v>369</v>
       </c>
-      <c r="O8" s="398" t="s">
+      <c r="O8" s="364" t="s">
         <v>724</v>
       </c>
-      <c r="P8" s="398"/>
+      <c r="P8" s="424" t="s">
+        <v>887</v>
+      </c>
       <c r="Q8" s="7">
         <v>1</v>
       </c>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -14335,14 +14516,18 @@
       <c r="N9" s="370" t="s">
         <v>725</v>
       </c>
-      <c r="O9" s="398" t="s">
+      <c r="O9" s="364" t="s">
         <v>726</v>
       </c>
-      <c r="P9" s="398"/>
+      <c r="P9" s="424" t="s">
+        <v>886</v>
+      </c>
       <c r="Q9" s="7">
         <v>1</v>
       </c>
-      <c r="R9" s="7"/>
+      <c r="R9" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -14411,14 +14596,18 @@
       <c r="N10" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O10" s="399" t="s">
+      <c r="O10" s="423" t="s">
         <v>390</v>
       </c>
-      <c r="P10" s="399"/>
+      <c r="P10" s="424" t="s">
+        <v>889</v>
+      </c>
       <c r="Q10" s="7">
         <v>1</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -14486,10 +14675,12 @@
       <c r="N11" s="370" t="s">
         <v>369</v>
       </c>
-      <c r="O11" s="398" t="s">
+      <c r="O11" s="397" t="s">
         <v>728</v>
       </c>
-      <c r="P11" s="398"/>
+      <c r="P11" s="416" t="s">
+        <v>888</v>
+      </c>
       <c r="Q11" s="7">
         <v>1</v>
       </c>
@@ -14561,10 +14752,12 @@
       <c r="N12" s="370" t="s">
         <v>725</v>
       </c>
-      <c r="O12" s="398" t="s">
+      <c r="O12" s="397" t="s">
         <v>729</v>
       </c>
-      <c r="P12" s="398"/>
+      <c r="P12" s="416" t="s">
+        <v>888</v>
+      </c>
       <c r="Q12" s="7">
         <v>1</v>
       </c>
@@ -14636,10 +14829,12 @@
       <c r="N13" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O13" s="398" t="s">
+      <c r="O13" s="397" t="s">
         <v>391</v>
       </c>
-      <c r="P13" s="398"/>
+      <c r="P13" s="416" t="s">
+        <v>888</v>
+      </c>
       <c r="Q13" s="7">
         <v>1</v>
       </c>
@@ -14711,10 +14906,10 @@
       <c r="N14" s="370" t="s">
         <v>366</v>
       </c>
-      <c r="O14" s="398" t="s">
+      <c r="O14" s="397" t="s">
         <v>364</v>
       </c>
-      <c r="P14" s="398"/>
+      <c r="P14" s="397"/>
       <c r="Q14" s="7">
         <v>1</v>
       </c>
@@ -14786,10 +14981,10 @@
       <c r="N15" s="370" t="s">
         <v>367</v>
       </c>
-      <c r="O15" s="398" t="s">
+      <c r="O15" s="397" t="s">
         <v>365</v>
       </c>
-      <c r="P15" s="398"/>
+      <c r="P15" s="397"/>
       <c r="Q15" s="7">
         <v>1</v>
       </c>
@@ -14861,10 +15056,10 @@
       <c r="N16" s="370" t="s">
         <v>375</v>
       </c>
-      <c r="O16" s="398" t="s">
+      <c r="O16" s="397" t="s">
         <v>373</v>
       </c>
-      <c r="P16" s="398"/>
+      <c r="P16" s="397"/>
       <c r="Q16" s="7">
         <v>1</v>
       </c>
@@ -14936,10 +15131,10 @@
       <c r="N17" s="370" t="s">
         <v>376</v>
       </c>
-      <c r="O17" s="398" t="s">
+      <c r="O17" s="397" t="s">
         <v>374</v>
       </c>
-      <c r="P17" s="398"/>
+      <c r="P17" s="397"/>
       <c r="Q17" s="7">
         <v>1</v>
       </c>
@@ -15118,7 +15313,7 @@
       <c r="AN19" s="375"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AN19"/>
+  <autoFilter ref="A2:AN2"/>
   <mergeCells count="4">
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
@@ -15205,14 +15400,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="A1:AM54"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15233,7 +15427,7 @@
     <col min="14" max="14" width="18.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="32.25" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="4" customWidth="1"/>
     <col min="18" max="18" width="15.375" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="19.625" style="4" customWidth="1"/>
@@ -15265,21 +15459,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="427" t="s">
+      <c r="AA1" s="434" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="427"/>
-      <c r="AC1" s="427"/>
-      <c r="AD1" s="427" t="s">
+      <c r="AB1" s="434"/>
+      <c r="AC1" s="434"/>
+      <c r="AD1" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="427"/>
-      <c r="AF1" s="427"/>
-      <c r="AG1" s="427" t="s">
+      <c r="AE1" s="434"/>
+      <c r="AF1" s="434"/>
+      <c r="AG1" s="434" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="427"/>
-      <c r="AI1" s="427"/>
+      <c r="AH1" s="434"/>
+      <c r="AI1" s="434"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -15454,16 +15648,18 @@
       <c r="N3" s="102" t="s">
         <v>331</v>
       </c>
-      <c r="O3" s="394" t="s">
+      <c r="O3" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="415" t="s">
+      <c r="P3" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q3" s="6">
-        <v>2</v>
-      </c>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
@@ -15549,16 +15745,18 @@
       <c r="N4" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="O4" s="394" t="s">
+      <c r="O4" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="P4" s="415" t="s">
+      <c r="P4" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q4" s="6">
-        <v>3</v>
-      </c>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -15643,16 +15841,18 @@
       <c r="N5" s="102" t="s">
         <v>350</v>
       </c>
-      <c r="O5" s="394" t="s">
+      <c r="O5" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="415" t="s">
+      <c r="P5" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q5" s="6">
-        <v>3</v>
-      </c>
-      <c r="R5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -15738,16 +15938,18 @@
       <c r="N6" s="102" t="s">
         <v>352</v>
       </c>
-      <c r="O6" s="394" t="s">
+      <c r="O6" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="P6" s="415" t="s">
+      <c r="P6" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q6" s="6">
-        <v>3</v>
-      </c>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
@@ -15833,16 +16035,18 @@
       <c r="N7" s="102" t="s">
         <v>351</v>
       </c>
-      <c r="O7" s="394" t="s">
+      <c r="O7" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="P7" s="415" t="s">
+      <c r="P7" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q7" s="6">
-        <v>3</v>
-      </c>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -15928,16 +16132,18 @@
       <c r="N8" s="102" t="s">
         <v>354</v>
       </c>
-      <c r="O8" s="394" t="s">
+      <c r="O8" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="P8" s="415" t="s">
+      <c r="P8" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q8" s="6">
-        <v>2</v>
-      </c>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -16023,16 +16229,18 @@
       <c r="N9" s="102" t="s">
         <v>356</v>
       </c>
-      <c r="O9" s="394" t="s">
+      <c r="O9" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="P9" s="415" t="s">
+      <c r="P9" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -16118,16 +16326,18 @@
       <c r="N10" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="O10" s="394" t="s">
+      <c r="O10" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="415" t="s">
+      <c r="P10" s="412" t="s">
         <v>530</v>
       </c>
-      <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -16175,7 +16385,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="217" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("Indicatore ",C11," - ",D11)</f>
         <v xml:space="preserve">Indicatore 234 - XRA_RSC_ACC_L1M </v>
       </c>
       <c r="C11" s="218">
@@ -16217,7 +16427,7 @@
       <c r="O11" s="394" t="s">
         <v>623</v>
       </c>
-      <c r="P11" s="394" t="s">
+      <c r="P11" s="419" t="s">
         <v>875</v>
       </c>
       <c r="Q11" s="6">
@@ -16271,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
         <v>182</v>
       </c>
@@ -16311,16 +16521,18 @@
         <v>309</v>
       </c>
       <c r="N12" s="102"/>
-      <c r="O12" s="394" t="s">
+      <c r="O12" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="P12" s="397" t="s">
+      <c r="P12" s="192" t="s">
         <v>867</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -16363,7 +16575,7 @@
       <c r="AL12" s="305"/>
       <c r="AM12" s="306"/>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A13" s="205" t="s">
         <v>182</v>
       </c>
@@ -16431,7 +16643,7 @@
       <c r="AL13" s="305"/>
       <c r="AM13" s="306"/>
     </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A14" s="265" t="s">
         <v>34</v>
       </c>
@@ -16476,14 +16688,18 @@
       <c r="N14" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="O14" s="394" t="s">
+      <c r="O14" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="P14" s="394"/>
-      <c r="Q14" s="6">
-        <v>3</v>
-      </c>
-      <c r="R14" s="6"/>
+      <c r="P14" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -16524,7 +16740,7 @@
       <c r="AL14" s="74"/>
       <c r="AM14" s="74"/>
     </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A15" s="254" t="s">
         <v>34</v>
       </c>
@@ -16569,14 +16785,18 @@
       <c r="N15" s="102" t="s">
         <v>321</v>
       </c>
-      <c r="O15" s="394" t="s">
+      <c r="O15" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="P15" s="394"/>
-      <c r="Q15" s="6">
-        <v>3</v>
-      </c>
-      <c r="R15" s="6"/>
+      <c r="P15" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -16617,7 +16837,7 @@
       <c r="AL15" s="74"/>
       <c r="AM15" s="74"/>
     </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A16" s="254" t="s">
         <v>34</v>
       </c>
@@ -16662,14 +16882,18 @@
       <c r="N16" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="O16" s="394" t="s">
+      <c r="O16" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="P16" s="394"/>
-      <c r="Q16" s="6">
-        <v>3</v>
-      </c>
-      <c r="R16" s="6"/>
+      <c r="P16" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -16710,7 +16934,7 @@
       <c r="AL16" s="74"/>
       <c r="AM16" s="74"/>
     </row>
-    <row r="17" spans="1:39" s="2" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A17" s="254" t="s">
         <v>34</v>
       </c>
@@ -16753,14 +16977,18 @@
       <c r="N17" s="102" t="s">
         <v>325</v>
       </c>
-      <c r="O17" s="394" t="s">
+      <c r="O17" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="P17" s="394"/>
-      <c r="Q17" s="6">
-        <v>3</v>
-      </c>
-      <c r="R17" s="6"/>
+      <c r="P17" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -16801,7 +17029,7 @@
       <c r="AL17" s="74"/>
       <c r="AM17" s="74"/>
     </row>
-    <row r="18" spans="1:39" s="2" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A18" s="254" t="s">
         <v>34</v>
       </c>
@@ -16846,14 +17074,18 @@
       <c r="N18" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="O18" s="394" t="s">
+      <c r="O18" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="P18" s="394"/>
-      <c r="Q18" s="6">
-        <v>3</v>
-      </c>
-      <c r="R18" s="6"/>
+      <c r="P18" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -16894,7 +17126,7 @@
       <c r="AL18" s="74"/>
       <c r="AM18" s="74"/>
     </row>
-    <row r="19" spans="1:39" s="2" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A19" s="254" t="s">
         <v>34</v>
       </c>
@@ -16937,14 +17169,18 @@
       <c r="N19" s="102" t="s">
         <v>325</v>
       </c>
-      <c r="O19" s="394" t="s">
+      <c r="O19" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="P19" s="394"/>
-      <c r="Q19" s="6">
-        <v>3</v>
-      </c>
-      <c r="R19" s="6"/>
+      <c r="P19" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -16985,7 +17221,7 @@
       <c r="AL19" s="74"/>
       <c r="AM19" s="74"/>
     </row>
-    <row r="20" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="266" t="s">
         <v>34</v>
       </c>
@@ -17029,14 +17265,18 @@
       <c r="N20" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="O20" s="394" t="s">
+      <c r="O20" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="P20" s="394"/>
-      <c r="Q20" s="6">
-        <v>2</v>
-      </c>
-      <c r="R20" s="6"/>
+      <c r="P20" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -17077,7 +17317,7 @@
       <c r="AL20" s="75"/>
       <c r="AM20" s="75"/>
     </row>
-    <row r="21" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="266" t="s">
         <v>34</v>
       </c>
@@ -17120,14 +17360,18 @@
       <c r="N21" s="102" t="s">
         <v>325</v>
       </c>
-      <c r="O21" s="394" t="s">
+      <c r="O21" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="P21" s="394"/>
-      <c r="Q21" s="6">
-        <v>3</v>
-      </c>
-      <c r="R21" s="6"/>
+      <c r="P21" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -17168,7 +17412,7 @@
       <c r="AL21" s="75"/>
       <c r="AM21" s="75"/>
     </row>
-    <row r="22" spans="1:39" s="76" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" s="76" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A22" s="266" t="s">
         <v>34</v>
       </c>
@@ -17213,14 +17457,18 @@
       <c r="N22" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="O22" s="394" t="s">
+      <c r="O22" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="P22" s="394"/>
-      <c r="Q22" s="6">
-        <v>2</v>
-      </c>
-      <c r="R22" s="6"/>
+      <c r="P22" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -17263,7 +17511,7 @@
       <c r="AL22" s="75"/>
       <c r="AM22" s="75"/>
     </row>
-    <row r="23" spans="1:39" s="76" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" s="76" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A23" s="266" t="s">
         <v>34</v>
       </c>
@@ -17308,14 +17556,18 @@
       <c r="N23" s="102" t="s">
         <v>321</v>
       </c>
-      <c r="O23" s="394" t="s">
+      <c r="O23" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="P23" s="394"/>
-      <c r="Q23" s="6">
-        <v>3</v>
-      </c>
-      <c r="R23" s="6"/>
+      <c r="P23" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -17358,7 +17610,7 @@
       <c r="AL23" s="75"/>
       <c r="AM23" s="75"/>
     </row>
-    <row r="24" spans="1:39" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A24" s="266" t="s">
         <v>34</v>
       </c>
@@ -17403,14 +17655,18 @@
       <c r="N24" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="O24" s="394" t="s">
+      <c r="O24" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="P24" s="394"/>
-      <c r="Q24" s="6">
-        <v>3</v>
-      </c>
-      <c r="R24" s="6"/>
+      <c r="P24" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -17453,7 +17709,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
     </row>
-    <row r="25" spans="1:39" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A25" s="266" t="s">
         <v>183</v>
       </c>
@@ -17503,7 +17759,9 @@
       <c r="Q25" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="R25" s="6"/>
+      <c r="R25" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -17544,7 +17802,7 @@
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
     </row>
-    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A26" s="266" t="s">
         <v>183</v>
       </c>
@@ -17594,7 +17852,9 @@
       <c r="Q26" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="R26" s="6"/>
+      <c r="R26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -17635,7 +17895,7 @@
       <c r="AL26" s="57"/>
       <c r="AM26" s="293"/>
     </row>
-    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A27" s="266" t="s">
         <v>183</v>
       </c>
@@ -17683,7 +17943,9 @@
       <c r="Q27" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="R27" s="6"/>
+      <c r="R27" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -17706,7 +17968,7 @@
       <c r="AL27" s="57"/>
       <c r="AM27" s="293"/>
     </row>
-    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="270" t="s">
         <v>183</v>
       </c>
@@ -17778,7 +18040,7 @@
       <c r="AL28" s="57"/>
       <c r="AM28" s="293"/>
     </row>
-    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="270" t="s">
         <v>183</v>
       </c>
@@ -18144,7 +18406,7 @@
       <c r="AL33" s="57"/>
       <c r="AM33" s="293"/>
     </row>
-    <row r="34" spans="1:39" s="76" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="270" t="s">
         <v>34</v>
       </c>
@@ -18217,7 +18479,7 @@
       <c r="AL34" s="57"/>
       <c r="AM34" s="293"/>
     </row>
-    <row r="35" spans="1:39" s="76" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="270" t="s">
         <v>34</v>
       </c>
@@ -18290,7 +18552,7 @@
       <c r="AL35" s="57"/>
       <c r="AM35" s="293"/>
     </row>
-    <row r="36" spans="1:39" s="76" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" s="76" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="270" t="s">
         <v>34</v>
       </c>
@@ -18363,7 +18625,7 @@
       <c r="AL36" s="57"/>
       <c r="AM36" s="293"/>
     </row>
-    <row r="37" spans="1:39" s="76" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" s="76" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="270" t="s">
         <v>34</v>
       </c>
@@ -18438,7 +18700,7 @@
       <c r="AL37" s="57"/>
       <c r="AM37" s="293"/>
     </row>
-    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="270" t="s">
         <v>765</v>
       </c>
@@ -18511,7 +18773,7 @@
       <c r="AL38" s="57"/>
       <c r="AM38" s="293"/>
     </row>
-    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="270" t="s">
         <v>765</v>
       </c>
@@ -18584,7 +18846,7 @@
       <c r="AL39" s="57"/>
       <c r="AM39" s="293"/>
     </row>
-    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="270" t="s">
         <v>765</v>
       </c>
@@ -18657,7 +18919,7 @@
       <c r="AL40" s="57"/>
       <c r="AM40" s="293"/>
     </row>
-    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="270" t="s">
         <v>765</v>
       </c>
@@ -18730,7 +18992,7 @@
       <c r="AL41" s="57"/>
       <c r="AM41" s="293"/>
     </row>
-    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A42" s="270" t="s">
         <v>182</v>
       </c>
@@ -18805,7 +19067,7 @@
       <c r="AL42" s="57"/>
       <c r="AM42" s="293"/>
     </row>
-    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A43" s="270" t="s">
         <v>182</v>
       </c>
@@ -18878,7 +19140,7 @@
       <c r="AL43" s="57"/>
       <c r="AM43" s="293"/>
     </row>
-    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="270" t="s">
         <v>183</v>
       </c>
@@ -18951,7 +19213,7 @@
       <c r="AL44" s="57"/>
       <c r="AM44" s="293"/>
     </row>
-    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="270" t="s">
         <v>569</v>
       </c>
@@ -19024,7 +19286,7 @@
       <c r="AL45" s="57"/>
       <c r="AM45" s="293"/>
     </row>
-    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="270" t="s">
         <v>569</v>
       </c>
@@ -19099,7 +19361,7 @@
       <c r="AL46" s="57"/>
       <c r="AM46" s="293"/>
     </row>
-    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="270" t="s">
         <v>655</v>
       </c>
@@ -19174,7 +19436,7 @@
       <c r="AL47" s="57"/>
       <c r="AM47" s="293"/>
     </row>
-    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="270" t="s">
         <v>655</v>
       </c>
@@ -19249,7 +19511,7 @@
       <c r="AL48" s="57"/>
       <c r="AM48" s="293"/>
     </row>
-    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="270" t="s">
         <v>656</v>
       </c>
@@ -19324,7 +19586,7 @@
       <c r="AL49" s="57"/>
       <c r="AM49" s="293"/>
     </row>
-    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="270" t="s">
         <v>656</v>
       </c>
@@ -19399,7 +19661,7 @@
       <c r="AL50" s="57"/>
       <c r="AM50" s="293"/>
     </row>
-    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="270" t="s">
         <v>362</v>
       </c>
@@ -19472,7 +19734,7 @@
       <c r="AL51" s="57"/>
       <c r="AM51" s="293"/>
     </row>
-    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="270" t="s">
         <v>601</v>
       </c>
@@ -19516,7 +19778,7 @@
       <c r="O52" s="221" t="s">
         <v>828</v>
       </c>
-      <c r="P52" s="414"/>
+      <c r="P52" s="411"/>
       <c r="Q52" s="6">
         <v>2</v>
       </c>
@@ -19543,7 +19805,7 @@
       <c r="AL52" s="57"/>
       <c r="AM52" s="293"/>
     </row>
-    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="270" t="s">
         <v>601</v>
       </c>
@@ -19587,7 +19849,7 @@
       <c r="O53" s="389" t="s">
         <v>829</v>
       </c>
-      <c r="P53" s="418"/>
+      <c r="P53" s="415"/>
       <c r="Q53" s="6">
         <v>1</v>
       </c>
@@ -19614,7 +19876,7 @@
       <c r="AL53" s="57"/>
       <c r="AM53" s="293"/>
     </row>
-    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="270" t="s">
         <v>607</v>
       </c>
@@ -19688,13 +19950,7 @@
       <c r="AM54" s="293"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AM54">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="XRA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AM54"/>
   <mergeCells count="3">
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -19802,35 +20058,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="422" t="s">
+      <c r="X1" s="429" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="423"/>
-      <c r="Z1" s="423"/>
-      <c r="AA1" s="424"/>
-      <c r="AB1" s="422" t="s">
+      <c r="Y1" s="430"/>
+      <c r="Z1" s="430"/>
+      <c r="AA1" s="431"/>
+      <c r="AB1" s="429" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="423"/>
-      <c r="AD1" s="423"/>
-      <c r="AE1" s="424"/>
-      <c r="AF1" s="425" t="s">
+      <c r="AC1" s="430"/>
+      <c r="AD1" s="430"/>
+      <c r="AE1" s="431"/>
+      <c r="AF1" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="426"/>
-      <c r="AH1" s="426"/>
-      <c r="AI1" s="426"/>
-      <c r="AJ1" s="425" t="s">
+      <c r="AG1" s="433"/>
+      <c r="AH1" s="433"/>
+      <c r="AI1" s="433"/>
+      <c r="AJ1" s="432" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="426"/>
-      <c r="AL1" s="426"/>
-      <c r="AM1" s="426"/>
+      <c r="AK1" s="433"/>
+      <c r="AL1" s="433"/>
+      <c r="AM1" s="433"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="433" t="s">
+      <c r="AO1" s="440" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="433"/>
+      <c r="AP1" s="440"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="906">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3570,14 +3570,50 @@
 IMP_UTIL_S_T_C_M1
 IMP_UTIL_S_T_C_M2</t>
   </si>
+  <si>
+    <t>nessuna corrispondenza</t>
+  </si>
+  <si>
+    <t>IND_65
+IND_66
+IND_218
+IND_219</t>
+  </si>
+  <si>
+    <t>IND_71
+IND_72</t>
+  </si>
+  <si>
+    <t>IND_83</t>
+  </si>
+  <si>
+    <t>IND_91
+IND_92
+IND_93
+IND_94</t>
+  </si>
+  <si>
+    <t>FLG_NOPG_S30
+FLG_NOPG_S20</t>
+  </si>
+  <si>
+    <t>FLG_PERFNOPE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4574,451 +4610,451 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5036,48 +5072,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -5092,43 +5128,43 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5140,40 +5176,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="36" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="37" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="36" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="37" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="36" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="37" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="36" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="37" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5182,50 +5218,50 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5235,276 +5271,276 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5522,308 +5558,307 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6928,14 +6963,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="426" t="s">
+      <c r="E1" s="423" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="426"/>
-      <c r="H1" s="427" t="s">
+      <c r="F1" s="423"/>
+      <c r="H1" s="424" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="428"/>
+      <c r="I1" s="425"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -6948,16 +6983,16 @@
       <c r="N1" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="O1" s="408" t="s">
+      <c r="O1" s="407" t="s">
         <v>844</v>
       </c>
-      <c r="P1" s="408" t="s">
+      <c r="P1" s="407" t="s">
         <v>845</v>
       </c>
-      <c r="Q1" s="408" t="s">
+      <c r="Q1" s="407" t="s">
         <v>846</v>
       </c>
-      <c r="R1" s="408" t="s">
+      <c r="R1" s="407" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7000,7 +7035,7 @@
       </c>
       <c r="Q2">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N2)</f>
@@ -7046,7 +7081,7 @@
       </c>
       <c r="Q3">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N3)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N3)</f>
@@ -7372,7 +7407,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
@@ -7412,7 +7447,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
@@ -7515,22 +7550,22 @@
       <c r="L16" s="198" t="s">
         <v>530</v>
       </c>
-      <c r="N16" s="408" t="s">
+      <c r="N16" s="407" t="s">
         <v>848</v>
       </c>
-      <c r="O16" s="408">
+      <c r="O16" s="407">
         <f>SUM(O12:O15)</f>
         <v>2.75</v>
       </c>
-      <c r="P16" s="408">
+      <c r="P16" s="407">
         <f t="shared" ref="P16:R16" si="3">SUM(P12:P15)</f>
         <v>12.5</v>
       </c>
-      <c r="Q16" s="408">
+      <c r="Q16" s="407">
         <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="R16" s="408">
+        <v>4.25</v>
+      </c>
+      <c r="R16" s="407">
         <f t="shared" si="3"/>
         <v>19.25</v>
       </c>
@@ -7583,7 +7618,7 @@
       <c r="R18" s="138" t="s">
         <v>852</v>
       </c>
-      <c r="S18" s="409" t="s">
+      <c r="S18" s="408" t="s">
         <v>853</v>
       </c>
     </row>
@@ -7604,16 +7639,16 @@
         <v>530</v>
       </c>
       <c r="N19" s="138"/>
-      <c r="O19" s="410">
+      <c r="O19" s="409">
         <v>42891</v>
       </c>
-      <c r="P19" s="410">
+      <c r="P19" s="409">
         <v>42898</v>
       </c>
-      <c r="Q19" s="410">
+      <c r="Q19" s="409">
         <v>42912</v>
       </c>
-      <c r="R19" s="410">
+      <c r="R19" s="409">
         <v>42898</v>
       </c>
       <c r="S19" s="138"/>
@@ -7636,11 +7671,11 @@
       </c>
       <c r="N20" s="138"/>
       <c r="O20" s="138"/>
-      <c r="P20" s="410">
+      <c r="P20" s="409">
         <v>42905</v>
       </c>
       <c r="Q20" s="138"/>
-      <c r="R20" s="410">
+      <c r="R20" s="409">
         <v>42912</v>
       </c>
       <c r="S20" s="138"/>
@@ -7665,7 +7700,7 @@
       <c r="O21" s="138"/>
       <c r="P21" s="138"/>
       <c r="Q21" s="138"/>
-      <c r="R21" s="410">
+      <c r="R21" s="409">
         <v>42919</v>
       </c>
       <c r="S21" s="138"/>
@@ -7690,7 +7725,7 @@
       <c r="O22" s="138"/>
       <c r="P22" s="138"/>
       <c r="Q22" s="138"/>
-      <c r="R22" s="410">
+      <c r="R22" s="409">
         <v>42926</v>
       </c>
       <c r="S22" s="138"/>
@@ -7754,12 +7789,12 @@
       <c r="S25" s="138"/>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="I28" s="420" t="s">
+      <c r="I28" s="416" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="29" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="I29" s="421" t="s">
+      <c r="I29" s="417" t="s">
         <v>895</v>
       </c>
     </row>
@@ -7789,11 +7824,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="445" t="s">
+      <c r="F1" s="442" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
@@ -7807,34 +7842,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="441" t="s">
+      <c r="A3" s="438" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="442"/>
+      <c r="B3" s="439"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="441"/>
-      <c r="B4" s="443"/>
+      <c r="A4" s="438"/>
+      <c r="B4" s="440"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="441"/>
-      <c r="B5" s="443"/>
+      <c r="A5" s="438"/>
+      <c r="B5" s="440"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="441"/>
-      <c r="B6" s="444"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="441"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
@@ -7889,7 +7924,7 @@
       <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="446"/>
+      <c r="A3" s="443"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -7912,7 +7947,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="446"/>
+      <c r="A4" s="443"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -7933,7 +7968,7 @@
       <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="446"/>
+      <c r="A5" s="443"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -7954,7 +7989,7 @@
       <c r="O5" s="198"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="446"/>
+      <c r="A6" s="443"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -7975,7 +8010,7 @@
       <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="446"/>
+      <c r="A7" s="443"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -8025,7 +8060,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="447"/>
+      <c r="A12" s="444"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -8048,7 +8083,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="447"/>
+      <c r="A13" s="444"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -8069,7 +8104,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="447"/>
+      <c r="A14" s="444"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -8090,7 +8125,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="447"/>
+      <c r="A15" s="444"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -8111,7 +8146,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="447"/>
+      <c r="A16" s="444"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -8488,30 +8523,30 @@
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="429" t="s">
+      <c r="Y1" s="426" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="430"/>
-      <c r="AA1" s="430"/>
-      <c r="AB1" s="431"/>
-      <c r="AC1" s="429" t="s">
+      <c r="Z1" s="427"/>
+      <c r="AA1" s="427"/>
+      <c r="AB1" s="428"/>
+      <c r="AC1" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="430"/>
-      <c r="AE1" s="430"/>
-      <c r="AF1" s="431"/>
-      <c r="AG1" s="432" t="s">
+      <c r="AD1" s="427"/>
+      <c r="AE1" s="427"/>
+      <c r="AF1" s="428"/>
+      <c r="AG1" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="433"/>
-      <c r="AI1" s="433"/>
-      <c r="AJ1" s="433"/>
-      <c r="AK1" s="432" t="s">
+      <c r="AH1" s="430"/>
+      <c r="AI1" s="430"/>
+      <c r="AJ1" s="430"/>
+      <c r="AK1" s="429" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="433"/>
-      <c r="AM1" s="433"/>
-      <c r="AN1" s="433"/>
+      <c r="AL1" s="430"/>
+      <c r="AM1" s="430"/>
+      <c r="AN1" s="430"/>
     </row>
     <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -8559,10 +8594,10 @@
       <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="404" t="s">
+      <c r="P2" s="403" t="s">
         <v>838</v>
       </c>
-      <c r="Q2" s="407" t="s">
+      <c r="Q2" s="406" t="s">
         <v>841</v>
       </c>
       <c r="R2" s="71" t="s">
@@ -9224,10 +9259,10 @@
       <c r="AN9" s="290"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="402" t="s">
+      <c r="A10" s="401" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="403" t="str">
+      <c r="B10" s="402" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 14 - Avvio di una procedura concorsuale per il debitore</v>
       </c>
@@ -9262,10 +9297,10 @@
         <v>259</v>
       </c>
       <c r="N10" s="244"/>
-      <c r="O10" s="392" t="s">
+      <c r="O10" s="391" t="s">
         <v>317</v>
       </c>
-      <c r="P10" s="411" t="s">
+      <c r="P10" s="410" t="s">
         <v>859</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -9534,10 +9569,10 @@
       <c r="AN13" s="20"/>
     </row>
     <row r="14" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="405" t="s">
+      <c r="A14" s="404" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="403" t="str">
+      <c r="B14" s="402" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 19 - Richiesta ammissione ad una procedura concorsuale per il debitore</v>
       </c>
@@ -9574,10 +9609,10 @@
       <c r="N14" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="393" t="s">
+      <c r="O14" s="392" t="s">
         <v>315</v>
       </c>
-      <c r="P14" s="411" t="s">
+      <c r="P14" s="410" t="s">
         <v>860</v>
       </c>
       <c r="Q14" s="6" t="s">
@@ -9610,10 +9645,10 @@
       <c r="AN14" s="20"/>
     </row>
     <row r="15" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="405" t="s">
+      <c r="A15" s="404" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="403" t="str">
+      <c r="B15" s="402" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 20 - Deposito/Pubblicazione di accordo ristrutturazione per liquidazione</v>
       </c>
@@ -9650,10 +9685,10 @@
       <c r="N15" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="393" t="s">
+      <c r="O15" s="392" t="s">
         <v>316</v>
       </c>
-      <c r="P15" s="411" t="s">
+      <c r="P15" s="410" t="s">
         <v>861</v>
       </c>
       <c r="Q15" s="6" t="s">
@@ -10076,10 +10111,10 @@
       <c r="AN20" s="20"/>
     </row>
     <row r="21" spans="1:40" s="298" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="405" t="s">
+      <c r="A21" s="404" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="403" t="str">
+      <c r="B21" s="402" t="str">
         <f>CONCATENATE("Indicatore ",C21," - ",D21)</f>
         <v>Indicatore 31 - Covenant non rispettato e non sanato</v>
       </c>
@@ -10332,14 +10367,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10384,21 +10418,21 @@
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="434" t="s">
+      <c r="AB1" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="434"/>
-      <c r="AD1" s="434"/>
-      <c r="AE1" s="434" t="s">
+      <c r="AC1" s="431"/>
+      <c r="AD1" s="431"/>
+      <c r="AE1" s="431" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="434"/>
-      <c r="AG1" s="434"/>
-      <c r="AH1" s="434" t="s">
+      <c r="AF1" s="431"/>
+      <c r="AG1" s="431"/>
+      <c r="AH1" s="431" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="434"/>
-      <c r="AJ1" s="434"/>
+      <c r="AI1" s="431"/>
+      <c r="AJ1" s="431"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10458,7 +10492,7 @@
       <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="404" t="s">
+      <c r="P2" s="403" t="s">
         <v>840</v>
       </c>
       <c r="Q2" s="71" t="s">
@@ -10535,7 +10569,7 @@
       </c>
       <c r="AO2" s="4"/>
     </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="249" t="s">
         <v>35</v>
       </c>
@@ -10582,7 +10616,7 @@
       <c r="O3" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="P3" s="412" t="s">
+      <c r="P3" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -10597,7 +10631,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="398"/>
+      <c r="Y3" s="397"/>
       <c r="Z3" s="55" t="s">
         <v>194</v>
       </c>
@@ -10636,7 +10670,7 @@
       <c r="AM3" s="305"/>
       <c r="AN3" s="306"/>
     </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="249" t="s">
         <v>35</v>
       </c>
@@ -10684,7 +10718,7 @@
       <c r="O4" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="P4" s="412" t="s">
+      <c r="P4" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q4" s="6" t="s">
@@ -10699,7 +10733,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="398"/>
+      <c r="Y4" s="397"/>
       <c r="Z4" s="55" t="s">
         <v>194</v>
       </c>
@@ -10738,7 +10772,7 @@
       <c r="AM4" s="305"/>
       <c r="AN4" s="306"/>
     </row>
-    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="271" t="s">
         <v>35</v>
       </c>
@@ -10782,10 +10816,10 @@
       <c r="N5" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="O5" s="395" t="s">
+      <c r="O5" s="394" t="s">
         <v>332</v>
       </c>
-      <c r="P5" s="425" t="s">
+      <c r="P5" s="420" t="s">
         <v>896</v>
       </c>
       <c r="Q5" s="6">
@@ -10837,7 +10871,7 @@
       <c r="AM5" s="305"/>
       <c r="AN5" s="306"/>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="271" t="s">
         <v>35</v>
       </c>
@@ -10921,7 +10955,7 @@
       <c r="AM6" s="305"/>
       <c r="AN6" s="306"/>
     </row>
-    <row r="7" spans="1:41" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A7" s="308" t="s">
         <v>34</v>
       </c>
@@ -10961,14 +10995,18 @@
       <c r="N7" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O7" s="392" t="s">
+      <c r="O7" s="391" t="s">
         <v>803</v>
       </c>
-      <c r="P7" s="392"/>
+      <c r="P7" s="415" t="s">
+        <v>900</v>
+      </c>
       <c r="Q7" s="6">
         <v>2</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -10994,7 +11032,7 @@
       <c r="AM7" s="310"/>
       <c r="AN7" s="311"/>
     </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" s="2" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="268" t="s">
         <v>34</v>
       </c>
@@ -11038,16 +11076,18 @@
       <c r="N8" s="103" t="s">
         <v>550</v>
       </c>
-      <c r="O8" s="392" t="s">
+      <c r="O8" s="77" t="s">
         <v>551</v>
       </c>
-      <c r="P8" s="392" t="s">
+      <c r="P8" s="77" t="s">
         <v>897</v>
       </c>
       <c r="Q8" s="6">
         <v>2</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -11101,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="313" t="s">
         <v>34</v>
       </c>
@@ -11145,10 +11185,10 @@
       <c r="N9" s="103" t="s">
         <v>557</v>
       </c>
-      <c r="O9" s="396" t="s">
+      <c r="O9" s="395" t="s">
         <v>558</v>
       </c>
-      <c r="P9" s="396" t="s">
+      <c r="P9" s="395" t="s">
         <v>898</v>
       </c>
       <c r="Q9" s="6">
@@ -11271,7 +11311,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="398"/>
+      <c r="Y10" s="397"/>
       <c r="Z10" s="56"/>
       <c r="AA10" s="312" t="s">
         <v>552</v>
@@ -11371,7 +11411,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="398"/>
+      <c r="Y11" s="397"/>
       <c r="Z11" s="56"/>
       <c r="AA11" s="312" t="s">
         <v>552</v>
@@ -11408,7 +11448,7 @@
       <c r="AM11" s="74"/>
       <c r="AN11" s="74"/>
     </row>
-    <row r="12" spans="1:41" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="308" t="s">
         <v>182</v>
       </c>
@@ -11451,11 +11491,15 @@
       <c r="O12" s="221" t="s">
         <v>370</v>
       </c>
-      <c r="P12" s="221"/>
+      <c r="P12" s="415" t="s">
+        <v>901</v>
+      </c>
       <c r="Q12" s="6">
         <v>2</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -11481,7 +11525,7 @@
       <c r="AM12" s="310"/>
       <c r="AN12" s="311"/>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A13" s="271" t="s">
         <v>182</v>
       </c>
@@ -11580,7 +11624,7 @@
       <c r="AN13" s="306"/>
       <c r="AO13" s="215"/>
     </row>
-    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="318" t="s">
         <v>182</v>
       </c>
@@ -11627,39 +11671,41 @@
       <c r="O14" s="221" t="s">
         <v>689</v>
       </c>
-      <c r="P14" s="392" t="s">
+      <c r="P14" s="391" t="s">
         <v>871</v>
       </c>
       <c r="Q14" s="6">
         <v>3</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="401"/>
+      <c r="Y14" s="400"/>
       <c r="Z14" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AA14" s="304"/>
       <c r="AB14" s="304"/>
-      <c r="AC14" s="401"/>
-      <c r="AD14" s="401"/>
-      <c r="AE14" s="401"/>
-      <c r="AF14" s="401"/>
-      <c r="AG14" s="401"/>
-      <c r="AH14" s="401"/>
-      <c r="AI14" s="401"/>
-      <c r="AJ14" s="401"/>
+      <c r="AC14" s="400"/>
+      <c r="AD14" s="400"/>
+      <c r="AE14" s="400"/>
+      <c r="AF14" s="400"/>
+      <c r="AG14" s="400"/>
+      <c r="AH14" s="400"/>
+      <c r="AI14" s="400"/>
+      <c r="AJ14" s="400"/>
       <c r="AK14" s="304"/>
       <c r="AL14" s="304"/>
       <c r="AM14" s="293"/>
       <c r="AN14" s="320"/>
     </row>
-    <row r="15" spans="1:41" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="308" t="s">
         <v>183</v>
       </c>
@@ -11699,14 +11745,18 @@
       <c r="N15" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O15" s="392" t="s">
+      <c r="O15" s="391" t="s">
         <v>371</v>
       </c>
-      <c r="P15" s="392"/>
+      <c r="P15" s="415" t="s">
+        <v>902</v>
+      </c>
       <c r="Q15" s="6">
         <v>2</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -11829,7 +11879,7 @@
       <c r="AM16" s="57"/>
       <c r="AN16" s="293"/>
     </row>
-    <row r="17" spans="1:40" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="322" t="s">
         <v>765</v>
       </c>
@@ -11872,11 +11922,15 @@
       <c r="O17" s="221" t="s">
         <v>804</v>
       </c>
-      <c r="P17" s="221"/>
+      <c r="P17" s="415" t="s">
+        <v>903</v>
+      </c>
       <c r="Q17" s="6">
         <v>3</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="R17" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -11902,7 +11956,7 @@
       <c r="AM17" s="310"/>
       <c r="AN17" s="311"/>
     </row>
-    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="323" t="s">
         <v>765</v>
       </c>
@@ -11950,7 +12004,9 @@
       <c r="O18" s="221" t="s">
         <v>544</v>
       </c>
-      <c r="P18" s="221"/>
+      <c r="P18" s="391" t="s">
+        <v>899</v>
+      </c>
       <c r="Q18" s="6">
         <v>2</v>
       </c>
@@ -12008,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="323" t="s">
         <v>765</v>
       </c>
@@ -12056,7 +12112,9 @@
       <c r="O19" s="221" t="s">
         <v>561</v>
       </c>
-      <c r="P19" s="221"/>
+      <c r="P19" s="391" t="s">
+        <v>899</v>
+      </c>
       <c r="Q19" s="6">
         <v>2</v>
       </c>
@@ -12114,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="313" t="s">
         <v>765</v>
       </c>
@@ -12162,7 +12220,9 @@
       <c r="O20" s="221" t="s">
         <v>564</v>
       </c>
-      <c r="P20" s="221"/>
+      <c r="P20" s="391" t="s">
+        <v>899</v>
+      </c>
       <c r="Q20" s="6">
         <v>2</v>
       </c>
@@ -12220,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="313" t="s">
         <v>765</v>
       </c>
@@ -12268,7 +12328,9 @@
       <c r="O21" s="221" t="s">
         <v>568</v>
       </c>
-      <c r="P21" s="221"/>
+      <c r="P21" s="391" t="s">
+        <v>899</v>
+      </c>
       <c r="Q21" s="6">
         <v>2</v>
       </c>
@@ -12326,7 +12388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A22" s="308" t="s">
         <v>361</v>
       </c>
@@ -12369,7 +12431,7 @@
       <c r="O22" s="192" t="s">
         <v>456</v>
       </c>
-      <c r="P22" s="413" t="s">
+      <c r="P22" s="412" t="s">
         <v>530</v>
       </c>
       <c r="Q22" s="6" t="s">
@@ -12421,7 +12483,7 @@
       <c r="AM22" s="328"/>
       <c r="AN22" s="328"/>
     </row>
-    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="308" t="s">
         <v>361</v>
       </c>
@@ -12455,16 +12517,16 @@
       <c r="L23" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="M23" s="400" t="s">
+      <c r="M23" s="399" t="s">
         <v>668</v>
       </c>
       <c r="N23" s="101" t="s">
         <v>455</v>
       </c>
-      <c r="O23" s="422" t="s">
+      <c r="O23" s="192" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="414" t="s">
+      <c r="P23" s="412" t="s">
         <v>530</v>
       </c>
       <c r="Q23" s="6" t="s">
@@ -12514,7 +12576,7 @@
       <c r="AM23" s="328"/>
       <c r="AN23" s="328"/>
     </row>
-    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="330" t="s">
         <v>569</v>
       </c>
@@ -12561,7 +12623,7 @@
       <c r="O24" s="314" t="s">
         <v>574</v>
       </c>
-      <c r="P24" s="417" t="s">
+      <c r="P24" s="395" t="s">
         <v>883</v>
       </c>
       <c r="Q24" s="6">
@@ -12621,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="330" t="s">
         <v>569</v>
       </c>
@@ -12733,7 +12795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="330" t="s">
         <v>581</v>
       </c>
@@ -12781,7 +12843,7 @@
       <c r="O26" s="221" t="s">
         <v>585</v>
       </c>
-      <c r="P26" s="418" t="s">
+      <c r="P26" s="391" t="s">
         <v>884</v>
       </c>
       <c r="Q26" s="6">
@@ -12841,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="330" t="s">
         <v>581</v>
       </c>
@@ -12953,7 +13015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="330" t="s">
         <v>581</v>
       </c>
@@ -13001,7 +13063,7 @@
       <c r="O28" s="221" t="s">
         <v>593</v>
       </c>
-      <c r="P28" s="418" t="s">
+      <c r="P28" s="391" t="s">
         <v>885</v>
       </c>
       <c r="Q28" s="6">
@@ -13061,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="330" t="s">
         <v>581</v>
       </c>
@@ -13173,7 +13235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="330" t="s">
         <v>362</v>
       </c>
@@ -13221,13 +13283,15 @@
       <c r="O30" s="221" t="s">
         <v>363</v>
       </c>
-      <c r="P30" s="418" t="s">
+      <c r="P30" s="77" t="s">
         <v>863</v>
       </c>
       <c r="Q30" s="6">
         <v>2</v>
       </c>
-      <c r="R30" s="6"/>
+      <c r="R30" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -13237,7 +13301,7 @@
       <c r="Y30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Z30" s="399"/>
+      <c r="Z30" s="398"/>
       <c r="AA30" s="331" t="s">
         <v>600</v>
       </c>
@@ -13281,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="330" t="s">
         <v>601</v>
       </c>
@@ -13329,7 +13393,7 @@
       <c r="O31" s="221" t="s">
         <v>603</v>
       </c>
-      <c r="P31" s="392"/>
+      <c r="P31" s="391"/>
       <c r="Q31" s="6">
         <v>2</v>
       </c>
@@ -13387,7 +13451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="330" t="s">
         <v>601</v>
       </c>
@@ -13435,7 +13499,7 @@
       <c r="O32" s="252" t="s">
         <v>606</v>
       </c>
-      <c r="P32" s="393"/>
+      <c r="P32" s="392"/>
       <c r="Q32" s="6">
         <v>1</v>
       </c>
@@ -13495,7 +13559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="330" t="s">
         <v>607</v>
       </c>
@@ -13606,19 +13670,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AO33">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Bilancio Familiare"/>
-        <filter val="CR ad alzo zero"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="ok"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AO33"/>
   <mergeCells count="3">
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13767,7 +13819,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21:P21">
+  <conditionalFormatting sqref="O21">
     <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -13811,11 +13863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13860,30 +13912,30 @@
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="435" t="s">
+      <c r="Y1" s="432" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="436"/>
-      <c r="AA1" s="436"/>
-      <c r="AB1" s="437"/>
-      <c r="AC1" s="435" t="s">
+      <c r="Z1" s="433"/>
+      <c r="AA1" s="433"/>
+      <c r="AB1" s="434"/>
+      <c r="AC1" s="432" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="436"/>
-      <c r="AE1" s="436"/>
-      <c r="AF1" s="437"/>
-      <c r="AG1" s="438" t="s">
+      <c r="AD1" s="433"/>
+      <c r="AE1" s="433"/>
+      <c r="AF1" s="434"/>
+      <c r="AG1" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="439"/>
-      <c r="AI1" s="439"/>
-      <c r="AJ1" s="439"/>
-      <c r="AK1" s="438" t="s">
+      <c r="AH1" s="436"/>
+      <c r="AI1" s="436"/>
+      <c r="AJ1" s="436"/>
+      <c r="AK1" s="435" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="439"/>
-      <c r="AM1" s="439"/>
-      <c r="AN1" s="439"/>
+      <c r="AL1" s="436"/>
+      <c r="AM1" s="436"/>
+      <c r="AN1" s="436"/>
     </row>
     <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
@@ -13931,7 +13983,7 @@
       <c r="O2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="406" t="s">
+      <c r="P2" s="405" t="s">
         <v>840</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -14047,14 +14099,18 @@
       <c r="N3" s="370" t="s">
         <v>525</v>
       </c>
-      <c r="O3" s="397" t="s">
+      <c r="O3" s="445" t="s">
         <v>528</v>
       </c>
-      <c r="P3" s="397"/>
+      <c r="P3" s="445" t="s">
+        <v>904</v>
+      </c>
       <c r="Q3" s="7">
         <v>1</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -14282,7 +14338,7 @@
       <c r="N6" s="370" t="s">
         <v>720</v>
       </c>
-      <c r="O6" s="423" t="s">
+      <c r="O6" s="418" t="s">
         <v>721</v>
       </c>
       <c r="P6" s="253" t="s">
@@ -14362,8 +14418,8 @@
       <c r="N7" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="O7" s="397"/>
-      <c r="P7" s="397"/>
+      <c r="O7" s="396"/>
+      <c r="P7" s="396"/>
       <c r="Q7" s="7">
         <v>2</v>
       </c>
@@ -14439,7 +14495,7 @@
       <c r="O8" s="364" t="s">
         <v>724</v>
       </c>
-      <c r="P8" s="424" t="s">
+      <c r="P8" s="419" t="s">
         <v>887</v>
       </c>
       <c r="Q8" s="7">
@@ -14519,7 +14575,7 @@
       <c r="O9" s="364" t="s">
         <v>726</v>
       </c>
-      <c r="P9" s="424" t="s">
+      <c r="P9" s="446" t="s">
         <v>886</v>
       </c>
       <c r="Q9" s="7">
@@ -14596,10 +14652,10 @@
       <c r="N10" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O10" s="423" t="s">
+      <c r="O10" s="418" t="s">
         <v>390</v>
       </c>
-      <c r="P10" s="424" t="s">
+      <c r="P10" s="419" t="s">
         <v>889</v>
       </c>
       <c r="Q10" s="7">
@@ -14675,10 +14731,10 @@
       <c r="N11" s="370" t="s">
         <v>369</v>
       </c>
-      <c r="O11" s="397" t="s">
+      <c r="O11" s="396" t="s">
         <v>728</v>
       </c>
-      <c r="P11" s="416" t="s">
+      <c r="P11" s="414" t="s">
         <v>888</v>
       </c>
       <c r="Q11" s="7">
@@ -14752,10 +14808,10 @@
       <c r="N12" s="370" t="s">
         <v>725</v>
       </c>
-      <c r="O12" s="397" t="s">
+      <c r="O12" s="396" t="s">
         <v>729</v>
       </c>
-      <c r="P12" s="416" t="s">
+      <c r="P12" s="414" t="s">
         <v>888</v>
       </c>
       <c r="Q12" s="7">
@@ -14829,10 +14885,10 @@
       <c r="N13" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O13" s="397" t="s">
+      <c r="O13" s="396" t="s">
         <v>391</v>
       </c>
-      <c r="P13" s="416" t="s">
+      <c r="P13" s="414" t="s">
         <v>888</v>
       </c>
       <c r="Q13" s="7">
@@ -14906,10 +14962,10 @@
       <c r="N14" s="370" t="s">
         <v>366</v>
       </c>
-      <c r="O14" s="397" t="s">
+      <c r="O14" s="445" t="s">
         <v>364</v>
       </c>
-      <c r="P14" s="397"/>
+      <c r="P14" s="396"/>
       <c r="Q14" s="7">
         <v>1</v>
       </c>
@@ -14981,10 +15037,10 @@
       <c r="N15" s="370" t="s">
         <v>367</v>
       </c>
-      <c r="O15" s="397" t="s">
+      <c r="O15" s="396" t="s">
         <v>365</v>
       </c>
-      <c r="P15" s="397"/>
+      <c r="P15" s="396"/>
       <c r="Q15" s="7">
         <v>1</v>
       </c>
@@ -15056,14 +15112,18 @@
       <c r="N16" s="370" t="s">
         <v>375</v>
       </c>
-      <c r="O16" s="397" t="s">
+      <c r="O16" s="364" t="s">
         <v>373</v>
       </c>
-      <c r="P16" s="397"/>
-      <c r="Q16" s="7">
-        <v>1</v>
-      </c>
-      <c r="R16" s="7"/>
+      <c r="P16" s="446" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -15131,14 +15191,18 @@
       <c r="N17" s="370" t="s">
         <v>376</v>
       </c>
-      <c r="O17" s="397" t="s">
+      <c r="O17" s="364" t="s">
         <v>374</v>
       </c>
-      <c r="P17" s="397"/>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
-      <c r="R17" s="7"/>
+      <c r="P17" s="446" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -15189,7 +15253,7 @@
       <c r="G18" s="365" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="391" t="s">
+      <c r="H18" s="390" t="s">
         <v>763</v>
       </c>
       <c r="I18" s="366"/>
@@ -15402,11 +15466,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15459,21 +15523,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="434" t="s">
+      <c r="AA1" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="434"/>
-      <c r="AC1" s="434"/>
-      <c r="AD1" s="434" t="s">
+      <c r="AB1" s="431"/>
+      <c r="AC1" s="431"/>
+      <c r="AD1" s="431" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="434"/>
-      <c r="AF1" s="434"/>
-      <c r="AG1" s="434" t="s">
+      <c r="AE1" s="431"/>
+      <c r="AF1" s="431"/>
+      <c r="AG1" s="431" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="434"/>
-      <c r="AI1" s="434"/>
+      <c r="AH1" s="431"/>
+      <c r="AI1" s="431"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -15651,7 +15715,7 @@
       <c r="O3" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="412" t="s">
+      <c r="P3" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -15748,7 +15812,7 @@
       <c r="O4" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="P4" s="412" t="s">
+      <c r="P4" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q4" s="6" t="s">
@@ -15844,7 +15908,7 @@
       <c r="O5" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="412" t="s">
+      <c r="P5" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q5" s="6" t="s">
@@ -15941,7 +16005,7 @@
       <c r="O6" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="P6" s="412" t="s">
+      <c r="P6" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q6" s="6" t="s">
@@ -16038,7 +16102,7 @@
       <c r="O7" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="P7" s="412" t="s">
+      <c r="P7" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q7" s="6" t="s">
@@ -16135,7 +16199,7 @@
       <c r="O8" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="P8" s="412" t="s">
+      <c r="P8" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q8" s="6" t="s">
@@ -16232,7 +16296,7 @@
       <c r="O9" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="P9" s="412" t="s">
+      <c r="P9" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -16329,7 +16393,7 @@
       <c r="O10" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="412" t="s">
+      <c r="P10" s="411" t="s">
         <v>530</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -16424,16 +16488,18 @@
       <c r="N11" s="102" t="s">
         <v>752</v>
       </c>
-      <c r="O11" s="394" t="s">
+      <c r="O11" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="P11" s="419" t="s">
+      <c r="P11" s="47" t="s">
         <v>875</v>
       </c>
       <c r="Q11" s="6">
         <v>2</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -16613,8 +16679,8 @@
         <v>309</v>
       </c>
       <c r="N13" s="102"/>
-      <c r="O13" s="394"/>
-      <c r="P13" s="394" t="s">
+      <c r="O13" s="393"/>
+      <c r="P13" s="393" t="s">
         <v>868</v>
       </c>
       <c r="Q13" s="6">
@@ -18011,7 +18077,7 @@
       <c r="O28" s="221" t="s">
         <v>817</v>
       </c>
-      <c r="P28" s="392" t="s">
+      <c r="P28" s="391" t="s">
         <v>817</v>
       </c>
       <c r="Q28" s="6">
@@ -18084,7 +18150,7 @@
       <c r="O29" s="221" t="s">
         <v>818</v>
       </c>
-      <c r="P29" s="392" t="s">
+      <c r="P29" s="391" t="s">
         <v>818</v>
       </c>
       <c r="Q29" s="6">
@@ -18153,10 +18219,12 @@
         <v>663</v>
       </c>
       <c r="N30" s="102"/>
-      <c r="O30" s="390" t="s">
+      <c r="O30" s="421" t="s">
         <v>831</v>
       </c>
-      <c r="P30" s="390"/>
+      <c r="P30" s="422" t="s">
+        <v>899</v>
+      </c>
       <c r="Q30" s="6">
         <v>1</v>
       </c>
@@ -18229,7 +18297,9 @@
       <c r="O31" s="389" t="s">
         <v>835</v>
       </c>
-      <c r="P31" s="389"/>
+      <c r="P31" s="422" t="s">
+        <v>899</v>
+      </c>
       <c r="Q31" s="6">
         <v>1</v>
       </c>
@@ -18302,7 +18372,9 @@
       <c r="O32" s="47" t="s">
         <v>832</v>
       </c>
-      <c r="P32" s="47"/>
+      <c r="P32" s="422" t="s">
+        <v>899</v>
+      </c>
       <c r="Q32" s="6">
         <v>2</v>
       </c>
@@ -19036,7 +19108,7 @@
       <c r="O42" s="221" t="s">
         <v>820</v>
       </c>
-      <c r="P42" s="392" t="s">
+      <c r="P42" s="391" t="s">
         <v>870</v>
       </c>
       <c r="Q42" s="6">
@@ -19109,7 +19181,7 @@
       </c>
       <c r="N43" s="102"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="394" t="s">
+      <c r="P43" s="393" t="s">
         <v>869</v>
       </c>
       <c r="Q43" s="6">
@@ -19184,7 +19256,7 @@
       <c r="O44" s="221" t="s">
         <v>819</v>
       </c>
-      <c r="P44" s="392" t="s">
+      <c r="P44" s="391" t="s">
         <v>872</v>
       </c>
       <c r="Q44" s="6">
@@ -19257,7 +19329,7 @@
       <c r="O45" s="314" t="s">
         <v>821</v>
       </c>
-      <c r="P45" s="392" t="s">
+      <c r="P45" s="391" t="s">
         <v>873</v>
       </c>
       <c r="Q45" s="6">
@@ -19332,7 +19404,7 @@
       <c r="O46" s="252" t="s">
         <v>822</v>
       </c>
-      <c r="P46" s="393" t="s">
+      <c r="P46" s="392" t="s">
         <v>874</v>
       </c>
       <c r="Q46" s="6">
@@ -19407,7 +19479,7 @@
       <c r="O47" s="221" t="s">
         <v>823</v>
       </c>
-      <c r="P47" s="392" t="s">
+      <c r="P47" s="391" t="s">
         <v>877</v>
       </c>
       <c r="Q47" s="6">
@@ -19482,7 +19554,7 @@
       <c r="O48" s="252" t="s">
         <v>824</v>
       </c>
-      <c r="P48" s="393" t="s">
+      <c r="P48" s="392" t="s">
         <v>878</v>
       </c>
       <c r="Q48" s="6">
@@ -19557,7 +19629,7 @@
       <c r="O49" s="221" t="s">
         <v>825</v>
       </c>
-      <c r="P49" s="392" t="s">
+      <c r="P49" s="391" t="s">
         <v>880</v>
       </c>
       <c r="Q49" s="6">
@@ -19632,7 +19704,7 @@
       <c r="O50" s="252" t="s">
         <v>826</v>
       </c>
-      <c r="P50" s="393" t="s">
+      <c r="P50" s="392" t="s">
         <v>879</v>
       </c>
       <c r="Q50" s="6">
@@ -19705,7 +19777,7 @@
       <c r="O51" s="221" t="s">
         <v>827</v>
       </c>
-      <c r="P51" s="392" t="s">
+      <c r="P51" s="391" t="s">
         <v>881</v>
       </c>
       <c r="Q51" s="6">
@@ -19778,7 +19850,7 @@
       <c r="O52" s="221" t="s">
         <v>828</v>
       </c>
-      <c r="P52" s="411"/>
+      <c r="P52" s="410"/>
       <c r="Q52" s="6">
         <v>2</v>
       </c>
@@ -19849,7 +19921,7 @@
       <c r="O53" s="389" t="s">
         <v>829</v>
       </c>
-      <c r="P53" s="415"/>
+      <c r="P53" s="413"/>
       <c r="Q53" s="6">
         <v>1</v>
       </c>
@@ -19920,7 +19992,7 @@
       <c r="O54" s="221" t="s">
         <v>830</v>
       </c>
-      <c r="P54" s="392" t="s">
+      <c r="P54" s="391" t="s">
         <v>882</v>
       </c>
       <c r="Q54" s="6">
@@ -20058,35 +20130,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="429" t="s">
+      <c r="X1" s="426" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="430"/>
-      <c r="Z1" s="430"/>
-      <c r="AA1" s="431"/>
-      <c r="AB1" s="429" t="s">
+      <c r="Y1" s="427"/>
+      <c r="Z1" s="427"/>
+      <c r="AA1" s="428"/>
+      <c r="AB1" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="430"/>
-      <c r="AD1" s="430"/>
-      <c r="AE1" s="431"/>
-      <c r="AF1" s="432" t="s">
+      <c r="AC1" s="427"/>
+      <c r="AD1" s="427"/>
+      <c r="AE1" s="428"/>
+      <c r="AF1" s="429" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="433"/>
-      <c r="AH1" s="433"/>
-      <c r="AI1" s="433"/>
-      <c r="AJ1" s="432" t="s">
+      <c r="AG1" s="430"/>
+      <c r="AH1" s="430"/>
+      <c r="AI1" s="430"/>
+      <c r="AJ1" s="429" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="433"/>
-      <c r="AL1" s="433"/>
-      <c r="AM1" s="433"/>
+      <c r="AK1" s="430"/>
+      <c r="AL1" s="430"/>
+      <c r="AM1" s="430"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="440" t="s">
+      <c r="AO1" s="437" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="440"/>
+      <c r="AP1" s="437"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="907">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -1817,10 +1817,6 @@
 IMP_ENTR_TOT_M0
 IMP_ENTR_TOT_M1
 IMP_ENTR_TOT_M2</t>
-  </si>
-  <si>
-    <t>FLG_NOPG_ S30
-FLG_NOPG_ S20</t>
   </si>
   <si>
     <t>Numerico
@@ -3599,14 +3595,41 @@
   <si>
     <t>FLG_PERFNOPE</t>
   </si>
+  <si>
+    <t>IMP_UTIL_SEL_LIQ_NOCOL_M0
+IMP_UTIL_SEL_LIQ_NOCOL_M1
+IMP_UTIL_SEL_LIQ_NOCOL_M2
+IMP_ACC_SEL_LIQ_NOCOL_M0
+IMP_ACC_SEL_LIQ_NOCOL_M1
+IMP_ACC_SEL_LIQ_NOCOL_M2</t>
+  </si>
+  <si>
+    <t>IMP_UTIL_S_T_C_NOCOL_M0
+IMP_UTIL_S_T_C_NOCOL_M1
+IMP_UTIL_S_T_C_NOCOL_M2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4610,451 +4633,451 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5072,48 +5095,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -5128,43 +5151,43 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5176,40 +5199,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="37" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="39" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="37" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="39" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="37" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="39" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="37" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="39" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5218,50 +5241,50 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5271,276 +5294,276 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5558,291 +5581,303 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5854,11 +5889,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6940,8 +6981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="G10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6963,37 +7004,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="423" t="s">
+      <c r="E1" s="427" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="423"/>
-      <c r="H1" s="424" t="s">
+      <c r="F1" s="427"/>
+      <c r="H1" s="428" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="425"/>
+      <c r="I1" s="429"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
       <c r="K1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L1" t="s">
         <v>253</v>
       </c>
       <c r="N1" s="45" t="s">
+        <v>842</v>
+      </c>
+      <c r="O1" s="406" t="s">
         <v>843</v>
       </c>
-      <c r="O1" s="407" t="s">
+      <c r="P1" s="406" t="s">
         <v>844</v>
       </c>
-      <c r="P1" s="407" t="s">
+      <c r="Q1" s="406" t="s">
         <v>845</v>
       </c>
-      <c r="Q1" s="407" t="s">
+      <c r="R1" s="406" t="s">
         <v>846</v>
-      </c>
-      <c r="R1" s="407" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
@@ -7017,13 +7058,13 @@
         <v>462</v>
       </c>
       <c r="K2" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L2" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O2">
         <f>COUNTIF('Indicatori High_priority'!$Q$3:$Q$23,Legenda!$N2)</f>
@@ -7035,7 +7076,7 @@
       </c>
       <c r="Q2">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N2)</f>
@@ -7063,10 +7104,10 @@
         <v>462</v>
       </c>
       <c r="K3" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L3" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N3" s="45">
         <v>1</v>
@@ -7081,7 +7122,7 @@
       </c>
       <c r="Q3">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N3)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R3">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N3)</f>
@@ -7109,10 +7150,10 @@
         <v>462</v>
       </c>
       <c r="K4" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L4" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N4" s="45">
         <v>2</v>
@@ -7155,10 +7196,10 @@
         <v>462</v>
       </c>
       <c r="K5" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L5" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N5" s="45">
         <v>3</v>
@@ -7201,10 +7242,10 @@
         <v>462</v>
       </c>
       <c r="K6" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L6" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -7228,13 +7269,13 @@
         <v>461</v>
       </c>
       <c r="K7" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L7" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O7">
         <v>0.125</v>
@@ -7272,10 +7313,10 @@
         <v>461</v>
       </c>
       <c r="K8" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L8" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N8" s="45">
         <v>1</v>
@@ -7308,10 +7349,10 @@
         <v>176</v>
       </c>
       <c r="K9" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L9" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N9" s="45">
         <v>2</v>
@@ -7340,10 +7381,10 @@
         <v>176</v>
       </c>
       <c r="K10" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L10" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N10" s="45">
         <v>3</v>
@@ -7372,10 +7413,10 @@
         <v>176</v>
       </c>
       <c r="K11" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L11" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -7389,13 +7430,13 @@
         <v>176</v>
       </c>
       <c r="K12" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L12" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O12">
         <f>O2*O7</f>
@@ -7407,7 +7448,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
@@ -7417,7 +7458,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="272"/>
       <c r="C13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H13" s="242" t="s">
         <v>491</v>
@@ -7429,10 +7470,10 @@
         <v>176</v>
       </c>
       <c r="K13" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L13" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N13" s="45">
         <v>1</v>
@@ -7447,7 +7488,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
@@ -7457,7 +7498,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="273"/>
       <c r="C14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H14" s="242" t="s">
         <v>493</v>
@@ -7469,10 +7510,10 @@
         <v>176</v>
       </c>
       <c r="K14" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L14" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N14" s="45">
         <v>2</v>
@@ -7497,7 +7538,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="274"/>
       <c r="C15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H15" s="242" t="s">
         <v>495</v>
@@ -7509,10 +7550,10 @@
         <v>176</v>
       </c>
       <c r="K15" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L15" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N15" s="45">
         <v>3</v>
@@ -7545,27 +7586,27 @@
         <v>176</v>
       </c>
       <c r="K16" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L16" s="198" t="s">
-        <v>530</v>
-      </c>
-      <c r="N16" s="407" t="s">
-        <v>848</v>
-      </c>
-      <c r="O16" s="407">
+        <v>529</v>
+      </c>
+      <c r="N16" s="406" t="s">
+        <v>847</v>
+      </c>
+      <c r="O16" s="406">
         <f>SUM(O12:O15)</f>
         <v>2.75</v>
       </c>
-      <c r="P16" s="407">
+      <c r="P16" s="406">
         <f t="shared" ref="P16:R16" si="3">SUM(P12:P15)</f>
         <v>12.5</v>
       </c>
-      <c r="Q16" s="407">
+      <c r="Q16" s="406">
         <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="R16" s="407">
+        <v>4.125</v>
+      </c>
+      <c r="R16" s="406">
         <f t="shared" si="3"/>
         <v>19.25</v>
       </c>
@@ -7581,10 +7622,10 @@
         <v>176</v>
       </c>
       <c r="K17" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L17" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.25">
@@ -7598,28 +7639,28 @@
         <v>175</v>
       </c>
       <c r="K18" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L18" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N18" s="138" t="s">
+        <v>848</v>
+      </c>
+      <c r="O18" s="138" t="s">
         <v>849</v>
       </c>
-      <c r="O18" s="138" t="s">
+      <c r="P18" s="138" t="s">
         <v>850</v>
       </c>
-      <c r="P18" s="138" t="s">
+      <c r="Q18" s="138" t="s">
+        <v>849</v>
+      </c>
+      <c r="R18" s="138" t="s">
         <v>851</v>
       </c>
-      <c r="Q18" s="138" t="s">
-        <v>850</v>
-      </c>
-      <c r="R18" s="138" t="s">
+      <c r="S18" s="407" t="s">
         <v>852</v>
-      </c>
-      <c r="S18" s="408" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.25">
@@ -7633,22 +7674,22 @@
         <v>175</v>
       </c>
       <c r="K19" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L19" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N19" s="138"/>
-      <c r="O19" s="409">
+      <c r="O19" s="408">
         <v>42891</v>
       </c>
-      <c r="P19" s="409">
+      <c r="P19" s="408">
         <v>42898</v>
       </c>
-      <c r="Q19" s="409">
+      <c r="Q19" s="408">
         <v>42912</v>
       </c>
-      <c r="R19" s="409">
+      <c r="R19" s="408">
         <v>42898</v>
       </c>
       <c r="S19" s="138"/>
@@ -7664,18 +7705,18 @@
         <v>175</v>
       </c>
       <c r="K20" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L20" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N20" s="138"/>
       <c r="O20" s="138"/>
-      <c r="P20" s="409">
+      <c r="P20" s="408">
         <v>42905</v>
       </c>
       <c r="Q20" s="138"/>
-      <c r="R20" s="409">
+      <c r="R20" s="408">
         <v>42912</v>
       </c>
       <c r="S20" s="138"/>
@@ -7691,16 +7732,16 @@
         <v>175</v>
       </c>
       <c r="K21" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L21" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N21" s="138"/>
       <c r="O21" s="138"/>
       <c r="P21" s="138"/>
       <c r="Q21" s="138"/>
-      <c r="R21" s="409">
+      <c r="R21" s="408">
         <v>42919</v>
       </c>
       <c r="S21" s="138"/>
@@ -7719,23 +7760,23 @@
         <v>174</v>
       </c>
       <c r="L22" s="198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N22" s="138"/>
       <c r="O22" s="138"/>
       <c r="P22" s="138"/>
       <c r="Q22" s="138"/>
-      <c r="R22" s="409">
+      <c r="R22" s="408">
         <v>42926</v>
       </c>
       <c r="S22" s="138"/>
     </row>
     <row r="23" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H23" s="242" t="s">
+        <v>531</v>
+      </c>
+      <c r="I23" s="247" t="s">
         <v>532</v>
-      </c>
-      <c r="I23" s="247" t="s">
-        <v>533</v>
       </c>
       <c r="J23" s="198"/>
       <c r="K23" s="241" t="s">
@@ -7743,11 +7784,11 @@
       </c>
       <c r="L23" s="198"/>
       <c r="N23" s="138" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="138" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q23" s="138"/>
       <c r="R23" s="138"/>
@@ -7755,10 +7796,10 @@
     </row>
     <row r="24" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H24" s="242" t="s">
+        <v>533</v>
+      </c>
+      <c r="I24" s="247" t="s">
         <v>534</v>
-      </c>
-      <c r="I24" s="247" t="s">
-        <v>535</v>
       </c>
       <c r="J24" s="198"/>
       <c r="K24" s="241" t="s">
@@ -7766,11 +7807,11 @@
       </c>
       <c r="L24" s="198"/>
       <c r="N24" s="138" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O24" s="138"/>
       <c r="P24" s="138" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q24" s="138"/>
       <c r="R24" s="138"/>
@@ -7778,24 +7819,24 @@
     </row>
     <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="N25" s="138" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="138" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q25" s="138"/>
       <c r="R25" s="138"/>
       <c r="S25" s="138"/>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="I28" s="416" t="s">
+      <c r="I28" s="415" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="I29" s="416" t="s">
         <v>894</v>
-      </c>
-    </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="I29" s="417" t="s">
-        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -7824,11 +7865,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="442" t="s">
+      <c r="F1" s="446" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
+      <c r="G1" s="446"/>
+      <c r="H1" s="446"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
@@ -7842,34 +7883,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="438" t="s">
+      <c r="A3" s="442" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="439"/>
+      <c r="B3" s="443"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="438"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="442"/>
+      <c r="B4" s="444"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="438"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="442"/>
+      <c r="B5" s="444"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="438"/>
-      <c r="B6" s="441"/>
+      <c r="A6" s="442"/>
+      <c r="B6" s="445"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
@@ -7924,7 +7965,7 @@
       <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="443"/>
+      <c r="A3" s="447"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -7947,7 +7988,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="443"/>
+      <c r="A4" s="447"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -7968,7 +8009,7 @@
       <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="443"/>
+      <c r="A5" s="447"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -7989,7 +8030,7 @@
       <c r="O5" s="198"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="443"/>
+      <c r="A6" s="447"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -8010,7 +8051,7 @@
       <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="443"/>
+      <c r="A7" s="447"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -8060,7 +8101,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="444"/>
+      <c r="A12" s="448"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -8083,7 +8124,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="444"/>
+      <c r="A13" s="448"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -8104,7 +8145,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="444"/>
+      <c r="A14" s="448"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -8125,7 +8166,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="444"/>
+      <c r="A15" s="448"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -8146,7 +8187,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="444"/>
+      <c r="A16" s="448"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -8475,10 +8516,10 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8523,30 +8564,30 @@
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="426" t="s">
+      <c r="Y1" s="430" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="427"/>
-      <c r="AA1" s="427"/>
-      <c r="AB1" s="428"/>
-      <c r="AC1" s="426" t="s">
+      <c r="Z1" s="431"/>
+      <c r="AA1" s="431"/>
+      <c r="AB1" s="432"/>
+      <c r="AC1" s="430" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="427"/>
-      <c r="AE1" s="427"/>
-      <c r="AF1" s="428"/>
-      <c r="AG1" s="429" t="s">
+      <c r="AD1" s="431"/>
+      <c r="AE1" s="431"/>
+      <c r="AF1" s="432"/>
+      <c r="AG1" s="433" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="430"/>
-      <c r="AI1" s="430"/>
-      <c r="AJ1" s="430"/>
-      <c r="AK1" s="429" t="s">
+      <c r="AH1" s="434"/>
+      <c r="AI1" s="434"/>
+      <c r="AJ1" s="434"/>
+      <c r="AK1" s="433" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="430"/>
-      <c r="AM1" s="430"/>
-      <c r="AN1" s="430"/>
+      <c r="AL1" s="434"/>
+      <c r="AM1" s="434"/>
+      <c r="AN1" s="434"/>
     </row>
     <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -8594,11 +8635,11 @@
       <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="403" t="s">
-        <v>838</v>
-      </c>
-      <c r="Q2" s="406" t="s">
-        <v>841</v>
+      <c r="P2" s="402" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q2" s="405" t="s">
+        <v>840</v>
       </c>
       <c r="R2" s="71" t="s">
         <v>9</v>
@@ -8716,7 +8757,7 @@
         <v>286</v>
       </c>
       <c r="P3" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q3" s="6" t="str">
         <f>IF(P3="ok","clone",0)</f>
@@ -8796,7 +8837,7 @@
         <v>287</v>
       </c>
       <c r="P4" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q4" s="6" t="str">
         <f t="shared" ref="Q4:Q23" si="1">IF(P4="ok","clone",0)</f>
@@ -8877,7 +8918,7 @@
         <v>288</v>
       </c>
       <c r="P5" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q5" s="6" t="str">
         <f t="shared" si="1"/>
@@ -8957,7 +8998,7 @@
         <v>289</v>
       </c>
       <c r="P6" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q6" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9038,7 +9079,7 @@
         <v>290</v>
       </c>
       <c r="P7" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q7" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9121,7 +9162,7 @@
         <v>291</v>
       </c>
       <c r="P8" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q8" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9224,7 +9265,7 @@
         <v>292</v>
       </c>
       <c r="P9" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q9" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9259,10 +9300,10 @@
       <c r="AN9" s="290"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="401" t="s">
+      <c r="A10" s="400" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="402" t="str">
+      <c r="B10" s="401" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 14 - Avvio di una procedura concorsuale per il debitore</v>
       </c>
@@ -9300,11 +9341,11 @@
       <c r="O10" s="391" t="s">
         <v>317</v>
       </c>
-      <c r="P10" s="410" t="s">
-        <v>859</v>
+      <c r="P10" s="409" t="s">
+        <v>858</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -9377,7 +9418,7 @@
         <v>293</v>
       </c>
       <c r="P11" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q11" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9455,7 +9496,7 @@
         <v>294</v>
       </c>
       <c r="P12" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q12" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9534,7 +9575,7 @@
         <v>295</v>
       </c>
       <c r="P13" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9569,10 +9610,10 @@
       <c r="AN13" s="20"/>
     </row>
     <row r="14" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="404" t="s">
+      <c r="A14" s="403" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="402" t="str">
+      <c r="B14" s="401" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 19 - Richiesta ammissione ad una procedura concorsuale per il debitore</v>
       </c>
@@ -9612,11 +9653,11 @@
       <c r="O14" s="392" t="s">
         <v>315</v>
       </c>
-      <c r="P14" s="410" t="s">
-        <v>860</v>
+      <c r="P14" s="409" t="s">
+        <v>859</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -9645,10 +9686,10 @@
       <c r="AN14" s="20"/>
     </row>
     <row r="15" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="404" t="s">
+      <c r="A15" s="403" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="402" t="str">
+      <c r="B15" s="401" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 20 - Deposito/Pubblicazione di accordo ristrutturazione per liquidazione</v>
       </c>
@@ -9688,11 +9729,11 @@
       <c r="O15" s="392" t="s">
         <v>316</v>
       </c>
-      <c r="P15" s="410" t="s">
-        <v>861</v>
+      <c r="P15" s="409" t="s">
+        <v>860</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -9764,7 +9805,7 @@
         <v>296</v>
       </c>
       <c r="P16" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9842,7 +9883,7 @@
         <v>297</v>
       </c>
       <c r="P17" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9920,7 +9961,7 @@
         <v>298</v>
       </c>
       <c r="P18" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q18" s="6" t="str">
         <f t="shared" si="1"/>
@@ -9998,7 +10039,7 @@
         <v>299</v>
       </c>
       <c r="P19" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10076,7 +10117,7 @@
         <v>300</v>
       </c>
       <c r="P20" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q20" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10111,10 +10152,10 @@
       <c r="AN20" s="20"/>
     </row>
     <row r="21" spans="1:40" s="298" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="404" t="s">
+      <c r="A21" s="403" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="402" t="str">
+      <c r="B21" s="401" t="str">
         <f>CONCATENATE("Indicatore ",C21," - ",D21)</f>
         <v>Indicatore 31 - Covenant non rispettato e non sanato</v>
       </c>
@@ -10152,7 +10193,7 @@
         <v>301</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Q21" s="6">
         <v>1</v>
@@ -10227,7 +10268,7 @@
         <v>302</v>
       </c>
       <c r="P22" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10306,7 +10347,7 @@
         <v>303</v>
       </c>
       <c r="P23" s="104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q23" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10370,10 +10411,10 @@
   <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10418,21 +10459,21 @@
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="431" t="s">
+      <c r="AB1" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="431"/>
-      <c r="AD1" s="431"/>
-      <c r="AE1" s="431" t="s">
+      <c r="AC1" s="435"/>
+      <c r="AD1" s="435"/>
+      <c r="AE1" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="431"/>
-      <c r="AG1" s="431"/>
-      <c r="AH1" s="431" t="s">
+      <c r="AF1" s="435"/>
+      <c r="AG1" s="435"/>
+      <c r="AH1" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="431"/>
-      <c r="AJ1" s="431"/>
+      <c r="AI1" s="435"/>
+      <c r="AJ1" s="435"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10492,8 +10533,8 @@
       <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="403" t="s">
-        <v>840</v>
+      <c r="P2" s="402" t="s">
+        <v>839</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>278</v>
@@ -10602,13 +10643,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M3" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N3" s="102" t="s">
         <v>330</v>
@@ -10616,11 +10657,11 @@
       <c r="O3" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="P3" s="411" t="s">
-        <v>530</v>
+      <c r="P3" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>10</v>
@@ -10631,12 +10672,12 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="397"/>
+      <c r="Y3" s="396"/>
       <c r="Z3" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AA3" s="302" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB3" s="303" t="s">
         <v>28</v>
@@ -10695,7 +10736,7 @@
         <v>103</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I4" s="54" t="s">
         <v>30</v>
@@ -10704,13 +10745,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M4" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N4" s="101" t="s">
         <v>346</v>
@@ -10718,11 +10759,11 @@
       <c r="O4" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="P4" s="411" t="s">
-        <v>530</v>
+      <c r="P4" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>10</v>
@@ -10733,12 +10774,12 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="397"/>
+      <c r="Y4" s="396"/>
       <c r="Z4" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AA4" s="302" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB4" s="303" t="s">
         <v>28</v>
@@ -10811,16 +10852,16 @@
         <v>329</v>
       </c>
       <c r="M5" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N5" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="O5" s="394" t="s">
+      <c r="O5" s="419" t="s">
         <v>332</v>
       </c>
-      <c r="P5" s="420" t="s">
-        <v>896</v>
+      <c r="P5" s="419" t="s">
+        <v>895</v>
       </c>
       <c r="Q5" s="6">
         <v>2</v>
@@ -10837,7 +10878,7 @@
         <v>194</v>
       </c>
       <c r="AA5" s="302" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB5" s="303" t="s">
         <v>28</v>
@@ -10911,7 +10952,7 @@
         <v>329</v>
       </c>
       <c r="M6" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N6" s="103" t="s">
         <v>335</v>
@@ -10920,7 +10961,7 @@
         <v>334</v>
       </c>
       <c r="P6" s="55" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q6" s="6">
         <v>2</v>
@@ -10939,7 +10980,7 @@
         <v>195</v>
       </c>
       <c r="AA6" s="302" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB6" s="303"/>
       <c r="AC6" s="307"/>
@@ -10990,16 +11031,16 @@
         <v>106</v>
       </c>
       <c r="M7" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N7" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O7" s="391" t="s">
-        <v>803</v>
-      </c>
-      <c r="P7" s="415" t="s">
-        <v>900</v>
+      <c r="O7" s="414" t="s">
+        <v>802</v>
+      </c>
+      <c r="P7" s="414" t="s">
+        <v>899</v>
       </c>
       <c r="Q7" s="6">
         <v>2</v>
@@ -11044,7 +11085,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>65</v>
@@ -11053,10 +11094,10 @@
         <v>280</v>
       </c>
       <c r="G8" s="276" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>29</v>
@@ -11065,22 +11106,22 @@
         <v>27</v>
       </c>
       <c r="K8" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M8" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N8" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="O8" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="O8" s="77" t="s">
-        <v>551</v>
-      </c>
       <c r="P8" s="77" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="Q8" s="6">
         <v>2</v>
@@ -11099,7 +11140,7 @@
       </c>
       <c r="Z8" s="57"/>
       <c r="AA8" s="312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB8" s="292" t="s">
         <v>19</v>
@@ -11129,7 +11170,7 @@
         <v>252</v>
       </c>
       <c r="AK8" s="304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL8" s="302">
         <v>9999999</v>
@@ -11153,7 +11194,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E9" s="79" t="s">
         <v>65</v>
@@ -11162,34 +11203,34 @@
         <v>280</v>
       </c>
       <c r="G9" s="276" t="s">
+        <v>553</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>669</v>
+      </c>
+      <c r="I9" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="H9" s="59" t="s">
-        <v>670</v>
-      </c>
-      <c r="I9" s="54" t="s">
+      <c r="J9" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>556</v>
-      </c>
       <c r="K9" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M9" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N9" s="103" t="s">
+        <v>556</v>
+      </c>
+      <c r="O9" s="394" t="s">
         <v>557</v>
       </c>
-      <c r="O9" s="395" t="s">
-        <v>558</v>
-      </c>
-      <c r="P9" s="395" t="s">
-        <v>898</v>
+      <c r="P9" s="394" t="s">
+        <v>897</v>
       </c>
       <c r="Q9" s="6">
         <v>2</v>
@@ -11206,7 +11247,7 @@
       </c>
       <c r="Z9" s="315"/>
       <c r="AA9" s="312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB9" s="292" t="s">
         <v>19</v>
@@ -11236,7 +11277,7 @@
         <v>252</v>
       </c>
       <c r="AK9" s="304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL9" s="302">
         <v>9999999</v>
@@ -11273,7 +11314,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>29</v>
@@ -11282,13 +11323,13 @@
         <v>27</v>
       </c>
       <c r="K10" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L10" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M10" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N10" s="103" t="s">
         <v>320</v>
@@ -11297,10 +11338,10 @@
         <v>318</v>
       </c>
       <c r="P10" s="79" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>10</v>
@@ -11311,10 +11352,10 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="397"/>
+      <c r="Y10" s="396"/>
       <c r="Z10" s="56"/>
       <c r="AA10" s="312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB10" s="269" t="s">
         <v>19</v>
@@ -11373,7 +11414,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I11" s="54" t="s">
         <v>29</v>
@@ -11382,13 +11423,13 @@
         <v>27</v>
       </c>
       <c r="K11" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L11" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M11" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N11" s="103" t="s">
         <v>321</v>
@@ -11397,10 +11438,10 @@
         <v>319</v>
       </c>
       <c r="P11" s="79" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>10</v>
@@ -11411,10 +11452,10 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="397"/>
+      <c r="Y11" s="396"/>
       <c r="Z11" s="56"/>
       <c r="AA11" s="312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB11" s="269" t="s">
         <v>19</v>
@@ -11472,7 +11513,7 @@
         <v>103</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="26"/>
@@ -11488,11 +11529,11 @@
       <c r="N12" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O12" s="221" t="s">
+      <c r="O12" s="414" t="s">
         <v>370</v>
       </c>
-      <c r="P12" s="415" t="s">
-        <v>901</v>
+      <c r="P12" s="414" t="s">
+        <v>900</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -11559,7 +11600,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>106</v>
@@ -11572,10 +11613,10 @@
         <v>307</v>
       </c>
       <c r="P13" s="79" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>10</v>
@@ -11636,7 +11677,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E14" s="79" t="s">
         <v>65</v>
@@ -11645,19 +11686,19 @@
         <v>97</v>
       </c>
       <c r="G14" s="219" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H14" s="59" t="s">
+        <v>616</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>618</v>
-      </c>
       <c r="J14" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>106</v>
@@ -11666,13 +11707,13 @@
         <v>309</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O14" s="221" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P14" s="391" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q14" s="6">
         <v>3</v>
@@ -11686,20 +11727,20 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="400"/>
+      <c r="Y14" s="399"/>
       <c r="Z14" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AA14" s="304"/>
       <c r="AB14" s="304"/>
-      <c r="AC14" s="400"/>
-      <c r="AD14" s="400"/>
-      <c r="AE14" s="400"/>
-      <c r="AF14" s="400"/>
-      <c r="AG14" s="400"/>
-      <c r="AH14" s="400"/>
-      <c r="AI14" s="400"/>
-      <c r="AJ14" s="400"/>
+      <c r="AC14" s="399"/>
+      <c r="AD14" s="399"/>
+      <c r="AE14" s="399"/>
+      <c r="AF14" s="399"/>
+      <c r="AG14" s="399"/>
+      <c r="AH14" s="399"/>
+      <c r="AI14" s="399"/>
+      <c r="AJ14" s="399"/>
       <c r="AK14" s="304"/>
       <c r="AL14" s="304"/>
       <c r="AM14" s="293"/>
@@ -11729,7 +11770,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="26"/>
@@ -11745,11 +11786,11 @@
       <c r="N15" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O15" s="391" t="s">
+      <c r="O15" s="414" t="s">
         <v>371</v>
       </c>
-      <c r="P15" s="415" t="s">
-        <v>902</v>
+      <c r="P15" s="414" t="s">
+        <v>901</v>
       </c>
       <c r="Q15" s="6">
         <v>2</v>
@@ -11815,7 +11856,7 @@
         <v>186</v>
       </c>
       <c r="K16" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L16" s="47" t="s">
         <v>106</v>
@@ -11830,10 +11871,10 @@
         <v>311</v>
       </c>
       <c r="P16" s="77" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>10</v>
@@ -11881,7 +11922,7 @@
     </row>
     <row r="17" spans="1:40" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="322" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B17" s="217" t="str">
         <f t="shared" si="0"/>
@@ -11891,7 +11932,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E17" s="79" t="s">
         <v>65</v>
@@ -11903,7 +11944,7 @@
         <v>103</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="26"/>
@@ -11914,16 +11955,16 @@
         <v>106</v>
       </c>
       <c r="M17" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N17" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O17" s="221" t="s">
-        <v>804</v>
-      </c>
-      <c r="P17" s="415" t="s">
-        <v>903</v>
+      <c r="O17" s="414" t="s">
+        <v>803</v>
+      </c>
+      <c r="P17" s="414" t="s">
+        <v>902</v>
       </c>
       <c r="Q17" s="6">
         <v>3</v>
@@ -11958,7 +11999,7 @@
     </row>
     <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="323" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B18" s="217" t="str">
         <f t="shared" si="0"/>
@@ -11969,7 +12010,7 @@
         <v>91</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E18" s="79" t="s">
         <v>65</v>
@@ -11978,34 +12019,34 @@
         <v>96</v>
       </c>
       <c r="G18" s="276" t="s">
+        <v>537</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>739</v>
+      </c>
+      <c r="I18" s="54" t="s">
         <v>538</v>
       </c>
-      <c r="H18" s="59" t="s">
-        <v>740</v>
-      </c>
-      <c r="I18" s="54" t="s">
+      <c r="J18" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>540</v>
-      </c>
       <c r="K18" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L18" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="82" t="s">
+        <v>541</v>
+      </c>
+      <c r="N18" s="324" t="s">
         <v>542</v>
       </c>
-      <c r="N18" s="324" t="s">
+      <c r="O18" s="221" t="s">
         <v>543</v>
       </c>
-      <c r="O18" s="221" t="s">
-        <v>544</v>
-      </c>
       <c r="P18" s="391" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q18" s="6">
         <v>2</v>
@@ -12022,7 +12063,7 @@
       </c>
       <c r="Z18" s="57"/>
       <c r="AA18" s="312" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB18" s="325" t="s">
         <v>19</v>
@@ -12052,7 +12093,7 @@
         <v>252</v>
       </c>
       <c r="AK18" s="304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL18" s="302">
         <v>9999999</v>
@@ -12066,7 +12107,7 @@
     </row>
     <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="323" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B19" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12077,7 +12118,7 @@
         <v>92</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E19" s="79" t="s">
         <v>65</v>
@@ -12089,31 +12130,31 @@
         <v>25</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I19" s="54" t="s">
+        <v>538</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>540</v>
-      </c>
       <c r="K19" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L19" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N19" s="103" t="s">
+        <v>559</v>
+      </c>
+      <c r="O19" s="221" t="s">
         <v>560</v>
       </c>
-      <c r="O19" s="221" t="s">
-        <v>561</v>
-      </c>
       <c r="P19" s="391" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q19" s="6">
         <v>2</v>
@@ -12130,7 +12171,7 @@
       </c>
       <c r="Z19" s="57"/>
       <c r="AA19" s="312" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB19" s="325" t="s">
         <v>19</v>
@@ -12160,7 +12201,7 @@
         <v>252</v>
       </c>
       <c r="AK19" s="304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL19" s="302">
         <v>9999999</v>
@@ -12174,7 +12215,7 @@
     </row>
     <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="313" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B20" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12185,7 +12226,7 @@
         <v>93</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E20" s="79" t="s">
         <v>65</v>
@@ -12197,31 +12238,31 @@
         <v>26</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I20" s="54" t="s">
+        <v>538</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>540</v>
-      </c>
       <c r="K20" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L20" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N20" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="O20" s="221" t="s">
         <v>563</v>
       </c>
-      <c r="O20" s="221" t="s">
-        <v>564</v>
-      </c>
       <c r="P20" s="391" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q20" s="6">
         <v>2</v>
@@ -12238,7 +12279,7 @@
       </c>
       <c r="Z20" s="57"/>
       <c r="AA20" s="312" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB20" s="325" t="s">
         <v>19</v>
@@ -12268,7 +12309,7 @@
         <v>252</v>
       </c>
       <c r="AK20" s="304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL20" s="302">
         <v>9999999</v>
@@ -12282,7 +12323,7 @@
     </row>
     <row r="21" spans="1:40" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="313" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B21" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12293,7 +12334,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E21" s="79" t="s">
         <v>65</v>
@@ -12302,34 +12343,34 @@
         <v>96</v>
       </c>
       <c r="G21" s="276" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K21" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L21" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M21" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N21" s="103" t="s">
+        <v>566</v>
+      </c>
+      <c r="O21" s="221" t="s">
         <v>567</v>
       </c>
-      <c r="O21" s="221" t="s">
-        <v>568</v>
-      </c>
       <c r="P21" s="391" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q21" s="6">
         <v>2</v>
@@ -12346,7 +12387,7 @@
       </c>
       <c r="Z21" s="315"/>
       <c r="AA21" s="312" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB21" s="325" t="s">
         <v>19</v>
@@ -12376,7 +12417,7 @@
         <v>252</v>
       </c>
       <c r="AK21" s="304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL21" s="302">
         <v>9999999</v>
@@ -12400,7 +12441,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E22" s="79" t="s">
         <v>65</v>
@@ -12423,7 +12464,7 @@
         <v>329</v>
       </c>
       <c r="M22" s="206" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N22" s="101" t="s">
         <v>457</v>
@@ -12431,11 +12472,11 @@
       <c r="O22" s="192" t="s">
         <v>456</v>
       </c>
-      <c r="P22" s="412" t="s">
-        <v>530</v>
+      <c r="P22" s="411" t="s">
+        <v>529</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>10</v>
@@ -12495,7 +12536,7 @@
         <v>151</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E23" s="79" t="s">
         <v>65</v>
@@ -12517,8 +12558,8 @@
       <c r="L23" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="M23" s="399" t="s">
-        <v>668</v>
+      <c r="M23" s="398" t="s">
+        <v>667</v>
       </c>
       <c r="N23" s="101" t="s">
         <v>455</v>
@@ -12526,11 +12567,11 @@
       <c r="O23" s="192" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="412" t="s">
-        <v>530</v>
+      <c r="P23" s="411" t="s">
+        <v>529</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>10</v>
@@ -12578,7 +12619,7 @@
     </row>
     <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="330" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B24" s="217" t="str">
         <f>CONCATENATE("Indicatore ",C24," - ",D24)</f>
@@ -12588,43 +12629,43 @@
         <v>162</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E24" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G24" s="219" t="s">
         <v>103</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I24" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="J24" s="26" t="s">
-        <v>573</v>
-      </c>
       <c r="K24" s="275" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L24" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O24" s="314" t="s">
-        <v>574</v>
-      </c>
-      <c r="P24" s="395" t="s">
-        <v>883</v>
+        <v>573</v>
+      </c>
+      <c r="P24" s="394" t="s">
+        <v>882</v>
       </c>
       <c r="Q24" s="6">
         <v>2</v>
@@ -12641,7 +12682,7 @@
       </c>
       <c r="Z24" s="315"/>
       <c r="AA24" s="302" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AB24" s="291" t="s">
         <v>19</v>
@@ -12671,10 +12712,10 @@
         <v>19</v>
       </c>
       <c r="AK24" s="57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL24" s="302" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM24" s="57">
         <v>9999999</v>
@@ -12685,7 +12726,7 @@
     </row>
     <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="330" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B25" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12696,43 +12737,43 @@
         <v>163</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E25" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G25" s="276" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I25" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="204" t="s">
         <v>577</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="204" t="s">
-        <v>578</v>
       </c>
       <c r="L25" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N25" s="309" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O25" s="252" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P25" s="104" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -12750,10 +12791,10 @@
         <v>4</v>
       </c>
       <c r="Z25" s="57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA25" s="302" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AB25" s="278" t="s">
         <v>28</v>
@@ -12797,7 +12838,7 @@
     </row>
     <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="330" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B26" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12808,43 +12849,43 @@
         <v>164</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E26" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G26" s="276" t="s">
+        <v>582</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="I26" s="54" t="s">
         <v>583</v>
       </c>
-      <c r="H26" s="59" t="s">
-        <v>677</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>584</v>
-      </c>
       <c r="J26" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K26" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L26" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N26" s="309" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O26" s="221" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P26" s="391" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Q26" s="6">
         <v>2</v>
@@ -12861,7 +12902,7 @@
       </c>
       <c r="Z26" s="315"/>
       <c r="AA26" s="302" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AB26" s="291" t="s">
         <v>19</v>
@@ -12891,10 +12932,10 @@
         <v>19</v>
       </c>
       <c r="AK26" s="57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL26" s="302" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM26" s="57">
         <v>9999999</v>
@@ -12905,7 +12946,7 @@
     </row>
     <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="330" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B27" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12916,43 +12957,43 @@
         <v>165</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E27" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G27" s="276" t="s">
+        <v>587</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>677</v>
+      </c>
+      <c r="I27" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="H27" s="59" t="s">
-        <v>678</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>589</v>
-      </c>
       <c r="J27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="204" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L27" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N27" s="309" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O27" s="252" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P27" s="104" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q27" s="6">
         <v>1</v>
@@ -12970,10 +13011,10 @@
         <v>4</v>
       </c>
       <c r="Z27" s="57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA27" s="302" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AB27" s="278" t="s">
         <v>28</v>
@@ -13017,7 +13058,7 @@
     </row>
     <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="330" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B28" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13028,43 +13069,43 @@
         <v>166</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E28" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G28" s="276" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H28" s="59" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K28" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L28" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N28" s="309" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O28" s="221" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P28" s="391" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q28" s="6">
         <v>2</v>
@@ -13081,7 +13122,7 @@
       </c>
       <c r="Z28" s="315"/>
       <c r="AA28" s="302" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AB28" s="291" t="s">
         <v>19</v>
@@ -13111,10 +13152,10 @@
         <v>19</v>
       </c>
       <c r="AK28" s="57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL28" s="302" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM28" s="57">
         <v>9999999</v>
@@ -13125,7 +13166,7 @@
     </row>
     <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="330" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B29" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13136,43 +13177,43 @@
         <v>167</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E29" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G29" s="276" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J29" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="204" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L29" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N29" s="309" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O29" s="252" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P29" s="104" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q29" s="6">
         <v>1</v>
@@ -13190,10 +13231,10 @@
         <v>4</v>
       </c>
       <c r="Z29" s="57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA29" s="302" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AB29" s="278" t="s">
         <v>28</v>
@@ -13248,28 +13289,28 @@
         <v>168</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E30" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G30" s="219" t="s">
         <v>103</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I30" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="K30" s="275" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L30" s="47" t="s">
         <v>106</v>
@@ -13278,13 +13319,13 @@
         <v>362</v>
       </c>
       <c r="N30" s="309" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O30" s="221" t="s">
         <v>363</v>
       </c>
       <c r="P30" s="77" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q30" s="6">
         <v>2</v>
@@ -13301,9 +13342,9 @@
       <c r="Y30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Z30" s="398"/>
+      <c r="Z30" s="397"/>
       <c r="AA30" s="331" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB30" s="296" t="s">
         <v>19</v>
@@ -13333,7 +13374,7 @@
         <v>19</v>
       </c>
       <c r="AK30" s="78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL30" s="57">
         <v>9999999</v>
@@ -13347,7 +13388,7 @@
     </row>
     <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="330" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B31" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13358,7 +13399,7 @@
         <v>169</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E31" s="79" t="s">
         <v>65</v>
@@ -13367,31 +13408,31 @@
         <v>24</v>
       </c>
       <c r="G31" s="276" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H31" s="59" t="s">
+        <v>683</v>
+      </c>
+      <c r="I31" s="54" t="s">
         <v>684</v>
       </c>
-      <c r="I31" s="54" t="s">
-        <v>685</v>
-      </c>
       <c r="J31" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K31" s="275" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L31" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N31" s="309" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O31" s="221" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P31" s="391"/>
       <c r="Q31" s="6">
@@ -13409,7 +13450,7 @@
       </c>
       <c r="Z31" s="54"/>
       <c r="AA31" s="302" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AB31" s="291" t="s">
         <v>19</v>
@@ -13439,10 +13480,10 @@
         <v>19</v>
       </c>
       <c r="AK31" s="57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL31" s="302" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM31" s="57">
         <v>9999999</v>
@@ -13453,7 +13494,7 @@
     </row>
     <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="330" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B32" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13464,7 +13505,7 @@
         <v>170</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E32" s="79" t="s">
         <v>65</v>
@@ -13473,31 +13514,31 @@
         <v>24</v>
       </c>
       <c r="G32" s="276" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K32" s="204" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L32" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M32" s="79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N32" s="309" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O32" s="252" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P32" s="392"/>
       <c r="Q32" s="6">
@@ -13514,10 +13555,10 @@
         <v>4</v>
       </c>
       <c r="Z32" s="54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA32" s="302" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AB32" s="278" t="s">
         <v>28</v>
@@ -13561,7 +13602,7 @@
     </row>
     <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="330" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B33" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13572,43 +13613,43 @@
         <v>171</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E33" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G33" s="219" t="s">
         <v>103</v>
       </c>
       <c r="H33" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="I33" s="54" t="s">
         <v>609</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="J33" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="J33" s="26" t="s">
-        <v>611</v>
-      </c>
       <c r="K33" s="275" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L33" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M33" s="79" t="s">
+        <v>611</v>
+      </c>
+      <c r="N33" s="309" t="s">
         <v>612</v>
       </c>
-      <c r="N33" s="309" t="s">
+      <c r="O33" s="221" t="s">
         <v>613</v>
       </c>
-      <c r="O33" s="221" t="s">
-        <v>614</v>
-      </c>
       <c r="P33" s="77" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -13627,7 +13668,7 @@
       </c>
       <c r="Z33" s="54"/>
       <c r="AA33" s="302" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AB33" s="291" t="s">
         <v>19</v>
@@ -13657,7 +13698,7 @@
         <v>19</v>
       </c>
       <c r="AK33" s="57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL33" s="57">
         <v>9999999</v>
@@ -13863,11 +13904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13912,30 +13953,30 @@
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="432" t="s">
+      <c r="Y1" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="433"/>
-      <c r="AA1" s="433"/>
-      <c r="AB1" s="434"/>
-      <c r="AC1" s="432" t="s">
+      <c r="Z1" s="437"/>
+      <c r="AA1" s="437"/>
+      <c r="AB1" s="438"/>
+      <c r="AC1" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="433"/>
-      <c r="AE1" s="433"/>
-      <c r="AF1" s="434"/>
-      <c r="AG1" s="435" t="s">
+      <c r="AD1" s="437"/>
+      <c r="AE1" s="437"/>
+      <c r="AF1" s="438"/>
+      <c r="AG1" s="439" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="436"/>
-      <c r="AI1" s="436"/>
-      <c r="AJ1" s="436"/>
-      <c r="AK1" s="435" t="s">
+      <c r="AH1" s="440"/>
+      <c r="AI1" s="440"/>
+      <c r="AJ1" s="440"/>
+      <c r="AK1" s="439" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="436"/>
-      <c r="AM1" s="436"/>
-      <c r="AN1" s="436"/>
+      <c r="AL1" s="440"/>
+      <c r="AM1" s="440"/>
+      <c r="AN1" s="440"/>
     </row>
     <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
@@ -13983,8 +14024,8 @@
       <c r="O2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="405" t="s">
-        <v>840</v>
+      <c r="P2" s="404" t="s">
+        <v>839</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>278</v>
@@ -14077,13 +14118,13 @@
         <v>65</v>
       </c>
       <c r="F3" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G3" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="364" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I3" s="366"/>
       <c r="J3" s="366"/>
@@ -14099,14 +14140,14 @@
       <c r="N3" s="370" t="s">
         <v>525</v>
       </c>
-      <c r="O3" s="445" t="s">
-        <v>528</v>
-      </c>
-      <c r="P3" s="445" t="s">
-        <v>904</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>1</v>
+      <c r="O3" s="449" t="s">
+        <v>903</v>
+      </c>
+      <c r="P3" s="426" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>841</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>10</v>
@@ -14150,13 +14191,13 @@
         <v>102</v>
       </c>
       <c r="D4" s="364" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E4" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G4" s="365" t="s">
         <v>103</v>
@@ -14176,13 +14217,13 @@
         <v>263</v>
       </c>
       <c r="N4" s="370" t="s">
+        <v>715</v>
+      </c>
+      <c r="O4" s="364" t="s">
         <v>716</v>
       </c>
-      <c r="O4" s="364" t="s">
-        <v>717</v>
-      </c>
-      <c r="P4" s="253" t="s">
-        <v>891</v>
+      <c r="P4" s="425" t="s">
+        <v>890</v>
       </c>
       <c r="Q4" s="7">
         <v>1</v>
@@ -14236,7 +14277,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G5" s="365" t="s">
         <v>103</v>
@@ -14256,13 +14297,13 @@
         <v>263</v>
       </c>
       <c r="N5" s="370" t="s">
+        <v>717</v>
+      </c>
+      <c r="O5" s="364" t="s">
         <v>718</v>
       </c>
-      <c r="O5" s="364" t="s">
-        <v>719</v>
-      </c>
-      <c r="P5" s="253" t="s">
-        <v>892</v>
+      <c r="P5" s="425" t="s">
+        <v>891</v>
       </c>
       <c r="Q5" s="7">
         <v>1</v>
@@ -14316,7 +14357,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G6" s="365" t="s">
         <v>103</v>
@@ -14336,13 +14377,13 @@
         <v>263</v>
       </c>
       <c r="N6" s="370" t="s">
+        <v>719</v>
+      </c>
+      <c r="O6" s="417" t="s">
         <v>720</v>
       </c>
-      <c r="O6" s="418" t="s">
-        <v>721</v>
-      </c>
-      <c r="P6" s="253" t="s">
-        <v>893</v>
+      <c r="P6" s="425" t="s">
+        <v>892</v>
       </c>
       <c r="Q6" s="7">
         <v>1</v>
@@ -14390,19 +14431,19 @@
         <v>105</v>
       </c>
       <c r="D7" s="253" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E7" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G7" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="364" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I7" s="366"/>
       <c r="J7" s="366"/>
@@ -14416,10 +14457,12 @@
         <v>263</v>
       </c>
       <c r="N7" s="370" t="s">
-        <v>757</v>
-      </c>
-      <c r="O7" s="396"/>
-      <c r="P7" s="396"/>
+        <v>756</v>
+      </c>
+      <c r="O7" s="395"/>
+      <c r="P7" s="424" t="s">
+        <v>898</v>
+      </c>
       <c r="Q7" s="7">
         <v>2</v>
       </c>
@@ -14464,19 +14507,19 @@
         <v>106</v>
       </c>
       <c r="D8" s="364" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E8" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G8" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="364" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I8" s="366"/>
       <c r="J8" s="366"/>
@@ -14493,10 +14536,10 @@
         <v>369</v>
       </c>
       <c r="O8" s="364" t="s">
-        <v>724</v>
-      </c>
-      <c r="P8" s="419" t="s">
-        <v>887</v>
+        <v>723</v>
+      </c>
+      <c r="P8" s="418" t="s">
+        <v>886</v>
       </c>
       <c r="Q8" s="7">
         <v>1</v>
@@ -14544,13 +14587,13 @@
         <v>107</v>
       </c>
       <c r="D9" s="364" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E9" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G9" s="365" t="s">
         <v>103</v>
@@ -14570,13 +14613,13 @@
         <v>381</v>
       </c>
       <c r="N9" s="370" t="s">
+        <v>724</v>
+      </c>
+      <c r="O9" s="364" t="s">
         <v>725</v>
       </c>
-      <c r="O9" s="364" t="s">
-        <v>726</v>
-      </c>
-      <c r="P9" s="446" t="s">
-        <v>886</v>
+      <c r="P9" s="423" t="s">
+        <v>885</v>
       </c>
       <c r="Q9" s="7">
         <v>1</v>
@@ -14624,13 +14667,13 @@
         <v>108</v>
       </c>
       <c r="D10" s="364" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E10" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G10" s="365" t="s">
         <v>103</v>
@@ -14652,11 +14695,11 @@
       <c r="N10" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O10" s="418" t="s">
+      <c r="O10" s="417" t="s">
         <v>390</v>
       </c>
-      <c r="P10" s="419" t="s">
-        <v>889</v>
+      <c r="P10" s="418" t="s">
+        <v>888</v>
       </c>
       <c r="Q10" s="7">
         <v>1</v>
@@ -14703,19 +14746,19 @@
         <v>109</v>
       </c>
       <c r="D11" s="253" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E11" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G11" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="364" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I11" s="366"/>
       <c r="J11" s="366"/>
@@ -14731,11 +14774,11 @@
       <c r="N11" s="370" t="s">
         <v>369</v>
       </c>
-      <c r="O11" s="396" t="s">
-        <v>728</v>
-      </c>
-      <c r="P11" s="414" t="s">
-        <v>888</v>
+      <c r="O11" s="450" t="s">
+        <v>727</v>
+      </c>
+      <c r="P11" s="413" t="s">
+        <v>887</v>
       </c>
       <c r="Q11" s="7">
         <v>1</v>
@@ -14780,13 +14823,13 @@
         <v>110</v>
       </c>
       <c r="D12" s="253" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E12" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G12" s="365" t="s">
         <v>103</v>
@@ -14806,13 +14849,13 @@
         <v>381</v>
       </c>
       <c r="N12" s="370" t="s">
-        <v>725</v>
-      </c>
-      <c r="O12" s="396" t="s">
-        <v>729</v>
-      </c>
-      <c r="P12" s="414" t="s">
-        <v>888</v>
+        <v>724</v>
+      </c>
+      <c r="O12" s="395" t="s">
+        <v>728</v>
+      </c>
+      <c r="P12" s="413" t="s">
+        <v>887</v>
       </c>
       <c r="Q12" s="7">
         <v>1</v>
@@ -14857,13 +14900,13 @@
         <v>111</v>
       </c>
       <c r="D13" s="253" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E13" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G13" s="365" t="s">
         <v>103</v>
@@ -14885,11 +14928,11 @@
       <c r="N13" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O13" s="396" t="s">
+      <c r="O13" s="395" t="s">
         <v>391</v>
       </c>
-      <c r="P13" s="414" t="s">
-        <v>888</v>
+      <c r="P13" s="413" t="s">
+        <v>887</v>
       </c>
       <c r="Q13" s="7">
         <v>1</v>
@@ -14940,7 +14983,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="363" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G14" s="365" t="s">
         <v>103</v>
@@ -14962,10 +15005,12 @@
       <c r="N14" s="370" t="s">
         <v>366</v>
       </c>
-      <c r="O14" s="445" t="s">
+      <c r="O14" s="422" t="s">
         <v>364</v>
       </c>
-      <c r="P14" s="396"/>
+      <c r="P14" s="424" t="s">
+        <v>898</v>
+      </c>
       <c r="Q14" s="7">
         <v>1</v>
       </c>
@@ -15015,7 +15060,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="363" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G15" s="365" t="s">
         <v>103</v>
@@ -15037,10 +15082,12 @@
       <c r="N15" s="370" t="s">
         <v>367</v>
       </c>
-      <c r="O15" s="396" t="s">
+      <c r="O15" s="395" t="s">
         <v>365</v>
       </c>
-      <c r="P15" s="396"/>
+      <c r="P15" s="424" t="s">
+        <v>898</v>
+      </c>
       <c r="Q15" s="7">
         <v>1</v>
       </c>
@@ -15090,7 +15137,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="363" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G16" s="365" t="s">
         <v>103</v>
@@ -15115,11 +15162,11 @@
       <c r="O16" s="364" t="s">
         <v>373</v>
       </c>
-      <c r="P16" s="446" t="s">
-        <v>905</v>
+      <c r="P16" s="423" t="s">
+        <v>904</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>10</v>
@@ -15169,7 +15216,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="363" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G17" s="365" t="s">
         <v>103</v>
@@ -15194,11 +15241,11 @@
       <c r="O17" s="364" t="s">
         <v>374</v>
       </c>
-      <c r="P17" s="446" t="s">
+      <c r="P17" s="423" t="s">
         <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>10</v>
@@ -15242,19 +15289,19 @@
         <v>120</v>
       </c>
       <c r="D18" s="253" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E18" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G18" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="390" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I18" s="366"/>
       <c r="J18" s="366"/>
@@ -15270,8 +15317,10 @@
       <c r="N18" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
+      <c r="O18" s="395"/>
+      <c r="P18" s="424" t="s">
+        <v>898</v>
+      </c>
       <c r="Q18" s="7">
         <v>1</v>
       </c>
@@ -15315,19 +15364,19 @@
         <v>121</v>
       </c>
       <c r="D19" s="253" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E19" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G19" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="364" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I19" s="366"/>
       <c r="J19" s="366"/>
@@ -15343,8 +15392,10 @@
       <c r="N19" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
+      <c r="O19" s="395"/>
+      <c r="P19" s="424" t="s">
+        <v>898</v>
+      </c>
       <c r="Q19" s="7">
         <v>1</v>
       </c>
@@ -15466,16 +15517,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="O28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="18" customWidth="1"/>
     <col min="2" max="2" width="56" style="76" customWidth="1"/>
     <col min="3" max="3" width="5.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.375" style="105" bestFit="1" customWidth="1"/>
@@ -15523,21 +15574,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="431" t="s">
+      <c r="AA1" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="431"/>
-      <c r="AC1" s="431"/>
-      <c r="AD1" s="431" t="s">
+      <c r="AB1" s="435"/>
+      <c r="AC1" s="435"/>
+      <c r="AD1" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="431"/>
-      <c r="AF1" s="431"/>
-      <c r="AG1" s="431" t="s">
+      <c r="AE1" s="435"/>
+      <c r="AF1" s="435"/>
+      <c r="AG1" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="431"/>
-      <c r="AI1" s="431"/>
+      <c r="AH1" s="435"/>
+      <c r="AI1" s="435"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -15598,7 +15649,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>278</v>
@@ -15610,7 +15661,7 @@
         <v>7</v>
       </c>
       <c r="T2" s="71" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U2" s="71" t="s">
         <v>135</v>
@@ -15688,7 +15739,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G3" s="256"/>
       <c r="H3" s="103" t="s">
@@ -15701,13 +15752,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M3" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N3" s="102" t="s">
         <v>331</v>
@@ -15715,11 +15766,11 @@
       <c r="O3" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="411" t="s">
-        <v>530</v>
+      <c r="P3" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>10</v>
@@ -15785,7 +15836,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G4" s="256"/>
       <c r="H4" s="101" t="s">
@@ -15798,13 +15849,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M4" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N4" s="102" t="s">
         <v>344</v>
@@ -15812,11 +15863,11 @@
       <c r="O4" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="P4" s="411" t="s">
-        <v>530</v>
+      <c r="P4" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>10</v>
@@ -15881,7 +15932,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G5" s="256"/>
       <c r="H5" s="101" t="s">
@@ -15894,13 +15945,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M5" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N5" s="102" t="s">
         <v>350</v>
@@ -15908,11 +15959,11 @@
       <c r="O5" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="411" t="s">
-        <v>530</v>
+      <c r="P5" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>10</v>
@@ -15978,7 +16029,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G6" s="256"/>
       <c r="H6" s="101" t="s">
@@ -15991,13 +16042,13 @@
         <v>28</v>
       </c>
       <c r="K6" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L6" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M6" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N6" s="102" t="s">
         <v>352</v>
@@ -16005,11 +16056,11 @@
       <c r="O6" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="P6" s="411" t="s">
-        <v>530</v>
+      <c r="P6" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>10</v>
@@ -16075,7 +16126,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G7" s="256"/>
       <c r="H7" s="258" t="s">
@@ -16088,13 +16139,13 @@
         <v>28</v>
       </c>
       <c r="K7" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L7" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M7" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N7" s="102" t="s">
         <v>351</v>
@@ -16102,11 +16153,11 @@
       <c r="O7" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="P7" s="411" t="s">
-        <v>530</v>
+      <c r="P7" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>10</v>
@@ -16172,7 +16223,7 @@
         <v>103</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G8" s="256"/>
       <c r="H8" s="103" t="s">
@@ -16191,7 +16242,7 @@
         <v>329</v>
       </c>
       <c r="M8" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N8" s="102" t="s">
         <v>354</v>
@@ -16199,11 +16250,11 @@
       <c r="O8" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="P8" s="411" t="s">
-        <v>530</v>
+      <c r="P8" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>10</v>
@@ -16269,7 +16320,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G9" s="256"/>
       <c r="H9" s="101" t="s">
@@ -16282,13 +16333,13 @@
         <v>28</v>
       </c>
       <c r="K9" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M9" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N9" s="102" t="s">
         <v>356</v>
@@ -16296,11 +16347,11 @@
       <c r="O9" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="P9" s="411" t="s">
-        <v>530</v>
+      <c r="P9" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>10</v>
@@ -16366,7 +16417,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G10" s="256"/>
       <c r="H10" s="101" t="s">
@@ -16379,13 +16430,13 @@
         <v>28</v>
       </c>
       <c r="K10" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L10" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M10" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N10" s="102" t="s">
         <v>358</v>
@@ -16393,11 +16444,11 @@
       <c r="O10" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="411" t="s">
-        <v>530</v>
+      <c r="P10" s="410" t="s">
+        <v>529</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>10</v>
@@ -16456,43 +16507,43 @@
         <v>234</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E11" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G11" s="263" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I11" s="81" t="s">
+        <v>620</v>
+      </c>
+      <c r="J11" s="81" t="s">
         <v>621</v>
       </c>
-      <c r="J11" s="81" t="s">
-        <v>622</v>
-      </c>
       <c r="K11" s="204" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L11" s="47" t="s">
         <v>468</v>
       </c>
       <c r="M11" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N11" s="102" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q11" s="6">
         <v>2</v>
@@ -16535,10 +16586,10 @@
         <v>19</v>
       </c>
       <c r="AJ11" s="57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AK11" s="302" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AL11" s="57">
         <v>9999999</v>
@@ -16565,7 +16616,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G12" s="260"/>
       <c r="H12" s="101" t="s">
@@ -16578,7 +16629,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L12" s="47" t="s">
         <v>106</v>
@@ -16591,7 +16642,7 @@
         <v>306</v>
       </c>
       <c r="P12" s="192" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -16653,24 +16704,24 @@
         <v>235</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E13" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G13" s="256"/>
       <c r="H13" s="101" t="s">
+        <v>690</v>
+      </c>
+      <c r="I13" s="81" t="s">
         <v>691</v>
-      </c>
-      <c r="I13" s="81" t="s">
-        <v>692</v>
       </c>
       <c r="J13" s="257"/>
       <c r="K13" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>106</v>
@@ -16681,7 +16732,7 @@
       <c r="N13" s="102"/>
       <c r="O13" s="393"/>
       <c r="P13" s="393" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -16728,7 +16779,7 @@
         <v>103</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>25</v>
@@ -16743,13 +16794,13 @@
         <v>27</v>
       </c>
       <c r="K14" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M14" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N14" s="102" t="s">
         <v>320</v>
@@ -16758,10 +16809,10 @@
         <v>318</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>10</v>
@@ -16825,7 +16876,7 @@
         <v>103</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>26</v>
@@ -16840,13 +16891,13 @@
         <v>27</v>
       </c>
       <c r="K15" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L15" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M15" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N15" s="102" t="s">
         <v>321</v>
@@ -16855,10 +16906,10 @@
         <v>319</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>10</v>
@@ -16922,7 +16973,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G16" s="65" t="s">
         <v>36</v>
@@ -16937,13 +16988,13 @@
         <v>27</v>
       </c>
       <c r="K16" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L16" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N16" s="102" t="s">
         <v>323</v>
@@ -16952,10 +17003,10 @@
         <v>322</v>
       </c>
       <c r="P16" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>10</v>
@@ -17019,7 +17070,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="61" t="s">
@@ -17032,13 +17083,13 @@
         <v>27</v>
       </c>
       <c r="K17" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L17" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M17" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N17" s="102" t="s">
         <v>325</v>
@@ -17047,10 +17098,10 @@
         <v>324</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>10</v>
@@ -17114,7 +17165,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G18" s="66" t="s">
         <v>36</v>
@@ -17129,13 +17180,13 @@
         <v>27</v>
       </c>
       <c r="K18" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L18" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N18" s="102" t="s">
         <v>323</v>
@@ -17144,10 +17195,10 @@
         <v>322</v>
       </c>
       <c r="P18" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>10</v>
@@ -17211,7 +17262,7 @@
         <v>103</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="61" t="s">
@@ -17224,13 +17275,13 @@
         <v>27</v>
       </c>
       <c r="K19" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L19" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N19" s="102" t="s">
         <v>325</v>
@@ -17239,10 +17290,10 @@
         <v>324</v>
       </c>
       <c r="P19" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>10</v>
@@ -17299,13 +17350,13 @@
         <v>220</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E20" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G20" s="65" t="s">
         <v>36</v>
@@ -17320,13 +17371,13 @@
         <v>27</v>
       </c>
       <c r="K20" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L20" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N20" s="102" t="s">
         <v>323</v>
@@ -17335,10 +17386,10 @@
         <v>322</v>
       </c>
       <c r="P20" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>10</v>
@@ -17402,7 +17453,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="60" t="s">
@@ -17415,13 +17466,13 @@
         <v>27</v>
       </c>
       <c r="K21" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L21" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M21" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N21" s="102" t="s">
         <v>325</v>
@@ -17430,10 +17481,10 @@
         <v>324</v>
       </c>
       <c r="P21" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>10</v>
@@ -17491,13 +17542,13 @@
         <v>222</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E22" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G22" s="65" t="s">
         <v>25</v>
@@ -17512,13 +17563,13 @@
         <v>193</v>
       </c>
       <c r="K22" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L22" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M22" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N22" s="102" t="s">
         <v>320</v>
@@ -17527,10 +17578,10 @@
         <v>318</v>
       </c>
       <c r="P22" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>10</v>
@@ -17596,7 +17647,7 @@
         <v>103</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G23" s="67" t="s">
         <v>26</v>
@@ -17611,13 +17662,13 @@
         <v>193</v>
       </c>
       <c r="K23" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L23" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M23" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N23" s="102" t="s">
         <v>321</v>
@@ -17626,10 +17677,10 @@
         <v>319</v>
       </c>
       <c r="P23" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>10</v>
@@ -17695,7 +17746,7 @@
         <v>103</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G24" s="65" t="s">
         <v>36</v>
@@ -17710,13 +17761,13 @@
         <v>193</v>
       </c>
       <c r="K24" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L24" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M24" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N24" s="102" t="s">
         <v>323</v>
@@ -17725,10 +17776,10 @@
         <v>322</v>
       </c>
       <c r="P24" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>10</v>
@@ -17794,7 +17845,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G25" s="67"/>
       <c r="H25" s="60" t="s">
@@ -17807,7 +17858,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L25" s="47" t="s">
         <v>106</v>
@@ -17820,10 +17871,10 @@
         <v>527</v>
       </c>
       <c r="P25" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R25" s="6" t="s">
         <v>10</v>
@@ -17887,7 +17938,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G26" s="65"/>
       <c r="H26" s="60" t="s">
@@ -17900,7 +17951,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L26" s="47" t="s">
         <v>106</v>
@@ -17913,10 +17964,10 @@
         <v>313</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>10</v>
@@ -17980,7 +18031,7 @@
         <v>103</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G27" s="67"/>
       <c r="H27" s="60" t="s">
@@ -17991,7 +18042,7 @@
       </c>
       <c r="J27" s="81"/>
       <c r="K27" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L27" s="47" t="s">
         <v>106</v>
@@ -18004,10 +18055,10 @@
         <v>314</v>
       </c>
       <c r="P27" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>10</v>
@@ -18046,26 +18097,26 @@
         <v>232</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E28" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G28" s="67"/>
       <c r="H28" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="I28" s="81" t="s">
         <v>693</v>
       </c>
-      <c r="I28" s="81" t="s">
-        <v>694</v>
-      </c>
       <c r="J28" s="81" t="s">
         <v>28</v>
       </c>
       <c r="K28" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L28" s="47" t="s">
         <v>106</v>
@@ -18074,11 +18125,11 @@
         <v>312</v>
       </c>
       <c r="N28" s="102"/>
-      <c r="O28" s="221" t="s">
-        <v>817</v>
-      </c>
-      <c r="P28" s="391" t="s">
-        <v>817</v>
+      <c r="O28" s="77" t="s">
+        <v>816</v>
+      </c>
+      <c r="P28" s="55" t="s">
+        <v>816</v>
       </c>
       <c r="Q28" s="6">
         <v>2</v>
@@ -18119,26 +18170,26 @@
         <v>233</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E29" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="60" t="s">
+        <v>694</v>
+      </c>
+      <c r="I29" s="81" t="s">
         <v>695</v>
       </c>
-      <c r="I29" s="81" t="s">
-        <v>696</v>
-      </c>
       <c r="J29" s="81" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L29" s="47" t="s">
         <v>106</v>
@@ -18147,11 +18198,11 @@
         <v>312</v>
       </c>
       <c r="N29" s="102"/>
-      <c r="O29" s="221" t="s">
-        <v>818</v>
-      </c>
-      <c r="P29" s="391" t="s">
-        <v>818</v>
+      <c r="O29" s="77" t="s">
+        <v>817</v>
+      </c>
+      <c r="P29" s="55" t="s">
+        <v>817</v>
       </c>
       <c r="Q29" s="6">
         <v>2</v>
@@ -18191,39 +18242,39 @@
         <v>250</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E30" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G30" s="67"/>
       <c r="H30" s="60" t="s">
+        <v>696</v>
+      </c>
+      <c r="I30" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="I30" s="81" t="s">
-        <v>698</v>
-      </c>
       <c r="J30" s="81" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L30" s="47" t="s">
         <v>329</v>
       </c>
       <c r="M30" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N30" s="102"/>
-      <c r="O30" s="421" t="s">
-        <v>831</v>
-      </c>
-      <c r="P30" s="422" t="s">
-        <v>899</v>
+      <c r="O30" s="420" t="s">
+        <v>830</v>
+      </c>
+      <c r="P30" s="421" t="s">
+        <v>898</v>
       </c>
       <c r="Q30" s="6">
         <v>1</v>
@@ -18266,20 +18317,20 @@
         <v>251</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E31" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="77" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I31" s="81" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J31" s="81" t="s">
         <v>28</v>
@@ -18291,14 +18342,14 @@
         <v>329</v>
       </c>
       <c r="M31" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N31" s="102"/>
       <c r="O31" s="389" t="s">
-        <v>835</v>
-      </c>
-      <c r="P31" s="422" t="s">
-        <v>899</v>
+        <v>834</v>
+      </c>
+      <c r="P31" s="421" t="s">
+        <v>898</v>
       </c>
       <c r="Q31" s="6">
         <v>1</v>
@@ -18341,17 +18392,17 @@
         <v>252</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E32" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="60" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I32" s="81" t="s">
         <v>28</v>
@@ -18366,14 +18417,14 @@
         <v>329</v>
       </c>
       <c r="M32" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N32" s="102"/>
       <c r="O32" s="47" t="s">
-        <v>832</v>
-      </c>
-      <c r="P32" s="422" t="s">
-        <v>899</v>
+        <v>831</v>
+      </c>
+      <c r="P32" s="421" t="s">
+        <v>898</v>
       </c>
       <c r="Q32" s="6">
         <v>2</v>
@@ -18416,17 +18467,17 @@
         <v>253</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E33" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="60" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I33" s="81" t="s">
         <v>28</v>
@@ -18441,14 +18492,14 @@
         <v>329</v>
       </c>
       <c r="M33" s="301" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N33" s="102"/>
-      <c r="O33" s="389" t="s">
-        <v>833</v>
+      <c r="O33" s="192" t="s">
+        <v>832</v>
       </c>
       <c r="P33" s="389" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -18491,19 +18542,19 @@
         <v>254</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E34" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I34" s="81" t="s">
         <v>29</v>
@@ -18512,19 +18563,21 @@
         <v>27</v>
       </c>
       <c r="K34" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L34" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M34" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N34" s="102"/>
-      <c r="O34" s="221" t="s">
-        <v>809</v>
-      </c>
-      <c r="P34" s="221"/>
+      <c r="O34" s="77" t="s">
+        <v>808</v>
+      </c>
+      <c r="P34" s="77" t="s">
+        <v>905</v>
+      </c>
       <c r="Q34" s="6">
         <v>3</v>
       </c>
@@ -18564,19 +18617,19 @@
         <v>255</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E35" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G35" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="60" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I35" s="81" t="s">
         <v>29</v>
@@ -18585,19 +18638,21 @@
         <v>27</v>
       </c>
       <c r="K35" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L35" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M35" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N35" s="102"/>
-      <c r="O35" s="221" t="s">
+      <c r="O35" s="77" t="s">
+        <v>809</v>
+      </c>
+      <c r="P35" s="77" t="s">
         <v>810</v>
       </c>
-      <c r="P35" s="221"/>
       <c r="Q35" s="6">
         <v>3</v>
       </c>
@@ -18637,19 +18692,19 @@
         <v>256</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E36" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G36" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I36" s="81" t="s">
         <v>29</v>
@@ -18658,19 +18713,21 @@
         <v>27</v>
       </c>
       <c r="K36" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L36" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M36" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N36" s="102"/>
-      <c r="O36" s="221" t="s">
-        <v>811</v>
-      </c>
-      <c r="P36" s="221"/>
+      <c r="O36" s="77" t="s">
+        <v>810</v>
+      </c>
+      <c r="P36" s="77" t="s">
+        <v>809</v>
+      </c>
       <c r="Q36" s="6">
         <v>3</v>
       </c>
@@ -18710,40 +18767,42 @@
         <v>257</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E37" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G37" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>669</v>
+      </c>
+      <c r="I37" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="H37" s="60" t="s">
-        <v>670</v>
-      </c>
-      <c r="I37" s="81" t="s">
+      <c r="J37" s="81" t="s">
         <v>555</v>
       </c>
-      <c r="J37" s="81" t="s">
-        <v>556</v>
-      </c>
       <c r="K37" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L37" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M37" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N37" s="102"/>
-      <c r="O37" s="314" t="s">
-        <v>812</v>
-      </c>
-      <c r="P37" s="314"/>
+      <c r="O37" s="451" t="s">
+        <v>811</v>
+      </c>
+      <c r="P37" s="451" t="s">
+        <v>906</v>
+      </c>
       <c r="Q37" s="6">
         <v>2</v>
       </c>
@@ -18756,7 +18815,7 @@
       <c r="X37" s="277"/>
       <c r="Y37" s="36"/>
       <c r="Z37" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA37" s="303"/>
       <c r="AB37" s="303"/>
@@ -18774,7 +18833,7 @@
     </row>
     <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="270" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B38" s="217" t="str">
         <f t="shared" si="0"/>
@@ -18785,38 +18844,38 @@
         <v>258</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E38" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G38" s="67" t="s">
+        <v>537</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>704</v>
+      </c>
+      <c r="I38" s="81" t="s">
         <v>538</v>
       </c>
-      <c r="H38" s="60" t="s">
-        <v>705</v>
-      </c>
-      <c r="I38" s="81" t="s">
+      <c r="J38" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="J38" s="81" t="s">
-        <v>540</v>
-      </c>
       <c r="K38" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L38" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M38" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N38" s="102"/>
       <c r="O38" s="221" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="P38" s="221"/>
       <c r="Q38" s="6">
@@ -18847,7 +18906,7 @@
     </row>
     <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="270" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B39" s="217" t="str">
         <f t="shared" si="0"/>
@@ -18858,38 +18917,38 @@
         <v>259</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E39" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G39" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I39" s="81" t="s">
+        <v>538</v>
+      </c>
+      <c r="J39" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="J39" s="81" t="s">
-        <v>540</v>
-      </c>
       <c r="K39" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L39" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M39" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N39" s="102"/>
       <c r="O39" s="221" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P39" s="221"/>
       <c r="Q39" s="6">
@@ -18920,7 +18979,7 @@
     </row>
     <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="270" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B40" s="217" t="str">
         <f t="shared" si="0"/>
@@ -18931,38 +18990,38 @@
         <v>260</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E40" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G40" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I40" s="81" t="s">
+        <v>538</v>
+      </c>
+      <c r="J40" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="J40" s="81" t="s">
-        <v>540</v>
-      </c>
       <c r="K40" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L40" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M40" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N40" s="102"/>
       <c r="O40" s="221" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P40" s="221"/>
       <c r="Q40" s="6">
@@ -18993,7 +19052,7 @@
     </row>
     <row r="41" spans="1:39" s="76" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="270" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B41" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19004,38 +19063,38 @@
         <v>261</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E41" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G41" s="67" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H41" s="60" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I41" s="81" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J41" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K41" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L41" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M41" s="301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N41" s="102"/>
       <c r="O41" s="221" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P41" s="221"/>
       <c r="Q41" s="6">
@@ -19077,26 +19136,26 @@
         <v>262</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E42" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="60" t="s">
         <v>189</v>
       </c>
       <c r="I42" s="81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J42" s="81" t="s">
         <v>28</v>
       </c>
       <c r="K42" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L42" s="47" t="s">
         <v>106</v>
@@ -19105,11 +19164,11 @@
         <v>309</v>
       </c>
       <c r="N42" s="102"/>
-      <c r="O42" s="221" t="s">
-        <v>820</v>
-      </c>
-      <c r="P42" s="391" t="s">
-        <v>870</v>
+      <c r="O42" s="77" t="s">
+        <v>819</v>
+      </c>
+      <c r="P42" s="77" t="s">
+        <v>869</v>
       </c>
       <c r="Q42" s="6">
         <v>2</v>
@@ -19152,26 +19211,26 @@
         <v>263</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E43" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="60" t="s">
+        <v>616</v>
+      </c>
+      <c r="I43" s="81" t="s">
         <v>617</v>
       </c>
-      <c r="I43" s="81" t="s">
-        <v>618</v>
-      </c>
       <c r="J43" s="81" t="s">
         <v>28</v>
       </c>
       <c r="K43" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L43" s="47" t="s">
         <v>106</v>
@@ -19181,8 +19240,8 @@
       </c>
       <c r="N43" s="102"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="393" t="s">
-        <v>869</v>
+      <c r="P43" s="47" t="s">
+        <v>868</v>
       </c>
       <c r="Q43" s="6">
         <v>2</v>
@@ -19225,13 +19284,13 @@
         <v>264</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E44" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="60" t="s">
@@ -19244,7 +19303,7 @@
         <v>186</v>
       </c>
       <c r="K44" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L44" s="47" t="s">
         <v>106</v>
@@ -19253,11 +19312,11 @@
         <v>312</v>
       </c>
       <c r="N44" s="102"/>
-      <c r="O44" s="221" t="s">
-        <v>819</v>
-      </c>
-      <c r="P44" s="391" t="s">
-        <v>872</v>
+      <c r="O44" s="77" t="s">
+        <v>818</v>
+      </c>
+      <c r="P44" s="77" t="s">
+        <v>871</v>
       </c>
       <c r="Q44" s="6">
         <v>2</v>
@@ -19287,7 +19346,7 @@
     </row>
     <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="270" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B45" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19298,39 +19357,39 @@
         <v>265</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E45" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G45" s="67"/>
       <c r="H45" s="60" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I45" s="81" t="s">
+        <v>571</v>
+      </c>
+      <c r="J45" s="81" t="s">
         <v>572</v>
       </c>
-      <c r="J45" s="81" t="s">
-        <v>573</v>
-      </c>
       <c r="K45" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L45" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N45" s="102"/>
-      <c r="O45" s="314" t="s">
-        <v>821</v>
-      </c>
-      <c r="P45" s="391" t="s">
-        <v>873</v>
+      <c r="O45" s="246" t="s">
+        <v>820</v>
+      </c>
+      <c r="P45" s="77" t="s">
+        <v>872</v>
       </c>
       <c r="Q45" s="6">
         <v>2</v>
@@ -19360,7 +19419,7 @@
     </row>
     <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="270" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B46" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19371,22 +19430,22 @@
         <v>266</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E46" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G46" s="67" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I46" s="81" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J46" s="81" t="s">
         <v>28</v>
@@ -19398,14 +19457,14 @@
         <v>106</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N46" s="102"/>
-      <c r="O46" s="252" t="s">
-        <v>822</v>
-      </c>
-      <c r="P46" s="392" t="s">
-        <v>874</v>
+      <c r="O46" s="104" t="s">
+        <v>821</v>
+      </c>
+      <c r="P46" s="104" t="s">
+        <v>873</v>
       </c>
       <c r="Q46" s="6">
         <v>1</v>
@@ -19435,7 +19494,7 @@
     </row>
     <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="270" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B47" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19446,41 +19505,41 @@
         <v>267</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E47" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G47" s="67" t="s">
+        <v>582</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>676</v>
+      </c>
+      <c r="I47" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="H47" s="60" t="s">
-        <v>677</v>
-      </c>
-      <c r="I47" s="81" t="s">
-        <v>584</v>
-      </c>
       <c r="J47" s="81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K47" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L47" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N47" s="102"/>
-      <c r="O47" s="221" t="s">
-        <v>823</v>
-      </c>
-      <c r="P47" s="391" t="s">
-        <v>877</v>
+      <c r="O47" s="77" t="s">
+        <v>822</v>
+      </c>
+      <c r="P47" s="77" t="s">
+        <v>876</v>
       </c>
       <c r="Q47" s="6">
         <v>2</v>
@@ -19510,7 +19569,7 @@
     </row>
     <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="270" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B48" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19521,22 +19580,22 @@
         <v>268</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E48" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G48" s="67" t="s">
+        <v>587</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>677</v>
+      </c>
+      <c r="I48" s="81" t="s">
         <v>588</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>678</v>
-      </c>
-      <c r="I48" s="81" t="s">
-        <v>589</v>
       </c>
       <c r="J48" s="81" t="s">
         <v>28</v>
@@ -19548,14 +19607,14 @@
         <v>106</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N48" s="102"/>
-      <c r="O48" s="252" t="s">
-        <v>824</v>
-      </c>
-      <c r="P48" s="392" t="s">
-        <v>878</v>
+      <c r="O48" s="104" t="s">
+        <v>823</v>
+      </c>
+      <c r="P48" s="104" t="s">
+        <v>877</v>
       </c>
       <c r="Q48" s="6">
         <v>1</v>
@@ -19585,7 +19644,7 @@
     </row>
     <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="270" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B49" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19596,41 +19655,41 @@
         <v>269</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E49" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G49" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I49" s="81" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J49" s="81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K49" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L49" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N49" s="102"/>
-      <c r="O49" s="221" t="s">
-        <v>825</v>
-      </c>
-      <c r="P49" s="391" t="s">
-        <v>880</v>
+      <c r="O49" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="P49" s="77" t="s">
+        <v>879</v>
       </c>
       <c r="Q49" s="6">
         <v>2</v>
@@ -19660,7 +19719,7 @@
     </row>
     <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="270" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B50" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19671,22 +19730,22 @@
         <v>270</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E50" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H50" s="60" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I50" s="81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J50" s="81" t="s">
         <v>28</v>
@@ -19698,14 +19757,14 @@
         <v>106</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N50" s="102"/>
-      <c r="O50" s="252" t="s">
-        <v>826</v>
-      </c>
-      <c r="P50" s="392" t="s">
-        <v>879</v>
+      <c r="O50" s="104" t="s">
+        <v>825</v>
+      </c>
+      <c r="P50" s="104" t="s">
+        <v>878</v>
       </c>
       <c r="Q50" s="6">
         <v>1</v>
@@ -19746,26 +19805,26 @@
         <v>271</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E51" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G51" s="67"/>
       <c r="H51" s="60" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I51" s="81" t="s">
+        <v>597</v>
+      </c>
+      <c r="J51" s="81" t="s">
         <v>598</v>
       </c>
-      <c r="J51" s="81" t="s">
-        <v>599</v>
-      </c>
       <c r="K51" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L51" s="47" t="s">
         <v>106</v>
@@ -19774,11 +19833,11 @@
         <v>362</v>
       </c>
       <c r="N51" s="102"/>
-      <c r="O51" s="221" t="s">
-        <v>827</v>
-      </c>
-      <c r="P51" s="391" t="s">
-        <v>881</v>
+      <c r="O51" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="P51" s="77" t="s">
+        <v>880</v>
       </c>
       <c r="Q51" s="6">
         <v>2</v>
@@ -19808,7 +19867,7 @@
     </row>
     <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="270" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B52" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19819,38 +19878,38 @@
         <v>272</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E52" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G52" s="67"/>
       <c r="H52" s="60" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I52" s="81" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J52" s="81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K52" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L52" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M52" s="37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N52" s="102"/>
-      <c r="O52" s="221" t="s">
-        <v>828</v>
-      </c>
-      <c r="P52" s="410"/>
+      <c r="O52" s="391" t="s">
+        <v>827</v>
+      </c>
+      <c r="P52" s="409"/>
       <c r="Q52" s="6">
         <v>2</v>
       </c>
@@ -19879,7 +19938,7 @@
     </row>
     <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="270" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B53" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19890,20 +19949,20 @@
         <v>273</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E53" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G53" s="67"/>
       <c r="H53" s="60" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I53" s="81" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J53" s="81" t="s">
         <v>28</v>
@@ -19915,13 +19974,13 @@
         <v>106</v>
       </c>
       <c r="M53" s="79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N53" s="102"/>
-      <c r="O53" s="389" t="s">
-        <v>829</v>
-      </c>
-      <c r="P53" s="413"/>
+      <c r="O53" s="452" t="s">
+        <v>828</v>
+      </c>
+      <c r="P53" s="412"/>
       <c r="Q53" s="6">
         <v>1</v>
       </c>
@@ -19950,7 +20009,7 @@
     </row>
     <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="270" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B54" s="217" t="str">
         <f>CONCATENATE("Indicatore ",C54," - ",D54)</f>
@@ -19961,39 +20020,39 @@
         <v>274</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E54" s="81" t="s">
         <v>103</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="60" t="s">
+        <v>608</v>
+      </c>
+      <c r="I54" s="81" t="s">
         <v>609</v>
       </c>
-      <c r="I54" s="81" t="s">
+      <c r="J54" s="81" t="s">
         <v>610</v>
       </c>
-      <c r="J54" s="81" t="s">
-        <v>611</v>
-      </c>
       <c r="K54" s="204" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L54" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M54" s="79" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N54" s="102"/>
-      <c r="O54" s="221" t="s">
-        <v>830</v>
-      </c>
-      <c r="P54" s="391" t="s">
-        <v>882</v>
+      <c r="O54" s="77" t="s">
+        <v>829</v>
+      </c>
+      <c r="P54" s="77" t="s">
+        <v>881</v>
       </c>
       <c r="Q54" s="6">
         <v>2</v>
@@ -20130,35 +20189,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="426" t="s">
+      <c r="X1" s="430" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="427"/>
-      <c r="Z1" s="427"/>
-      <c r="AA1" s="428"/>
-      <c r="AB1" s="426" t="s">
+      <c r="Y1" s="431"/>
+      <c r="Z1" s="431"/>
+      <c r="AA1" s="432"/>
+      <c r="AB1" s="430" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="427"/>
-      <c r="AD1" s="427"/>
-      <c r="AE1" s="428"/>
-      <c r="AF1" s="429" t="s">
+      <c r="AC1" s="431"/>
+      <c r="AD1" s="431"/>
+      <c r="AE1" s="432"/>
+      <c r="AF1" s="433" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="430"/>
-      <c r="AH1" s="430"/>
-      <c r="AI1" s="430"/>
-      <c r="AJ1" s="429" t="s">
+      <c r="AG1" s="434"/>
+      <c r="AH1" s="434"/>
+      <c r="AI1" s="434"/>
+      <c r="AJ1" s="433" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="430"/>
-      <c r="AL1" s="430"/>
-      <c r="AM1" s="430"/>
+      <c r="AK1" s="434"/>
+      <c r="AL1" s="434"/>
+      <c r="AM1" s="434"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="437" t="s">
+      <c r="AO1" s="441" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="437"/>
+      <c r="AP1" s="441"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -21655,7 +21714,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
@@ -21664,7 +21723,7 @@
         <v>443</v>
       </c>
       <c r="D29" s="198" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E29" s="229"/>
       <c r="F29" s="230"/>
@@ -21673,7 +21732,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -21682,10 +21741,10 @@
         <v>444</v>
       </c>
       <c r="D30" s="198" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E30" s="229" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F30" s="230"/>
       <c r="G30" s="198"/>
@@ -21711,7 +21770,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
@@ -21720,7 +21779,7 @@
         <v>444</v>
       </c>
       <c r="D32" s="198" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E32" s="229"/>
       <c r="F32" s="230"/>
@@ -21729,7 +21788,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="227" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B33" s="227" t="s">
         <v>114</v>
@@ -21738,7 +21797,7 @@
         <v>444</v>
       </c>
       <c r="D33" s="335" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E33" s="229"/>
       <c r="F33" s="230"/>
@@ -21756,7 +21815,7 @@
         <v>444</v>
       </c>
       <c r="D34" s="198" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E34" s="229"/>
       <c r="F34" s="230" t="s">
@@ -21776,7 +21835,7 @@
         <v>443</v>
       </c>
       <c r="D35" s="198" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E35" s="229"/>
       <c r="F35" s="230" t="s">
@@ -21913,112 +21972,112 @@
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="166" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3" s="384" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C3" s="383" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D3" s="385" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E3" s="386" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="384" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C4" s="383" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D4" s="385" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="384" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C5" s="383" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D5" s="385" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="384" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C6" s="383" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D6" s="385" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="384" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C7" s="383" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="C8" s="383" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="C9" s="383" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="C10" s="383" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="C11" s="383" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="383" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="C13" s="383" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="C14" s="383" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22029,13 +22088,13 @@
         <v>259</v>
       </c>
       <c r="D16" s="385" t="s">
+        <v>788</v>
+      </c>
+      <c r="E16" s="386" t="s">
         <v>789</v>
       </c>
-      <c r="E16" s="386" t="s">
+      <c r="G16" s="387" t="s">
         <v>790</v>
-      </c>
-      <c r="G16" s="387" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22047,25 +22106,25 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="166" t="s">
+        <v>797</v>
+      </c>
+      <c r="C18" s="383" t="s">
+        <v>801</v>
+      </c>
+      <c r="D18" s="385" t="s">
         <v>798</v>
       </c>
-      <c r="C18" s="383" t="s">
-        <v>802</v>
-      </c>
-      <c r="D18" s="385" t="s">
-        <v>799</v>
-      </c>
       <c r="E18" s="386" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G18" s="387" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="D19" s="385" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E19"/>
     </row>
@@ -22081,17 +22140,17 @@
         <v>266</v>
       </c>
       <c r="E21" s="386" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G21" s="387" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22"/>
       <c r="E22" s="386" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22103,13 +22162,13 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="166" t="s">
+        <v>793</v>
+      </c>
+      <c r="E24" s="386" t="s">
         <v>794</v>
       </c>
-      <c r="E24" s="386" t="s">
-        <v>795</v>
-      </c>
       <c r="G24" s="387" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22118,13 +22177,13 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="166" t="s">
+        <v>795</v>
+      </c>
+      <c r="D26" s="385" t="s">
         <v>796</v>
       </c>
-      <c r="D26" s="385" t="s">
-        <v>797</v>
-      </c>
       <c r="G26" s="387" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="907">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -2397,9 +2397,6 @@
   </si>
   <si>
     <t>where CD_FT in ("45", "46", "47", "48", "58")).</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>Rapporto fra l'importo dello sconfino mensile del Cliente sotto o sopra soglia di materialità e l'importo dell'accordato operativo mensile</t>
@@ -3544,16 +3541,6 @@
     <t>dubbi logici</t>
   </si>
   <si>
-    <t xml:space="preserve">nel mapping della CT per questo indicatore ci sono altri campi oltre a questi:
-NUM_GIO_SCONF_MAX_M0
-FLG_SCONF_MAX_M0
-NUM_GIO_SCONF_MAX_M1
-FLG_SCONF_MAX_M1
-NUM_GIO_SCONF_MAX_M2
-FLG_SCONF_MAX_M2
-</t>
-  </si>
-  <si>
     <t>IMP_UTIL_SEL_LIQ_M0
 IMP_UTIL_SEL_LIQ_M1
 IMP_UTIL_SEL_LIQ_M2
@@ -3608,14 +3595,30 @@
 IMP_UTIL_S_T_C_NOCOL_M1
 IMP_UTIL_S_T_C_NOCOL_M2</t>
   </si>
+  <si>
+    <t xml:space="preserve">FLG_SCONF_MAX_M0
+FLG_SCONF_MAX_M1
+FLG_SCONF_MAX_M2
+</t>
+  </si>
+  <si>
+    <t>riprendere da retail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4633,451 +4636,451 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5095,48 +5098,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -5151,43 +5154,43 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5199,40 +5202,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="39" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="40" fillId="25" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="39" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="40" fillId="27" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="39" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="40" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="39" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="40" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5241,50 +5244,50 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5294,276 +5297,276 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5581,303 +5584,306 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5889,17 +5895,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -7004,14 +7007,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="427" t="s">
+      <c r="E1" s="428" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="427"/>
-      <c r="H1" s="428" t="s">
+      <c r="F1" s="428"/>
+      <c r="H1" s="429" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="429"/>
+      <c r="I1" s="430"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -7022,19 +7025,19 @@
         <v>253</v>
       </c>
       <c r="N1" s="45" t="s">
+        <v>841</v>
+      </c>
+      <c r="O1" s="406" t="s">
         <v>842</v>
       </c>
-      <c r="O1" s="406" t="s">
+      <c r="P1" s="406" t="s">
         <v>843</v>
       </c>
-      <c r="P1" s="406" t="s">
+      <c r="Q1" s="406" t="s">
         <v>844</v>
       </c>
-      <c r="Q1" s="406" t="s">
+      <c r="R1" s="406" t="s">
         <v>845</v>
-      </c>
-      <c r="R1" s="406" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
@@ -7064,7 +7067,7 @@
         <v>529</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O2">
         <f>COUNTIF('Indicatori High_priority'!$Q$3:$Q$23,Legenda!$N2)</f>
@@ -7072,7 +7075,7 @@
       </c>
       <c r="P2">
         <f>COUNTIF('Indicatori Statistici'!$Q$3:$Q$124,Legenda!$N2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N2)</f>
@@ -7164,7 +7167,7 @@
       </c>
       <c r="P4">
         <f>COUNTIF('Indicatori Statistici'!$Q$3:$Q$124,Legenda!$N4)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q4">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N4)</f>
@@ -7275,7 +7278,7 @@
         <v>529</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O7">
         <v>0.125</v>
@@ -7436,7 +7439,7 @@
         <v>529</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O12">
         <f>O2*O7</f>
@@ -7444,7 +7447,7 @@
       </c>
       <c r="P12">
         <f t="shared" ref="P12:R12" si="0">P2*P7</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
@@ -7524,7 +7527,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
@@ -7592,7 +7595,7 @@
         <v>529</v>
       </c>
       <c r="N16" s="406" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O16" s="406">
         <f>SUM(O12:O15)</f>
@@ -7600,7 +7603,7 @@
       </c>
       <c r="P16" s="406">
         <f t="shared" ref="P16:R16" si="3">SUM(P12:P15)</f>
-        <v>12.5</v>
+        <v>12.125</v>
       </c>
       <c r="Q16" s="406">
         <f t="shared" si="3"/>
@@ -7645,22 +7648,22 @@
         <v>529</v>
       </c>
       <c r="N18" s="138" t="s">
+        <v>847</v>
+      </c>
+      <c r="O18" s="138" t="s">
         <v>848</v>
       </c>
-      <c r="O18" s="138" t="s">
+      <c r="P18" s="138" t="s">
         <v>849</v>
       </c>
-      <c r="P18" s="138" t="s">
+      <c r="Q18" s="138" t="s">
+        <v>848</v>
+      </c>
+      <c r="R18" s="138" t="s">
         <v>850</v>
       </c>
-      <c r="Q18" s="138" t="s">
-        <v>849</v>
-      </c>
-      <c r="R18" s="138" t="s">
+      <c r="S18" s="407" t="s">
         <v>851</v>
-      </c>
-      <c r="S18" s="407" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.25">
@@ -7784,11 +7787,11 @@
       </c>
       <c r="L23" s="198"/>
       <c r="N23" s="138" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="138" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q23" s="138"/>
       <c r="R23" s="138"/>
@@ -7807,11 +7810,11 @@
       </c>
       <c r="L24" s="198"/>
       <c r="N24" s="138" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O24" s="138"/>
       <c r="P24" s="138" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q24" s="138"/>
       <c r="R24" s="138"/>
@@ -7819,24 +7822,24 @@
     </row>
     <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="N25" s="138" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="138" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q25" s="138"/>
       <c r="R25" s="138"/>
       <c r="S25" s="138"/>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="I28" s="415" t="s">
+      <c r="I28" s="414" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="I29" s="415" t="s">
         <v>893</v>
-      </c>
-    </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="I29" s="416" t="s">
-        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -7865,11 +7868,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="446" t="s">
+      <c r="F1" s="447" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="446"/>
-      <c r="H1" s="446"/>
+      <c r="G1" s="447"/>
+      <c r="H1" s="447"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
@@ -7883,34 +7886,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="442" t="s">
+      <c r="A3" s="443" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="443"/>
+      <c r="B3" s="444"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="442"/>
-      <c r="B4" s="444"/>
+      <c r="A4" s="443"/>
+      <c r="B4" s="445"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="442"/>
-      <c r="B5" s="444"/>
+      <c r="A5" s="443"/>
+      <c r="B5" s="445"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="442"/>
-      <c r="B6" s="445"/>
+      <c r="A6" s="443"/>
+      <c r="B6" s="446"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
@@ -7965,7 +7968,7 @@
       <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="447"/>
+      <c r="A3" s="448"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -7988,7 +7991,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="447"/>
+      <c r="A4" s="448"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -8009,7 +8012,7 @@
       <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="447"/>
+      <c r="A5" s="448"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -8030,7 +8033,7 @@
       <c r="O5" s="198"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="447"/>
+      <c r="A6" s="448"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -8051,7 +8054,7 @@
       <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="447"/>
+      <c r="A7" s="448"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -8101,7 +8104,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="448"/>
+      <c r="A12" s="449"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -8124,7 +8127,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="448"/>
+      <c r="A13" s="449"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -8145,7 +8148,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="448"/>
+      <c r="A14" s="449"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -8166,7 +8169,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="448"/>
+      <c r="A15" s="449"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -8187,7 +8190,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="448"/>
+      <c r="A16" s="449"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -8516,10 +8519,10 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8564,30 +8567,30 @@
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="430" t="s">
+      <c r="Y1" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="431"/>
-      <c r="AA1" s="431"/>
-      <c r="AB1" s="432"/>
-      <c r="AC1" s="430" t="s">
+      <c r="Z1" s="432"/>
+      <c r="AA1" s="432"/>
+      <c r="AB1" s="433"/>
+      <c r="AC1" s="431" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="431"/>
-      <c r="AE1" s="431"/>
-      <c r="AF1" s="432"/>
-      <c r="AG1" s="433" t="s">
+      <c r="AD1" s="432"/>
+      <c r="AE1" s="432"/>
+      <c r="AF1" s="433"/>
+      <c r="AG1" s="434" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="434"/>
-      <c r="AI1" s="434"/>
-      <c r="AJ1" s="434"/>
-      <c r="AK1" s="433" t="s">
+      <c r="AH1" s="435"/>
+      <c r="AI1" s="435"/>
+      <c r="AJ1" s="435"/>
+      <c r="AK1" s="434" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="434"/>
-      <c r="AM1" s="434"/>
-      <c r="AN1" s="434"/>
+      <c r="AL1" s="435"/>
+      <c r="AM1" s="435"/>
+      <c r="AN1" s="435"/>
     </row>
     <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -8636,10 +8639,10 @@
         <v>2</v>
       </c>
       <c r="P2" s="402" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q2" s="405" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="R2" s="71" t="s">
         <v>9</v>
@@ -9342,10 +9345,10 @@
         <v>317</v>
       </c>
       <c r="P10" s="409" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -9654,10 +9657,10 @@
         <v>315</v>
       </c>
       <c r="P14" s="409" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -9730,10 +9733,10 @@
         <v>316</v>
       </c>
       <c r="P15" s="409" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -10193,7 +10196,7 @@
         <v>301</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Q21" s="6">
         <v>1</v>
@@ -10410,11 +10413,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10459,21 +10462,21 @@
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="435" t="s">
+      <c r="AB1" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="435"/>
-      <c r="AD1" s="435"/>
-      <c r="AE1" s="435" t="s">
+      <c r="AC1" s="436"/>
+      <c r="AD1" s="436"/>
+      <c r="AE1" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="435"/>
-      <c r="AG1" s="435"/>
-      <c r="AH1" s="435" t="s">
+      <c r="AF1" s="436"/>
+      <c r="AG1" s="436"/>
+      <c r="AH1" s="436" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="435"/>
-      <c r="AJ1" s="435"/>
+      <c r="AI1" s="436"/>
+      <c r="AJ1" s="436"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="402" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>278</v>
@@ -10661,7 +10664,7 @@
         <v>529</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>10</v>
@@ -10763,7 +10766,7 @@
         <v>529</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>10</v>
@@ -10857,14 +10860,14 @@
       <c r="N5" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="O5" s="419" t="s">
+      <c r="O5" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="P5" s="419" t="s">
-        <v>895</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>2</v>
+      <c r="P5" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -11036,11 +11039,11 @@
       <c r="N7" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O7" s="414" t="s">
-        <v>802</v>
-      </c>
-      <c r="P7" s="414" t="s">
-        <v>899</v>
+      <c r="O7" s="55" t="s">
+        <v>801</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>897</v>
       </c>
       <c r="Q7" s="6">
         <v>2</v>
@@ -11121,7 +11124,7 @@
         <v>550</v>
       </c>
       <c r="P8" s="77" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="Q8" s="6">
         <v>2</v>
@@ -11230,7 +11233,7 @@
         <v>557</v>
       </c>
       <c r="P9" s="394" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="Q9" s="6">
         <v>2</v>
@@ -11341,7 +11344,7 @@
         <v>529</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>10</v>
@@ -11441,7 +11444,7 @@
         <v>529</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>10</v>
@@ -11529,11 +11532,11 @@
       <c r="N12" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O12" s="414" t="s">
+      <c r="O12" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="P12" s="414" t="s">
-        <v>900</v>
+      <c r="P12" s="55" t="s">
+        <v>898</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -11616,7 +11619,7 @@
         <v>529</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>10</v>
@@ -11709,11 +11712,11 @@
       <c r="N14" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="O14" s="221" t="s">
-        <v>688</v>
-      </c>
-      <c r="P14" s="391" t="s">
-        <v>870</v>
+      <c r="O14" s="77" t="s">
+        <v>869</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>869</v>
       </c>
       <c r="Q14" s="6">
         <v>3</v>
@@ -11786,11 +11789,11 @@
       <c r="N15" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O15" s="414" t="s">
+      <c r="O15" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="P15" s="414" t="s">
-        <v>901</v>
+      <c r="P15" s="55" t="s">
+        <v>899</v>
       </c>
       <c r="Q15" s="6">
         <v>2</v>
@@ -11874,7 +11877,7 @@
         <v>529</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>10</v>
@@ -11922,7 +11925,7 @@
     </row>
     <row r="17" spans="1:40" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="322" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B17" s="217" t="str">
         <f t="shared" si="0"/>
@@ -11960,11 +11963,11 @@
       <c r="N17" s="309" t="s">
         <v>384</v>
       </c>
-      <c r="O17" s="414" t="s">
-        <v>803</v>
-      </c>
-      <c r="P17" s="414" t="s">
-        <v>902</v>
+      <c r="O17" s="55" t="s">
+        <v>802</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>900</v>
       </c>
       <c r="Q17" s="6">
         <v>3</v>
@@ -11999,7 +12002,7 @@
     </row>
     <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="323" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B18" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12022,7 +12025,7 @@
         <v>537</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I18" s="54" t="s">
         <v>538</v>
@@ -12046,7 +12049,7 @@
         <v>543</v>
       </c>
       <c r="P18" s="391" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Q18" s="6">
         <v>2</v>
@@ -12107,7 +12110,7 @@
     </row>
     <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="323" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B19" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12130,7 +12133,7 @@
         <v>25</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I19" s="54" t="s">
         <v>538</v>
@@ -12154,7 +12157,7 @@
         <v>560</v>
       </c>
       <c r="P19" s="391" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Q19" s="6">
         <v>2</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="313" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B20" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12238,7 +12241,7 @@
         <v>26</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I20" s="54" t="s">
         <v>538</v>
@@ -12262,7 +12265,7 @@
         <v>563</v>
       </c>
       <c r="P20" s="391" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Q20" s="6">
         <v>2</v>
@@ -12323,7 +12326,7 @@
     </row>
     <row r="21" spans="1:40" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="313" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B21" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12346,7 +12349,7 @@
         <v>553</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I21" s="54" t="s">
         <v>565</v>
@@ -12370,7 +12373,7 @@
         <v>567</v>
       </c>
       <c r="P21" s="391" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Q21" s="6">
         <v>2</v>
@@ -12476,7 +12479,7 @@
         <v>529</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>10</v>
@@ -12571,7 +12574,7 @@
         <v>529</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>10</v>
@@ -12659,13 +12662,13 @@
         <v>568</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O24" s="314" t="s">
         <v>573</v>
       </c>
       <c r="P24" s="394" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q24" s="6">
         <v>2</v>
@@ -12767,13 +12770,13 @@
         <v>568</v>
       </c>
       <c r="N25" s="309" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O25" s="252" t="s">
         <v>578</v>
       </c>
       <c r="P25" s="104" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -12879,13 +12882,13 @@
         <v>580</v>
       </c>
       <c r="N26" s="309" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O26" s="221" t="s">
         <v>584</v>
       </c>
       <c r="P26" s="391" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Q26" s="6">
         <v>2</v>
@@ -12987,13 +12990,13 @@
         <v>580</v>
       </c>
       <c r="N27" s="309" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O27" s="252" t="s">
         <v>589</v>
       </c>
       <c r="P27" s="104" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q27" s="6">
         <v>1</v>
@@ -13099,13 +13102,13 @@
         <v>580</v>
       </c>
       <c r="N28" s="309" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O28" s="221" t="s">
         <v>592</v>
       </c>
       <c r="P28" s="391" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Q28" s="6">
         <v>2</v>
@@ -13207,13 +13210,13 @@
         <v>580</v>
       </c>
       <c r="N29" s="309" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O29" s="252" t="s">
         <v>595</v>
       </c>
       <c r="P29" s="104" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q29" s="6">
         <v>1</v>
@@ -13319,13 +13322,13 @@
         <v>362</v>
       </c>
       <c r="N30" s="309" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O30" s="221" t="s">
         <v>363</v>
       </c>
       <c r="P30" s="77" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q30" s="6">
         <v>2</v>
@@ -13429,12 +13432,14 @@
         <v>600</v>
       </c>
       <c r="N31" s="309" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O31" s="221" t="s">
         <v>602</v>
       </c>
-      <c r="P31" s="391"/>
+      <c r="P31" s="391" t="s">
+        <v>896</v>
+      </c>
       <c r="Q31" s="6">
         <v>2</v>
       </c>
@@ -13535,12 +13540,14 @@
         <v>600</v>
       </c>
       <c r="N32" s="309" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O32" s="252" t="s">
         <v>605</v>
       </c>
-      <c r="P32" s="392"/>
+      <c r="P32" s="391" t="s">
+        <v>896</v>
+      </c>
       <c r="Q32" s="6">
         <v>1</v>
       </c>
@@ -13649,7 +13656,7 @@
         <v>613</v>
       </c>
       <c r="P33" s="77" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -13711,7 +13718,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AO33"/>
   <mergeCells count="3">
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13908,7 +13914,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13953,30 +13959,30 @@
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="436" t="s">
+      <c r="Y1" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="437"/>
-      <c r="AA1" s="437"/>
-      <c r="AB1" s="438"/>
-      <c r="AC1" s="436" t="s">
+      <c r="Z1" s="438"/>
+      <c r="AA1" s="438"/>
+      <c r="AB1" s="439"/>
+      <c r="AC1" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="437"/>
-      <c r="AE1" s="437"/>
-      <c r="AF1" s="438"/>
-      <c r="AG1" s="439" t="s">
+      <c r="AD1" s="438"/>
+      <c r="AE1" s="438"/>
+      <c r="AF1" s="439"/>
+      <c r="AG1" s="440" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="440"/>
-      <c r="AI1" s="440"/>
-      <c r="AJ1" s="440"/>
-      <c r="AK1" s="439" t="s">
+      <c r="AH1" s="441"/>
+      <c r="AI1" s="441"/>
+      <c r="AJ1" s="441"/>
+      <c r="AK1" s="440" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="440"/>
-      <c r="AM1" s="440"/>
-      <c r="AN1" s="440"/>
+      <c r="AL1" s="441"/>
+      <c r="AM1" s="441"/>
+      <c r="AN1" s="441"/>
     </row>
     <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
@@ -14025,7 +14031,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="404" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>278</v>
@@ -14118,13 +14124,13 @@
         <v>65</v>
       </c>
       <c r="F3" s="363" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G3" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="364" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I3" s="366"/>
       <c r="J3" s="366"/>
@@ -14140,14 +14146,14 @@
       <c r="N3" s="370" t="s">
         <v>525</v>
       </c>
-      <c r="O3" s="449" t="s">
-        <v>903</v>
-      </c>
-      <c r="P3" s="426" t="s">
-        <v>903</v>
+      <c r="O3" s="424" t="s">
+        <v>901</v>
+      </c>
+      <c r="P3" s="423" t="s">
+        <v>901</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>10</v>
@@ -14191,13 +14197,13 @@
         <v>102</v>
       </c>
       <c r="D4" s="364" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E4" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G4" s="365" t="s">
         <v>103</v>
@@ -14217,13 +14223,13 @@
         <v>263</v>
       </c>
       <c r="N4" s="370" t="s">
+        <v>714</v>
+      </c>
+      <c r="O4" s="364" t="s">
         <v>715</v>
       </c>
-      <c r="O4" s="364" t="s">
-        <v>716</v>
-      </c>
-      <c r="P4" s="425" t="s">
-        <v>890</v>
+      <c r="P4" s="422" t="s">
+        <v>889</v>
       </c>
       <c r="Q4" s="7">
         <v>1</v>
@@ -14277,7 +14283,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G5" s="365" t="s">
         <v>103</v>
@@ -14297,13 +14303,13 @@
         <v>263</v>
       </c>
       <c r="N5" s="370" t="s">
+        <v>716</v>
+      </c>
+      <c r="O5" s="364" t="s">
         <v>717</v>
       </c>
-      <c r="O5" s="364" t="s">
-        <v>718</v>
-      </c>
-      <c r="P5" s="425" t="s">
-        <v>891</v>
+      <c r="P5" s="422" t="s">
+        <v>890</v>
       </c>
       <c r="Q5" s="7">
         <v>1</v>
@@ -14357,7 +14363,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G6" s="365" t="s">
         <v>103</v>
@@ -14377,13 +14383,13 @@
         <v>263</v>
       </c>
       <c r="N6" s="370" t="s">
+        <v>718</v>
+      </c>
+      <c r="O6" s="416" t="s">
         <v>719</v>
       </c>
-      <c r="O6" s="417" t="s">
-        <v>720</v>
-      </c>
-      <c r="P6" s="425" t="s">
-        <v>892</v>
+      <c r="P6" s="422" t="s">
+        <v>891</v>
       </c>
       <c r="Q6" s="7">
         <v>1</v>
@@ -14431,19 +14437,19 @@
         <v>105</v>
       </c>
       <c r="D7" s="253" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E7" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G7" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="364" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I7" s="366"/>
       <c r="J7" s="366"/>
@@ -14457,11 +14463,13 @@
         <v>263</v>
       </c>
       <c r="N7" s="370" t="s">
-        <v>756</v>
-      </c>
-      <c r="O7" s="395"/>
-      <c r="P7" s="424" t="s">
-        <v>898</v>
+        <v>755</v>
+      </c>
+      <c r="O7" s="451" t="s">
+        <v>906</v>
+      </c>
+      <c r="P7" s="451" t="s">
+        <v>906</v>
       </c>
       <c r="Q7" s="7">
         <v>2</v>
@@ -14507,19 +14515,19 @@
         <v>106</v>
       </c>
       <c r="D8" s="364" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E8" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G8" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="364" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I8" s="366"/>
       <c r="J8" s="366"/>
@@ -14536,10 +14544,10 @@
         <v>369</v>
       </c>
       <c r="O8" s="364" t="s">
-        <v>723</v>
-      </c>
-      <c r="P8" s="418" t="s">
-        <v>886</v>
+        <v>722</v>
+      </c>
+      <c r="P8" s="452" t="s">
+        <v>885</v>
       </c>
       <c r="Q8" s="7">
         <v>1</v>
@@ -14587,13 +14595,13 @@
         <v>107</v>
       </c>
       <c r="D9" s="364" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E9" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G9" s="365" t="s">
         <v>103</v>
@@ -14613,13 +14621,13 @@
         <v>381</v>
       </c>
       <c r="N9" s="370" t="s">
+        <v>723</v>
+      </c>
+      <c r="O9" s="364" t="s">
         <v>724</v>
       </c>
-      <c r="O9" s="364" t="s">
-        <v>725</v>
-      </c>
-      <c r="P9" s="423" t="s">
-        <v>885</v>
+      <c r="P9" s="420" t="s">
+        <v>884</v>
       </c>
       <c r="Q9" s="7">
         <v>1</v>
@@ -14667,13 +14675,13 @@
         <v>108</v>
       </c>
       <c r="D10" s="364" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E10" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G10" s="365" t="s">
         <v>103</v>
@@ -14695,11 +14703,11 @@
       <c r="N10" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O10" s="417" t="s">
+      <c r="O10" s="416" t="s">
         <v>390</v>
       </c>
-      <c r="P10" s="418" t="s">
-        <v>888</v>
+      <c r="P10" s="417" t="s">
+        <v>887</v>
       </c>
       <c r="Q10" s="7">
         <v>1</v>
@@ -14746,19 +14754,19 @@
         <v>109</v>
       </c>
       <c r="D11" s="253" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E11" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G11" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="364" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I11" s="366"/>
       <c r="J11" s="366"/>
@@ -14774,11 +14782,11 @@
       <c r="N11" s="370" t="s">
         <v>369</v>
       </c>
-      <c r="O11" s="450" t="s">
-        <v>727</v>
+      <c r="O11" s="425" t="s">
+        <v>726</v>
       </c>
       <c r="P11" s="413" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q11" s="7">
         <v>1</v>
@@ -14823,13 +14831,13 @@
         <v>110</v>
       </c>
       <c r="D12" s="253" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E12" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G12" s="365" t="s">
         <v>103</v>
@@ -14849,13 +14857,13 @@
         <v>381</v>
       </c>
       <c r="N12" s="370" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O12" s="395" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P12" s="413" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q12" s="7">
         <v>1</v>
@@ -14900,13 +14908,13 @@
         <v>111</v>
       </c>
       <c r="D13" s="253" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E13" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G13" s="365" t="s">
         <v>103</v>
@@ -14932,7 +14940,7 @@
         <v>391</v>
       </c>
       <c r="P13" s="413" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q13" s="7">
         <v>1</v>
@@ -14983,7 +14991,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G14" s="365" t="s">
         <v>103</v>
@@ -15005,11 +15013,11 @@
       <c r="N14" s="370" t="s">
         <v>366</v>
       </c>
-      <c r="O14" s="422" t="s">
+      <c r="O14" s="450" t="s">
         <v>364</v>
       </c>
-      <c r="P14" s="424" t="s">
-        <v>898</v>
+      <c r="P14" s="421" t="s">
+        <v>896</v>
       </c>
       <c r="Q14" s="7">
         <v>1</v>
@@ -15060,7 +15068,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G15" s="365" t="s">
         <v>103</v>
@@ -15085,8 +15093,8 @@
       <c r="O15" s="395" t="s">
         <v>365</v>
       </c>
-      <c r="P15" s="424" t="s">
-        <v>898</v>
+      <c r="P15" s="421" t="s">
+        <v>896</v>
       </c>
       <c r="Q15" s="7">
         <v>1</v>
@@ -15137,7 +15145,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="363" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G16" s="365" t="s">
         <v>103</v>
@@ -15162,11 +15170,11 @@
       <c r="O16" s="364" t="s">
         <v>373</v>
       </c>
-      <c r="P16" s="423" t="s">
-        <v>904</v>
+      <c r="P16" s="420" t="s">
+        <v>902</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>10</v>
@@ -15216,7 +15224,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="363" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G17" s="365" t="s">
         <v>103</v>
@@ -15241,11 +15249,11 @@
       <c r="O17" s="364" t="s">
         <v>374</v>
       </c>
-      <c r="P17" s="423" t="s">
+      <c r="P17" s="420" t="s">
         <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>10</v>
@@ -15289,19 +15297,19 @@
         <v>120</v>
       </c>
       <c r="D18" s="253" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E18" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G18" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="390" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I18" s="366"/>
       <c r="J18" s="366"/>
@@ -15318,9 +15326,7 @@
         <v>368</v>
       </c>
       <c r="O18" s="395"/>
-      <c r="P18" s="424" t="s">
-        <v>898</v>
-      </c>
+      <c r="P18" s="421"/>
       <c r="Q18" s="7">
         <v>1</v>
       </c>
@@ -15364,19 +15370,19 @@
         <v>121</v>
       </c>
       <c r="D19" s="253" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E19" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G19" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="364" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I19" s="366"/>
       <c r="J19" s="366"/>
@@ -15393,8 +15399,8 @@
         <v>368</v>
       </c>
       <c r="O19" s="395"/>
-      <c r="P19" s="424" t="s">
-        <v>898</v>
+      <c r="P19" s="413" t="s">
+        <v>886</v>
       </c>
       <c r="Q19" s="7">
         <v>1</v>
@@ -15517,11 +15523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O28" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15574,21 +15580,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="435" t="s">
+      <c r="AA1" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="435"/>
-      <c r="AC1" s="435"/>
-      <c r="AD1" s="435" t="s">
+      <c r="AB1" s="436"/>
+      <c r="AC1" s="436"/>
+      <c r="AD1" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="435"/>
-      <c r="AF1" s="435"/>
-      <c r="AG1" s="435" t="s">
+      <c r="AE1" s="436"/>
+      <c r="AF1" s="436"/>
+      <c r="AG1" s="436" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="435"/>
-      <c r="AI1" s="435"/>
+      <c r="AH1" s="436"/>
+      <c r="AI1" s="436"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -15649,7 +15655,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>278</v>
@@ -15661,7 +15667,7 @@
         <v>7</v>
       </c>
       <c r="T2" s="71" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U2" s="71" t="s">
         <v>135</v>
@@ -15770,7 +15776,7 @@
         <v>529</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>10</v>
@@ -15867,7 +15873,7 @@
         <v>529</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>10</v>
@@ -15963,7 +15969,7 @@
         <v>529</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>10</v>
@@ -16060,7 +16066,7 @@
         <v>529</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>10</v>
@@ -16157,7 +16163,7 @@
         <v>529</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>10</v>
@@ -16254,7 +16260,7 @@
         <v>529</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>10</v>
@@ -16351,7 +16357,7 @@
         <v>529</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>10</v>
@@ -16448,7 +16454,7 @@
         <v>529</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>10</v>
@@ -16519,7 +16525,7 @@
         <v>103</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I11" s="81" t="s">
         <v>620</v>
@@ -16537,13 +16543,13 @@
         <v>662</v>
       </c>
       <c r="N11" s="102" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O11" s="47" t="s">
         <v>622</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Q11" s="6">
         <v>2</v>
@@ -16642,7 +16648,7 @@
         <v>306</v>
       </c>
       <c r="P12" s="192" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -16714,10 +16720,10 @@
       </c>
       <c r="G13" s="256"/>
       <c r="H13" s="101" t="s">
+        <v>689</v>
+      </c>
+      <c r="I13" s="81" t="s">
         <v>690</v>
-      </c>
-      <c r="I13" s="81" t="s">
-        <v>691</v>
       </c>
       <c r="J13" s="257"/>
       <c r="K13" s="204" t="s">
@@ -16732,7 +16738,7 @@
       <c r="N13" s="102"/>
       <c r="O13" s="393"/>
       <c r="P13" s="393" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -16800,7 +16806,7 @@
         <v>106</v>
       </c>
       <c r="M14" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N14" s="102" t="s">
         <v>320</v>
@@ -16812,7 +16818,7 @@
         <v>529</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>10</v>
@@ -16897,7 +16903,7 @@
         <v>106</v>
       </c>
       <c r="M15" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N15" s="102" t="s">
         <v>321</v>
@@ -16909,7 +16915,7 @@
         <v>529</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>10</v>
@@ -16994,7 +17000,7 @@
         <v>106</v>
       </c>
       <c r="M16" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N16" s="102" t="s">
         <v>323</v>
@@ -17006,7 +17012,7 @@
         <v>529</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>10</v>
@@ -17089,7 +17095,7 @@
         <v>106</v>
       </c>
       <c r="M17" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N17" s="102" t="s">
         <v>325</v>
@@ -17101,7 +17107,7 @@
         <v>529</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>10</v>
@@ -17186,7 +17192,7 @@
         <v>106</v>
       </c>
       <c r="M18" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N18" s="102" t="s">
         <v>323</v>
@@ -17198,7 +17204,7 @@
         <v>529</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>10</v>
@@ -17281,7 +17287,7 @@
         <v>106</v>
       </c>
       <c r="M19" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N19" s="102" t="s">
         <v>325</v>
@@ -17293,7 +17299,7 @@
         <v>529</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>10</v>
@@ -17377,7 +17383,7 @@
         <v>106</v>
       </c>
       <c r="M20" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N20" s="102" t="s">
         <v>323</v>
@@ -17389,7 +17395,7 @@
         <v>529</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>10</v>
@@ -17472,7 +17478,7 @@
         <v>106</v>
       </c>
       <c r="M21" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N21" s="102" t="s">
         <v>325</v>
@@ -17484,7 +17490,7 @@
         <v>529</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>10</v>
@@ -17569,7 +17575,7 @@
         <v>106</v>
       </c>
       <c r="M22" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N22" s="102" t="s">
         <v>320</v>
@@ -17581,7 +17587,7 @@
         <v>529</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>10</v>
@@ -17668,7 +17674,7 @@
         <v>106</v>
       </c>
       <c r="M23" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N23" s="102" t="s">
         <v>321</v>
@@ -17680,7 +17686,7 @@
         <v>529</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>10</v>
@@ -17767,7 +17773,7 @@
         <v>106</v>
       </c>
       <c r="M24" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N24" s="102" t="s">
         <v>323</v>
@@ -17779,7 +17785,7 @@
         <v>529</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>10</v>
@@ -17874,7 +17880,7 @@
         <v>529</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R25" s="6" t="s">
         <v>10</v>
@@ -17967,7 +17973,7 @@
         <v>529</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>10</v>
@@ -18058,7 +18064,7 @@
         <v>529</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>10</v>
@@ -18107,10 +18113,10 @@
       </c>
       <c r="G28" s="67"/>
       <c r="H28" s="60" t="s">
+        <v>691</v>
+      </c>
+      <c r="I28" s="81" t="s">
         <v>692</v>
-      </c>
-      <c r="I28" s="81" t="s">
-        <v>693</v>
       </c>
       <c r="J28" s="81" t="s">
         <v>28</v>
@@ -18126,10 +18132,10 @@
       </c>
       <c r="N28" s="102"/>
       <c r="O28" s="77" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P28" s="55" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q28" s="6">
         <v>2</v>
@@ -18180,10 +18186,10 @@
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="60" t="s">
+        <v>693</v>
+      </c>
+      <c r="I29" s="81" t="s">
         <v>694</v>
-      </c>
-      <c r="I29" s="81" t="s">
-        <v>695</v>
       </c>
       <c r="J29" s="81" t="s">
         <v>28</v>
@@ -18199,10 +18205,10 @@
       </c>
       <c r="N29" s="102"/>
       <c r="O29" s="77" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P29" s="55" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Q29" s="6">
         <v>2</v>
@@ -18252,10 +18258,10 @@
       </c>
       <c r="G30" s="67"/>
       <c r="H30" s="60" t="s">
+        <v>695</v>
+      </c>
+      <c r="I30" s="81" t="s">
         <v>696</v>
-      </c>
-      <c r="I30" s="81" t="s">
-        <v>697</v>
       </c>
       <c r="J30" s="81" t="s">
         <v>28</v>
@@ -18270,11 +18276,11 @@
         <v>662</v>
       </c>
       <c r="N30" s="102"/>
-      <c r="O30" s="420" t="s">
-        <v>830</v>
-      </c>
-      <c r="P30" s="421" t="s">
-        <v>898</v>
+      <c r="O30" s="418" t="s">
+        <v>829</v>
+      </c>
+      <c r="P30" s="419" t="s">
+        <v>896</v>
       </c>
       <c r="Q30" s="6">
         <v>1</v>
@@ -18327,10 +18333,10 @@
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="77" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I31" s="81" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J31" s="81" t="s">
         <v>28</v>
@@ -18346,10 +18352,10 @@
       </c>
       <c r="N31" s="102"/>
       <c r="O31" s="389" t="s">
-        <v>834</v>
-      </c>
-      <c r="P31" s="421" t="s">
-        <v>898</v>
+        <v>833</v>
+      </c>
+      <c r="P31" s="419" t="s">
+        <v>896</v>
       </c>
       <c r="Q31" s="6">
         <v>1</v>
@@ -18402,7 +18408,7 @@
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="60" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I32" s="81" t="s">
         <v>28</v>
@@ -18421,10 +18427,10 @@
       </c>
       <c r="N32" s="102"/>
       <c r="O32" s="47" t="s">
-        <v>831</v>
-      </c>
-      <c r="P32" s="421" t="s">
-        <v>898</v>
+        <v>830</v>
+      </c>
+      <c r="P32" s="419" t="s">
+        <v>896</v>
       </c>
       <c r="Q32" s="6">
         <v>2</v>
@@ -18477,7 +18483,7 @@
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="60" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I33" s="81" t="s">
         <v>28</v>
@@ -18496,10 +18502,10 @@
       </c>
       <c r="N33" s="102"/>
       <c r="O33" s="192" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P33" s="389" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -18554,7 +18560,7 @@
         <v>537</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I34" s="81" t="s">
         <v>29</v>
@@ -18569,14 +18575,14 @@
         <v>106</v>
       </c>
       <c r="M34" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N34" s="102"/>
       <c r="O34" s="77" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P34" s="77" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="Q34" s="6">
         <v>3</v>
@@ -18629,7 +18635,7 @@
         <v>25</v>
       </c>
       <c r="H35" s="60" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I35" s="81" t="s">
         <v>29</v>
@@ -18644,14 +18650,14 @@
         <v>106</v>
       </c>
       <c r="M35" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N35" s="102"/>
       <c r="O35" s="77" t="s">
+        <v>808</v>
+      </c>
+      <c r="P35" s="77" t="s">
         <v>809</v>
-      </c>
-      <c r="P35" s="77" t="s">
-        <v>810</v>
       </c>
       <c r="Q35" s="6">
         <v>3</v>
@@ -18704,7 +18710,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I36" s="81" t="s">
         <v>29</v>
@@ -18719,14 +18725,14 @@
         <v>106</v>
       </c>
       <c r="M36" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N36" s="102"/>
       <c r="O36" s="77" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P36" s="77" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="Q36" s="6">
         <v>3</v>
@@ -18794,14 +18800,14 @@
         <v>106</v>
       </c>
       <c r="M37" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N37" s="102"/>
-      <c r="O37" s="451" t="s">
-        <v>811</v>
-      </c>
-      <c r="P37" s="451" t="s">
-        <v>906</v>
+      <c r="O37" s="426" t="s">
+        <v>810</v>
+      </c>
+      <c r="P37" s="426" t="s">
+        <v>904</v>
       </c>
       <c r="Q37" s="6">
         <v>2</v>
@@ -18815,7 +18821,7 @@
       <c r="X37" s="277"/>
       <c r="Y37" s="36"/>
       <c r="Z37" s="36" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AA37" s="303"/>
       <c r="AB37" s="303"/>
@@ -18833,7 +18839,7 @@
     </row>
     <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="270" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B38" s="217" t="str">
         <f t="shared" si="0"/>
@@ -18856,7 +18862,7 @@
         <v>537</v>
       </c>
       <c r="H38" s="60" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I38" s="81" t="s">
         <v>538</v>
@@ -18871,11 +18877,11 @@
         <v>106</v>
       </c>
       <c r="M38" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N38" s="102"/>
       <c r="O38" s="221" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P38" s="221"/>
       <c r="Q38" s="6">
@@ -18906,7 +18912,7 @@
     </row>
     <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="270" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B39" s="217" t="str">
         <f t="shared" si="0"/>
@@ -18929,7 +18935,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I39" s="81" t="s">
         <v>538</v>
@@ -18944,11 +18950,11 @@
         <v>106</v>
       </c>
       <c r="M39" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N39" s="102"/>
       <c r="O39" s="221" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="P39" s="221"/>
       <c r="Q39" s="6">
@@ -18979,7 +18985,7 @@
     </row>
     <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="270" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B40" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19002,7 +19008,7 @@
         <v>26</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I40" s="81" t="s">
         <v>538</v>
@@ -19017,11 +19023,11 @@
         <v>106</v>
       </c>
       <c r="M40" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N40" s="102"/>
       <c r="O40" s="221" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P40" s="221"/>
       <c r="Q40" s="6">
@@ -19052,7 +19058,7 @@
     </row>
     <row r="41" spans="1:39" s="76" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="270" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B41" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19075,7 +19081,7 @@
         <v>553</v>
       </c>
       <c r="H41" s="60" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I41" s="81" t="s">
         <v>565</v>
@@ -19090,11 +19096,11 @@
         <v>106</v>
       </c>
       <c r="M41" s="301" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N41" s="102"/>
       <c r="O41" s="221" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P41" s="221"/>
       <c r="Q41" s="6">
@@ -19149,7 +19155,7 @@
         <v>189</v>
       </c>
       <c r="I42" s="81" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J42" s="81" t="s">
         <v>28</v>
@@ -19165,10 +19171,10 @@
       </c>
       <c r="N42" s="102"/>
       <c r="O42" s="77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P42" s="77" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q42" s="6">
         <v>2</v>
@@ -19241,7 +19247,7 @@
       <c r="N43" s="102"/>
       <c r="O43" s="47"/>
       <c r="P43" s="47" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q43" s="6">
         <v>2</v>
@@ -19313,10 +19319,10 @@
       </c>
       <c r="N44" s="102"/>
       <c r="O44" s="77" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P44" s="77" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q44" s="6">
         <v>2</v>
@@ -19386,10 +19392,10 @@
       </c>
       <c r="N45" s="102"/>
       <c r="O45" s="246" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P45" s="77" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q45" s="6">
         <v>2</v>
@@ -19461,10 +19467,10 @@
       </c>
       <c r="N46" s="102"/>
       <c r="O46" s="104" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P46" s="104" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q46" s="6">
         <v>1</v>
@@ -19536,10 +19542,10 @@
       </c>
       <c r="N47" s="102"/>
       <c r="O47" s="77" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P47" s="77" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q47" s="6">
         <v>2</v>
@@ -19611,10 +19617,10 @@
       </c>
       <c r="N48" s="102"/>
       <c r="O48" s="104" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P48" s="104" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q48" s="6">
         <v>1</v>
@@ -19686,10 +19692,10 @@
       </c>
       <c r="N49" s="102"/>
       <c r="O49" s="77" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P49" s="77" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q49" s="6">
         <v>2</v>
@@ -19761,10 +19767,10 @@
       </c>
       <c r="N50" s="102"/>
       <c r="O50" s="104" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P50" s="104" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q50" s="6">
         <v>1</v>
@@ -19834,10 +19840,10 @@
       </c>
       <c r="N51" s="102"/>
       <c r="O51" s="77" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P51" s="77" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q51" s="6">
         <v>2</v>
@@ -19891,7 +19897,7 @@
         <v>683</v>
       </c>
       <c r="I52" s="81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J52" s="81" t="s">
         <v>572</v>
@@ -19907,9 +19913,11 @@
       </c>
       <c r="N52" s="102"/>
       <c r="O52" s="391" t="s">
-        <v>827</v>
-      </c>
-      <c r="P52" s="409"/>
+        <v>826</v>
+      </c>
+      <c r="P52" s="409" t="s">
+        <v>896</v>
+      </c>
       <c r="Q52" s="6">
         <v>2</v>
       </c>
@@ -19962,7 +19970,7 @@
         <v>681</v>
       </c>
       <c r="I53" s="81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J53" s="81" t="s">
         <v>28</v>
@@ -19977,10 +19985,12 @@
         <v>600</v>
       </c>
       <c r="N53" s="102"/>
-      <c r="O53" s="452" t="s">
-        <v>828</v>
-      </c>
-      <c r="P53" s="412"/>
+      <c r="O53" s="427" t="s">
+        <v>827</v>
+      </c>
+      <c r="P53" s="412" t="s">
+        <v>896</v>
+      </c>
       <c r="Q53" s="6">
         <v>1</v>
       </c>
@@ -20049,10 +20059,10 @@
       </c>
       <c r="N54" s="102"/>
       <c r="O54" s="77" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P54" s="77" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q54" s="6">
         <v>2</v>
@@ -20189,35 +20199,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="430" t="s">
+      <c r="X1" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="431"/>
-      <c r="Z1" s="431"/>
-      <c r="AA1" s="432"/>
-      <c r="AB1" s="430" t="s">
+      <c r="Y1" s="432"/>
+      <c r="Z1" s="432"/>
+      <c r="AA1" s="433"/>
+      <c r="AB1" s="431" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="431"/>
-      <c r="AD1" s="431"/>
-      <c r="AE1" s="432"/>
-      <c r="AF1" s="433" t="s">
+      <c r="AC1" s="432"/>
+      <c r="AD1" s="432"/>
+      <c r="AE1" s="433"/>
+      <c r="AF1" s="434" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="434"/>
-      <c r="AH1" s="434"/>
-      <c r="AI1" s="434"/>
-      <c r="AJ1" s="433" t="s">
+      <c r="AG1" s="435"/>
+      <c r="AH1" s="435"/>
+      <c r="AI1" s="435"/>
+      <c r="AJ1" s="434" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="434"/>
-      <c r="AL1" s="434"/>
-      <c r="AM1" s="434"/>
+      <c r="AK1" s="435"/>
+      <c r="AL1" s="435"/>
+      <c r="AM1" s="435"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="441" t="s">
+      <c r="AO1" s="442" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="441"/>
+      <c r="AP1" s="442"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -21714,7 +21724,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
@@ -21723,7 +21733,7 @@
         <v>443</v>
       </c>
       <c r="D29" s="198" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E29" s="229"/>
       <c r="F29" s="230"/>
@@ -21732,7 +21742,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -21741,10 +21751,10 @@
         <v>444</v>
       </c>
       <c r="D30" s="198" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E30" s="229" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F30" s="230"/>
       <c r="G30" s="198"/>
@@ -21770,7 +21780,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
@@ -21779,7 +21789,7 @@
         <v>444</v>
       </c>
       <c r="D32" s="198" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E32" s="229"/>
       <c r="F32" s="230"/>
@@ -21788,7 +21798,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="227" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B33" s="227" t="s">
         <v>114</v>
@@ -21797,7 +21807,7 @@
         <v>444</v>
       </c>
       <c r="D33" s="335" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E33" s="229"/>
       <c r="F33" s="230"/>
@@ -21815,7 +21825,7 @@
         <v>444</v>
       </c>
       <c r="D34" s="198" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E34" s="229"/>
       <c r="F34" s="230" t="s">
@@ -21835,7 +21845,7 @@
         <v>443</v>
       </c>
       <c r="D35" s="198" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E35" s="229"/>
       <c r="F35" s="230" t="s">
@@ -21972,112 +21982,112 @@
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="166" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B3" s="384" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C3" s="383" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D3" s="385" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E3" s="386" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="384" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C4" s="383" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D4" s="385" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="384" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C5" s="383" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D5" s="385" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="384" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C6" s="383" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D6" s="385" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="384" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C7" s="383" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="C8" s="383" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="C9" s="383" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="C10" s="383" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="C11" s="383" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="383" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="C13" s="383" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="C14" s="383" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22088,13 +22098,13 @@
         <v>259</v>
       </c>
       <c r="D16" s="385" t="s">
+        <v>787</v>
+      </c>
+      <c r="E16" s="386" t="s">
         <v>788</v>
       </c>
-      <c r="E16" s="386" t="s">
+      <c r="G16" s="387" t="s">
         <v>789</v>
-      </c>
-      <c r="G16" s="387" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22106,25 +22116,25 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="166" t="s">
+        <v>796</v>
+      </c>
+      <c r="C18" s="383" t="s">
+        <v>800</v>
+      </c>
+      <c r="D18" s="385" t="s">
         <v>797</v>
       </c>
-      <c r="C18" s="383" t="s">
-        <v>801</v>
-      </c>
-      <c r="D18" s="385" t="s">
-        <v>798</v>
-      </c>
       <c r="E18" s="386" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G18" s="387" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="D19" s="385" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E19"/>
     </row>
@@ -22140,17 +22150,17 @@
         <v>266</v>
       </c>
       <c r="E21" s="386" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G21" s="387" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22"/>
       <c r="E22" s="386" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22162,13 +22172,13 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="166" t="s">
+        <v>792</v>
+      </c>
+      <c r="E24" s="386" t="s">
         <v>793</v>
       </c>
-      <c r="E24" s="386" t="s">
-        <v>794</v>
-      </c>
       <c r="G24" s="387" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22177,13 +22187,13 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="166" t="s">
+        <v>794</v>
+      </c>
+      <c r="D26" s="385" t="s">
         <v>795</v>
       </c>
-      <c r="D26" s="385" t="s">
-        <v>796</v>
-      </c>
       <c r="G26" s="387" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22215,15 +22225,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D428FA97A73D304E91AA59E09D526869" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5184d92e947fddf07e6b6109215ca8be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8022916f55ab85163ee9a5069dec31d5">
     <xsd:element name="properties">
@@ -22337,6 +22338,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
   <ds:schemaRefs>
@@ -22353,14 +22363,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2DE8A8-9F7C-444A-A54C-B908DB2D8D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22374,4 +22376,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="914">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -1963,12 +1963,6 @@
   <si>
     <t>* utilizzato totale per cassa a breve termine
 * fatturato</t>
-  </si>
-  <si>
-    <t>AMT_US_S_T_C_AZ_M0
-AMT_US_S_T_C_AZ_M1
-AMT_US_S_T_C_AZ_M2
-REVENUE_T1</t>
   </si>
   <si>
     <t>CRSYS_TUR</t>
@@ -3119,12 +3113,6 @@
 IMP_UTIL_PROD_SCAD_NOCOL_M2</t>
   </si>
   <si>
-    <t>AMT_US_S_T_C_AZ_NOCOL_M0
-AMT_US_S_T_C_AZ_NOCOL_M1
-AMT_US_S_T_C_AZ_NOCOL_M2
-REVENUE_NOCOL_T1</t>
-  </si>
-  <si>
     <t>AMT_US_SEL_LIQ_NOCOL_M0
 AMT_US_SEL_LIQ_NOCOL_M1
 AMT_US_SEL_LIQ_NOCOL_M2
@@ -3541,19 +3529,6 @@
     <t>dubbi logici</t>
   </si>
   <si>
-    <t>IMP_UTIL_SEL_LIQ_M0
-IMP_UTIL_SEL_LIQ_M1
-IMP_UTIL_SEL_LIQ_M2
-IMP_ACC_SEL_LIQ_M0
-IMP_ACC_SEL_LIQ_M1
-IMP_ACC_SEL_LIQ_M2</t>
-  </si>
-  <si>
-    <t>IMP_UTIL_S_T_C_M0
-IMP_UTIL_S_T_C_M1
-IMP_UTIL_S_T_C_M2</t>
-  </si>
-  <si>
     <t>nessuna corrispondenza</t>
   </si>
   <si>
@@ -3583,19 +3558,6 @@
     <t>FLG_PERFNOPE</t>
   </si>
   <si>
-    <t>IMP_UTIL_SEL_LIQ_NOCOL_M0
-IMP_UTIL_SEL_LIQ_NOCOL_M1
-IMP_UTIL_SEL_LIQ_NOCOL_M2
-IMP_ACC_SEL_LIQ_NOCOL_M0
-IMP_ACC_SEL_LIQ_NOCOL_M1
-IMP_ACC_SEL_LIQ_NOCOL_M2</t>
-  </si>
-  <si>
-    <t>IMP_UTIL_S_T_C_NOCOL_M0
-IMP_UTIL_S_T_C_NOCOL_M1
-IMP_UTIL_S_T_C_NOCOL_M2</t>
-  </si>
-  <si>
     <t xml:space="preserve">FLG_SCONF_MAX_M0
 FLG_SCONF_MAX_M1
 FLG_SCONF_MAX_M2
@@ -3603,6 +3565,126 @@
   </si>
   <si>
     <t>riprendere da retail</t>
+  </si>
+  <si>
+    <t>IMP_UTIL_SEL_LIQ_AZ_M0
+IMP_UTIL_SEL_LIQ_AZ_M1
+IMP_UTIL_SEL_LIQ_AZ_M2
+IMP_ACC_SEL_LIQ_AZ_M0
+IMP_ACC_SEL_LIQ_AZ_M1
+IMP_ACC_SEL_LIQ_AZ_M2</t>
+  </si>
+  <si>
+    <t>IMP_UTIL_S_T_C_AZ_M0
+IMP_UTIL_S_T_C_AZ_M1
+IMP_UTIL_S_T_C_AZ_M2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AMT_US_S_T_C_AZ_M0
+AMT_US_S_T_C_AZ_M1
+AMT_US_S_T_C_AZ_M2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REVENUE_T1</t>
+    </r>
+  </si>
+  <si>
+    <t>IMP_ACC_REV_AZ_M0
+IMP_ACC_REV_AZ_M1
+IMP_ACC_REV_AZ_M2
+IMP_UTIL_REV_AZ_M0
+IMP_UTIL_REV_AZ_M1
+IMP_UTIL_REV_AZ_M2</t>
+  </si>
+  <si>
+    <t>IMP_ACC_PROD_SCAD_AZ_M0
+IMP_ACC_PROD_SCAD_AZ_M1
+IMP_ACC_PROD_SCAD_AZ_M2
+IMP_UTIL_PROD_SCAD_AZ_M0
+IMP_UTIL_PROD_SCAD_AZ_M1
+IMP_UTIL_PROD_SCAD_AZ_M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP_ACC_REV_AZ_M0
+IMP_ACC_REV_AZ_M1
+IMP_ACC_REV_AZ_M2
+IMP_UTIL_REV_AZ_M0
+IMP_UTIL_REV_AZ_M1
+IMP_UTIL_REV_AZ_M2
+</t>
+  </si>
+  <si>
+    <t>IMP_ACC_CASSA_AZ_M0
+IMP_ACC_CASSA_AZ_M1
+IMP_ACC_CASSA_AZ_M2
+IMP_UTIL_CASSA_AZ_M0
+IMP_UTIL_CASSA_AZ_M1
+IMP_UTIL_CASSA_AZ_M2</t>
+  </si>
+  <si>
+    <t>IMP_ACC_TOT_AZ_M0
+IMP_ACC_TOT_AZ_M1
+IMP_ACC_TOT_AZ_M2
+IMP_UTIL_TOT_AZ_M0
+IMP_UTIL_TOT_AZ_M1
+IMP_UTIL_TOT_AZ_M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP_UTIL_SEL_LIQ_NOCOL_AZ_M0
+IMP_UTIL_SEL_LIQ_NOCOL_AZ_M1
+IMP_UTIL_SEL_LIQ_NOCOL_AZ_M2
+IMP_ACC_SEL_LIQ_NOCOL_AZ_M0 
+IMP_ACC_SEL_LIQ_NOCOL_AZ_M1
+IMP_ACC_SEL_LIQ_NOCOL_AZ_M2
+</t>
+  </si>
+  <si>
+    <t>IMP_ACC_PROD_SCAD_NOCOL_AZ_M0
+IMP_ACC_PROD_SCAD_NOCOL_AZ_M1
+IMP_ACC_PROD_SCAD_NOCOL_AZ_M2
+IMP_UTIL_PROD_SCAD_NOCOL_AZ_M0
+IMP_UTIL_PROD_SCAD_NOCOL_AZ_M1
+IMP_UTIL_PROD_SCAD_NOCOL_AZ_M2</t>
+  </si>
+  <si>
+    <t>IMP_ACC_REV_NOCOL_AZ_M0
+IMP_ACC_REV_NOCOL_AZ_M1
+IMP_ACC_REV_NOCOL_AZ_M2
+IMP_UTIL_REV_NOCOL_AZ_M0
+IMP_UTIL_REV_NOCOL_AZ_M1
+IMP_UTIL_REV_NOCOL_AZ_M2</t>
+  </si>
+  <si>
+    <t>IMP_UTIL_S_T_C_NOCOL_AZ_M0
+IMP_UTIL_S_T_C_NOCOL_AZ_M1
+IMP_UTIL_S_T_C_NOCOL_AZ_M2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AMT_US_S_T_C_AZ_NOCOL_M0
+AMT_US_S_T_C_AZ_NOCOL_M1
+AMT_US_S_T_C_AZ_NOCOL_M2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REVENUE_NOCOL_T1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5829,6 +5911,15 @@
     <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5894,15 +5985,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -7007,14 +7089,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="428" t="s">
+      <c r="E1" s="431" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="428"/>
-      <c r="H1" s="429" t="s">
+      <c r="F1" s="431"/>
+      <c r="H1" s="432" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="430"/>
+      <c r="I1" s="433"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -7025,19 +7107,19 @@
         <v>253</v>
       </c>
       <c r="N1" s="45" t="s">
+        <v>839</v>
+      </c>
+      <c r="O1" s="406" t="s">
+        <v>840</v>
+      </c>
+      <c r="P1" s="406" t="s">
         <v>841</v>
       </c>
-      <c r="O1" s="406" t="s">
+      <c r="Q1" s="406" t="s">
         <v>842</v>
       </c>
-      <c r="P1" s="406" t="s">
+      <c r="R1" s="406" t="s">
         <v>843</v>
-      </c>
-      <c r="Q1" s="406" t="s">
-        <v>844</v>
-      </c>
-      <c r="R1" s="406" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
@@ -7067,7 +7149,7 @@
         <v>529</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="O2">
         <f>COUNTIF('Indicatori High_priority'!$Q$3:$Q$23,Legenda!$N2)</f>
@@ -7075,7 +7157,7 @@
       </c>
       <c r="P2">
         <f>COUNTIF('Indicatori Statistici'!$Q$3:$Q$124,Legenda!$N2)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N2)</f>
@@ -7083,7 +7165,7 @@
       </c>
       <c r="R2">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N2)</f>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -7121,7 +7203,7 @@
       </c>
       <c r="P3">
         <f>COUNTIF('Indicatori Statistici'!$Q$3:$Q$124,Legenda!$N3)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q3">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N3)</f>
@@ -7129,7 +7211,7 @@
       </c>
       <c r="R3">
         <f>COUNTIF('Indicatore Simulativi'!$Q$3:$Q$124,Legenda!$N3)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -7167,7 +7249,7 @@
       </c>
       <c r="P4">
         <f>COUNTIF('Indicatori Statistici'!$Q$3:$Q$124,Legenda!$N4)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4">
         <f>COUNTIF('Indicatori Qualitativi'!$Q$3:$Q$124,Legenda!$N4)</f>
@@ -7278,7 +7360,7 @@
         <v>529</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="O7">
         <v>0.125</v>
@@ -7439,7 +7521,7 @@
         <v>529</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="O12">
         <f>O2*O7</f>
@@ -7447,7 +7529,7 @@
       </c>
       <c r="P12">
         <f t="shared" ref="P12:R12" si="0">P2*P7</f>
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
@@ -7455,13 +7537,13 @@
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="272"/>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H13" s="242" t="s">
         <v>491</v>
@@ -7487,7 +7569,7 @@
       </c>
       <c r="P13">
         <f t="shared" ref="P13:R13" si="1">P3*P8</f>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -7495,13 +7577,13 @@
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="273"/>
       <c r="C14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H14" s="242" t="s">
         <v>493</v>
@@ -7527,7 +7609,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
@@ -7541,7 +7623,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="274"/>
       <c r="C15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H15" s="242" t="s">
         <v>495</v>
@@ -7595,7 +7677,7 @@
         <v>529</v>
       </c>
       <c r="N16" s="406" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="O16" s="406">
         <f>SUM(O12:O15)</f>
@@ -7611,7 +7693,7 @@
       </c>
       <c r="R16" s="406">
         <f t="shared" si="3"/>
-        <v>19.25</v>
+        <v>20.625</v>
       </c>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.25">
@@ -7648,22 +7730,22 @@
         <v>529</v>
       </c>
       <c r="N18" s="138" t="s">
+        <v>845</v>
+      </c>
+      <c r="O18" s="138" t="s">
+        <v>846</v>
+      </c>
+      <c r="P18" s="138" t="s">
         <v>847</v>
       </c>
-      <c r="O18" s="138" t="s">
+      <c r="Q18" s="138" t="s">
+        <v>846</v>
+      </c>
+      <c r="R18" s="138" t="s">
         <v>848</v>
       </c>
-      <c r="P18" s="138" t="s">
+      <c r="S18" s="407" t="s">
         <v>849</v>
-      </c>
-      <c r="Q18" s="138" t="s">
-        <v>848</v>
-      </c>
-      <c r="R18" s="138" t="s">
-        <v>850</v>
-      </c>
-      <c r="S18" s="407" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.25">
@@ -7787,11 +7869,11 @@
       </c>
       <c r="L23" s="198"/>
       <c r="N23" s="138" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="138" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="Q23" s="138"/>
       <c r="R23" s="138"/>
@@ -7810,11 +7892,11 @@
       </c>
       <c r="L24" s="198"/>
       <c r="N24" s="138" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="O24" s="138"/>
       <c r="P24" s="138" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="Q24" s="138"/>
       <c r="R24" s="138"/>
@@ -7822,11 +7904,11 @@
     </row>
     <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="N25" s="138" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="138" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="Q25" s="138"/>
       <c r="R25" s="138"/>
@@ -7834,12 +7916,12 @@
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I28" s="414" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I29" s="415" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -7868,11 +7950,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="447" t="s">
+      <c r="F1" s="450" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="447"/>
-      <c r="H1" s="447"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
@@ -7886,34 +7968,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="443" t="s">
+      <c r="A3" s="446" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="444"/>
+      <c r="B3" s="447"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="443"/>
-      <c r="B4" s="445"/>
+      <c r="A4" s="446"/>
+      <c r="B4" s="448"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="443"/>
-      <c r="B5" s="445"/>
+      <c r="A5" s="446"/>
+      <c r="B5" s="448"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="443"/>
-      <c r="B6" s="446"/>
+      <c r="A6" s="446"/>
+      <c r="B6" s="449"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
@@ -7968,7 +8050,7 @@
       <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="448"/>
+      <c r="A3" s="451"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -7991,7 +8073,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="448"/>
+      <c r="A4" s="451"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -8012,7 +8094,7 @@
       <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="448"/>
+      <c r="A5" s="451"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -8033,7 +8115,7 @@
       <c r="O5" s="198"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="448"/>
+      <c r="A6" s="451"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -8054,7 +8136,7 @@
       <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="448"/>
+      <c r="A7" s="451"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -8104,7 +8186,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="449"/>
+      <c r="A12" s="452"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -8127,7 +8209,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="449"/>
+      <c r="A13" s="452"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -8148,7 +8230,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="449"/>
+      <c r="A14" s="452"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -8169,7 +8251,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="449"/>
+      <c r="A15" s="452"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -8190,7 +8272,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="449"/>
+      <c r="A16" s="452"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -8567,30 +8649,30 @@
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="431" t="s">
+      <c r="Y1" s="434" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="432"/>
-      <c r="AA1" s="432"/>
-      <c r="AB1" s="433"/>
-      <c r="AC1" s="431" t="s">
+      <c r="Z1" s="435"/>
+      <c r="AA1" s="435"/>
+      <c r="AB1" s="436"/>
+      <c r="AC1" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="432"/>
-      <c r="AE1" s="432"/>
-      <c r="AF1" s="433"/>
-      <c r="AG1" s="434" t="s">
+      <c r="AD1" s="435"/>
+      <c r="AE1" s="435"/>
+      <c r="AF1" s="436"/>
+      <c r="AG1" s="437" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="435"/>
-      <c r="AI1" s="435"/>
-      <c r="AJ1" s="435"/>
-      <c r="AK1" s="434" t="s">
+      <c r="AH1" s="438"/>
+      <c r="AI1" s="438"/>
+      <c r="AJ1" s="438"/>
+      <c r="AK1" s="437" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="435"/>
-      <c r="AM1" s="435"/>
-      <c r="AN1" s="435"/>
+      <c r="AL1" s="438"/>
+      <c r="AM1" s="438"/>
+      <c r="AN1" s="438"/>
     </row>
     <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -8639,10 +8721,10 @@
         <v>2</v>
       </c>
       <c r="P2" s="402" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="Q2" s="405" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="R2" s="71" t="s">
         <v>9</v>
@@ -9345,10 +9427,10 @@
         <v>317</v>
       </c>
       <c r="P10" s="409" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -9657,10 +9739,10 @@
         <v>315</v>
       </c>
       <c r="P14" s="409" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -9733,10 +9815,10 @@
         <v>316</v>
       </c>
       <c r="P15" s="409" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -10196,7 +10278,7 @@
         <v>301</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="Q21" s="6">
         <v>1</v>
@@ -10411,13 +10493,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10462,21 +10545,21 @@
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="436" t="s">
+      <c r="AB1" s="439" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="436"/>
-      <c r="AD1" s="436"/>
-      <c r="AE1" s="436" t="s">
+      <c r="AC1" s="439"/>
+      <c r="AD1" s="439"/>
+      <c r="AE1" s="439" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="436"/>
-      <c r="AG1" s="436"/>
-      <c r="AH1" s="436" t="s">
+      <c r="AF1" s="439"/>
+      <c r="AG1" s="439"/>
+      <c r="AH1" s="439" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="436"/>
-      <c r="AJ1" s="436"/>
+      <c r="AI1" s="439"/>
+      <c r="AJ1" s="439"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10537,7 +10620,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="402" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>278</v>
@@ -10613,7 +10696,7 @@
       </c>
       <c r="AO2" s="4"/>
     </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="249" t="s">
         <v>35</v>
       </c>
@@ -10652,7 +10735,7 @@
         <v>329</v>
       </c>
       <c r="M3" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N3" s="102" t="s">
         <v>330</v>
@@ -10664,7 +10747,7 @@
         <v>529</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>10</v>
@@ -10680,7 +10763,7 @@
         <v>194</v>
       </c>
       <c r="AA3" s="302" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AB3" s="303" t="s">
         <v>28</v>
@@ -10714,7 +10797,7 @@
       <c r="AM3" s="305"/>
       <c r="AN3" s="306"/>
     </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="249" t="s">
         <v>35</v>
       </c>
@@ -10739,7 +10822,7 @@
         <v>103</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I4" s="54" t="s">
         <v>30</v>
@@ -10754,7 +10837,7 @@
         <v>329</v>
       </c>
       <c r="M4" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N4" s="101" t="s">
         <v>346</v>
@@ -10766,7 +10849,7 @@
         <v>529</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>10</v>
@@ -10782,7 +10865,7 @@
         <v>194</v>
       </c>
       <c r="AA4" s="302" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AB4" s="303" t="s">
         <v>28</v>
@@ -10816,7 +10899,7 @@
       <c r="AM4" s="305"/>
       <c r="AN4" s="306"/>
     </row>
-    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="271" t="s">
         <v>35</v>
       </c>
@@ -10855,7 +10938,7 @@
         <v>329</v>
       </c>
       <c r="M5" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N5" s="103" t="s">
         <v>333</v>
@@ -10864,10 +10947,10 @@
         <v>332</v>
       </c>
       <c r="P5" s="37" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -10881,7 +10964,7 @@
         <v>194</v>
       </c>
       <c r="AA5" s="302" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AB5" s="303" t="s">
         <v>28</v>
@@ -10915,7 +10998,7 @@
       <c r="AM5" s="305"/>
       <c r="AN5" s="306"/>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="271" t="s">
         <v>35</v>
       </c>
@@ -10955,7 +11038,7 @@
         <v>329</v>
       </c>
       <c r="M6" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N6" s="103" t="s">
         <v>335</v>
@@ -10983,7 +11066,7 @@
         <v>195</v>
       </c>
       <c r="AA6" s="302" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AB6" s="303"/>
       <c r="AC6" s="307"/>
@@ -11040,10 +11123,10 @@
         <v>384</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="P7" s="55" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="Q7" s="6">
         <v>2</v>
@@ -11124,10 +11207,10 @@
         <v>550</v>
       </c>
       <c r="P8" s="77" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="Q8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>10</v>
@@ -11209,7 +11292,7 @@
         <v>553</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I9" s="54" t="s">
         <v>554</v>
@@ -11230,15 +11313,17 @@
         <v>556</v>
       </c>
       <c r="O9" s="394" t="s">
-        <v>557</v>
+        <v>903</v>
       </c>
       <c r="P9" s="394" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="Q9" s="6">
         <v>2</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -11292,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" s="2" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="250" t="s">
         <v>34</v>
       </c>
@@ -11317,7 +11402,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>29</v>
@@ -11341,10 +11426,10 @@
         <v>318</v>
       </c>
       <c r="P10" s="79" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>840</v>
+        <v>904</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>10</v>
@@ -11417,7 +11502,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I11" s="54" t="s">
         <v>29</v>
@@ -11441,10 +11526,10 @@
         <v>319</v>
       </c>
       <c r="P11" s="79" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>840</v>
+        <v>905</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>10</v>
@@ -11492,7 +11577,7 @@
       <c r="AM11" s="74"/>
       <c r="AN11" s="74"/>
     </row>
-    <row r="12" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="308" t="s">
         <v>182</v>
       </c>
@@ -11516,7 +11601,7 @@
         <v>103</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="26"/>
@@ -11536,7 +11621,7 @@
         <v>370</v>
       </c>
       <c r="P12" s="55" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -11569,7 +11654,7 @@
       <c r="AM12" s="310"/>
       <c r="AN12" s="311"/>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="271" t="s">
         <v>182</v>
       </c>
@@ -11619,7 +11704,7 @@
         <v>529</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>10</v>
@@ -11668,7 +11753,7 @@
       <c r="AN13" s="306"/>
       <c r="AO13" s="215"/>
     </row>
-    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="318" t="s">
         <v>182</v>
       </c>
@@ -11680,7 +11765,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E14" s="79" t="s">
         <v>65</v>
@@ -11689,13 +11774,13 @@
         <v>97</v>
       </c>
       <c r="G14" s="219" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H14" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="I14" s="54" t="s">
         <v>616</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>617</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>28</v>
@@ -11710,13 +11795,13 @@
         <v>309</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O14" s="77" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="P14" s="55" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="Q14" s="6">
         <v>3</v>
@@ -11749,7 +11834,7 @@
       <c r="AM14" s="293"/>
       <c r="AN14" s="320"/>
     </row>
-    <row r="15" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="308" t="s">
         <v>183</v>
       </c>
@@ -11773,7 +11858,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="26"/>
@@ -11793,7 +11878,7 @@
         <v>371</v>
       </c>
       <c r="P15" s="55" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="Q15" s="6">
         <v>2</v>
@@ -11826,7 +11911,7 @@
       <c r="AM15" s="310"/>
       <c r="AN15" s="311"/>
     </row>
-    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="308" t="s">
         <v>183</v>
       </c>
@@ -11877,7 +11962,7 @@
         <v>529</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>10</v>
@@ -11923,9 +12008,9 @@
       <c r="AM16" s="57"/>
       <c r="AN16" s="293"/>
     </row>
-    <row r="17" spans="1:40" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="322" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B17" s="217" t="str">
         <f t="shared" si="0"/>
@@ -11935,7 +12020,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E17" s="79" t="s">
         <v>65</v>
@@ -11947,7 +12032,7 @@
         <v>103</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="26"/>
@@ -11964,10 +12049,10 @@
         <v>384</v>
       </c>
       <c r="O17" s="55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P17" s="55" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="Q17" s="6">
         <v>3</v>
@@ -12000,9 +12085,9 @@
       <c r="AM17" s="310"/>
       <c r="AN17" s="311"/>
     </row>
-    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="323" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B18" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12025,7 +12110,7 @@
         <v>537</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I18" s="54" t="s">
         <v>538</v>
@@ -12049,7 +12134,7 @@
         <v>543</v>
       </c>
       <c r="P18" s="391" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q18" s="6">
         <v>2</v>
@@ -12108,9 +12193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="323" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B19" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12121,7 +12206,7 @@
         <v>92</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E19" s="79" t="s">
         <v>65</v>
@@ -12133,7 +12218,7 @@
         <v>25</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I19" s="54" t="s">
         <v>538</v>
@@ -12151,13 +12236,13 @@
         <v>541</v>
       </c>
       <c r="N19" s="103" t="s">
+        <v>558</v>
+      </c>
+      <c r="O19" s="221" t="s">
         <v>559</v>
       </c>
-      <c r="O19" s="221" t="s">
-        <v>560</v>
-      </c>
       <c r="P19" s="391" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q19" s="6">
         <v>2</v>
@@ -12216,9 +12301,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="313" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B20" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12229,7 +12314,7 @@
         <v>93</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E20" s="79" t="s">
         <v>65</v>
@@ -12241,7 +12326,7 @@
         <v>26</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I20" s="54" t="s">
         <v>538</v>
@@ -12259,13 +12344,13 @@
         <v>541</v>
       </c>
       <c r="N20" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="O20" s="221" t="s">
         <v>562</v>
       </c>
-      <c r="O20" s="221" t="s">
-        <v>563</v>
-      </c>
       <c r="P20" s="391" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q20" s="6">
         <v>2</v>
@@ -12324,9 +12409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="313" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B21" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12337,7 +12422,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E21" s="79" t="s">
         <v>65</v>
@@ -12349,10 +12434,10 @@
         <v>553</v>
       </c>
       <c r="H21" s="59" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>555</v>
@@ -12367,13 +12452,13 @@
         <v>541</v>
       </c>
       <c r="N21" s="103" t="s">
+        <v>565</v>
+      </c>
+      <c r="O21" s="221" t="s">
         <v>566</v>
       </c>
-      <c r="O21" s="221" t="s">
-        <v>567</v>
-      </c>
       <c r="P21" s="391" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q21" s="6">
         <v>2</v>
@@ -12432,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="308" t="s">
         <v>361</v>
       </c>
@@ -12444,7 +12529,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E22" s="79" t="s">
         <v>65</v>
@@ -12467,7 +12552,7 @@
         <v>329</v>
       </c>
       <c r="M22" s="206" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N22" s="101" t="s">
         <v>457</v>
@@ -12479,7 +12564,7 @@
         <v>529</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>10</v>
@@ -12527,7 +12612,7 @@
       <c r="AM22" s="328"/>
       <c r="AN22" s="328"/>
     </row>
-    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="308" t="s">
         <v>361</v>
       </c>
@@ -12539,7 +12624,7 @@
         <v>151</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E23" s="79" t="s">
         <v>65</v>
@@ -12562,7 +12647,7 @@
         <v>329</v>
       </c>
       <c r="M23" s="398" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N23" s="101" t="s">
         <v>455</v>
@@ -12574,7 +12659,7 @@
         <v>529</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>10</v>
@@ -12620,9 +12705,9 @@
       <c r="AM23" s="328"/>
       <c r="AN23" s="328"/>
     </row>
-    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="330" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B24" s="217" t="str">
         <f>CONCATENATE("Indicatore ",C24," - ",D24)</f>
@@ -12632,7 +12717,7 @@
         <v>162</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E24" s="79" t="s">
         <v>65</v>
@@ -12644,13 +12729,13 @@
         <v>103</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I24" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>571</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>572</v>
       </c>
       <c r="K24" s="275" t="s">
         <v>528</v>
@@ -12659,16 +12744,16 @@
         <v>106</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O24" s="314" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P24" s="394" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="Q24" s="6">
         <v>2</v>
@@ -12685,7 +12770,7 @@
       </c>
       <c r="Z24" s="315"/>
       <c r="AA24" s="302" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AB24" s="291" t="s">
         <v>19</v>
@@ -12727,9 +12812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="330" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B25" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12740,7 +12825,7 @@
         <v>163</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E25" s="79" t="s">
         <v>65</v>
@@ -12749,34 +12834,34 @@
         <v>547</v>
       </c>
       <c r="G25" s="276" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I25" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="204" t="s">
         <v>576</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="204" t="s">
-        <v>577</v>
       </c>
       <c r="L25" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N25" s="309" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O25" s="252" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P25" s="104" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -12794,54 +12879,54 @@
         <v>4</v>
       </c>
       <c r="Z25" s="57" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA25" s="302" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB25" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC25" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD25" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="311" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF25" s="311" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG25" s="311" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH25" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI25" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ25" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK25" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL25" s="310" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM25" s="310" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN25" s="311" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="330" t="s">
         <v>579</v>
-      </c>
-      <c r="AA25" s="302" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB25" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC25" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD25" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE25" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF25" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG25" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH25" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI25" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ25" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK25" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL25" s="310" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM25" s="310" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN25" s="311" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="330" t="s">
-        <v>580</v>
       </c>
       <c r="B26" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12852,25 +12937,25 @@
         <v>164</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E26" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G26" s="276" t="s">
+        <v>581</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>675</v>
+      </c>
+      <c r="I26" s="54" t="s">
         <v>582</v>
       </c>
-      <c r="H26" s="59" t="s">
-        <v>676</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>583</v>
-      </c>
       <c r="J26" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K26" s="204" t="s">
         <v>528</v>
@@ -12879,16 +12964,16 @@
         <v>106</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N26" s="309" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O26" s="221" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P26" s="391" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Q26" s="6">
         <v>2</v>
@@ -12905,7 +12990,7 @@
       </c>
       <c r="Z26" s="315"/>
       <c r="AA26" s="302" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AB26" s="291" t="s">
         <v>19</v>
@@ -12947,9 +13032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="330" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B27" s="217" t="str">
         <f t="shared" si="0"/>
@@ -12960,43 +13045,43 @@
         <v>165</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E27" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G27" s="276" t="s">
+        <v>586</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="I27" s="54" t="s">
         <v>587</v>
       </c>
-      <c r="H27" s="59" t="s">
-        <v>677</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>588</v>
-      </c>
       <c r="J27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="204" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L27" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N27" s="309" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O27" s="252" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P27" s="104" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="Q27" s="6">
         <v>1</v>
@@ -13014,54 +13099,54 @@
         <v>4</v>
       </c>
       <c r="Z27" s="57" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA27" s="302" t="s">
+        <v>584</v>
+      </c>
+      <c r="AB27" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD27" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE27" s="311" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF27" s="311" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG27" s="311" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH27" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI27" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ27" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK27" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL27" s="310" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM27" s="310" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN27" s="311" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="330" t="s">
         <v>579</v>
-      </c>
-      <c r="AA27" s="302" t="s">
-        <v>585</v>
-      </c>
-      <c r="AB27" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC27" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD27" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE27" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF27" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG27" s="311" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH27" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI27" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ27" s="278" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK27" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL27" s="310" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM27" s="310" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN27" s="311" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="330" t="s">
-        <v>580</v>
       </c>
       <c r="B28" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13072,25 +13157,25 @@
         <v>166</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E28" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G28" s="276" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H28" s="59" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K28" s="204" t="s">
         <v>528</v>
@@ -13099,16 +13184,16 @@
         <v>106</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N28" s="309" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O28" s="221" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P28" s="391" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="Q28" s="6">
         <v>2</v>
@@ -13125,7 +13210,7 @@
       </c>
       <c r="Z28" s="315"/>
       <c r="AA28" s="302" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AB28" s="291" t="s">
         <v>19</v>
@@ -13167,9 +13252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="330" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B29" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13180,43 +13265,43 @@
         <v>167</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E29" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G29" s="276" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J29" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="204" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L29" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N29" s="309" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O29" s="252" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P29" s="104" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="Q29" s="6">
         <v>1</v>
@@ -13234,10 +13319,10 @@
         <v>4</v>
       </c>
       <c r="Z29" s="57" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AA29" s="302" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AB29" s="278" t="s">
         <v>28</v>
@@ -13279,7 +13364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="330" t="s">
         <v>362</v>
       </c>
@@ -13292,7 +13377,7 @@
         <v>168</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E30" s="79" t="s">
         <v>65</v>
@@ -13304,13 +13389,13 @@
         <v>103</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I30" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>597</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>598</v>
       </c>
       <c r="K30" s="275" t="s">
         <v>528</v>
@@ -13322,13 +13407,13 @@
         <v>362</v>
       </c>
       <c r="N30" s="309" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O30" s="221" t="s">
         <v>363</v>
       </c>
       <c r="P30" s="77" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="Q30" s="6">
         <v>2</v>
@@ -13347,7 +13432,7 @@
       </c>
       <c r="Z30" s="397"/>
       <c r="AA30" s="331" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AB30" s="296" t="s">
         <v>19</v>
@@ -13389,9 +13474,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="330" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B31" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13402,7 +13487,7 @@
         <v>169</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E31" s="79" t="s">
         <v>65</v>
@@ -13411,16 +13496,16 @@
         <v>24</v>
       </c>
       <c r="G31" s="276" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H31" s="59" t="s">
+        <v>682</v>
+      </c>
+      <c r="I31" s="54" t="s">
         <v>683</v>
       </c>
-      <c r="I31" s="54" t="s">
-        <v>684</v>
-      </c>
       <c r="J31" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K31" s="275" t="s">
         <v>528</v>
@@ -13429,16 +13514,16 @@
         <v>106</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N31" s="309" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O31" s="221" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P31" s="391" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q31" s="6">
         <v>2</v>
@@ -13455,7 +13540,7 @@
       </c>
       <c r="Z31" s="54"/>
       <c r="AA31" s="302" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB31" s="291" t="s">
         <v>19</v>
@@ -13497,9 +13582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="330" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B32" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13510,7 +13595,7 @@
         <v>170</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E32" s="79" t="s">
         <v>65</v>
@@ -13519,34 +13604,34 @@
         <v>24</v>
       </c>
       <c r="G32" s="276" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>28</v>
       </c>
       <c r="K32" s="204" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L32" s="47" t="s">
         <v>106</v>
       </c>
       <c r="M32" s="79" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N32" s="309" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O32" s="252" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P32" s="391" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q32" s="6">
         <v>1</v>
@@ -13562,10 +13647,10 @@
         <v>4</v>
       </c>
       <c r="Z32" s="54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AA32" s="302" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB32" s="278" t="s">
         <v>28</v>
@@ -13607,9 +13692,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="330" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B33" s="217" t="str">
         <f t="shared" si="0"/>
@@ -13620,25 +13705,25 @@
         <v>171</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E33" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G33" s="219" t="s">
         <v>103</v>
       </c>
       <c r="H33" s="59" t="s">
+        <v>607</v>
+      </c>
+      <c r="I33" s="54" t="s">
         <v>608</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="J33" s="26" t="s">
         <v>609</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>610</v>
       </c>
       <c r="K33" s="275" t="s">
         <v>528</v>
@@ -13647,16 +13732,16 @@
         <v>106</v>
       </c>
       <c r="M33" s="79" t="s">
+        <v>610</v>
+      </c>
+      <c r="N33" s="309" t="s">
         <v>611</v>
       </c>
-      <c r="N33" s="309" t="s">
+      <c r="O33" s="221" t="s">
         <v>612</v>
       </c>
-      <c r="O33" s="221" t="s">
-        <v>613</v>
-      </c>
       <c r="P33" s="77" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -13675,7 +13760,7 @@
       </c>
       <c r="Z33" s="54"/>
       <c r="AA33" s="302" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AB33" s="291" t="s">
         <v>19</v>
@@ -13718,6 +13803,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AO33">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CR ad alzo zero"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13911,10 +14003,10 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13959,30 +14051,30 @@
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="437" t="s">
+      <c r="Y1" s="440" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="438"/>
-      <c r="AA1" s="438"/>
-      <c r="AB1" s="439"/>
-      <c r="AC1" s="437" t="s">
+      <c r="Z1" s="441"/>
+      <c r="AA1" s="441"/>
+      <c r="AB1" s="442"/>
+      <c r="AC1" s="440" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="438"/>
-      <c r="AE1" s="438"/>
-      <c r="AF1" s="439"/>
-      <c r="AG1" s="440" t="s">
+      <c r="AD1" s="441"/>
+      <c r="AE1" s="441"/>
+      <c r="AF1" s="442"/>
+      <c r="AG1" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="441"/>
-      <c r="AI1" s="441"/>
-      <c r="AJ1" s="441"/>
-      <c r="AK1" s="440" t="s">
+      <c r="AH1" s="444"/>
+      <c r="AI1" s="444"/>
+      <c r="AJ1" s="444"/>
+      <c r="AK1" s="443" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="441"/>
-      <c r="AM1" s="441"/>
-      <c r="AN1" s="441"/>
+      <c r="AL1" s="444"/>
+      <c r="AM1" s="444"/>
+      <c r="AN1" s="444"/>
     </row>
     <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
@@ -14031,7 +14123,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="404" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>278</v>
@@ -14124,13 +14216,13 @@
         <v>65</v>
       </c>
       <c r="F3" s="363" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G3" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="364" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I3" s="366"/>
       <c r="J3" s="366"/>
@@ -14147,13 +14239,13 @@
         <v>525</v>
       </c>
       <c r="O3" s="424" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="P3" s="423" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>10</v>
@@ -14197,13 +14289,13 @@
         <v>102</v>
       </c>
       <c r="D4" s="364" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E4" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="363" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G4" s="365" t="s">
         <v>103</v>
@@ -14223,13 +14315,13 @@
         <v>263</v>
       </c>
       <c r="N4" s="370" t="s">
+        <v>713</v>
+      </c>
+      <c r="O4" s="364" t="s">
         <v>714</v>
       </c>
-      <c r="O4" s="364" t="s">
-        <v>715</v>
-      </c>
       <c r="P4" s="422" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="Q4" s="7">
         <v>1</v>
@@ -14283,7 +14375,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="363" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G5" s="365" t="s">
         <v>103</v>
@@ -14303,13 +14395,13 @@
         <v>263</v>
       </c>
       <c r="N5" s="370" t="s">
+        <v>715</v>
+      </c>
+      <c r="O5" s="364" t="s">
         <v>716</v>
       </c>
-      <c r="O5" s="364" t="s">
-        <v>717</v>
-      </c>
       <c r="P5" s="422" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="Q5" s="7">
         <v>1</v>
@@ -14363,7 +14455,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="363" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G6" s="365" t="s">
         <v>103</v>
@@ -14383,13 +14475,13 @@
         <v>263</v>
       </c>
       <c r="N6" s="370" t="s">
+        <v>717</v>
+      </c>
+      <c r="O6" s="416" t="s">
         <v>718</v>
       </c>
-      <c r="O6" s="416" t="s">
-        <v>719</v>
-      </c>
       <c r="P6" s="422" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="Q6" s="7">
         <v>1</v>
@@ -14437,19 +14529,19 @@
         <v>105</v>
       </c>
       <c r="D7" s="253" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E7" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="363" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G7" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="364" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I7" s="366"/>
       <c r="J7" s="366"/>
@@ -14463,13 +14555,13 @@
         <v>263</v>
       </c>
       <c r="N7" s="370" t="s">
-        <v>755</v>
-      </c>
-      <c r="O7" s="451" t="s">
-        <v>906</v>
-      </c>
-      <c r="P7" s="451" t="s">
-        <v>906</v>
+        <v>754</v>
+      </c>
+      <c r="O7" s="429" t="s">
+        <v>900</v>
+      </c>
+      <c r="P7" s="429" t="s">
+        <v>900</v>
       </c>
       <c r="Q7" s="7">
         <v>2</v>
@@ -14515,19 +14607,19 @@
         <v>106</v>
       </c>
       <c r="D8" s="364" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E8" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G8" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="364" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I8" s="366"/>
       <c r="J8" s="366"/>
@@ -14544,10 +14636,10 @@
         <v>369</v>
       </c>
       <c r="O8" s="364" t="s">
-        <v>722</v>
-      </c>
-      <c r="P8" s="452" t="s">
-        <v>885</v>
+        <v>721</v>
+      </c>
+      <c r="P8" s="430" t="s">
+        <v>883</v>
       </c>
       <c r="Q8" s="7">
         <v>1</v>
@@ -14595,13 +14687,13 @@
         <v>107</v>
       </c>
       <c r="D9" s="364" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E9" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G9" s="365" t="s">
         <v>103</v>
@@ -14621,13 +14713,13 @@
         <v>381</v>
       </c>
       <c r="N9" s="370" t="s">
+        <v>722</v>
+      </c>
+      <c r="O9" s="364" t="s">
         <v>723</v>
       </c>
-      <c r="O9" s="364" t="s">
-        <v>724</v>
-      </c>
       <c r="P9" s="420" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q9" s="7">
         <v>1</v>
@@ -14675,13 +14767,13 @@
         <v>108</v>
       </c>
       <c r="D10" s="364" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E10" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G10" s="365" t="s">
         <v>103</v>
@@ -14707,7 +14799,7 @@
         <v>390</v>
       </c>
       <c r="P10" s="417" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="Q10" s="7">
         <v>1</v>
@@ -14754,19 +14846,19 @@
         <v>109</v>
       </c>
       <c r="D11" s="253" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E11" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G11" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="364" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I11" s="366"/>
       <c r="J11" s="366"/>
@@ -14783,10 +14875,10 @@
         <v>369</v>
       </c>
       <c r="O11" s="425" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P11" s="413" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="Q11" s="7">
         <v>1</v>
@@ -14831,13 +14923,13 @@
         <v>110</v>
       </c>
       <c r="D12" s="253" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E12" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G12" s="365" t="s">
         <v>103</v>
@@ -14857,13 +14949,13 @@
         <v>381</v>
       </c>
       <c r="N12" s="370" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O12" s="395" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P12" s="413" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="Q12" s="7">
         <v>1</v>
@@ -14908,13 +15000,13 @@
         <v>111</v>
       </c>
       <c r="D13" s="253" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E13" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G13" s="365" t="s">
         <v>103</v>
@@ -14940,7 +15032,7 @@
         <v>391</v>
       </c>
       <c r="P13" s="413" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="Q13" s="7">
         <v>1</v>
@@ -14991,7 +15083,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G14" s="365" t="s">
         <v>103</v>
@@ -15013,11 +15105,11 @@
       <c r="N14" s="370" t="s">
         <v>366</v>
       </c>
-      <c r="O14" s="450" t="s">
+      <c r="O14" s="428" t="s">
         <v>364</v>
       </c>
       <c r="P14" s="421" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q14" s="7">
         <v>1</v>
@@ -15068,7 +15160,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="363" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G15" s="365" t="s">
         <v>103</v>
@@ -15094,7 +15186,7 @@
         <v>365</v>
       </c>
       <c r="P15" s="421" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q15" s="7">
         <v>1</v>
@@ -15145,7 +15237,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G16" s="365" t="s">
         <v>103</v>
@@ -15171,10 +15263,10 @@
         <v>373</v>
       </c>
       <c r="P16" s="420" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>10</v>
@@ -15224,7 +15316,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="363" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G17" s="365" t="s">
         <v>103</v>
@@ -15253,7 +15345,7 @@
         <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>10</v>
@@ -15297,19 +15389,19 @@
         <v>120</v>
       </c>
       <c r="D18" s="253" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E18" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G18" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="390" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I18" s="366"/>
       <c r="J18" s="366"/>
@@ -15370,19 +15462,19 @@
         <v>121</v>
       </c>
       <c r="D19" s="253" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E19" s="364" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="363" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G19" s="365" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="364" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I19" s="366"/>
       <c r="J19" s="366"/>
@@ -15400,7 +15492,7 @@
       </c>
       <c r="O19" s="395"/>
       <c r="P19" s="413" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="Q19" s="7">
         <v>1</v>
@@ -15521,13 +15613,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15580,21 +15673,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="436" t="s">
+      <c r="AA1" s="439" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="436"/>
-      <c r="AC1" s="436"/>
-      <c r="AD1" s="436" t="s">
+      <c r="AB1" s="439"/>
+      <c r="AC1" s="439"/>
+      <c r="AD1" s="439" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="436"/>
-      <c r="AF1" s="436"/>
-      <c r="AG1" s="436" t="s">
+      <c r="AE1" s="439"/>
+      <c r="AF1" s="439"/>
+      <c r="AG1" s="439" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="436"/>
-      <c r="AI1" s="436"/>
+      <c r="AH1" s="439"/>
+      <c r="AI1" s="439"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -15655,7 +15748,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>278</v>
@@ -15667,7 +15760,7 @@
         <v>7</v>
       </c>
       <c r="T2" s="71" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U2" s="71" t="s">
         <v>135</v>
@@ -15727,7 +15820,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="265" t="s">
         <v>35</v>
       </c>
@@ -15745,7 +15838,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G3" s="256"/>
       <c r="H3" s="103" t="s">
@@ -15764,7 +15857,7 @@
         <v>329</v>
       </c>
       <c r="M3" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N3" s="102" t="s">
         <v>331</v>
@@ -15776,7 +15869,7 @@
         <v>529</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>10</v>
@@ -15823,7 +15916,7 @@
       <c r="AL3" s="305"/>
       <c r="AM3" s="306"/>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="254" t="s">
         <v>35</v>
       </c>
@@ -15842,7 +15935,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G4" s="256"/>
       <c r="H4" s="101" t="s">
@@ -15861,7 +15954,7 @@
         <v>329</v>
       </c>
       <c r="M4" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N4" s="102" t="s">
         <v>344</v>
@@ -15873,7 +15966,7 @@
         <v>529</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>10</v>
@@ -15920,7 +16013,7 @@
       <c r="AL4" s="305"/>
       <c r="AM4" s="306"/>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="2" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="254" t="s">
         <v>35</v>
       </c>
@@ -15938,7 +16031,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G5" s="256"/>
       <c r="H5" s="101" t="s">
@@ -15957,7 +16050,7 @@
         <v>329</v>
       </c>
       <c r="M5" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N5" s="102" t="s">
         <v>350</v>
@@ -15969,7 +16062,7 @@
         <v>529</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>10</v>
@@ -16016,7 +16109,7 @@
       <c r="AL5" s="305"/>
       <c r="AM5" s="306"/>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="254" t="s">
         <v>35</v>
       </c>
@@ -16035,7 +16128,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G6" s="256"/>
       <c r="H6" s="101" t="s">
@@ -16054,7 +16147,7 @@
         <v>329</v>
       </c>
       <c r="M6" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N6" s="102" t="s">
         <v>352</v>
@@ -16066,7 +16159,7 @@
         <v>529</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>10</v>
@@ -16113,7 +16206,7 @@
       <c r="AL6" s="305"/>
       <c r="AM6" s="306"/>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="254" t="s">
         <v>35</v>
       </c>
@@ -16132,7 +16225,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G7" s="256"/>
       <c r="H7" s="258" t="s">
@@ -16151,7 +16244,7 @@
         <v>329</v>
       </c>
       <c r="M7" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N7" s="102" t="s">
         <v>351</v>
@@ -16163,7 +16256,7 @@
         <v>529</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>10</v>
@@ -16210,7 +16303,7 @@
       <c r="AL7" s="305"/>
       <c r="AM7" s="306"/>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="254" t="s">
         <v>35</v>
       </c>
@@ -16229,7 +16322,7 @@
         <v>103</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G8" s="256"/>
       <c r="H8" s="103" t="s">
@@ -16248,7 +16341,7 @@
         <v>329</v>
       </c>
       <c r="M8" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N8" s="102" t="s">
         <v>354</v>
@@ -16260,7 +16353,7 @@
         <v>529</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>10</v>
@@ -16307,7 +16400,7 @@
       <c r="AL8" s="305"/>
       <c r="AM8" s="306"/>
     </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="254" t="s">
         <v>35</v>
       </c>
@@ -16326,7 +16419,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G9" s="256"/>
       <c r="H9" s="101" t="s">
@@ -16345,7 +16438,7 @@
         <v>329</v>
       </c>
       <c r="M9" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N9" s="102" t="s">
         <v>356</v>
@@ -16357,7 +16450,7 @@
         <v>529</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>10</v>
@@ -16404,7 +16497,7 @@
       <c r="AL9" s="305"/>
       <c r="AM9" s="306"/>
     </row>
-    <row r="10" spans="1:39" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="254" t="s">
         <v>35</v>
       </c>
@@ -16423,7 +16516,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G10" s="256"/>
       <c r="H10" s="101" t="s">
@@ -16442,7 +16535,7 @@
         <v>329</v>
       </c>
       <c r="M10" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N10" s="102" t="s">
         <v>358</v>
@@ -16454,7 +16547,7 @@
         <v>529</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>10</v>
@@ -16501,7 +16594,7 @@
       <c r="AL10" s="305"/>
       <c r="AM10" s="306"/>
     </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="332" t="s">
         <v>35</v>
       </c>
@@ -16513,25 +16606,25 @@
         <v>234</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E11" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G11" s="263" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I11" s="81" t="s">
+        <v>619</v>
+      </c>
+      <c r="J11" s="81" t="s">
         <v>620</v>
-      </c>
-      <c r="J11" s="81" t="s">
-        <v>621</v>
       </c>
       <c r="K11" s="204" t="s">
         <v>540</v>
@@ -16540,16 +16633,16 @@
         <v>468</v>
       </c>
       <c r="M11" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N11" s="102" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="Q11" s="6">
         <v>2</v>
@@ -16604,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
         <v>182</v>
       </c>
@@ -16622,7 +16715,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G12" s="260"/>
       <c r="H12" s="101" t="s">
@@ -16648,7 +16741,7 @@
         <v>306</v>
       </c>
       <c r="P12" s="192" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -16698,7 +16791,7 @@
       <c r="AL12" s="305"/>
       <c r="AM12" s="306"/>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="205" t="s">
         <v>182</v>
       </c>
@@ -16710,20 +16803,20 @@
         <v>235</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E13" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G13" s="256"/>
       <c r="H13" s="101" t="s">
+        <v>688</v>
+      </c>
+      <c r="I13" s="81" t="s">
         <v>689</v>
-      </c>
-      <c r="I13" s="81" t="s">
-        <v>690</v>
       </c>
       <c r="J13" s="257"/>
       <c r="K13" s="204" t="s">
@@ -16738,7 +16831,7 @@
       <c r="N13" s="102"/>
       <c r="O13" s="393"/>
       <c r="P13" s="393" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -16785,7 +16878,7 @@
         <v>103</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>25</v>
@@ -16806,7 +16899,7 @@
         <v>106</v>
       </c>
       <c r="M14" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N14" s="102" t="s">
         <v>320</v>
@@ -16815,10 +16908,10 @@
         <v>318</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>888</v>
+        <v>906</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>10</v>
@@ -16882,7 +16975,7 @@
         <v>103</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>26</v>
@@ -16903,7 +16996,7 @@
         <v>106</v>
       </c>
       <c r="M15" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N15" s="102" t="s">
         <v>321</v>
@@ -16912,10 +17005,10 @@
         <v>319</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>840</v>
+        <v>905</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>10</v>
@@ -16979,7 +17072,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G16" s="65" t="s">
         <v>36</v>
@@ -17000,7 +17093,7 @@
         <v>106</v>
       </c>
       <c r="M16" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N16" s="102" t="s">
         <v>323</v>
@@ -17009,10 +17102,10 @@
         <v>322</v>
       </c>
       <c r="P16" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>840</v>
+        <v>907</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>10</v>
@@ -17076,7 +17169,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="61" t="s">
@@ -17095,7 +17188,7 @@
         <v>106</v>
       </c>
       <c r="M17" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N17" s="102" t="s">
         <v>325</v>
@@ -17104,10 +17197,10 @@
         <v>324</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>840</v>
+        <v>908</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>10</v>
@@ -17171,7 +17264,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G18" s="66" t="s">
         <v>36</v>
@@ -17192,7 +17285,7 @@
         <v>106</v>
       </c>
       <c r="M18" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N18" s="102" t="s">
         <v>323</v>
@@ -17201,10 +17294,10 @@
         <v>322</v>
       </c>
       <c r="P18" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>840</v>
+        <v>907</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>10</v>
@@ -17268,7 +17361,7 @@
         <v>103</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="61" t="s">
@@ -17287,7 +17380,7 @@
         <v>106</v>
       </c>
       <c r="M19" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N19" s="102" t="s">
         <v>325</v>
@@ -17296,10 +17389,10 @@
         <v>324</v>
       </c>
       <c r="P19" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>840</v>
+        <v>908</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>10</v>
@@ -17356,13 +17449,13 @@
         <v>220</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E20" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G20" s="65" t="s">
         <v>36</v>
@@ -17383,7 +17476,7 @@
         <v>106</v>
       </c>
       <c r="M20" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N20" s="102" t="s">
         <v>323</v>
@@ -17392,10 +17485,10 @@
         <v>322</v>
       </c>
       <c r="P20" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>840</v>
+        <v>907</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>10</v>
@@ -17459,7 +17552,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="60" t="s">
@@ -17478,7 +17571,7 @@
         <v>106</v>
       </c>
       <c r="M21" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N21" s="102" t="s">
         <v>325</v>
@@ -17487,14 +17580,12 @@
         <v>324</v>
       </c>
       <c r="P21" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -17548,13 +17639,13 @@
         <v>222</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E22" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G22" s="65" t="s">
         <v>25</v>
@@ -17575,7 +17666,7 @@
         <v>106</v>
       </c>
       <c r="M22" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N22" s="102" t="s">
         <v>320</v>
@@ -17584,14 +17675,12 @@
         <v>318</v>
       </c>
       <c r="P22" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -17653,7 +17742,7 @@
         <v>103</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G23" s="67" t="s">
         <v>26</v>
@@ -17674,7 +17763,7 @@
         <v>106</v>
       </c>
       <c r="M23" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N23" s="102" t="s">
         <v>321</v>
@@ -17683,14 +17772,12 @@
         <v>319</v>
       </c>
       <c r="P23" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -17752,7 +17839,7 @@
         <v>103</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G24" s="65" t="s">
         <v>36</v>
@@ -17773,7 +17860,7 @@
         <v>106</v>
       </c>
       <c r="M24" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N24" s="102" t="s">
         <v>323</v>
@@ -17782,14 +17869,12 @@
         <v>322</v>
       </c>
       <c r="P24" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -17832,7 +17917,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
     </row>
-    <row r="25" spans="1:39" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="266" t="s">
         <v>183</v>
       </c>
@@ -17851,7 +17936,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G25" s="67"/>
       <c r="H25" s="60" t="s">
@@ -17880,7 +17965,7 @@
         <v>529</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R25" s="6" t="s">
         <v>10</v>
@@ -17925,7 +18010,7 @@
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
     </row>
-    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="266" t="s">
         <v>183</v>
       </c>
@@ -17944,7 +18029,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G26" s="65"/>
       <c r="H26" s="60" t="s">
@@ -17973,7 +18058,7 @@
         <v>529</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>10</v>
@@ -18018,7 +18103,7 @@
       <c r="AL26" s="57"/>
       <c r="AM26" s="293"/>
     </row>
-    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="266" t="s">
         <v>183</v>
       </c>
@@ -18037,7 +18122,7 @@
         <v>103</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G27" s="67"/>
       <c r="H27" s="60" t="s">
@@ -18064,7 +18149,7 @@
         <v>529</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>10</v>
@@ -18091,7 +18176,7 @@
       <c r="AL27" s="57"/>
       <c r="AM27" s="293"/>
     </row>
-    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="270" t="s">
         <v>183</v>
       </c>
@@ -18103,20 +18188,20 @@
         <v>232</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E28" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G28" s="67"/>
       <c r="H28" s="60" t="s">
+        <v>690</v>
+      </c>
+      <c r="I28" s="81" t="s">
         <v>691</v>
-      </c>
-      <c r="I28" s="81" t="s">
-        <v>692</v>
       </c>
       <c r="J28" s="81" t="s">
         <v>28</v>
@@ -18132,10 +18217,10 @@
       </c>
       <c r="N28" s="102"/>
       <c r="O28" s="77" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="P28" s="55" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q28" s="6">
         <v>2</v>
@@ -18163,7 +18248,7 @@
       <c r="AL28" s="57"/>
       <c r="AM28" s="293"/>
     </row>
-    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="270" t="s">
         <v>183</v>
       </c>
@@ -18176,20 +18261,20 @@
         <v>233</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E29" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="I29" s="81" t="s">
         <v>693</v>
-      </c>
-      <c r="I29" s="81" t="s">
-        <v>694</v>
       </c>
       <c r="J29" s="81" t="s">
         <v>28</v>
@@ -18205,10 +18290,10 @@
       </c>
       <c r="N29" s="102"/>
       <c r="O29" s="77" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="P29" s="55" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="Q29" s="6">
         <v>2</v>
@@ -18236,7 +18321,7 @@
       <c r="AL29" s="57"/>
       <c r="AM29" s="293"/>
     </row>
-    <row r="30" spans="1:39" s="76" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" s="76" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="270" t="s">
         <v>35</v>
       </c>
@@ -18248,20 +18333,20 @@
         <v>250</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E30" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G30" s="67"/>
       <c r="H30" s="60" t="s">
+        <v>694</v>
+      </c>
+      <c r="I30" s="81" t="s">
         <v>695</v>
-      </c>
-      <c r="I30" s="81" t="s">
-        <v>696</v>
       </c>
       <c r="J30" s="81" t="s">
         <v>28</v>
@@ -18273,14 +18358,14 @@
         <v>329</v>
       </c>
       <c r="M30" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N30" s="102"/>
       <c r="O30" s="418" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="P30" s="419" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q30" s="6">
         <v>1</v>
@@ -18310,7 +18395,7 @@
       <c r="AL30" s="57"/>
       <c r="AM30" s="293"/>
     </row>
-    <row r="31" spans="1:39" s="76" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" s="76" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="270" t="s">
         <v>35</v>
       </c>
@@ -18323,20 +18408,20 @@
         <v>251</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E31" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="77" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I31" s="81" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J31" s="81" t="s">
         <v>28</v>
@@ -18348,14 +18433,14 @@
         <v>329</v>
       </c>
       <c r="M31" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N31" s="102"/>
       <c r="O31" s="389" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="P31" s="419" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q31" s="6">
         <v>1</v>
@@ -18385,7 +18470,7 @@
       <c r="AL31" s="57"/>
       <c r="AM31" s="293"/>
     </row>
-    <row r="32" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="270" t="s">
         <v>35</v>
       </c>
@@ -18398,17 +18483,17 @@
         <v>252</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E32" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="60" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I32" s="81" t="s">
         <v>28</v>
@@ -18423,14 +18508,14 @@
         <v>329</v>
       </c>
       <c r="M32" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N32" s="102"/>
       <c r="O32" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="P32" s="419" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q32" s="6">
         <v>2</v>
@@ -18460,7 +18545,7 @@
       <c r="AL32" s="57"/>
       <c r="AM32" s="293"/>
     </row>
-    <row r="33" spans="1:39" s="76" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" s="76" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="270" t="s">
         <v>35</v>
       </c>
@@ -18473,17 +18558,17 @@
         <v>253</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E33" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G33" s="67"/>
       <c r="H33" s="60" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I33" s="81" t="s">
         <v>28</v>
@@ -18498,14 +18583,14 @@
         <v>329</v>
       </c>
       <c r="M33" s="301" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N33" s="102"/>
       <c r="O33" s="192" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="P33" s="389" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -18548,19 +18633,19 @@
         <v>254</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E34" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G34" s="67" t="s">
         <v>537</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I34" s="81" t="s">
         <v>29</v>
@@ -18575,14 +18660,14 @@
         <v>106</v>
       </c>
       <c r="M34" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N34" s="102"/>
       <c r="O34" s="77" t="s">
-        <v>807</v>
-      </c>
-      <c r="P34" s="77" t="s">
-        <v>903</v>
+        <v>806</v>
+      </c>
+      <c r="P34" s="246" t="s">
+        <v>909</v>
       </c>
       <c r="Q34" s="6">
         <v>3</v>
@@ -18623,19 +18708,19 @@
         <v>255</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E35" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G35" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="60" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I35" s="81" t="s">
         <v>29</v>
@@ -18650,14 +18735,14 @@
         <v>106</v>
       </c>
       <c r="M35" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N35" s="102"/>
       <c r="O35" s="77" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P35" s="77" t="s">
-        <v>809</v>
+        <v>910</v>
       </c>
       <c r="Q35" s="6">
         <v>3</v>
@@ -18698,19 +18783,19 @@
         <v>256</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E36" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G36" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I36" s="81" t="s">
         <v>29</v>
@@ -18725,14 +18810,14 @@
         <v>106</v>
       </c>
       <c r="M36" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N36" s="102"/>
       <c r="O36" s="77" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P36" s="77" t="s">
-        <v>808</v>
+        <v>911</v>
       </c>
       <c r="Q36" s="6">
         <v>3</v>
@@ -18773,19 +18858,19 @@
         <v>257</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E37" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G37" s="67" t="s">
         <v>553</v>
       </c>
       <c r="H37" s="60" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I37" s="81" t="s">
         <v>554</v>
@@ -18800,14 +18885,14 @@
         <v>106</v>
       </c>
       <c r="M37" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N37" s="102"/>
       <c r="O37" s="426" t="s">
-        <v>810</v>
+        <v>913</v>
       </c>
       <c r="P37" s="426" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="Q37" s="6">
         <v>2</v>
@@ -18821,7 +18906,7 @@
       <c r="X37" s="277"/>
       <c r="Y37" s="36"/>
       <c r="Z37" s="36" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA37" s="303"/>
       <c r="AB37" s="303"/>
@@ -18837,9 +18922,9 @@
       <c r="AL37" s="57"/>
       <c r="AM37" s="293"/>
     </row>
-    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="270" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B38" s="217" t="str">
         <f t="shared" si="0"/>
@@ -18850,19 +18935,19 @@
         <v>258</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E38" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G38" s="67" t="s">
         <v>537</v>
       </c>
       <c r="H38" s="60" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I38" s="81" t="s">
         <v>538</v>
@@ -18877,11 +18962,11 @@
         <v>106</v>
       </c>
       <c r="M38" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N38" s="102"/>
       <c r="O38" s="221" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="P38" s="221"/>
       <c r="Q38" s="6">
@@ -18910,9 +18995,9 @@
       <c r="AL38" s="57"/>
       <c r="AM38" s="293"/>
     </row>
-    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="270" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B39" s="217" t="str">
         <f t="shared" si="0"/>
@@ -18923,19 +19008,19 @@
         <v>259</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E39" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G39" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I39" s="81" t="s">
         <v>538</v>
@@ -18950,11 +19035,11 @@
         <v>106</v>
       </c>
       <c r="M39" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N39" s="102"/>
       <c r="O39" s="221" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="P39" s="221"/>
       <c r="Q39" s="6">
@@ -18983,9 +19068,9 @@
       <c r="AL39" s="57"/>
       <c r="AM39" s="293"/>
     </row>
-    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="270" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B40" s="217" t="str">
         <f t="shared" si="0"/>
@@ -18996,19 +19081,19 @@
         <v>260</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E40" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G40" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I40" s="81" t="s">
         <v>538</v>
@@ -19023,11 +19108,11 @@
         <v>106</v>
       </c>
       <c r="M40" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N40" s="102"/>
       <c r="O40" s="221" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="P40" s="221"/>
       <c r="Q40" s="6">
@@ -19056,9 +19141,9 @@
       <c r="AL40" s="57"/>
       <c r="AM40" s="293"/>
     </row>
-    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="270" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B41" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19069,22 +19154,22 @@
         <v>261</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E41" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G41" s="67" t="s">
         <v>553</v>
       </c>
       <c r="H41" s="60" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I41" s="81" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J41" s="81" t="s">
         <v>555</v>
@@ -19096,11 +19181,11 @@
         <v>106</v>
       </c>
       <c r="M41" s="301" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N41" s="102"/>
       <c r="O41" s="221" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="P41" s="221"/>
       <c r="Q41" s="6">
@@ -19129,7 +19214,7 @@
       <c r="AL41" s="57"/>
       <c r="AM41" s="293"/>
     </row>
-    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="270" t="s">
         <v>182</v>
       </c>
@@ -19142,20 +19227,20 @@
         <v>262</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E42" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G42" s="67"/>
       <c r="H42" s="60" t="s">
         <v>189</v>
       </c>
       <c r="I42" s="81" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J42" s="81" t="s">
         <v>28</v>
@@ -19171,10 +19256,10 @@
       </c>
       <c r="N42" s="102"/>
       <c r="O42" s="77" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="P42" s="77" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Q42" s="6">
         <v>2</v>
@@ -19204,7 +19289,7 @@
       <c r="AL42" s="57"/>
       <c r="AM42" s="293"/>
     </row>
-    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="270" t="s">
         <v>182</v>
       </c>
@@ -19217,20 +19302,20 @@
         <v>263</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E43" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="60" t="s">
+        <v>615</v>
+      </c>
+      <c r="I43" s="81" t="s">
         <v>616</v>
-      </c>
-      <c r="I43" s="81" t="s">
-        <v>617</v>
       </c>
       <c r="J43" s="81" t="s">
         <v>28</v>
@@ -19247,7 +19332,7 @@
       <c r="N43" s="102"/>
       <c r="O43" s="47"/>
       <c r="P43" s="47" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Q43" s="6">
         <v>2</v>
@@ -19277,7 +19362,7 @@
       <c r="AL43" s="57"/>
       <c r="AM43" s="293"/>
     </row>
-    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="270" t="s">
         <v>183</v>
       </c>
@@ -19290,13 +19375,13 @@
         <v>264</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E44" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="60" t="s">
@@ -19319,10 +19404,10 @@
       </c>
       <c r="N44" s="102"/>
       <c r="O44" s="77" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="P44" s="77" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="Q44" s="6">
         <v>2</v>
@@ -19350,9 +19435,9 @@
       <c r="AL44" s="57"/>
       <c r="AM44" s="293"/>
     </row>
-    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="270" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B45" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19363,23 +19448,23 @@
         <v>265</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E45" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G45" s="67"/>
       <c r="H45" s="60" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I45" s="81" t="s">
+        <v>570</v>
+      </c>
+      <c r="J45" s="81" t="s">
         <v>571</v>
-      </c>
-      <c r="J45" s="81" t="s">
-        <v>572</v>
       </c>
       <c r="K45" s="204" t="s">
         <v>528</v>
@@ -19388,14 +19473,14 @@
         <v>106</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N45" s="102"/>
       <c r="O45" s="246" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="P45" s="77" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="Q45" s="6">
         <v>2</v>
@@ -19423,9 +19508,9 @@
       <c r="AL45" s="57"/>
       <c r="AM45" s="293"/>
     </row>
-    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="270" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B46" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19436,22 +19521,22 @@
         <v>266</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E46" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G46" s="67" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I46" s="81" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J46" s="81" t="s">
         <v>28</v>
@@ -19463,14 +19548,14 @@
         <v>106</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N46" s="102"/>
       <c r="O46" s="104" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="P46" s="104" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="Q46" s="6">
         <v>1</v>
@@ -19498,9 +19583,9 @@
       <c r="AL46" s="57"/>
       <c r="AM46" s="293"/>
     </row>
-    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="270" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B47" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19511,25 +19596,25 @@
         <v>267</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E47" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G47" s="67" t="s">
+        <v>581</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>675</v>
+      </c>
+      <c r="I47" s="81" t="s">
         <v>582</v>
       </c>
-      <c r="H47" s="60" t="s">
-        <v>676</v>
-      </c>
-      <c r="I47" s="81" t="s">
-        <v>583</v>
-      </c>
       <c r="J47" s="81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K47" s="204" t="s">
         <v>528</v>
@@ -19538,14 +19623,14 @@
         <v>106</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N47" s="102"/>
       <c r="O47" s="77" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="P47" s="77" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Q47" s="6">
         <v>2</v>
@@ -19573,9 +19658,9 @@
       <c r="AL47" s="57"/>
       <c r="AM47" s="293"/>
     </row>
-    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="270" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B48" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19586,22 +19671,22 @@
         <v>268</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E48" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G48" s="67" t="s">
+        <v>586</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>676</v>
+      </c>
+      <c r="I48" s="81" t="s">
         <v>587</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>677</v>
-      </c>
-      <c r="I48" s="81" t="s">
-        <v>588</v>
       </c>
       <c r="J48" s="81" t="s">
         <v>28</v>
@@ -19613,14 +19698,14 @@
         <v>106</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N48" s="102"/>
       <c r="O48" s="104" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="P48" s="104" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Q48" s="6">
         <v>1</v>
@@ -19648,9 +19733,9 @@
       <c r="AL48" s="57"/>
       <c r="AM48" s="293"/>
     </row>
-    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="270" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B49" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19661,25 +19746,25 @@
         <v>269</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E49" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G49" s="67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I49" s="81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J49" s="81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K49" s="204" t="s">
         <v>528</v>
@@ -19688,14 +19773,14 @@
         <v>106</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N49" s="102"/>
       <c r="O49" s="77" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="P49" s="77" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="Q49" s="6">
         <v>2</v>
@@ -19723,9 +19808,9 @@
       <c r="AL49" s="57"/>
       <c r="AM49" s="293"/>
     </row>
-    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="270" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B50" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19736,22 +19821,22 @@
         <v>270</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E50" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H50" s="60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I50" s="81" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J50" s="81" t="s">
         <v>28</v>
@@ -19763,14 +19848,14 @@
         <v>106</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N50" s="102"/>
       <c r="O50" s="104" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="P50" s="104" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Q50" s="6">
         <v>1</v>
@@ -19798,7 +19883,7 @@
       <c r="AL50" s="57"/>
       <c r="AM50" s="293"/>
     </row>
-    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="270" t="s">
         <v>362</v>
       </c>
@@ -19811,23 +19896,23 @@
         <v>271</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E51" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G51" s="67"/>
       <c r="H51" s="60" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I51" s="81" t="s">
+        <v>596</v>
+      </c>
+      <c r="J51" s="81" t="s">
         <v>597</v>
-      </c>
-      <c r="J51" s="81" t="s">
-        <v>598</v>
       </c>
       <c r="K51" s="204" t="s">
         <v>528</v>
@@ -19840,10 +19925,10 @@
       </c>
       <c r="N51" s="102"/>
       <c r="O51" s="77" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="P51" s="77" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="Q51" s="6">
         <v>2</v>
@@ -19871,9 +19956,9 @@
       <c r="AL51" s="57"/>
       <c r="AM51" s="293"/>
     </row>
-    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="270" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B52" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19884,23 +19969,23 @@
         <v>272</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E52" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G52" s="67"/>
       <c r="H52" s="60" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I52" s="81" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J52" s="81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K52" s="204" t="s">
         <v>528</v>
@@ -19909,14 +19994,14 @@
         <v>106</v>
       </c>
       <c r="M52" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N52" s="102"/>
       <c r="O52" s="391" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="P52" s="409" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q52" s="6">
         <v>2</v>
@@ -19944,9 +20029,9 @@
       <c r="AL52" s="57"/>
       <c r="AM52" s="293"/>
     </row>
-    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="270" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B53" s="217" t="str">
         <f t="shared" si="0"/>
@@ -19957,20 +20042,20 @@
         <v>273</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E53" s="255" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G53" s="67"/>
       <c r="H53" s="60" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I53" s="81" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J53" s="81" t="s">
         <v>28</v>
@@ -19982,14 +20067,14 @@
         <v>106</v>
       </c>
       <c r="M53" s="79" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N53" s="102"/>
       <c r="O53" s="427" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="P53" s="412" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -20017,9 +20102,9 @@
       <c r="AL53" s="57"/>
       <c r="AM53" s="293"/>
     </row>
-    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="270" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B54" s="217" t="str">
         <f>CONCATENATE("Indicatore ",C54," - ",D54)</f>
@@ -20030,23 +20115,23 @@
         <v>274</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E54" s="81" t="s">
         <v>103</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G54" s="67"/>
       <c r="H54" s="60" t="s">
+        <v>607</v>
+      </c>
+      <c r="I54" s="81" t="s">
         <v>608</v>
       </c>
-      <c r="I54" s="81" t="s">
+      <c r="J54" s="81" t="s">
         <v>609</v>
-      </c>
-      <c r="J54" s="81" t="s">
-        <v>610</v>
       </c>
       <c r="K54" s="204" t="s">
         <v>528</v>
@@ -20055,14 +20140,14 @@
         <v>106</v>
       </c>
       <c r="M54" s="79" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N54" s="102"/>
       <c r="O54" s="77" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="P54" s="77" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Q54" s="6">
         <v>2</v>
@@ -20091,7 +20176,13 @@
       <c r="AM54" s="293"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AM54"/>
+  <autoFilter ref="A2:AM54">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CR ad alzo zero"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -20199,35 +20290,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="431" t="s">
+      <c r="X1" s="434" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="432"/>
-      <c r="Z1" s="432"/>
-      <c r="AA1" s="433"/>
-      <c r="AB1" s="431" t="s">
+      <c r="Y1" s="435"/>
+      <c r="Z1" s="435"/>
+      <c r="AA1" s="436"/>
+      <c r="AB1" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="432"/>
-      <c r="AD1" s="432"/>
-      <c r="AE1" s="433"/>
-      <c r="AF1" s="434" t="s">
+      <c r="AC1" s="435"/>
+      <c r="AD1" s="435"/>
+      <c r="AE1" s="436"/>
+      <c r="AF1" s="437" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="435"/>
-      <c r="AH1" s="435"/>
-      <c r="AI1" s="435"/>
-      <c r="AJ1" s="434" t="s">
+      <c r="AG1" s="438"/>
+      <c r="AH1" s="438"/>
+      <c r="AI1" s="438"/>
+      <c r="AJ1" s="437" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="435"/>
-      <c r="AL1" s="435"/>
-      <c r="AM1" s="435"/>
+      <c r="AK1" s="438"/>
+      <c r="AL1" s="438"/>
+      <c r="AM1" s="438"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="442" t="s">
+      <c r="AO1" s="445" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="442"/>
+      <c r="AP1" s="445"/>
     </row>
     <row r="2" spans="1:42" s="46" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -21724,7 +21815,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
@@ -21733,7 +21824,7 @@
         <v>443</v>
       </c>
       <c r="D29" s="198" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E29" s="229"/>
       <c r="F29" s="230"/>
@@ -21742,7 +21833,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -21751,10 +21842,10 @@
         <v>444</v>
       </c>
       <c r="D30" s="198" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E30" s="229" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F30" s="230"/>
       <c r="G30" s="198"/>
@@ -21780,7 +21871,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
@@ -21789,7 +21880,7 @@
         <v>444</v>
       </c>
       <c r="D32" s="198" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E32" s="229"/>
       <c r="F32" s="230"/>
@@ -21798,7 +21889,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="227" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B33" s="227" t="s">
         <v>114</v>
@@ -21807,7 +21898,7 @@
         <v>444</v>
       </c>
       <c r="D33" s="335" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E33" s="229"/>
       <c r="F33" s="230"/>
@@ -21825,7 +21916,7 @@
         <v>444</v>
       </c>
       <c r="D34" s="198" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E34" s="229"/>
       <c r="F34" s="230" t="s">
@@ -21845,7 +21936,7 @@
         <v>443</v>
       </c>
       <c r="D35" s="198" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E35" s="229"/>
       <c r="F35" s="230" t="s">
@@ -21982,112 +22073,112 @@
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="166" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B3" s="384" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C3" s="383" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D3" s="385" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E3" s="386" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="384" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C4" s="383" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D4" s="385" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="384" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C5" s="383" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D5" s="385" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="384" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C6" s="383" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D6" s="385" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="384" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C7" s="383" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="C8" s="383" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="C9" s="383" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="C10" s="383" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="C11" s="383" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="383" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="C13" s="383" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="C14" s="383" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22098,13 +22189,13 @@
         <v>259</v>
       </c>
       <c r="D16" s="385" t="s">
+        <v>786</v>
+      </c>
+      <c r="E16" s="386" t="s">
         <v>787</v>
       </c>
-      <c r="E16" s="386" t="s">
+      <c r="G16" s="387" t="s">
         <v>788</v>
-      </c>
-      <c r="G16" s="387" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22116,25 +22207,25 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="166" t="s">
+        <v>795</v>
+      </c>
+      <c r="C18" s="383" t="s">
+        <v>799</v>
+      </c>
+      <c r="D18" s="385" t="s">
         <v>796</v>
       </c>
-      <c r="C18" s="383" t="s">
-        <v>800</v>
-      </c>
-      <c r="D18" s="385" t="s">
-        <v>797</v>
-      </c>
       <c r="E18" s="386" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G18" s="387" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="D19" s="385" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E19"/>
     </row>
@@ -22150,17 +22241,17 @@
         <v>266</v>
       </c>
       <c r="E21" s="386" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G21" s="387" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22"/>
       <c r="E22" s="386" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22172,13 +22263,13 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="166" t="s">
+        <v>791</v>
+      </c>
+      <c r="E24" s="386" t="s">
         <v>792</v>
       </c>
-      <c r="E24" s="386" t="s">
-        <v>793</v>
-      </c>
       <c r="G24" s="387" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22187,13 +22278,13 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="166" t="s">
+        <v>793</v>
+      </c>
+      <c r="D26" s="385" t="s">
         <v>794</v>
       </c>
-      <c r="D26" s="385" t="s">
-        <v>795</v>
-      </c>
       <c r="G26" s="387" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22219,9 +22310,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22339,25 +22433,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22379,9 +22463,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -8600,11 +8600,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3:Q7"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15616,11 +15616,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22310,12 +22310,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22433,15 +22430,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22463,16 +22470,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FC0B01-7E98-4633-A4D4-301D890C7458}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C69AF5A-C63E-4E3E-821D-D66D815E3725}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/20161019 Indicatori EWS - Banche Italiane_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="16275" tabRatio="918" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="915">
   <si>
     <t>BRB Requirement</t>
   </si>
@@ -3179,23 +3179,6 @@
 IMP_ENT_CORR_NOCOL_M2</t>
   </si>
   <si>
-    <t>IMP_SALDO_CC_NOCOL_M0
-IMP_SALDO_CC_NOCOL_M1
-IMP_SALDO_CC_NOCOL_M2
-IMP_VAL_MERC_CD_NOCOL_M0
-IMP_VAL_MERC_CD_NOCOL_M1
-IMP_VAL_MERC_CD_NOCOL_M2
-IMP_SALDO_PCT_NOCOL_M0
-IMP_SALDO_PCT_NOCOL_M1
-IMP_SALDO_PCT_NOCOL_M2
-IMP_SALDO_GPM_NOCOL_M0
-IMP_SALDO_GPM_NOCOL_M1
-IMP_SALDO_GPM_NOCOL_M2
-IMP_SALDO_ASSIC_NOCOL_M0
-IMP_SALDO_ASSIC_NOCOL_M1
-IMP_SALDO_ASSIC_NOCOL_M2</t>
-  </si>
-  <si>
     <t>AMT_FAT_OVERDUE_NOCOL_M0
 AMT_GRA_ST_C_NOCOL_M0</t>
   </si>
@@ -3639,15 +3622,6 @@
 IMP_UTIL_TOT_AZ_M2</t>
   </si>
   <si>
-    <t xml:space="preserve">IMP_UTIL_SEL_LIQ_NOCOL_AZ_M0
-IMP_UTIL_SEL_LIQ_NOCOL_AZ_M1
-IMP_UTIL_SEL_LIQ_NOCOL_AZ_M2
-IMP_ACC_SEL_LIQ_NOCOL_AZ_M0 
-IMP_ACC_SEL_LIQ_NOCOL_AZ_M1
-IMP_ACC_SEL_LIQ_NOCOL_AZ_M2
-</t>
-  </si>
-  <si>
     <t>IMP_ACC_PROD_SCAD_NOCOL_AZ_M0
 IMP_ACC_PROD_SCAD_NOCOL_AZ_M1
 IMP_ACC_PROD_SCAD_NOCOL_AZ_M2
@@ -3685,6 +3659,52 @@
       </rPr>
       <t>REVENUE_NOCOL_T1</t>
     </r>
+  </si>
+  <si>
+    <t>IMP_UTIL_SEL_LIQ_NOCOL_AZ_M0
+IMP_UTIL_SEL_LIQ_NOCOL_AZ_M1
+IMP_UTIL_SEL_LIQ_NOCOL_AZ_M2
+IMP_ACC_SEL_LIQ_NOCOL_AZ_M0 
+IMP_ACC_SEL_LIQ_NOCOL_AZ_M1
+IMP_ACC_SEL_LIQ_NOCOL_AZ_M2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMP_SALDO_CC_NOCOL_M0
+IMP_SALDO_CC_NOCOL_M1
+IMP_SALDO_CC_NOCOL_M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+IMP_VAL_MERC_CD_NOCOL_M0
+IMP_VAL_MERC_CD_NOCOL_M1
+IMP_VAL_MERC_CD_NOCOL_M2
+IMP_SALDO_PCT_NOCOL_M0
+IMP_SALDO_PCT_NOCOL_M1
+IMP_SALDO_PCT_NOCOL_M2
+IMP_SALDO_GPM_NOCOL_M0
+IMP_SALDO_GPM_NOCOL_M1
+IMP_SALDO_GPM_NOCOL_M2
+IMP_SALDO_ASSIC_NOCOL_M0
+IMP_SALDO_ASSIC_NOCOL_M1
+IMP_SALDO_ASSIC_NOCOL_M2</t>
+    </r>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -4051,7 +4071,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4282,6 +4302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4726,7 +4752,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5820,9 +5846,6 @@
     <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5985,6 +6008,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -7089,14 +7118,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="431" t="s">
+      <c r="E1" s="430" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="431"/>
-      <c r="H1" s="432" t="s">
+      <c r="F1" s="430"/>
+      <c r="H1" s="431" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="433"/>
+      <c r="I1" s="432"/>
       <c r="J1" t="s">
         <v>254</v>
       </c>
@@ -7107,19 +7136,19 @@
         <v>253</v>
       </c>
       <c r="N1" s="45" t="s">
+        <v>838</v>
+      </c>
+      <c r="O1" s="405" t="s">
         <v>839</v>
       </c>
-      <c r="O1" s="406" t="s">
+      <c r="P1" s="405" t="s">
         <v>840</v>
       </c>
-      <c r="P1" s="406" t="s">
+      <c r="Q1" s="405" t="s">
         <v>841</v>
       </c>
-      <c r="Q1" s="406" t="s">
+      <c r="R1" s="405" t="s">
         <v>842</v>
-      </c>
-      <c r="R1" s="406" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
@@ -7149,7 +7178,7 @@
         <v>529</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O2">
         <f>COUNTIF('Indicatori High_priority'!$Q$3:$Q$23,Legenda!$N2)</f>
@@ -7360,7 +7389,7 @@
         <v>529</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O7">
         <v>0.125</v>
@@ -7521,7 +7550,7 @@
         <v>529</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O12">
         <f>O2*O7</f>
@@ -7676,22 +7705,22 @@
       <c r="L16" s="198" t="s">
         <v>529</v>
       </c>
-      <c r="N16" s="406" t="s">
-        <v>844</v>
-      </c>
-      <c r="O16" s="406">
+      <c r="N16" s="405" t="s">
+        <v>843</v>
+      </c>
+      <c r="O16" s="405">
         <f>SUM(O12:O15)</f>
         <v>2.75</v>
       </c>
-      <c r="P16" s="406">
+      <c r="P16" s="405">
         <f t="shared" ref="P16:R16" si="3">SUM(P12:P15)</f>
         <v>12.125</v>
       </c>
-      <c r="Q16" s="406">
+      <c r="Q16" s="405">
         <f t="shared" si="3"/>
         <v>4.125</v>
       </c>
-      <c r="R16" s="406">
+      <c r="R16" s="405">
         <f t="shared" si="3"/>
         <v>20.625</v>
       </c>
@@ -7730,22 +7759,22 @@
         <v>529</v>
       </c>
       <c r="N18" s="138" t="s">
+        <v>844</v>
+      </c>
+      <c r="O18" s="138" t="s">
         <v>845</v>
       </c>
-      <c r="O18" s="138" t="s">
+      <c r="P18" s="138" t="s">
         <v>846</v>
       </c>
-      <c r="P18" s="138" t="s">
+      <c r="Q18" s="138" t="s">
+        <v>845</v>
+      </c>
+      <c r="R18" s="138" t="s">
         <v>847</v>
       </c>
-      <c r="Q18" s="138" t="s">
-        <v>846</v>
-      </c>
-      <c r="R18" s="138" t="s">
+      <c r="S18" s="406" t="s">
         <v>848</v>
-      </c>
-      <c r="S18" s="407" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.25">
@@ -7765,16 +7794,16 @@
         <v>529</v>
       </c>
       <c r="N19" s="138"/>
-      <c r="O19" s="408">
+      <c r="O19" s="407">
         <v>42891</v>
       </c>
-      <c r="P19" s="408">
+      <c r="P19" s="407">
         <v>42898</v>
       </c>
-      <c r="Q19" s="408">
+      <c r="Q19" s="407">
         <v>42912</v>
       </c>
-      <c r="R19" s="408">
+      <c r="R19" s="407">
         <v>42898</v>
       </c>
       <c r="S19" s="138"/>
@@ -7797,11 +7826,11 @@
       </c>
       <c r="N20" s="138"/>
       <c r="O20" s="138"/>
-      <c r="P20" s="408">
+      <c r="P20" s="407">
         <v>42905</v>
       </c>
       <c r="Q20" s="138"/>
-      <c r="R20" s="408">
+      <c r="R20" s="407">
         <v>42912</v>
       </c>
       <c r="S20" s="138"/>
@@ -7826,7 +7855,7 @@
       <c r="O21" s="138"/>
       <c r="P21" s="138"/>
       <c r="Q21" s="138"/>
-      <c r="R21" s="408">
+      <c r="R21" s="407">
         <v>42919</v>
       </c>
       <c r="S21" s="138"/>
@@ -7851,7 +7880,7 @@
       <c r="O22" s="138"/>
       <c r="P22" s="138"/>
       <c r="Q22" s="138"/>
-      <c r="R22" s="408">
+      <c r="R22" s="407">
         <v>42926</v>
       </c>
       <c r="S22" s="138"/>
@@ -7869,11 +7898,11 @@
       </c>
       <c r="L23" s="198"/>
       <c r="N23" s="138" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O23" s="138"/>
       <c r="P23" s="138" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q23" s="138"/>
       <c r="R23" s="138"/>
@@ -7892,11 +7921,11 @@
       </c>
       <c r="L24" s="198"/>
       <c r="N24" s="138" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O24" s="138"/>
       <c r="P24" s="138" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q24" s="138"/>
       <c r="R24" s="138"/>
@@ -7904,24 +7933,24 @@
     </row>
     <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="N25" s="138" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O25" s="138"/>
       <c r="P25" s="138" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q25" s="138"/>
       <c r="R25" s="138"/>
       <c r="S25" s="138"/>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="I28" s="414" t="s">
+      <c r="I28" s="413" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="I29" s="414" t="s">
         <v>890</v>
-      </c>
-    </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="I29" s="415" t="s">
-        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -7950,11 +7979,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="450" t="s">
+      <c r="F1" s="449" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
+      <c r="G1" s="449"/>
+      <c r="H1" s="449"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="171" t="s">
@@ -7968,34 +7997,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="446" t="s">
+      <c r="A3" s="445" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="447"/>
+      <c r="B3" s="446"/>
       <c r="C3" s="173"/>
       <c r="D3" s="200" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="446"/>
-      <c r="B4" s="448"/>
+      <c r="A4" s="445"/>
+      <c r="B4" s="447"/>
       <c r="C4" s="174"/>
       <c r="D4" s="201" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="446"/>
-      <c r="B5" s="448"/>
+      <c r="A5" s="445"/>
+      <c r="B5" s="447"/>
       <c r="C5" s="174"/>
       <c r="D5" s="202" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="446"/>
-      <c r="B6" s="449"/>
+      <c r="A6" s="445"/>
+      <c r="B6" s="448"/>
       <c r="C6" s="175"/>
       <c r="D6" s="203" t="s">
         <v>166</v>
@@ -8050,7 +8079,7 @@
       <c r="O2" s="198"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="451"/>
+      <c r="A3" s="450"/>
       <c r="B3" s="179" t="s">
         <v>172</v>
       </c>
@@ -8073,7 +8102,7 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="451"/>
+      <c r="A4" s="450"/>
       <c r="B4" s="156" t="s">
         <v>173</v>
       </c>
@@ -8094,7 +8123,7 @@
       <c r="O4" s="198"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="451"/>
+      <c r="A5" s="450"/>
       <c r="B5" s="156" t="s">
         <v>174</v>
       </c>
@@ -8115,7 +8144,7 @@
       <c r="O5" s="198"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="451"/>
+      <c r="A6" s="450"/>
       <c r="B6" s="156" t="s">
         <v>175</v>
       </c>
@@ -8136,7 +8165,7 @@
       <c r="O6" s="198"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="451"/>
+      <c r="A7" s="450"/>
       <c r="B7" s="156" t="s">
         <v>176</v>
       </c>
@@ -8186,7 +8215,7 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="452"/>
+      <c r="A12" s="451"/>
       <c r="B12" s="179" t="s">
         <v>172</v>
       </c>
@@ -8209,7 +8238,7 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="452"/>
+      <c r="A13" s="451"/>
       <c r="B13" s="156" t="s">
         <v>173</v>
       </c>
@@ -8230,7 +8259,7 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="452"/>
+      <c r="A14" s="451"/>
       <c r="B14" s="156" t="s">
         <v>174</v>
       </c>
@@ -8251,7 +8280,7 @@
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="452"/>
+      <c r="A15" s="451"/>
       <c r="B15" s="156" t="s">
         <v>175</v>
       </c>
@@ -8272,7 +8301,7 @@
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="452"/>
+      <c r="A16" s="451"/>
       <c r="B16" s="156" t="s">
         <v>176</v>
       </c>
@@ -8600,7 +8629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8649,30 +8678,30 @@
       <c r="P1" s="27"/>
       <c r="W1" s="70"/>
       <c r="X1" s="70"/>
-      <c r="Y1" s="434" t="s">
+      <c r="Y1" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="435"/>
-      <c r="AA1" s="435"/>
-      <c r="AB1" s="436"/>
-      <c r="AC1" s="434" t="s">
+      <c r="Z1" s="434"/>
+      <c r="AA1" s="434"/>
+      <c r="AB1" s="435"/>
+      <c r="AC1" s="433" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="435"/>
-      <c r="AE1" s="435"/>
-      <c r="AF1" s="436"/>
-      <c r="AG1" s="437" t="s">
+      <c r="AD1" s="434"/>
+      <c r="AE1" s="434"/>
+      <c r="AF1" s="435"/>
+      <c r="AG1" s="436" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="438"/>
-      <c r="AI1" s="438"/>
-      <c r="AJ1" s="438"/>
-      <c r="AK1" s="437" t="s">
+      <c r="AH1" s="437"/>
+      <c r="AI1" s="437"/>
+      <c r="AJ1" s="437"/>
+      <c r="AK1" s="436" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="438"/>
-      <c r="AM1" s="438"/>
-      <c r="AN1" s="438"/>
+      <c r="AL1" s="437"/>
+      <c r="AM1" s="437"/>
+      <c r="AN1" s="437"/>
     </row>
     <row r="2" spans="1:40" s="287" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -8720,11 +8749,11 @@
       <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="402" t="s">
-        <v>834</v>
-      </c>
-      <c r="Q2" s="405" t="s">
-        <v>837</v>
+      <c r="P2" s="401" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q2" s="404" t="s">
+        <v>836</v>
       </c>
       <c r="R2" s="71" t="s">
         <v>9</v>
@@ -9385,10 +9414,10 @@
       <c r="AN9" s="290"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="400" t="s">
+      <c r="A10" s="399" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="401" t="str">
+      <c r="B10" s="400" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 14 - Avvio di una procedura concorsuale per il debitore</v>
       </c>
@@ -9426,11 +9455,11 @@
       <c r="O10" s="391" t="s">
         <v>317</v>
       </c>
-      <c r="P10" s="409" t="s">
-        <v>855</v>
+      <c r="P10" s="408" t="s">
+        <v>854</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -9695,10 +9724,10 @@
       <c r="AN13" s="20"/>
     </row>
     <row r="14" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="403" t="s">
+      <c r="A14" s="402" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="401" t="str">
+      <c r="B14" s="400" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 19 - Richiesta ammissione ad una procedura concorsuale per il debitore</v>
       </c>
@@ -9738,11 +9767,11 @@
       <c r="O14" s="392" t="s">
         <v>315</v>
       </c>
-      <c r="P14" s="409" t="s">
-        <v>856</v>
+      <c r="P14" s="408" t="s">
+        <v>855</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -9771,10 +9800,10 @@
       <c r="AN14" s="20"/>
     </row>
     <row r="15" spans="1:40" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="403" t="s">
+      <c r="A15" s="402" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="401" t="str">
+      <c r="B15" s="400" t="str">
         <f t="shared" si="0"/>
         <v>Indicatore 20 - Deposito/Pubblicazione di accordo ristrutturazione per liquidazione</v>
       </c>
@@ -9814,11 +9843,11 @@
       <c r="O15" s="392" t="s">
         <v>316</v>
       </c>
-      <c r="P15" s="409" t="s">
-        <v>857</v>
+      <c r="P15" s="408" t="s">
+        <v>856</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -10237,10 +10266,10 @@
       <c r="AN20" s="20"/>
     </row>
     <row r="21" spans="1:40" s="298" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="403" t="s">
+      <c r="A21" s="402" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="401" t="str">
+      <c r="B21" s="400" t="str">
         <f>CONCATENATE("Indicatore ",C21," - ",D21)</f>
         <v>Indicatore 31 - Covenant non rispettato e non sanato</v>
       </c>
@@ -10278,7 +10307,7 @@
         <v>301</v>
       </c>
       <c r="P21" s="77" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Q21" s="6">
         <v>1</v>
@@ -10493,14 +10522,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10545,21 +10573,21 @@
       <c r="P1" s="27"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AB1" s="439" t="s">
+      <c r="AB1" s="438" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="439"/>
-      <c r="AD1" s="439"/>
-      <c r="AE1" s="439" t="s">
+      <c r="AC1" s="438"/>
+      <c r="AD1" s="438"/>
+      <c r="AE1" s="438" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="439"/>
-      <c r="AG1" s="439"/>
-      <c r="AH1" s="439" t="s">
+      <c r="AF1" s="438"/>
+      <c r="AG1" s="438"/>
+      <c r="AH1" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="439"/>
-      <c r="AJ1" s="439"/>
+      <c r="AI1" s="438"/>
+      <c r="AJ1" s="438"/>
       <c r="AK1" s="107" t="s">
         <v>136</v>
       </c>
@@ -10619,8 +10647,8 @@
       <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="402" t="s">
-        <v>836</v>
+      <c r="P2" s="401" t="s">
+        <v>835</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>278</v>
@@ -10696,7 +10724,7 @@
       </c>
       <c r="AO2" s="4"/>
     </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="249" t="s">
         <v>35</v>
       </c>
@@ -10743,11 +10771,11 @@
       <c r="O3" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="P3" s="410" t="s">
+      <c r="P3" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>10</v>
@@ -10758,7 +10786,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="396"/>
+      <c r="Y3" s="395"/>
       <c r="Z3" s="55" t="s">
         <v>194</v>
       </c>
@@ -10797,7 +10825,7 @@
       <c r="AM3" s="305"/>
       <c r="AN3" s="306"/>
     </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="249" t="s">
         <v>35</v>
       </c>
@@ -10845,11 +10873,11 @@
       <c r="O4" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="P4" s="410" t="s">
+      <c r="P4" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>10</v>
@@ -10860,7 +10888,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="396"/>
+      <c r="Y4" s="395"/>
       <c r="Z4" s="55" t="s">
         <v>194</v>
       </c>
@@ -10899,7 +10927,7 @@
       <c r="AM4" s="305"/>
       <c r="AN4" s="306"/>
     </row>
-    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="271" t="s">
         <v>35</v>
       </c>
@@ -10947,10 +10975,10 @@
         <v>332</v>
       </c>
       <c r="P5" s="37" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -10998,7 +11026,7 @@
       <c r="AM5" s="305"/>
       <c r="AN5" s="306"/>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="271" t="s">
         <v>35</v>
       </c>
@@ -11126,7 +11154,7 @@
         <v>800</v>
       </c>
       <c r="P7" s="55" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Q7" s="6">
         <v>2</v>
@@ -11207,7 +11235,7 @@
         <v>550</v>
       </c>
       <c r="P8" s="77" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q8" s="6">
         <v>1</v>
@@ -11312,11 +11340,11 @@
       <c r="N9" s="103" t="s">
         <v>556</v>
       </c>
-      <c r="O9" s="394" t="s">
-        <v>903</v>
-      </c>
-      <c r="P9" s="394" t="s">
+      <c r="O9" s="393" t="s">
         <v>902</v>
+      </c>
+      <c r="P9" s="393" t="s">
+        <v>901</v>
       </c>
       <c r="Q9" s="6">
         <v>2</v>
@@ -11426,7 +11454,7 @@
         <v>318</v>
       </c>
       <c r="P10" s="79" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q10" s="6">
         <v>1</v>
@@ -11440,7 +11468,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="396"/>
+      <c r="Y10" s="395"/>
       <c r="Z10" s="56"/>
       <c r="AA10" s="312" t="s">
         <v>551</v>
@@ -11526,7 +11554,7 @@
         <v>319</v>
       </c>
       <c r="P11" s="79" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -11540,7 +11568,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="396"/>
+      <c r="Y11" s="395"/>
       <c r="Z11" s="56"/>
       <c r="AA11" s="312" t="s">
         <v>551</v>
@@ -11577,7 +11605,7 @@
       <c r="AM11" s="74"/>
       <c r="AN11" s="74"/>
     </row>
-    <row r="12" spans="1:41" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="308" t="s">
         <v>182</v>
       </c>
@@ -11621,7 +11649,7 @@
         <v>370</v>
       </c>
       <c r="P12" s="55" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -11654,7 +11682,7 @@
       <c r="AM12" s="310"/>
       <c r="AN12" s="311"/>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A13" s="271" t="s">
         <v>182</v>
       </c>
@@ -11704,7 +11732,7 @@
         <v>529</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>10</v>
@@ -11753,7 +11781,7 @@
       <c r="AN13" s="306"/>
       <c r="AO13" s="215"/>
     </row>
-    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" s="319" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="318" t="s">
         <v>182</v>
       </c>
@@ -11798,10 +11826,10 @@
         <v>672</v>
       </c>
       <c r="O14" s="77" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="P14" s="55" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q14" s="6">
         <v>3</v>
@@ -11815,26 +11843,26 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="399"/>
+      <c r="Y14" s="398"/>
       <c r="Z14" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AA14" s="304"/>
       <c r="AB14" s="304"/>
-      <c r="AC14" s="399"/>
-      <c r="AD14" s="399"/>
-      <c r="AE14" s="399"/>
-      <c r="AF14" s="399"/>
-      <c r="AG14" s="399"/>
-      <c r="AH14" s="399"/>
-      <c r="AI14" s="399"/>
-      <c r="AJ14" s="399"/>
+      <c r="AC14" s="398"/>
+      <c r="AD14" s="398"/>
+      <c r="AE14" s="398"/>
+      <c r="AF14" s="398"/>
+      <c r="AG14" s="398"/>
+      <c r="AH14" s="398"/>
+      <c r="AI14" s="398"/>
+      <c r="AJ14" s="398"/>
       <c r="AK14" s="304"/>
       <c r="AL14" s="304"/>
       <c r="AM14" s="293"/>
       <c r="AN14" s="320"/>
     </row>
-    <row r="15" spans="1:41" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="308" t="s">
         <v>183</v>
       </c>
@@ -11878,7 +11906,7 @@
         <v>371</v>
       </c>
       <c r="P15" s="55" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Q15" s="6">
         <v>2</v>
@@ -11911,7 +11939,7 @@
       <c r="AM15" s="310"/>
       <c r="AN15" s="311"/>
     </row>
-    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="308" t="s">
         <v>183</v>
       </c>
@@ -11962,7 +11990,7 @@
         <v>529</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>10</v>
@@ -12008,7 +12036,7 @@
       <c r="AM16" s="57"/>
       <c r="AN16" s="293"/>
     </row>
-    <row r="17" spans="1:40" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="322" t="s">
         <v>762</v>
       </c>
@@ -12052,7 +12080,7 @@
         <v>801</v>
       </c>
       <c r="P17" s="55" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Q17" s="6">
         <v>3</v>
@@ -12085,7 +12113,7 @@
       <c r="AM17" s="310"/>
       <c r="AN17" s="311"/>
     </row>
-    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="323" t="s">
         <v>762</v>
       </c>
@@ -12134,7 +12162,7 @@
         <v>543</v>
       </c>
       <c r="P18" s="391" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q18" s="6">
         <v>2</v>
@@ -12193,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="323" t="s">
         <v>762</v>
       </c>
@@ -12242,7 +12270,7 @@
         <v>559</v>
       </c>
       <c r="P19" s="391" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q19" s="6">
         <v>2</v>
@@ -12301,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="313" t="s">
         <v>762</v>
       </c>
@@ -12350,7 +12378,7 @@
         <v>562</v>
       </c>
       <c r="P20" s="391" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q20" s="6">
         <v>2</v>
@@ -12409,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="313" t="s">
         <v>762</v>
       </c>
@@ -12458,7 +12486,7 @@
         <v>566</v>
       </c>
       <c r="P21" s="391" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q21" s="6">
         <v>2</v>
@@ -12517,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="329" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A22" s="308" t="s">
         <v>361</v>
       </c>
@@ -12560,11 +12588,11 @@
       <c r="O22" s="192" t="s">
         <v>456</v>
       </c>
-      <c r="P22" s="411" t="s">
+      <c r="P22" s="410" t="s">
         <v>529</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>10</v>
@@ -12612,7 +12640,7 @@
       <c r="AM22" s="328"/>
       <c r="AN22" s="328"/>
     </row>
-    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="329" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="308" t="s">
         <v>361</v>
       </c>
@@ -12646,7 +12674,7 @@
       <c r="L23" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="M23" s="398" t="s">
+      <c r="M23" s="397" t="s">
         <v>666</v>
       </c>
       <c r="N23" s="101" t="s">
@@ -12655,11 +12683,11 @@
       <c r="O23" s="192" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="411" t="s">
+      <c r="P23" s="410" t="s">
         <v>529</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>10</v>
@@ -12705,7 +12733,7 @@
       <c r="AM23" s="328"/>
       <c r="AN23" s="328"/>
     </row>
-    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="330" t="s">
         <v>567</v>
       </c>
@@ -12752,8 +12780,8 @@
       <c r="O24" s="314" t="s">
         <v>572</v>
       </c>
-      <c r="P24" s="394" t="s">
-        <v>879</v>
+      <c r="P24" s="393" t="s">
+        <v>878</v>
       </c>
       <c r="Q24" s="6">
         <v>2</v>
@@ -12812,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="330" t="s">
         <v>567</v>
       </c>
@@ -12861,7 +12889,7 @@
         <v>577</v>
       </c>
       <c r="P25" s="104" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q25" s="6">
         <v>1</v>
@@ -12924,7 +12952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="330" t="s">
         <v>579</v>
       </c>
@@ -12973,7 +13001,7 @@
         <v>583</v>
       </c>
       <c r="P26" s="391" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q26" s="6">
         <v>2</v>
@@ -13032,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="330" t="s">
         <v>579</v>
       </c>
@@ -13081,7 +13109,7 @@
         <v>588</v>
       </c>
       <c r="P27" s="104" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q27" s="6">
         <v>1</v>
@@ -13144,7 +13172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="330" t="s">
         <v>579</v>
       </c>
@@ -13193,7 +13221,7 @@
         <v>591</v>
       </c>
       <c r="P28" s="391" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q28" s="6">
         <v>2</v>
@@ -13252,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="330" t="s">
         <v>579</v>
       </c>
@@ -13301,7 +13329,7 @@
         <v>594</v>
       </c>
       <c r="P29" s="104" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q29" s="6">
         <v>1</v>
@@ -13364,7 +13392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="330" t="s">
         <v>362</v>
       </c>
@@ -13413,7 +13441,7 @@
         <v>363</v>
       </c>
       <c r="P30" s="77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q30" s="6">
         <v>2</v>
@@ -13430,7 +13458,7 @@
       <c r="Y30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Z30" s="397"/>
+      <c r="Z30" s="396"/>
       <c r="AA30" s="331" t="s">
         <v>598</v>
       </c>
@@ -13474,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="330" t="s">
         <v>599</v>
       </c>
@@ -13523,7 +13551,7 @@
         <v>601</v>
       </c>
       <c r="P31" s="391" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q31" s="6">
         <v>2</v>
@@ -13582,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="330" t="s">
         <v>599</v>
       </c>
@@ -13631,7 +13659,7 @@
         <v>604</v>
       </c>
       <c r="P32" s="391" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q32" s="6">
         <v>1</v>
@@ -13692,7 +13720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="330" t="s">
         <v>605</v>
       </c>
@@ -13741,7 +13769,7 @@
         <v>612</v>
       </c>
       <c r="P33" s="77" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -13803,13 +13831,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AO33">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CR ad alzo zero"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AO33"/>
   <mergeCells count="3">
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -14051,30 +14073,30 @@
       <c r="P1" s="342"/>
       <c r="W1" s="346"/>
       <c r="X1" s="346"/>
-      <c r="Y1" s="440" t="s">
+      <c r="Y1" s="439" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="441"/>
-      <c r="AA1" s="441"/>
-      <c r="AB1" s="442"/>
-      <c r="AC1" s="440" t="s">
+      <c r="Z1" s="440"/>
+      <c r="AA1" s="440"/>
+      <c r="AB1" s="441"/>
+      <c r="AC1" s="439" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="441"/>
-      <c r="AE1" s="441"/>
-      <c r="AF1" s="442"/>
-      <c r="AG1" s="443" t="s">
+      <c r="AD1" s="440"/>
+      <c r="AE1" s="440"/>
+      <c r="AF1" s="441"/>
+      <c r="AG1" s="442" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="444"/>
-      <c r="AI1" s="444"/>
-      <c r="AJ1" s="444"/>
-      <c r="AK1" s="443" t="s">
+      <c r="AH1" s="443"/>
+      <c r="AI1" s="443"/>
+      <c r="AJ1" s="443"/>
+      <c r="AK1" s="442" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="444"/>
-      <c r="AM1" s="444"/>
-      <c r="AN1" s="444"/>
+      <c r="AL1" s="443"/>
+      <c r="AM1" s="443"/>
+      <c r="AN1" s="443"/>
     </row>
     <row r="2" spans="1:40" s="362" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="347" t="s">
@@ -14122,8 +14144,8 @@
       <c r="O2" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="404" t="s">
-        <v>836</v>
+      <c r="P2" s="403" t="s">
+        <v>835</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>278</v>
@@ -14238,14 +14260,14 @@
       <c r="N3" s="370" t="s">
         <v>525</v>
       </c>
-      <c r="O3" s="424" t="s">
-        <v>897</v>
-      </c>
-      <c r="P3" s="423" t="s">
-        <v>897</v>
+      <c r="O3" s="423" t="s">
+        <v>896</v>
+      </c>
+      <c r="P3" s="422" t="s">
+        <v>896</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>10</v>
@@ -14320,8 +14342,8 @@
       <c r="O4" s="364" t="s">
         <v>714</v>
       </c>
-      <c r="P4" s="422" t="s">
-        <v>887</v>
+      <c r="P4" s="421" t="s">
+        <v>886</v>
       </c>
       <c r="Q4" s="7">
         <v>1</v>
@@ -14400,8 +14422,8 @@
       <c r="O5" s="364" t="s">
         <v>716</v>
       </c>
-      <c r="P5" s="422" t="s">
-        <v>888</v>
+      <c r="P5" s="421" t="s">
+        <v>887</v>
       </c>
       <c r="Q5" s="7">
         <v>1</v>
@@ -14477,11 +14499,11 @@
       <c r="N6" s="370" t="s">
         <v>717</v>
       </c>
-      <c r="O6" s="416" t="s">
+      <c r="O6" s="415" t="s">
         <v>718</v>
       </c>
-      <c r="P6" s="422" t="s">
-        <v>889</v>
+      <c r="P6" s="421" t="s">
+        <v>888</v>
       </c>
       <c r="Q6" s="7">
         <v>1</v>
@@ -14557,11 +14579,11 @@
       <c r="N7" s="370" t="s">
         <v>754</v>
       </c>
-      <c r="O7" s="429" t="s">
-        <v>900</v>
-      </c>
-      <c r="P7" s="429" t="s">
-        <v>900</v>
+      <c r="O7" s="428" t="s">
+        <v>899</v>
+      </c>
+      <c r="P7" s="428" t="s">
+        <v>899</v>
       </c>
       <c r="Q7" s="7">
         <v>2</v>
@@ -14638,8 +14660,8 @@
       <c r="O8" s="364" t="s">
         <v>721</v>
       </c>
-      <c r="P8" s="430" t="s">
-        <v>883</v>
+      <c r="P8" s="429" t="s">
+        <v>882</v>
       </c>
       <c r="Q8" s="7">
         <v>1</v>
@@ -14718,8 +14740,8 @@
       <c r="O9" s="364" t="s">
         <v>723</v>
       </c>
-      <c r="P9" s="420" t="s">
-        <v>882</v>
+      <c r="P9" s="419" t="s">
+        <v>881</v>
       </c>
       <c r="Q9" s="7">
         <v>1</v>
@@ -14795,11 +14817,11 @@
       <c r="N10" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O10" s="416" t="s">
+      <c r="O10" s="415" t="s">
         <v>390</v>
       </c>
-      <c r="P10" s="417" t="s">
-        <v>885</v>
+      <c r="P10" s="416" t="s">
+        <v>884</v>
       </c>
       <c r="Q10" s="7">
         <v>1</v>
@@ -14874,11 +14896,11 @@
       <c r="N11" s="370" t="s">
         <v>369</v>
       </c>
-      <c r="O11" s="425" t="s">
+      <c r="O11" s="424" t="s">
         <v>725</v>
       </c>
-      <c r="P11" s="413" t="s">
-        <v>884</v>
+      <c r="P11" s="412" t="s">
+        <v>883</v>
       </c>
       <c r="Q11" s="7">
         <v>1</v>
@@ -14951,11 +14973,11 @@
       <c r="N12" s="370" t="s">
         <v>722</v>
       </c>
-      <c r="O12" s="395" t="s">
+      <c r="O12" s="394" t="s">
         <v>726</v>
       </c>
-      <c r="P12" s="413" t="s">
-        <v>884</v>
+      <c r="P12" s="412" t="s">
+        <v>883</v>
       </c>
       <c r="Q12" s="7">
         <v>1</v>
@@ -15028,11 +15050,11 @@
       <c r="N13" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O13" s="395" t="s">
+      <c r="O13" s="394" t="s">
         <v>391</v>
       </c>
-      <c r="P13" s="413" t="s">
-        <v>884</v>
+      <c r="P13" s="412" t="s">
+        <v>883</v>
       </c>
       <c r="Q13" s="7">
         <v>1</v>
@@ -15105,11 +15127,11 @@
       <c r="N14" s="370" t="s">
         <v>366</v>
       </c>
-      <c r="O14" s="428" t="s">
+      <c r="O14" s="427" t="s">
         <v>364</v>
       </c>
-      <c r="P14" s="421" t="s">
-        <v>892</v>
+      <c r="P14" s="420" t="s">
+        <v>891</v>
       </c>
       <c r="Q14" s="7">
         <v>1</v>
@@ -15182,11 +15204,11 @@
       <c r="N15" s="370" t="s">
         <v>367</v>
       </c>
-      <c r="O15" s="395" t="s">
+      <c r="O15" s="394" t="s">
         <v>365</v>
       </c>
-      <c r="P15" s="421" t="s">
-        <v>892</v>
+      <c r="P15" s="420" t="s">
+        <v>891</v>
       </c>
       <c r="Q15" s="7">
         <v>1</v>
@@ -15262,11 +15284,11 @@
       <c r="O16" s="364" t="s">
         <v>373</v>
       </c>
-      <c r="P16" s="420" t="s">
-        <v>898</v>
+      <c r="P16" s="419" t="s">
+        <v>897</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>10</v>
@@ -15341,11 +15363,11 @@
       <c r="O17" s="364" t="s">
         <v>374</v>
       </c>
-      <c r="P17" s="420" t="s">
+      <c r="P17" s="419" t="s">
         <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>10</v>
@@ -15417,8 +15439,8 @@
       <c r="N18" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O18" s="395"/>
-      <c r="P18" s="421"/>
+      <c r="O18" s="394"/>
+      <c r="P18" s="420"/>
       <c r="Q18" s="7">
         <v>1</v>
       </c>
@@ -15490,9 +15512,9 @@
       <c r="N19" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="O19" s="395"/>
-      <c r="P19" s="413" t="s">
-        <v>884</v>
+      <c r="O19" s="394"/>
+      <c r="P19" s="412" t="s">
+        <v>883</v>
       </c>
       <c r="Q19" s="7">
         <v>1</v>
@@ -15613,14 +15635,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15633,8 +15654,7 @@
     <col min="6" max="6" width="13.75" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.75" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="14.875" style="4" customWidth="1"/>
     <col min="12" max="12" width="11.625" style="4" customWidth="1"/>
     <col min="13" max="13" width="22.75" style="4" customWidth="1"/>
@@ -15673,21 +15693,21 @@
       <c r="X1" s="69"/>
       <c r="Y1" s="70"/>
       <c r="Z1" s="70"/>
-      <c r="AA1" s="439" t="s">
+      <c r="AA1" s="438" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="439"/>
-      <c r="AC1" s="439"/>
-      <c r="AD1" s="439" t="s">
+      <c r="AB1" s="438"/>
+      <c r="AC1" s="438"/>
+      <c r="AD1" s="438" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="439"/>
-      <c r="AF1" s="439"/>
-      <c r="AG1" s="439" t="s">
+      <c r="AE1" s="438"/>
+      <c r="AF1" s="438"/>
+      <c r="AG1" s="438" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="439"/>
-      <c r="AI1" s="439"/>
+      <c r="AH1" s="438"/>
+      <c r="AI1" s="438"/>
       <c r="AJ1" s="107" t="s">
         <v>136</v>
       </c>
@@ -15748,7 +15768,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>278</v>
@@ -15820,7 +15840,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="265" t="s">
         <v>35</v>
       </c>
@@ -15865,11 +15885,11 @@
       <c r="O3" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="410" t="s">
+      <c r="P3" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>10</v>
@@ -15916,7 +15936,7 @@
       <c r="AL3" s="305"/>
       <c r="AM3" s="306"/>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="254" t="s">
         <v>35</v>
       </c>
@@ -15962,11 +15982,11 @@
       <c r="O4" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="P4" s="410" t="s">
+      <c r="P4" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>10</v>
@@ -16013,7 +16033,7 @@
       <c r="AL4" s="305"/>
       <c r="AM4" s="306"/>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="254" t="s">
         <v>35</v>
       </c>
@@ -16058,11 +16078,11 @@
       <c r="O5" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="410" t="s">
+      <c r="P5" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>10</v>
@@ -16109,7 +16129,7 @@
       <c r="AL5" s="305"/>
       <c r="AM5" s="306"/>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="254" t="s">
         <v>35</v>
       </c>
@@ -16155,11 +16175,11 @@
       <c r="O6" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="P6" s="410" t="s">
+      <c r="P6" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>10</v>
@@ -16206,7 +16226,7 @@
       <c r="AL6" s="305"/>
       <c r="AM6" s="306"/>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="254" t="s">
         <v>35</v>
       </c>
@@ -16252,11 +16272,11 @@
       <c r="O7" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="P7" s="410" t="s">
+      <c r="P7" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>10</v>
@@ -16303,7 +16323,7 @@
       <c r="AL7" s="305"/>
       <c r="AM7" s="306"/>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="254" t="s">
         <v>35</v>
       </c>
@@ -16349,11 +16369,11 @@
       <c r="O8" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="P8" s="410" t="s">
+      <c r="P8" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>10</v>
@@ -16400,7 +16420,7 @@
       <c r="AL8" s="305"/>
       <c r="AM8" s="306"/>
     </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="254" t="s">
         <v>35</v>
       </c>
@@ -16446,11 +16466,11 @@
       <c r="O9" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="P9" s="410" t="s">
+      <c r="P9" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>10</v>
@@ -16497,7 +16517,7 @@
       <c r="AL9" s="305"/>
       <c r="AM9" s="306"/>
     </row>
-    <row r="10" spans="1:39" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="254" t="s">
         <v>35</v>
       </c>
@@ -16543,11 +16563,11 @@
       <c r="O10" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="410" t="s">
+      <c r="P10" s="409" t="s">
         <v>529</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>10</v>
@@ -16594,7 +16614,7 @@
       <c r="AL10" s="305"/>
       <c r="AM10" s="306"/>
     </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="332" t="s">
         <v>35</v>
       </c>
@@ -16642,7 +16662,7 @@
         <v>621</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q11" s="6">
         <v>2</v>
@@ -16697,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
         <v>182</v>
       </c>
@@ -16741,7 +16761,7 @@
         <v>306</v>
       </c>
       <c r="P12" s="192" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -16791,7 +16811,7 @@
       <c r="AL12" s="305"/>
       <c r="AM12" s="306"/>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A13" s="205" t="s">
         <v>182</v>
       </c>
@@ -16829,14 +16849,16 @@
         <v>309</v>
       </c>
       <c r="N13" s="102"/>
-      <c r="O13" s="393"/>
-      <c r="P13" s="393" t="s">
-        <v>864</v>
+      <c r="O13" s="453"/>
+      <c r="P13" s="453" t="s">
+        <v>863</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -16908,7 +16930,7 @@
         <v>318</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Q14" s="6">
         <v>1</v>
@@ -17005,7 +17027,7 @@
         <v>319</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Q15" s="6">
         <v>1</v>
@@ -17102,7 +17124,7 @@
         <v>322</v>
       </c>
       <c r="P16" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
@@ -17197,7 +17219,7 @@
         <v>324</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="Q17" s="6">
         <v>1</v>
@@ -17294,7 +17316,7 @@
         <v>322</v>
       </c>
       <c r="P18" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Q18" s="6">
         <v>1</v>
@@ -17389,7 +17411,7 @@
         <v>324</v>
       </c>
       <c r="P19" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -17485,7 +17507,7 @@
         <v>322</v>
       </c>
       <c r="P20" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Q20" s="6">
         <v>1</v>
@@ -17580,12 +17602,14 @@
         <v>324</v>
       </c>
       <c r="P21" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="Q21" s="6">
         <v>1</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="R21" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -17675,12 +17699,14 @@
         <v>318</v>
       </c>
       <c r="P22" s="47" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q22" s="6">
         <v>1</v>
       </c>
-      <c r="R22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -17772,12 +17798,14 @@
         <v>319</v>
       </c>
       <c r="P23" s="47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Q23" s="6">
         <v>1</v>
       </c>
-      <c r="R23" s="6"/>
+      <c r="R23" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -17869,12 +17897,14 @@
         <v>322</v>
       </c>
       <c r="P24" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Q24" s="6">
         <v>1</v>
       </c>
-      <c r="R24" s="6"/>
+      <c r="R24" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -17917,7 +17947,7 @@
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
     </row>
-    <row r="25" spans="1:39" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="266" t="s">
         <v>183</v>
       </c>
@@ -17965,7 +17995,7 @@
         <v>529</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R25" s="6" t="s">
         <v>10</v>
@@ -18010,7 +18040,7 @@
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
     </row>
-    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" s="76" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="266" t="s">
         <v>183</v>
       </c>
@@ -18058,7 +18088,7 @@
         <v>529</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>10</v>
@@ -18103,7 +18133,7 @@
       <c r="AL26" s="57"/>
       <c r="AM26" s="293"/>
     </row>
-    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="76" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="266" t="s">
         <v>183</v>
       </c>
@@ -18149,7 +18179,7 @@
         <v>529</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>10</v>
@@ -18176,7 +18206,7 @@
       <c r="AL27" s="57"/>
       <c r="AM27" s="293"/>
     </row>
-    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="270" t="s">
         <v>183</v>
       </c>
@@ -18248,7 +18278,7 @@
       <c r="AL28" s="57"/>
       <c r="AM28" s="293"/>
     </row>
-    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="270" t="s">
         <v>183</v>
       </c>
@@ -18321,7 +18351,7 @@
       <c r="AL29" s="57"/>
       <c r="AM29" s="293"/>
     </row>
-    <row r="30" spans="1:39" s="76" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" s="76" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="270" t="s">
         <v>35</v>
       </c>
@@ -18361,11 +18391,11 @@
         <v>661</v>
       </c>
       <c r="N30" s="102"/>
-      <c r="O30" s="418" t="s">
-        <v>827</v>
-      </c>
-      <c r="P30" s="419" t="s">
-        <v>892</v>
+      <c r="O30" s="417" t="s">
+        <v>826</v>
+      </c>
+      <c r="P30" s="418" t="s">
+        <v>891</v>
       </c>
       <c r="Q30" s="6">
         <v>1</v>
@@ -18395,7 +18425,7 @@
       <c r="AL30" s="57"/>
       <c r="AM30" s="293"/>
     </row>
-    <row r="31" spans="1:39" s="76" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" s="76" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="270" t="s">
         <v>35</v>
       </c>
@@ -18418,7 +18448,7 @@
       </c>
       <c r="G31" s="67"/>
       <c r="H31" s="77" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I31" s="81" t="s">
         <v>696</v>
@@ -18437,10 +18467,10 @@
       </c>
       <c r="N31" s="102"/>
       <c r="O31" s="389" t="s">
-        <v>831</v>
-      </c>
-      <c r="P31" s="419" t="s">
-        <v>892</v>
+        <v>830</v>
+      </c>
+      <c r="P31" s="418" t="s">
+        <v>891</v>
       </c>
       <c r="Q31" s="6">
         <v>1</v>
@@ -18470,7 +18500,7 @@
       <c r="AL31" s="57"/>
       <c r="AM31" s="293"/>
     </row>
-    <row r="32" spans="1:39" s="76" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" s="76" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A32" s="270" t="s">
         <v>35</v>
       </c>
@@ -18512,10 +18542,10 @@
       </c>
       <c r="N32" s="102"/>
       <c r="O32" s="47" t="s">
-        <v>828</v>
-      </c>
-      <c r="P32" s="419" t="s">
-        <v>892</v>
+        <v>827</v>
+      </c>
+      <c r="P32" s="418" t="s">
+        <v>891</v>
       </c>
       <c r="Q32" s="6">
         <v>2</v>
@@ -18545,7 +18575,7 @@
       <c r="AL32" s="57"/>
       <c r="AM32" s="293"/>
     </row>
-    <row r="33" spans="1:39" s="76" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" s="76" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A33" s="270" t="s">
         <v>35</v>
       </c>
@@ -18587,10 +18617,10 @@
       </c>
       <c r="N33" s="102"/>
       <c r="O33" s="192" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P33" s="389" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q33" s="6">
         <v>2</v>
@@ -18667,12 +18697,14 @@
         <v>806</v>
       </c>
       <c r="P34" s="246" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="Q34" s="6">
         <v>3</v>
       </c>
-      <c r="R34" s="6"/>
+      <c r="R34" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -18742,12 +18774,14 @@
         <v>807</v>
       </c>
       <c r="P35" s="77" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q35" s="6">
         <v>3</v>
       </c>
-      <c r="R35" s="6"/>
+      <c r="R35" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
@@ -18817,12 +18851,14 @@
         <v>808</v>
       </c>
       <c r="P36" s="77" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="Q36" s="6">
         <v>3</v>
       </c>
-      <c r="R36" s="6"/>
+      <c r="R36" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
@@ -18888,11 +18924,11 @@
         <v>709</v>
       </c>
       <c r="N37" s="102"/>
-      <c r="O37" s="426" t="s">
-        <v>913</v>
-      </c>
-      <c r="P37" s="426" t="s">
-        <v>912</v>
+      <c r="O37" s="425" t="s">
+        <v>911</v>
+      </c>
+      <c r="P37" s="425" t="s">
+        <v>910</v>
       </c>
       <c r="Q37" s="6">
         <v>2</v>
@@ -18922,7 +18958,7 @@
       <c r="AL37" s="57"/>
       <c r="AM37" s="293"/>
     </row>
-    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="270" t="s">
         <v>762</v>
       </c>
@@ -18995,7 +19031,7 @@
       <c r="AL38" s="57"/>
       <c r="AM38" s="293"/>
     </row>
-    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="270" t="s">
         <v>762</v>
       </c>
@@ -19068,7 +19104,7 @@
       <c r="AL39" s="57"/>
       <c r="AM39" s="293"/>
     </row>
-    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" s="76" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="270" t="s">
         <v>762</v>
       </c>
@@ -19141,7 +19177,7 @@
       <c r="AL40" s="57"/>
       <c r="AM40" s="293"/>
     </row>
-    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" s="76" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="270" t="s">
         <v>762</v>
       </c>
@@ -19214,7 +19250,7 @@
       <c r="AL41" s="57"/>
       <c r="AM41" s="293"/>
     </row>
-    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" s="76" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A42" s="270" t="s">
         <v>182</v>
       </c>
@@ -19255,16 +19291,18 @@
         <v>309</v>
       </c>
       <c r="N42" s="102"/>
-      <c r="O42" s="77" t="s">
-        <v>816</v>
-      </c>
-      <c r="P42" s="77" t="s">
-        <v>866</v>
+      <c r="O42" s="391" t="s">
+        <v>913</v>
+      </c>
+      <c r="P42" s="391" t="s">
+        <v>865</v>
       </c>
       <c r="Q42" s="6">
         <v>2</v>
       </c>
-      <c r="R42" s="6"/>
+      <c r="R42" s="6" t="s">
+        <v>914</v>
+      </c>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
@@ -19289,7 +19327,7 @@
       <c r="AL42" s="57"/>
       <c r="AM42" s="293"/>
     </row>
-    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" s="76" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A43" s="270" t="s">
         <v>182</v>
       </c>
@@ -19330,14 +19368,16 @@
         <v>309</v>
       </c>
       <c r="N43" s="102"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47" t="s">
-        <v>865</v>
+      <c r="O43" s="452"/>
+      <c r="P43" s="452" t="s">
+        <v>864</v>
       </c>
       <c r="Q43" s="6">
         <v>2</v>
       </c>
-      <c r="R43" s="6"/>
+      <c r="R43" s="6" t="s">
+        <v>914</v>
+      </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
@@ -19362,7 +19402,7 @@
       <c r="AL43" s="57"/>
       <c r="AM43" s="293"/>
     </row>
-    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" s="76" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="270" t="s">
         <v>183</v>
       </c>
@@ -19407,7 +19447,7 @@
         <v>815</v>
       </c>
       <c r="P44" s="77" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q44" s="6">
         <v>2</v>
@@ -19435,7 +19475,7 @@
       <c r="AL44" s="57"/>
       <c r="AM44" s="293"/>
     </row>
-    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="270" t="s">
         <v>567</v>
       </c>
@@ -19477,10 +19517,10 @@
       </c>
       <c r="N45" s="102"/>
       <c r="O45" s="246" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P45" s="77" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q45" s="6">
         <v>2</v>
@@ -19508,7 +19548,7 @@
       <c r="AL45" s="57"/>
       <c r="AM45" s="293"/>
     </row>
-    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="270" t="s">
         <v>567</v>
       </c>
@@ -19552,10 +19592,10 @@
       </c>
       <c r="N46" s="102"/>
       <c r="O46" s="104" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P46" s="104" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q46" s="6">
         <v>1</v>
@@ -19583,7 +19623,7 @@
       <c r="AL46" s="57"/>
       <c r="AM46" s="293"/>
     </row>
-    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="270" t="s">
         <v>653</v>
       </c>
@@ -19627,10 +19667,10 @@
       </c>
       <c r="N47" s="102"/>
       <c r="O47" s="77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P47" s="77" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q47" s="6">
         <v>2</v>
@@ -19658,7 +19698,7 @@
       <c r="AL47" s="57"/>
       <c r="AM47" s="293"/>
     </row>
-    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="270" t="s">
         <v>653</v>
       </c>
@@ -19702,10 +19742,10 @@
       </c>
       <c r="N48" s="102"/>
       <c r="O48" s="104" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P48" s="104" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Q48" s="6">
         <v>1</v>
@@ -19733,7 +19773,7 @@
       <c r="AL48" s="57"/>
       <c r="AM48" s="293"/>
     </row>
-    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="270" t="s">
         <v>654</v>
       </c>
@@ -19777,10 +19817,10 @@
       </c>
       <c r="N49" s="102"/>
       <c r="O49" s="77" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P49" s="77" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q49" s="6">
         <v>2</v>
@@ -19808,7 +19848,7 @@
       <c r="AL49" s="57"/>
       <c r="AM49" s="293"/>
     </row>
-    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="270" t="s">
         <v>654</v>
       </c>
@@ -19852,10 +19892,10 @@
       </c>
       <c r="N50" s="102"/>
       <c r="O50" s="104" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P50" s="104" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q50" s="6">
         <v>1</v>
@@ -19883,7 +19923,7 @@
       <c r="AL50" s="57"/>
       <c r="AM50" s="293"/>
     </row>
-    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="270" t="s">
         <v>362</v>
       </c>
@@ -19925,10 +19965,10 @@
       </c>
       <c r="N51" s="102"/>
       <c r="O51" s="77" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P51" s="77" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q51" s="6">
         <v>2</v>
@@ -19956,7 +19996,7 @@
       <c r="AL51" s="57"/>
       <c r="AM51" s="293"/>
     </row>
-    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="270" t="s">
         <v>599</v>
       </c>
@@ -19998,10 +20038,10 @@
       </c>
       <c r="N52" s="102"/>
       <c r="O52" s="391" t="s">
-        <v>824</v>
-      </c>
-      <c r="P52" s="409" t="s">
-        <v>892</v>
+        <v>823</v>
+      </c>
+      <c r="P52" s="408" t="s">
+        <v>891</v>
       </c>
       <c r="Q52" s="6">
         <v>2</v>
@@ -20029,7 +20069,7 @@
       <c r="AL52" s="57"/>
       <c r="AM52" s="293"/>
     </row>
-    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="270" t="s">
         <v>599</v>
       </c>
@@ -20070,11 +20110,11 @@
         <v>599</v>
       </c>
       <c r="N53" s="102"/>
-      <c r="O53" s="427" t="s">
-        <v>825</v>
-      </c>
-      <c r="P53" s="412" t="s">
-        <v>892</v>
+      <c r="O53" s="426" t="s">
+        <v>824</v>
+      </c>
+      <c r="P53" s="411" t="s">
+        <v>891</v>
       </c>
       <c r="Q53" s="6">
         <v>1</v>
@@ -20102,7 +20142,7 @@
       <c r="AL53" s="57"/>
       <c r="AM53" s="293"/>
     </row>
-    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" s="76" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="270" t="s">
         <v>605</v>
       </c>
@@ -20144,10 +20184,10 @@
       </c>
       <c r="N54" s="102"/>
       <c r="O54" s="77" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P54" s="77" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q54" s="6">
         <v>2</v>
@@ -20176,13 +20216,7 @@
       <c r="AM54" s="293"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AM54">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CR ad alzo zero"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AM54"/>
   <mergeCells count="3">
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -20290,35 +20324,35 @@
       <c r="O1" s="27"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
-      <c r="X1" s="434" t="s">
+      <c r="X1" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="435"/>
-      <c r="Z1" s="435"/>
-      <c r="AA1" s="436"/>
-      <c r="AB1" s="434" t="s">
+      <c r="Y1" s="434"/>
+      <c r="Z1" s="434"/>
+      <c r="AA1" s="435"/>
+      <c r="AB1" s="433" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="435"/>
-      <c r="AD1" s="435"/>
-      <c r="AE1" s="436"/>
-      <c r="AF1" s="437" t="s">
+      <c r="AC1" s="434"/>
+      <c r="AD1" s="434"/>
+      <c r="AE1" s="435"/>
+      <c r="AF1" s="436" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="438"/>
-      <c r="AH1" s="438"/>
-      <c r="AI1" s="438"/>
-      <c r="AJ1" s="437" t="s">
+      <c r="AG1" s="437"/>
+      <c r="AH1" s="437"/>
+      <c r="AI1" s="437"/>
+      <c r="AJ1" s="436" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="438"/>
-      <c r="AL1" s="438"/>
-      <c r="AM1" s="438"/>
+      <c r="AK1" s="437"/>
+      <c r="AL1" s="437"/>
+      <c r="AM1" s="437"/>
       <c r="AN1" s="38"/>
-      <c r="AO1" s="445" t="s">
+      <c r="AO1"